--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -33,42 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={D3A6572E-3D0E-44D9-816F-B618A8533AD1}</author>
-    <author>tc={9D5E31E9-96B9-475A-BC75-1A2D9C2F5A85}</author>
-    <author>tc={659539E1-9655-4740-9637-39BC7F8A354E}</author>
-    <author>tc={626CE9EB-74E3-41D5-BB85-4E34D39CCBEA}</author>
-    <author>tc={38B6284A-0390-4E36-9F94-4B429800F01B}</author>
-    <author>tc={59D2C039-37C8-4A0F-8686-EC64794389A6}</author>
+    <author>tc={14E4EC2D-7362-43C1-86CF-0D8279D1C4AD}</author>
+    <author>tc={0A71B1F8-D4BC-41C3-93CC-18AD0D620B17}</author>
+    <author>tc={AB1E52A6-91BE-4CB9-B48C-8146C7FB3E96}</author>
+    <author>tc={C53005F7-D63E-418C-8FA7-D078476B3F88}</author>
+    <author>tc={AE03935B-7092-4747-848C-BBBC62555199}</author>
+    <author>tc={1855F32F-5785-435D-AA86-1C685770C128}</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{D3A6572E-3D0E-44D9-816F-B618A8533AD1}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{14E4EC2D-7362-43C1-86CF-0D8279D1C4AD}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="1" shapeId="0" xr:uid="{0A71B1F8-D4BC-41C3-93CC-18AD0D620B17}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{AB1E52A6-91BE-4CB9-B48C-8146C7FB3E96}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{9D5E31E9-96B9-475A-BC75-1A2D9C2F5A85}">
+    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{C53005F7-D63E-418C-8FA7-D078476B3F88}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="G6" authorId="2" shapeId="0" xr:uid="{659539E1-9655-4740-9637-39BC7F8A354E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="3" shapeId="0" xr:uid="{626CE9EB-74E3-41D5-BB85-4E34D39CCBEA}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{38B6284A-0390-4E36-9F94-4B429800F01B}">
+    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{AE03935B-7092-4747-848C-BBBC62555199}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{59D2C039-37C8-4A0F-8686-EC64794389A6}">
+    <comment ref="G6" authorId="5" shapeId="0" xr:uid="{1855F32F-5785-435D-AA86-1C685770C128}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E24ADCB1-D970-42CD-B0B5-2D6C522C839F}</author>
+    <author>tc={883491E9-D120-4D7A-8C83-9526AE44CBAC}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E24ADCB1-D970-42CD-B0B5-2D6C522C839F}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{883491E9-D120-4D7A-8C83-9526AE44CBAC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,24 +93,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3A971499-C12E-49E6-83F1-1C504A1635D3}</author>
-    <author>tc={5D967A73-7B3E-45C0-82FF-A6E2525AAD1A}</author>
-    <author>tc={5C41E3FA-73EE-4425-BB13-278E3749AE26}</author>
+    <author>tc={BC4370D6-03AE-48B0-B7D5-EC19EF1A0DDC}</author>
+    <author>tc={F88CA93E-33A7-48EF-9740-23480C4778B8}</author>
+    <author>tc={E50DEBF0-57A2-4062-AE10-C42F5D670FD8}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{3A971499-C12E-49E6-83F1-1C504A1635D3}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{BC4370D6-03AE-48B0-B7D5-EC19EF1A0DDC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{5D967A73-7B3E-45C0-82FF-A6E2525AAD1A}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{F88CA93E-33A7-48EF-9740-23480C4778B8}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{E50DEBF0-57A2-4062-AE10-C42F5D670FD8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{5C41E3FA-73EE-4425-BB13-278E3749AE26}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
   </commentList>
@@ -120,11 +120,11 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={41CB3BA9-2CE9-4F17-9E4E-8365CDCBA040}</author>
-    <author>tc={417FEEF1-6C53-444A-BCB6-EE175632D40E}</author>
+    <author>tc={5F247FA0-0782-4B28-8934-07B3D247B75F}</author>
+    <author>tc={CBD9F065-5C1C-4C53-87AD-F1353B32515C}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{41CB3BA9-2CE9-4F17-9E4E-8365CDCBA040}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5F247FA0-0782-4B28-8934-07B3D247B75F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -133,7 +133,7 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{417FEEF1-6C53-444A-BCB6-EE175632D40E}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{CBD9F065-5C1C-4C53-87AD-F1353B32515C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
@@ -197,14 +197,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -348,8 +348,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{54F0F504-7A65-4891-90C2-76D080D8CE71}" userId="S::::6114416e-cef0-4163-a626-7890a9955fea" providerId="AD"/>
-  <person displayName="侯清辰" id="{A8932CC4-DE73-4FE2-8D83-AB7F8F8728E3}" userId="S::::5f79564e-0975-4635-a22f-b4df903e1f1c" providerId="AD"/>
+  <person displayName="侯清辰" id="{012702A2-328B-4A48-BE5F-D1869638977C}" userId="S::::c2679960-3298-4f56-8268-b9a361a71971" providerId="AD"/>
+  <person displayName="杨行" id="{593394F5-5E36-483C-BD13-C59AB330E326}" userId="S::::ba22f87c-9abe-4517-aacf-cb558479d9ed" providerId="AD"/>
 </personList>
 </file>
 
@@ -650,33 +650,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{D3A6572E-3D0E-44D9-816F-B618A8533AD1}" ref="A4" dT="2024-05-28T04:59:59" personId="{54F0F504-7A65-4891-90C2-76D080D8CE71}" parentId="{}">
+  <threadedComment id="{14E4EC2D-7362-43C1-86CF-0D8279D1C4AD}" ref="I1" dT="2024-05-10T07:08:22" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{a2512f75-f3d1-4a0b-8b4b-2e9d084111fb}" ref="I1" dT="2024-06-19T05:39:57" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{14E4EC2D-7362-43C1-86CF-0D8279D1C4AD}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{0A71B1F8-D4BC-41C3-93CC-18AD0D620B17}" ref="G9" dT="2024-06-14T02:51:06" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{AB1E52A6-91BE-4CB9-B48C-8146C7FB3E96}" ref="A4" dT="2024-05-28T04:59:59" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{9D5E31E9-96B9-475A-BC75-1A2D9C2F5A85}" ref="I1" dT="2024-05-10T07:08:22" personId="{54F0F504-7A65-4891-90C2-76D080D8CE71}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  <threadedComment id="{C53005F7-D63E-418C-8FA7-D078476B3F88}" ref="J1" dT="2024-05-31T03:31:01" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{9c6dea12-d840-4cec-909e-1ee08a0e73a6}" ref="I1" dT="2024-06-19T05:39:57" personId="{54F0F504-7A65-4891-90C2-76D080D8CE71}" parentId="{9D5E31E9-96B9-475A-BC75-1A2D9C2F5A85}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{659539E1-9655-4740-9637-39BC7F8A354E}" ref="G6" dT="2024-06-14T02:50:34" personId="{54F0F504-7A65-4891-90C2-76D080D8CE71}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{626CE9EB-74E3-41D5-BB85-4E34D39CCBEA}" ref="G9" dT="2024-06-14T02:51:06" personId="{54F0F504-7A65-4891-90C2-76D080D8CE71}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{38B6284A-0390-4E36-9F94-4B429800F01B}" ref="C2" dT="2024-06-14T02:49:51" personId="{54F0F504-7A65-4891-90C2-76D080D8CE71}" parentId="{}">
+  <threadedComment id="{AE03935B-7092-4747-848C-BBBC62555199}" ref="C2" dT="2024-06-14T02:49:51" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{59D2C039-37C8-4A0F-8686-EC64794389A6}" ref="J1" dT="2024-05-31T03:31:01" personId="{54F0F504-7A65-4891-90C2-76D080D8CE71}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  <threadedComment id="{1855F32F-5785-435D-AA86-1C685770C128}" ref="G6" dT="2024-06-14T02:50:34" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E24ADCB1-D970-42CD-B0B5-2D6C522C839F}" ref="D1" dT="2024-06-09T13:30:31" personId="{54F0F504-7A65-4891-90C2-76D080D8CE71}" parentId="{}">
+  <threadedComment id="{883491E9-D120-4D7A-8C83-9526AE44CBAC}" ref="D1" dT="2024-06-09T13:30:31" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -684,31 +684,31 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{3A971499-C12E-49E6-83F1-1C504A1635D3}" ref="C5" dT="2024-06-14T02:48:45" personId="{54F0F504-7A65-4891-90C2-76D080D8CE71}" parentId="{}">
+  <threadedComment id="{BC4370D6-03AE-48B0-B7D5-EC19EF1A0DDC}" ref="C5" dT="2024-06-14T02:48:45" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{5D967A73-7B3E-45C0-82FF-A6E2525AAD1A}" ref="C6" dT="2024-06-14T02:49:20" personId="{54F0F504-7A65-4891-90C2-76D080D8CE71}" parentId="{}">
+  <threadedComment id="{F88CA93E-33A7-48EF-9740-23480C4778B8}" ref="E1" dT="2024-06-09T13:30:45" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
+    <text>@宾晓华 这里</text>
+  </threadedComment>
+  <threadedComment id="{E50DEBF0-57A2-4062-AE10-C42F5D670FD8}" ref="C6" dT="2024-06-14T02:49:20" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
-  </threadedComment>
-  <threadedComment id="{5C41E3FA-73EE-4425-BB13-278E3749AE26}" ref="E1" dT="2024-06-09T13:30:45" personId="{54F0F504-7A65-4891-90C2-76D080D8CE71}" parentId="{}">
-    <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{41CB3BA9-2CE9-4F17-9E4E-8365CDCBA040}" ref="D1" dT="2024-05-10T08:11:19" personId="{54F0F504-7A65-4891-90C2-76D080D8CE71}" parentId="{}">
+  <threadedComment id="{5F247FA0-0782-4B28-8934-07B3D247B75F}" ref="D1" dT="2024-05-10T08:11:19" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{20d479f8-4d24-4cec-b3e8-ff8281629b2c}" ref="D1" dT="2024-05-10T08:15:39" personId="{54F0F504-7A65-4891-90C2-76D080D8CE71}" parentId="{41CB3BA9-2CE9-4F17-9E4E-8365CDCBA040}">
+  <threadedComment id="{dec98f33-efb1-4ee3-b801-0d5132044940}" ref="D1" dT="2024-05-10T08:15:39" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{5F247FA0-0782-4B28-8934-07B3D247B75F}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{417FEEF1-6C53-444A-BCB6-EE175632D40E}" ref="C1" dT="2024-05-10T07:54:02" personId="{54F0F504-7A65-4891-90C2-76D080D8CE71}" parentId="{}">
+  <threadedComment id="{CBD9F065-5C1C-4C53-87AD-F1353B32515C}" ref="C1" dT="2024-05-10T07:54:02" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
@@ -748,30 +748,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -827,63 +827,63 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
 ## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
 ## 目前场景有6个。
@@ -897,13 +897,13 @@
 - BOSS如果醒了就是‘鬼抓人’的游戏，BOSS的设计就是遍历场景去找到你并杀你。
 - 正常就是对话类型游戏。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="3" t="str">
@@ -964,60 +964,60 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2" t="str">
+      <c r="I5" s="2"/>
+      <c r="J5" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2" t="str">
+      <c r="I6" s="2"/>
+      <c r="J6" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1025,40 +1025,40 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2" t="str">
+      <c r="I7" s="2"/>
+      <c r="J7" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1" t="str">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="G8" s="2" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2" t="str">
+      <c r="I8" s="2"/>
+      <c r="J8" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="G9" s="1" t="str">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="G9" s="2" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1066,144 +1066,144 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2" t="str">
+      <c r="I9" s="2"/>
+      <c r="J9" s="1" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="str">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J10" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="L10" s="2" t="str">
+      <c r="L10" s="1" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="N10" s="2" t="str">
+      <c r="N10" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="str">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="G11" s="2" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="J11" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="str">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J12" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="str">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="str">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="J13" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="str">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="H14" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="1" t="str">
+      <c r="J14" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="2" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="str">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" s="2" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="J15" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1253,72 +1253,72 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="3" t="str">
@@ -1347,49 +1347,49 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2" t="str">
+      <c r="I4" s="2"/>
+      <c r="J4" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N5" s="2" t="str">
+      <c r="N5" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -1401,49 +1401,49 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="J6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="J7" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="str">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="M7" s="2" t="str">
+      <c r="M7" s="1" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="N7" s="6" t="str">
@@ -1498,184 +1498,184 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8100</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>8101</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>8102</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>8103</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>8104</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>8105</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1732,34 +1732,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>body</v>
       </c>
     </row>
@@ -1788,13 +1788,13 @@
       <c r="F4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J4" s="4" t="str">
@@ -1811,13 +1811,13 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -1837,7 +1837,7 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
@@ -1847,30 +1847,30 @@
       <c r="E5" s="3">
         <v>8201</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -1885,7 +1885,7 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 吱吱吱～～（开心的摇尾巴）～～～～"
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
@@ -1894,16 +1894,16 @@
       <c r="E6" s="3">
         <v>8202</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J6" s="3" t="str">
@@ -1911,13 +1911,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -1932,7 +1932,7 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
@@ -1940,16 +1940,16 @@
       <c r="E7" s="3">
         <v>8203</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J7" s="4" t="str">
@@ -1957,13 +1957,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -1980,7 +1980,7 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
@@ -1988,53 +1988,53 @@
       <c r="E8" s="3">
         <v>8204</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="2" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>- 我知道了。</v>
       </c>
       <c r="E9" s="3">
         <v>8205</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="I9" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="2" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
@@ -2091,209 +2091,209 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>0,10000,0</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐。</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>0,1,0</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="2" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2334,54 +2334,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>world_system_appearance_builder</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8300</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>/worldsystems/appearance_builder</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -33,42 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={14E4EC2D-7362-43C1-86CF-0D8279D1C4AD}</author>
-    <author>tc={0A71B1F8-D4BC-41C3-93CC-18AD0D620B17}</author>
-    <author>tc={AB1E52A6-91BE-4CB9-B48C-8146C7FB3E96}</author>
-    <author>tc={C53005F7-D63E-418C-8FA7-D078476B3F88}</author>
-    <author>tc={AE03935B-7092-4747-848C-BBBC62555199}</author>
-    <author>tc={1855F32F-5785-435D-AA86-1C685770C128}</author>
+    <author>tc={7A3EF005-B5E4-4568-9AD7-E039ED54C4BB}</author>
+    <author>tc={197D2C97-49DD-4047-839B-E031EB9B7A53}</author>
+    <author>tc={BE04C4B6-66E2-400B-857D-555987FA1917}</author>
+    <author>tc={AE1E5602-59E1-473A-BA85-2BBA0E13BE3D}</author>
+    <author>tc={BE4B57B8-046D-4B41-97AD-2B443FBF462E}</author>
+    <author>tc={DCFE9BD4-D0AF-4328-84B9-ECBAB9C16636}</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{14E4EC2D-7362-43C1-86CF-0D8279D1C4AD}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{7A3EF005-B5E4-4568-9AD7-E039ED54C4BB}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{197D2C97-49DD-4047-839B-E031EB9B7A53}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{BE04C4B6-66E2-400B-857D-555987FA1917}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="3" shapeId="0" xr:uid="{AE1E5602-59E1-473A-BA85-2BBA0E13BE3D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="4" shapeId="0" xr:uid="{BE4B57B8-046D-4B41-97AD-2B443FBF462E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="G9" authorId="1" shapeId="0" xr:uid="{0A71B1F8-D4BC-41C3-93CC-18AD0D620B17}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{AB1E52A6-91BE-4CB9-B48C-8146C7FB3E96}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{C53005F7-D63E-418C-8FA7-D078476B3F88}">
+    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{DCFE9BD4-D0AF-4328-84B9-ECBAB9C16636}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{AE03935B-7092-4747-848C-BBBC62555199}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="5" shapeId="0" xr:uid="{1855F32F-5785-435D-AA86-1C685770C128}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={883491E9-D120-4D7A-8C83-9526AE44CBAC}</author>
+    <author>tc={1E655521-BAF4-42BD-902F-935D94B424C8}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{883491E9-D120-4D7A-8C83-9526AE44CBAC}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{1E655521-BAF4-42BD-902F-935D94B424C8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,22 +93,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BC4370D6-03AE-48B0-B7D5-EC19EF1A0DDC}</author>
-    <author>tc={F88CA93E-33A7-48EF-9740-23480C4778B8}</author>
-    <author>tc={E50DEBF0-57A2-4062-AE10-C42F5D670FD8}</author>
+    <author>tc={04300CA3-3671-4B7C-A0D3-D7AD4A08F767}</author>
+    <author>tc={E107AEC4-0235-42B3-98D7-376A7ECCF6DA}</author>
+    <author>tc={890EFEC1-88BB-4A0C-86D5-8C801F22BBD5}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{BC4370D6-03AE-48B0-B7D5-EC19EF1A0DDC}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{04300CA3-3671-4B7C-A0D3-D7AD4A08F767}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{E107AEC4-0235-42B3-98D7-376A7ECCF6DA}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{F88CA93E-33A7-48EF-9740-23480C4778B8}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{E50DEBF0-57A2-4062-AE10-C42F5D670FD8}">
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{890EFEC1-88BB-4A0C-86D5-8C801F22BBD5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
@@ -120,11 +120,16 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={5F247FA0-0782-4B28-8934-07B3D247B75F}</author>
-    <author>tc={CBD9F065-5C1C-4C53-87AD-F1353B32515C}</author>
+    <author>tc={9D691F72-FAF1-4C44-905F-D07EB42D651A}</author>
+    <author>tc={3D62C681-4D94-464F-A457-1F377FF524E8}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5F247FA0-0782-4B28-8934-07B3D247B75F}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9D691F72-FAF1-4C44-905F-D07EB42D651A}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{3D62C681-4D94-464F-A457-1F377FF524E8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -133,9 +138,19 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{CBD9F065-5C1C-4C53-87AD-F1353B32515C}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={36877545-A391-4B75-AB91-E94A9FCADBE4}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{36877545-A391-4B75-AB91-E94A9FCADBE4}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
     </comment>
   </commentList>
@@ -197,14 +212,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -348,8 +363,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{012702A2-328B-4A48-BE5F-D1869638977C}" userId="S::::c2679960-3298-4f56-8268-b9a361a71971" providerId="AD"/>
-  <person displayName="杨行" id="{593394F5-5E36-483C-BD13-C59AB330E326}" userId="S::::ba22f87c-9abe-4517-aacf-cb558479d9ed" providerId="AD"/>
+  <person displayName="侯清辰" id="{0F60A572-F051-4301-B43E-22495563FAE8}" userId="S::::2036f009-5522-459c-ba07-b12f8adccd06" providerId="AD"/>
+  <person displayName="杨行" id="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" userId="S::::5ea75f5f-786c-494c-816d-32fbeb0d7bdb" providerId="AD"/>
 </personList>
 </file>
 
@@ -650,33 +665,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{14E4EC2D-7362-43C1-86CF-0D8279D1C4AD}" ref="I1" dT="2024-05-10T07:08:22" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
+  <threadedComment id="{7A3EF005-B5E4-4568-9AD7-E039ED54C4BB}" ref="A4" dT="2024-05-28T04:59:59" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{197D2C97-49DD-4047-839B-E031EB9B7A53}" ref="G6" dT="2024-06-14T02:50:34" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{BE04C4B6-66E2-400B-857D-555987FA1917}" ref="C2" dT="2024-06-14T02:49:51" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{AE1E5602-59E1-473A-BA85-2BBA0E13BE3D}" ref="G9" dT="2024-06-14T02:51:06" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{BE4B57B8-046D-4B41-97AD-2B443FBF462E}" ref="I1" dT="2024-05-10T07:08:22" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{a2512f75-f3d1-4a0b-8b4b-2e9d084111fb}" ref="I1" dT="2024-06-19T05:39:57" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{14E4EC2D-7362-43C1-86CF-0D8279D1C4AD}">
+  <threadedComment id="{d166d045-9240-4315-8642-b2a481be1b66}" ref="I1" dT="2024-06-19T05:39:57" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{BE4B57B8-046D-4B41-97AD-2B443FBF462E}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{0A71B1F8-D4BC-41C3-93CC-18AD0D620B17}" ref="G9" dT="2024-06-14T02:51:06" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{AB1E52A6-91BE-4CB9-B48C-8146C7FB3E96}" ref="A4" dT="2024-05-28T04:59:59" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{C53005F7-D63E-418C-8FA7-D078476B3F88}" ref="J1" dT="2024-05-31T03:31:01" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
+  <threadedComment id="{DCFE9BD4-D0AF-4328-84B9-ECBAB9C16636}" ref="J1" dT="2024-05-31T03:31:01" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{AE03935B-7092-4747-848C-BBBC62555199}" ref="C2" dT="2024-06-14T02:49:51" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{1855F32F-5785-435D-AA86-1C685770C128}" ref="G6" dT="2024-06-14T02:50:34" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{883491E9-D120-4D7A-8C83-9526AE44CBAC}" ref="D1" dT="2024-06-09T13:30:31" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
+  <threadedComment id="{1E655521-BAF4-42BD-902F-935D94B424C8}" ref="D1" dT="2024-06-09T13:30:31" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -684,13 +699,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{BC4370D6-03AE-48B0-B7D5-EC19EF1A0DDC}" ref="C5" dT="2024-06-14T02:48:45" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
+  <threadedComment id="{04300CA3-3671-4B7C-A0D3-D7AD4A08F767}" ref="E1" dT="2024-06-09T13:30:45" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+    <text>@宾晓华 这里</text>
+  </threadedComment>
+  <threadedComment id="{E107AEC4-0235-42B3-98D7-376A7ECCF6DA}" ref="C5" dT="2024-06-14T02:48:45" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{F88CA93E-33A7-48EF-9740-23480C4778B8}" ref="E1" dT="2024-06-09T13:30:45" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
-    <text>@宾晓华 这里</text>
-  </threadedComment>
-  <threadedComment id="{E50DEBF0-57A2-4062-AE10-C42F5D670FD8}" ref="C6" dT="2024-06-14T02:49:20" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
+  <threadedComment id="{890EFEC1-88BB-4A0C-86D5-8C801F22BBD5}" ref="C6" dT="2024-06-14T02:49:20" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
@@ -698,18 +713,26 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{5F247FA0-0782-4B28-8934-07B3D247B75F}" ref="D1" dT="2024-05-10T08:11:19" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
+  <threadedComment id="{9D691F72-FAF1-4C44-905F-D07EB42D651A}" ref="C1" dT="2024-05-10T07:54:02" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{3D62C681-4D94-464F-A457-1F377FF524E8}" ref="D1" dT="2024-05-10T08:11:19" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{dec98f33-efb1-4ee3-b801-0d5132044940}" ref="D1" dT="2024-05-10T08:15:39" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{5F247FA0-0782-4B28-8934-07B3D247B75F}">
+  <threadedComment id="{eeef3675-563e-498a-9b79-68cac57fda70}" ref="D1" dT="2024-05-10T08:15:39" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{3D62C681-4D94-464F-A457-1F377FF524E8}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{CBD9F065-5C1C-4C53-87AD-F1353B32515C}" ref="C1" dT="2024-05-10T07:54:02" personId="{593394F5-5E36-483C-BD13-C59AB330E326}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment id="{36877545-A391-4B75-AB91-E94A9FCADBE4}" ref="A2" dT="2024-06-26T06:41:07" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+    <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -748,30 +771,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -827,63 +850,63 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
 ## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
 ## 目前场景有6个。
@@ -897,13 +920,13 @@
 - BOSS如果醒了就是‘鬼抓人’的游戏，BOSS的设计就是遍历场景去找到你并杀你。
 - 正常就是对话类型游戏。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="3" t="str">
@@ -964,60 +987,60 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1" t="str">
+      <c r="I5" s="1"/>
+      <c r="J5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1" t="str">
+      <c r="I6" s="1"/>
+      <c r="J6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1025,40 +1048,40 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="1" t="str">
+      <c r="I7" s="1"/>
+      <c r="J7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="G8" s="2" t="str">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1" t="str">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="G9" s="2" t="str">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1066,144 +1089,144 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="1" t="str">
+      <c r="I9" s="1"/>
+      <c r="J9" s="2" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="J10" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="L10" s="1" t="str">
+      <c r="L10" s="2" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="N10" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="1" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="J11" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="J12" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="str">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="J13" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="str">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H14" s="1" t="str">
+      <c r="H14" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="2" t="str">
+      <c r="J14" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="1" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="str">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="1" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="2" t="str">
+      <c r="J15" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1253,72 +1276,72 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="3" t="str">
@@ -1347,49 +1370,49 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1" t="str">
+      <c r="I4" s="1"/>
+      <c r="J4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N5" s="1" t="str">
+      <c r="N5" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -1401,49 +1424,49 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="str">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="M7" s="1" t="str">
+      <c r="M7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="N7" s="6" t="str">
@@ -1498,184 +1521,184 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8100</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>8101</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>8102</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>8103</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>8104</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>8105</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1732,34 +1755,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>body</v>
       </c>
     </row>
@@ -1788,13 +1811,13 @@
       <c r="F4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J4" s="4" t="str">
@@ -1811,13 +1834,13 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -1837,7 +1860,7 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
@@ -1847,30 +1870,30 @@
       <c r="E5" s="3">
         <v>8201</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -1885,7 +1908,7 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 吱吱吱～～（开心的摇尾巴）～～～～"
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
@@ -1894,16 +1917,16 @@
       <c r="E6" s="3">
         <v>8202</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J6" s="3" t="str">
@@ -1911,13 +1934,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -1932,7 +1955,7 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
@@ -1940,16 +1963,16 @@
       <c r="E7" s="3">
         <v>8203</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J7" s="4" t="str">
@@ -1957,13 +1980,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -1980,7 +2003,7 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
@@ -1988,53 +2011,53 @@
       <c r="E8" s="3">
         <v>8204</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
       <c r="E9" s="3">
         <v>8205</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
@@ -2071,10 +2094,10 @@
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="38"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="139"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="69"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="69"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
@@ -2088,212 +2111,240 @@
     <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="22" min="22" style="0" width="17"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>description</v>
       </c>
       <c r="F1" s="1" t="str">
+        <v>appearance</v>
+      </c>
+      <c r="G1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
       <c r="F2" s="1" t="str">
+        <v>无外观信息</v>
+      </c>
+      <c r="G2" s="2" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
       <c r="F3" s="1" t="str">
+        <v>无外观信息</v>
+      </c>
+      <c r="G3" s="2" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
       <c r="F4" s="1" t="str">
+        <v>炙热无比的长钩</v>
+      </c>
+      <c r="G4" s="2" t="str">
         <v>0,10000,0</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐。</v>
       </c>
       <c r="F5" s="1" t="str">
+        <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
+      </c>
+      <c r="G5" s="2" t="str">
         <v>0,1,0</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
       <c r="F6" s="1" t="str">
+        <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
+      </c>
+      <c r="G6" s="2" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
       <c r="F7" s="1" t="str">
+        <v>形状像断掉的手指的钥匙</v>
+      </c>
+      <c r="G7" s="2" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
       <c r="F8" s="1" t="str">
+        <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
+      </c>
+      <c r="G8" s="2" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="H8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="1" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
       <c r="F9" s="1" t="str">
+        <v>黑色长袍与斗篷。</v>
+      </c>
+      <c r="G9" s="2" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="H9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2334,57 +2385,58 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>world_system_appearance_builder</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8300</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>/worldsystems/appearance_builder</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
   </sheetData>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -33,40 +33,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7A3EF005-B5E4-4568-9AD7-E039ED54C4BB}</author>
-    <author>tc={197D2C97-49DD-4047-839B-E031EB9B7A53}</author>
-    <author>tc={BE04C4B6-66E2-400B-857D-555987FA1917}</author>
-    <author>tc={AE1E5602-59E1-473A-BA85-2BBA0E13BE3D}</author>
-    <author>tc={BE4B57B8-046D-4B41-97AD-2B443FBF462E}</author>
-    <author>tc={DCFE9BD4-D0AF-4328-84B9-ECBAB9C16636}</author>
+    <author>tc={C69D36C3-F1F3-4473-9340-A940A8E216DA}</author>
+    <author>tc={A256FCE2-E15C-4097-81AD-9E5AAAF112F7}</author>
+    <author>tc={E4115F71-5BFD-461C-B17D-E57BDA8A5A95}</author>
+    <author>tc={BF03C53B-C4CD-42E0-8C68-46D9774D709E}</author>
+    <author>tc={BD8B646B-CAE3-4750-95AB-A39A49179767}</author>
+    <author>tc={9A2BA14C-0266-458E-A3E3-A2D5F850433D}</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{7A3EF005-B5E4-4568-9AD7-E039ED54C4BB}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{C69D36C3-F1F3-4473-9340-A940A8E216DA}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{A256FCE2-E15C-4097-81AD-9E5AAAF112F7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{197D2C97-49DD-4047-839B-E031EB9B7A53}">
+    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{E4115F71-5BFD-461C-B17D-E57BDA8A5A95}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="3" shapeId="0" xr:uid="{BF03C53B-C4CD-42E0-8C68-46D9774D709E}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="4" shapeId="0" xr:uid="{BD8B646B-CAE3-4750-95AB-A39A49179767}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{BE04C4B6-66E2-400B-857D-555987FA1917}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="3" shapeId="0" xr:uid="{AE1E5602-59E1-473A-BA85-2BBA0E13BE3D}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="4" shapeId="0" xr:uid="{BE4B57B8-046D-4B41-97AD-2B443FBF462E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{DCFE9BD4-D0AF-4328-84B9-ECBAB9C16636}">
+    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{9A2BA14C-0266-458E-A3E3-A2D5F850433D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={1E655521-BAF4-42BD-902F-935D94B424C8}</author>
+    <author>tc={B460CE07-6841-441B-B6D2-C58A33E68CDE}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{1E655521-BAF4-42BD-902F-935D94B424C8}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B460CE07-6841-441B-B6D2-C58A33E68CDE}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,24 +93,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={04300CA3-3671-4B7C-A0D3-D7AD4A08F767}</author>
-    <author>tc={E107AEC4-0235-42B3-98D7-376A7ECCF6DA}</author>
-    <author>tc={890EFEC1-88BB-4A0C-86D5-8C801F22BBD5}</author>
+    <author>tc={5FA854FB-37C1-446A-A6B9-86317FCFC94A}</author>
+    <author>tc={63199512-A680-47B7-96A6-7D52F00EF1E2}</author>
+    <author>tc={0FBFADEC-D27B-4877-A765-536E738E8545}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{04300CA3-3671-4B7C-A0D3-D7AD4A08F767}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5FA854FB-37C1-446A-A6B9-86317FCFC94A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{E107AEC4-0235-42B3-98D7-376A7ECCF6DA}">
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{63199512-A680-47B7-96A6-7D52F00EF1E2}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{0FBFADEC-D27B-4877-A765-536E738E8545}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{890EFEC1-88BB-4A0C-86D5-8C801F22BBD5}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
   </commentList>
@@ -120,22 +120,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9D691F72-FAF1-4C44-905F-D07EB42D651A}</author>
-    <author>tc={3D62C681-4D94-464F-A457-1F377FF524E8}</author>
+    <author>tc={A8EF867A-2E80-47A0-B71F-5779809DB1CF}</author>
+    <author>tc={42BC574B-3ADC-4532-89CE-7A943A298BF4}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9D691F72-FAF1-4C44-905F-D07EB42D651A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{3D62C681-4D94-464F-A457-1F377FF524E8}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A8EF867A-2E80-47A0-B71F-5779809DB1CF}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{42BC574B-3ADC-4532-89CE-7A943A298BF4}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -145,10 +145,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={36877545-A391-4B75-AB91-E94A9FCADBE4}</author>
+    <author>tc={0A2C34AC-C5CB-4048-B158-65EC6DC89E73}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{36877545-A391-4B75-AB91-E94A9FCADBE4}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{0A2C34AC-C5CB-4048-B158-65EC6DC89E73}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -212,14 +212,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -363,8 +363,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{0F60A572-F051-4301-B43E-22495563FAE8}" userId="S::::2036f009-5522-459c-ba07-b12f8adccd06" providerId="AD"/>
-  <person displayName="杨行" id="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" userId="S::::5ea75f5f-786c-494c-816d-32fbeb0d7bdb" providerId="AD"/>
+  <person displayName="杨行" id="{55E980A4-23DD-4A0C-9B37-81636D30D404}" userId="S::::ea32845f-ea0c-435f-ae68-0fb4bef8515a" providerId="AD"/>
+  <person displayName="侯清辰" id="{BC51D113-E54F-4DDF-AAD8-CE2B3F1457D7}" userId="S::::65faec4e-bcc3-42f5-98c3-f0f7724537cd" providerId="AD"/>
 </personList>
 </file>
 
@@ -665,25 +665,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{7A3EF005-B5E4-4568-9AD7-E039ED54C4BB}" ref="A4" dT="2024-05-28T04:59:59" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+  <threadedComment id="{C69D36C3-F1F3-4473-9340-A940A8E216DA}" ref="I1" dT="2024-05-10T07:08:22" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{17e2ebf7-d688-4c89-97e6-744483d0e9dc}" ref="I1" dT="2024-06-19T05:39:57" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{C69D36C3-F1F3-4473-9340-A940A8E216DA}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{A256FCE2-E15C-4097-81AD-9E5AAAF112F7}" ref="A4" dT="2024-05-28T04:59:59" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{197D2C97-49DD-4047-839B-E031EB9B7A53}" ref="G6" dT="2024-06-14T02:50:34" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+  <threadedComment id="{E4115F71-5BFD-461C-B17D-E57BDA8A5A95}" ref="C2" dT="2024-06-14T02:49:51" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{BF03C53B-C4CD-42E0-8C68-46D9774D709E}" ref="G9" dT="2024-06-14T02:51:06" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{BD8B646B-CAE3-4750-95AB-A39A49179767}" ref="G6" dT="2024-06-14T02:50:34" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{BE04C4B6-66E2-400B-857D-555987FA1917}" ref="C2" dT="2024-06-14T02:49:51" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{AE1E5602-59E1-473A-BA85-2BBA0E13BE3D}" ref="G9" dT="2024-06-14T02:51:06" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{BE4B57B8-046D-4B41-97AD-2B443FBF462E}" ref="I1" dT="2024-05-10T07:08:22" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{d166d045-9240-4315-8642-b2a481be1b66}" ref="I1" dT="2024-06-19T05:39:57" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{BE4B57B8-046D-4B41-97AD-2B443FBF462E}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{DCFE9BD4-D0AF-4328-84B9-ECBAB9C16636}" ref="J1" dT="2024-05-31T03:31:01" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+  <threadedComment id="{9A2BA14C-0266-458E-A3E3-A2D5F850433D}" ref="J1" dT="2024-05-31T03:31:01" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
 </ThreadedComments>
@@ -691,7 +691,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{1E655521-BAF4-42BD-902F-935D94B424C8}" ref="D1" dT="2024-06-09T13:30:31" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+  <threadedComment id="{B460CE07-6841-441B-B6D2-C58A33E68CDE}" ref="D1" dT="2024-06-09T13:30:31" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -699,39 +699,39 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{04300CA3-3671-4B7C-A0D3-D7AD4A08F767}" ref="E1" dT="2024-06-09T13:30:45" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+  <threadedComment id="{5FA854FB-37C1-446A-A6B9-86317FCFC94A}" ref="E1" dT="2024-06-09T13:30:45" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{E107AEC4-0235-42B3-98D7-376A7ECCF6DA}" ref="C5" dT="2024-06-14T02:48:45" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+  <threadedComment id="{63199512-A680-47B7-96A6-7D52F00EF1E2}" ref="C6" dT="2024-06-14T02:49:20" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  </threadedComment>
+  <threadedComment id="{0FBFADEC-D27B-4877-A765-536E738E8545}" ref="C5" dT="2024-06-14T02:48:45" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
-  </threadedComment>
-  <threadedComment id="{890EFEC1-88BB-4A0C-86D5-8C801F22BBD5}" ref="C6" dT="2024-06-14T02:49:20" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{9D691F72-FAF1-4C44-905F-D07EB42D651A}" ref="C1" dT="2024-05-10T07:54:02" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{3D62C681-4D94-464F-A457-1F377FF524E8}" ref="D1" dT="2024-05-10T08:11:19" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+  <threadedComment id="{A8EF867A-2E80-47A0-B71F-5779809DB1CF}" ref="D1" dT="2024-05-10T08:11:19" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{eeef3675-563e-498a-9b79-68cac57fda70}" ref="D1" dT="2024-05-10T08:15:39" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{3D62C681-4D94-464F-A457-1F377FF524E8}">
+  <threadedComment id="{8f68e072-dec4-41ba-9362-aed1d449ffee}" ref="D1" dT="2024-05-10T08:15:39" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{A8EF867A-2E80-47A0-B71F-5779809DB1CF}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{42BC574B-3ADC-4532-89CE-7A943A298BF4}" ref="C1" dT="2024-05-10T07:54:02" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{36877545-A391-4B75-AB91-E94A9FCADBE4}" ref="A2" dT="2024-06-26T06:41:07" personId="{6B01D2F8-D204-49CD-87A3-81A9D7ED2907}" parentId="{}">
+  <threadedComment id="{0A2C34AC-C5CB-4048-B158-65EC6DC89E73}" ref="A2" dT="2024-06-26T06:41:07" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -771,30 +771,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -850,63 +850,63 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
 ## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
 ## 目前场景有6个。
@@ -920,13 +920,13 @@
 - BOSS如果醒了就是‘鬼抓人’的游戏，BOSS的设计就是遍历场景去找到你并杀你。
 - 正常就是对话类型游戏。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="3" t="str">
@@ -987,60 +987,60 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2" t="str">
+      <c r="I5" s="2"/>
+      <c r="J5" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2" t="str">
+      <c r="I6" s="2"/>
+      <c r="J6" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1048,40 +1048,40 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2" t="str">
+      <c r="I7" s="2"/>
+      <c r="J7" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1" t="str">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="G8" s="2" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2" t="str">
+      <c r="I8" s="2"/>
+      <c r="J8" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="G9" s="1" t="str">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="G9" s="2" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1089,144 +1089,144 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2" t="str">
+      <c r="I9" s="2"/>
+      <c r="J9" s="1" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="str">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J10" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="L10" s="2" t="str">
+      <c r="L10" s="1" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="N10" s="2" t="str">
+      <c r="N10" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="str">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="G11" s="2" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="J11" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="str">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J12" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="str">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="str">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="J13" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="str">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="H14" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="1" t="str">
+      <c r="J14" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="2" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="str">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" s="2" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="J15" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1276,72 +1276,72 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="3" t="str">
@@ -1370,49 +1370,49 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2" t="str">
+      <c r="I4" s="2"/>
+      <c r="J4" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N5" s="2" t="str">
+      <c r="N5" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -1424,49 +1424,49 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="J6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="J7" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="str">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="M7" s="2" t="str">
+      <c r="M7" s="1" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="N7" s="6" t="str">
@@ -1521,184 +1521,184 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8100</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>8101</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>8102</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>8103</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>8104</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>8105</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1755,34 +1755,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>body</v>
       </c>
     </row>
@@ -1811,13 +1811,13 @@
       <c r="F4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J4" s="4" t="str">
@@ -1834,13 +1834,13 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -1860,7 +1860,7 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
@@ -1870,30 +1870,30 @@
       <c r="E5" s="3">
         <v>8201</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -1908,7 +1908,7 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 吱吱吱～～（开心的摇尾巴）～～～～"
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
@@ -1917,16 +1917,16 @@
       <c r="E6" s="3">
         <v>8202</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J6" s="3" t="str">
@@ -1934,13 +1934,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -1955,7 +1955,7 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
@@ -1963,16 +1963,16 @@
       <c r="E7" s="3">
         <v>8203</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J7" s="4" t="str">
@@ -1980,13 +1980,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -2003,7 +2003,7 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
@@ -2011,53 +2011,53 @@
       <c r="E8" s="3">
         <v>8204</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="2" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>- 我知道了。</v>
       </c>
       <c r="E9" s="3">
         <v>8205</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="I9" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="2" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
@@ -2115,236 +2115,236 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>炙热无比的长钩</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>0,10000,0</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐。</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>0,1,0</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>形状像断掉的手指的钥匙</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="H8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="2" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>黑色长袍与斗篷。</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2385,54 +2385,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>world_system_appearance_builder</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8300</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>/worldsystems/appearance_builder</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -33,40 +33,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C69D36C3-F1F3-4473-9340-A940A8E216DA}</author>
-    <author>tc={A256FCE2-E15C-4097-81AD-9E5AAAF112F7}</author>
-    <author>tc={E4115F71-5BFD-461C-B17D-E57BDA8A5A95}</author>
-    <author>tc={BF03C53B-C4CD-42E0-8C68-46D9774D709E}</author>
-    <author>tc={BD8B646B-CAE3-4750-95AB-A39A49179767}</author>
-    <author>tc={9A2BA14C-0266-458E-A3E3-A2D5F850433D}</author>
+    <author>tc={DF55329B-F3F4-479C-8E26-8A222745D8AD}</author>
+    <author>tc={B6A57522-4041-4ED2-9EB1-A68F4765FFA3}</author>
+    <author>tc={50E345D2-25A6-44F5-B9F7-2BE0F22A2FC0}</author>
+    <author>tc={0777C45D-C125-415A-94E4-1C0B6E86F145}</author>
+    <author>tc={42ECF70A-AE64-46FF-ADA0-4613BCD0A440}</author>
+    <author>tc={A5A06878-6EBF-426B-A407-7CD0E3EF39E8}</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{C69D36C3-F1F3-4473-9340-A940A8E216DA}">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{DF55329B-F3F4-479C-8E26-8A222745D8AD}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{B6A57522-4041-4ED2-9EB1-A68F4765FFA3}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{50E345D2-25A6-44F5-B9F7-2BE0F22A2FC0}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="3" shapeId="0" xr:uid="{0777C45D-C125-415A-94E4-1C0B6E86F145}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="4" shapeId="0" xr:uid="{42ECF70A-AE64-46FF-ADA0-4613BCD0A440}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{A256FCE2-E15C-4097-81AD-9E5AAAF112F7}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{E4115F71-5BFD-461C-B17D-E57BDA8A5A95}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="3" shapeId="0" xr:uid="{BF03C53B-C4CD-42E0-8C68-46D9774D709E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="4" shapeId="0" xr:uid="{BD8B646B-CAE3-4750-95AB-A39A49179767}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{9A2BA14C-0266-458E-A3E3-A2D5F850433D}">
+    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{A5A06878-6EBF-426B-A407-7CD0E3EF39E8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B460CE07-6841-441B-B6D2-C58A33E68CDE}</author>
+    <author>tc={39C9DA25-1E62-466A-9CB3-39103C9F61B1}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B460CE07-6841-441B-B6D2-C58A33E68CDE}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{39C9DA25-1E62-466A-9CB3-39103C9F61B1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,24 +93,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={5FA854FB-37C1-446A-A6B9-86317FCFC94A}</author>
-    <author>tc={63199512-A680-47B7-96A6-7D52F00EF1E2}</author>
-    <author>tc={0FBFADEC-D27B-4877-A765-536E738E8545}</author>
+    <author>tc={07AD1E0A-BA8D-4936-B9C2-8FA35D16389C}</author>
+    <author>tc={98232822-96FF-4A18-B3DC-A1822F96CA58}</author>
+    <author>tc={6A5FEE27-D44D-4021-AE34-1882321C3031}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5FA854FB-37C1-446A-A6B9-86317FCFC94A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{63199512-A680-47B7-96A6-7D52F00EF1E2}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{07AD1E0A-BA8D-4936-B9C2-8FA35D16389C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{0FBFADEC-D27B-4877-A765-536E738E8545}">
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{98232822-96FF-4A18-B3DC-A1822F96CA58}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{6A5FEE27-D44D-4021-AE34-1882321C3031}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
   </commentList>
@@ -120,22 +120,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A8EF867A-2E80-47A0-B71F-5779809DB1CF}</author>
-    <author>tc={42BC574B-3ADC-4532-89CE-7A943A298BF4}</author>
+    <author>tc={CABE600A-1493-490D-8905-81BED22D89B2}</author>
+    <author>tc={48ED6210-D69C-4A6C-93D2-3E7815F87D6C}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A8EF867A-2E80-47A0-B71F-5779809DB1CF}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CABE600A-1493-490D-8905-81BED22D89B2}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{48ED6210-D69C-4A6C-93D2-3E7815F87D6C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{42BC574B-3ADC-4532-89CE-7A943A298BF4}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -145,10 +145,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={0A2C34AC-C5CB-4048-B158-65EC6DC89E73}</author>
+    <author>tc={006AA107-968D-4B80-98CE-AD81FE564D87}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{0A2C34AC-C5CB-4048-B158-65EC6DC89E73}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{006AA107-968D-4B80-98CE-AD81FE564D87}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -212,6 +212,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -220,20 +234,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -363,8 +363,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{55E980A4-23DD-4A0C-9B37-81636D30D404}" userId="S::::ea32845f-ea0c-435f-ae68-0fb4bef8515a" providerId="AD"/>
-  <person displayName="侯清辰" id="{BC51D113-E54F-4DDF-AAD8-CE2B3F1457D7}" userId="S::::65faec4e-bcc3-42f5-98c3-f0f7724537cd" providerId="AD"/>
+  <person displayName="杨行" id="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" userId="S::::d6772d79-0c16-4781-97b5-5d60204d3b6a" providerId="AD"/>
+  <person displayName="侯清辰" id="{68FB2504-7364-4541-8462-5887BE1D8041}" userId="S::::3c510623-a4d9-41e0-879c-ce2d5069835c" providerId="AD"/>
 </personList>
 </file>
 
@@ -665,25 +665,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{C69D36C3-F1F3-4473-9340-A940A8E216DA}" ref="I1" dT="2024-05-10T07:08:22" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
+  <threadedComment id="{DF55329B-F3F4-479C-8E26-8A222745D8AD}" ref="G6" dT="2024-06-14T02:50:34" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{B6A57522-4041-4ED2-9EB1-A68F4765FFA3}" ref="A4" dT="2024-05-28T04:59:59" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{50E345D2-25A6-44F5-B9F7-2BE0F22A2FC0}" ref="C2" dT="2024-06-14T02:49:51" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{0777C45D-C125-415A-94E4-1C0B6E86F145}" ref="G9" dT="2024-06-14T02:51:06" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{42ECF70A-AE64-46FF-ADA0-4613BCD0A440}" ref="I1" dT="2024-05-10T07:08:22" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{17e2ebf7-d688-4c89-97e6-744483d0e9dc}" ref="I1" dT="2024-06-19T05:39:57" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{C69D36C3-F1F3-4473-9340-A940A8E216DA}">
+  <threadedComment id="{bac19b23-d9f3-4429-9fd4-bd63c439f30c}" ref="I1" dT="2024-06-19T05:39:57" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{42ECF70A-AE64-46FF-ADA0-4613BCD0A440}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{A256FCE2-E15C-4097-81AD-9E5AAAF112F7}" ref="A4" dT="2024-05-28T04:59:59" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{E4115F71-5BFD-461C-B17D-E57BDA8A5A95}" ref="C2" dT="2024-06-14T02:49:51" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{BF03C53B-C4CD-42E0-8C68-46D9774D709E}" ref="G9" dT="2024-06-14T02:51:06" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{BD8B646B-CAE3-4750-95AB-A39A49179767}" ref="G6" dT="2024-06-14T02:50:34" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{9A2BA14C-0266-458E-A3E3-A2D5F850433D}" ref="J1" dT="2024-05-31T03:31:01" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
+  <threadedComment id="{A5A06878-6EBF-426B-A407-7CD0E3EF39E8}" ref="J1" dT="2024-05-31T03:31:01" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
 </ThreadedComments>
@@ -691,7 +691,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B460CE07-6841-441B-B6D2-C58A33E68CDE}" ref="D1" dT="2024-06-09T13:30:31" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
+  <threadedComment id="{39C9DA25-1E62-466A-9CB3-39103C9F61B1}" ref="D1" dT="2024-06-09T13:30:31" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -699,39 +699,39 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{5FA854FB-37C1-446A-A6B9-86317FCFC94A}" ref="E1" dT="2024-06-09T13:30:45" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
-    <text>@宾晓华 这里</text>
-  </threadedComment>
-  <threadedComment id="{63199512-A680-47B7-96A6-7D52F00EF1E2}" ref="C6" dT="2024-06-14T02:49:20" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
+  <threadedComment id="{07AD1E0A-BA8D-4936-B9C2-8FA35D16389C}" ref="C6" dT="2024-06-14T02:49:20" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{0FBFADEC-D27B-4877-A765-536E738E8545}" ref="C5" dT="2024-06-14T02:48:45" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
+  <threadedComment id="{98232822-96FF-4A18-B3DC-A1822F96CA58}" ref="C5" dT="2024-06-14T02:48:45" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  </threadedComment>
+  <threadedComment id="{6A5FEE27-D44D-4021-AE34-1882321C3031}" ref="E1" dT="2024-06-09T13:30:45" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
+    <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{A8EF867A-2E80-47A0-B71F-5779809DB1CF}" ref="D1" dT="2024-05-10T08:11:19" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
+  <threadedComment id="{CABE600A-1493-490D-8905-81BED22D89B2}" ref="C1" dT="2024-05-10T07:54:02" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{48ED6210-D69C-4A6C-93D2-3E7815F87D6C}" ref="D1" dT="2024-05-10T08:11:19" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{8f68e072-dec4-41ba-9362-aed1d449ffee}" ref="D1" dT="2024-05-10T08:15:39" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{A8EF867A-2E80-47A0-B71F-5779809DB1CF}">
+  <threadedComment id="{91852fd4-8899-428d-9092-54fdddab56c6}" ref="D1" dT="2024-05-10T08:15:39" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{48ED6210-D69C-4A6C-93D2-3E7815F87D6C}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{42BC574B-3ADC-4532-89CE-7A943A298BF4}" ref="C1" dT="2024-05-10T07:54:02" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{0A2C34AC-C5CB-4048-B158-65EC6DC89E73}" ref="A2" dT="2024-06-26T06:41:07" personId="{55E980A4-23DD-4A0C-9B37-81636D30D404}" parentId="{}">
+  <threadedComment id="{006AA107-968D-4B80-98CE-AD81FE564D87}" ref="A2" dT="2024-06-26T06:41:07" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -771,30 +771,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -829,7 +829,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="34"/>
@@ -850,63 +850,63 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
 ## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
 ## 目前场景有6个。
@@ -920,127 +920,127 @@
 - BOSS如果醒了就是‘鬼抓人’的游戏，BOSS的设计就是遍历场景去找到你并杀你。
 - 正常就是对话类型游戏。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="str">
-        <v>教廷密使</v>
-      </c>
-      <c r="B4" s="3" t="str">
+      <c r="A4" s="4" t="str">
+        <v>教廷密使(忽略)</v>
+      </c>
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="str">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4" t="str">
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1" t="str">
+      <c r="I5" s="1"/>
+      <c r="J5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1" t="str">
+      <c r="I6" s="1"/>
+      <c r="J6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1048,40 +1048,40 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="1" t="str">
+      <c r="I7" s="1"/>
+      <c r="J7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="G8" s="2" t="str">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1" t="str">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="G9" s="2" t="str">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1089,144 +1089,144 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="1" t="str">
+      <c r="I9" s="1"/>
+      <c r="J9" s="2" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="J10" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="L10" s="1" t="str">
+      <c r="L10" s="2" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="N10" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="1" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="J11" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="J12" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="str">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="J13" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="str">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H14" s="1" t="str">
+      <c r="H14" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="2" t="str">
+      <c r="J14" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="2" t="str">
-        <v>圣灰园正门前广场</v>
-      </c>
-      <c r="B15" s="2" t="str">
+      <c r="A15" s="1" t="str">
+        <v>圣灰园正门前广场（忽略）</v>
+      </c>
+      <c r="B15" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="str">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="1" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="2" t="str">
+      <c r="J15" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1276,143 +1276,143 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Config</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1" t="str">
+      <c r="I4" s="1"/>
+      <c r="J4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N5" s="1" t="str">
+      <c r="N5" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -1424,49 +1424,49 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="str">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="M7" s="1" t="str">
+      <c r="M7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="N7" s="6" t="str">
@@ -1521,184 +1521,184 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8100</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>8101</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>8102</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>8103</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>8104</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>8105</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1755,92 +1755,92 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>body</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -1860,40 +1860,40 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -1908,39 +1908,39 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 吱吱吱～～（开心的摇尾巴）～～～～"
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -1955,38 +1955,38 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -2003,61 +2003,61 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
@@ -2115,236 +2115,236 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>炙热无比的长钩</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>0,10000,0</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="2" t="str">
-        <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很锋利和尖锐。</v>
-      </c>
-      <c r="F5" s="2" t="str">
+      <c r="E5" s="1" t="str">
+        <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很"锋利和尖锐"。</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>0,1,0</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>形状像断掉的手指的钥匙</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>0,0,0</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="H8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="1" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>黑色长袍与斗篷。</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>0,0,1</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="H9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2385,54 +2385,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>world_system_appearance_builder</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8300</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>/worldsystems/appearance_builder</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -33,42 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DF55329B-F3F4-479C-8E26-8A222745D8AD}</author>
-    <author>tc={B6A57522-4041-4ED2-9EB1-A68F4765FFA3}</author>
-    <author>tc={50E345D2-25A6-44F5-B9F7-2BE0F22A2FC0}</author>
-    <author>tc={0777C45D-C125-415A-94E4-1C0B6E86F145}</author>
-    <author>tc={42ECF70A-AE64-46FF-ADA0-4613BCD0A440}</author>
-    <author>tc={A5A06878-6EBF-426B-A407-7CD0E3EF39E8}</author>
+    <author>tc={81519ACF-F4C7-43EC-BBC0-2DCE43304055}</author>
+    <author>tc={589A3824-E810-49B2-9FD6-6A574C4B6DDC}</author>
+    <author>tc={99FA8D93-BE6E-4108-AA6F-6D775F4DBE8C}</author>
+    <author>tc={954DB5A5-6E49-4B98-AE28-95106D1E88BC}</author>
+    <author>tc={D9B91AC0-B5A7-4431-850B-E7F40E282792}</author>
+    <author>tc={640A1F76-B74C-40C1-8A8E-7DA199739D48}</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{DF55329B-F3F4-479C-8E26-8A222745D8AD}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{81519ACF-F4C7-43EC-BBC0-2DCE43304055}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{589A3824-E810-49B2-9FD6-6A574C4B6DDC}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{99FA8D93-BE6E-4108-AA6F-6D775F4DBE8C}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{954DB5A5-6E49-4B98-AE28-95106D1E88BC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{B6A57522-4041-4ED2-9EB1-A68F4765FFA3}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{50E345D2-25A6-44F5-B9F7-2BE0F22A2FC0}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="3" shapeId="0" xr:uid="{0777C45D-C125-415A-94E4-1C0B6E86F145}">
+    <comment ref="H9" authorId="4" shapeId="0" xr:uid="{D9B91AC0-B5A7-4431-850B-E7F40E282792}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="4" shapeId="0" xr:uid="{42ECF70A-AE64-46FF-ADA0-4613BCD0A440}">
+    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{640A1F76-B74C-40C1-8A8E-7DA199739D48}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{A5A06878-6EBF-426B-A407-7CD0E3EF39E8}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={39C9DA25-1E62-466A-9CB3-39103C9F61B1}</author>
+    <author>tc={F379A7CB-93DF-4E0A-8BA8-259C091A4DAD}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{39C9DA25-1E62-466A-9CB3-39103C9F61B1}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F379A7CB-93DF-4E0A-8BA8-259C091A4DAD}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,24 +93,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={07AD1E0A-BA8D-4936-B9C2-8FA35D16389C}</author>
-    <author>tc={98232822-96FF-4A18-B3DC-A1822F96CA58}</author>
-    <author>tc={6A5FEE27-D44D-4021-AE34-1882321C3031}</author>
+    <author>tc={08B17F9F-22F8-4811-99ED-759DE44E5009}</author>
+    <author>tc={7F405A4F-C384-4F74-8A18-7E1D7FF305BF}</author>
+    <author>tc={625BF8F5-ECF1-4405-8851-19C1406408E1}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{07AD1E0A-BA8D-4936-B9C2-8FA35D16389C}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{98232822-96FF-4A18-B3DC-A1822F96CA58}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{08B17F9F-22F8-4811-99ED-759DE44E5009}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{6A5FEE27-D44D-4021-AE34-1882321C3031}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{7F405A4F-C384-4F74-8A18-7E1D7FF305BF}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{625BF8F5-ECF1-4405-8851-19C1406408E1}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
   </commentList>
@@ -120,22 +120,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={CABE600A-1493-490D-8905-81BED22D89B2}</author>
-    <author>tc={48ED6210-D69C-4A6C-93D2-3E7815F87D6C}</author>
+    <author>tc={F770BF13-5F0F-4154-A946-2198B7067AB8}</author>
+    <author>tc={64C091AF-983B-4E3D-A681-12AFA85B62E2}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CABE600A-1493-490D-8905-81BED22D89B2}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{48ED6210-D69C-4A6C-93D2-3E7815F87D6C}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F770BF13-5F0F-4154-A946-2198B7067AB8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{64C091AF-983B-4E3D-A681-12AFA85B62E2}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -145,10 +145,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={006AA107-968D-4B80-98CE-AD81FE564D87}</author>
+    <author>tc={EF7DB43F-26FB-4E33-8E7D-6D14CABF764B}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{006AA107-968D-4B80-98CE-AD81FE564D87}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{EF7DB43F-26FB-4E33-8E7D-6D14CABF764B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -226,14 +226,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -363,8 +363,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" userId="S::::d6772d79-0c16-4781-97b5-5d60204d3b6a" providerId="AD"/>
-  <person displayName="侯清辰" id="{68FB2504-7364-4541-8462-5887BE1D8041}" userId="S::::3c510623-a4d9-41e0-879c-ce2d5069835c" providerId="AD"/>
+  <person displayName="杨行" id="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" userId="S::::f8949032-1b4b-4a2f-aa62-be50de26cac5" providerId="AD"/>
+  <person displayName="侯清辰" id="{36CA99D6-C7E1-48CF-BF76-693528F14643}" userId="S::::d60a69b5-2f29-4370-a192-4dff3bf7feee" providerId="AD"/>
 </personList>
 </file>
 
@@ -665,33 +665,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{DF55329B-F3F4-479C-8E26-8A222745D8AD}" ref="G6" dT="2024-06-14T02:50:34" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
+  <threadedComment id="{81519ACF-F4C7-43EC-BBC0-2DCE43304055}" ref="J1" dT="2024-05-10T07:08:22" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{85766361-bf6e-4fb8-88b4-59916388ae94}" ref="J1" dT="2024-06-19T05:39:57" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{81519ACF-F4C7-43EC-BBC0-2DCE43304055}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{589A3824-E810-49B2-9FD6-6A574C4B6DDC}" ref="C2" dT="2024-06-14T02:49:51" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{99FA8D93-BE6E-4108-AA6F-6D775F4DBE8C}" ref="K1" dT="2024-05-31T03:31:01" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{954DB5A5-6E49-4B98-AE28-95106D1E88BC}" ref="H6" dT="2024-06-14T02:50:34" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{B6A57522-4041-4ED2-9EB1-A68F4765FFA3}" ref="A4" dT="2024-05-28T04:59:59" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{50E345D2-25A6-44F5-B9F7-2BE0F22A2FC0}" ref="C2" dT="2024-06-14T02:49:51" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{0777C45D-C125-415A-94E4-1C0B6E86F145}" ref="G9" dT="2024-06-14T02:51:06" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
+  <threadedComment id="{D9B91AC0-B5A7-4431-850B-E7F40E282792}" ref="H9" dT="2024-06-14T02:51:06" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{42ECF70A-AE64-46FF-ADA0-4613BCD0A440}" ref="I1" dT="2024-05-10T07:08:22" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{bac19b23-d9f3-4429-9fd4-bd63c439f30c}" ref="I1" dT="2024-06-19T05:39:57" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{42ECF70A-AE64-46FF-ADA0-4613BCD0A440}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{A5A06878-6EBF-426B-A407-7CD0E3EF39E8}" ref="J1" dT="2024-05-31T03:31:01" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  <threadedComment id="{640A1F76-B74C-40C1-8A8E-7DA199739D48}" ref="A4" dT="2024-05-28T04:59:59" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{39C9DA25-1E62-466A-9CB3-39103C9F61B1}" ref="D1" dT="2024-06-09T13:30:31" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
+  <threadedComment id="{F379A7CB-93DF-4E0A-8BA8-259C091A4DAD}" ref="D1" dT="2024-06-09T13:30:31" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -699,39 +699,39 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{07AD1E0A-BA8D-4936-B9C2-8FA35D16389C}" ref="C6" dT="2024-06-14T02:49:20" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
-  </threadedComment>
-  <threadedComment id="{98232822-96FF-4A18-B3DC-A1822F96CA58}" ref="C5" dT="2024-06-14T02:48:45" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
+  <threadedComment id="{08B17F9F-22F8-4811-99ED-759DE44E5009}" ref="C5" dT="2024-06-14T02:48:45" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{6A5FEE27-D44D-4021-AE34-1882321C3031}" ref="E1" dT="2024-06-09T13:30:45" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
+  <threadedComment id="{7F405A4F-C384-4F74-8A18-7E1D7FF305BF}" ref="E1" dT="2024-06-09T13:30:45" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
     <text>@宾晓华 这里</text>
+  </threadedComment>
+  <threadedComment id="{625BF8F5-ECF1-4405-8851-19C1406408E1}" ref="C6" dT="2024-06-14T02:49:20" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{CABE600A-1493-490D-8905-81BED22D89B2}" ref="C1" dT="2024-05-10T07:54:02" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{48ED6210-D69C-4A6C-93D2-3E7815F87D6C}" ref="D1" dT="2024-05-10T08:11:19" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
+  <threadedComment id="{F770BF13-5F0F-4154-A946-2198B7067AB8}" ref="D1" dT="2024-05-10T08:11:19" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{91852fd4-8899-428d-9092-54fdddab56c6}" ref="D1" dT="2024-05-10T08:15:39" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{48ED6210-D69C-4A6C-93D2-3E7815F87D6C}">
+  <threadedComment id="{95867441-7de7-4d74-ae42-de3d74b5d7bb}" ref="D1" dT="2024-05-10T08:15:39" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{F770BF13-5F0F-4154-A946-2198B7067AB8}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{64C091AF-983B-4E3D-A681-12AFA85B62E2}" ref="C1" dT="2024-05-10T07:54:02" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{006AA107-968D-4B80-98CE-AD81FE564D87}" ref="A2" dT="2024-06-26T06:41:07" personId="{60FEB5A4-F4BB-47D5-9FEC-C5D4166CFE53}" parentId="{}">
+  <threadedComment id="{EF7DB43F-26FB-4E33-8E7D-6D14CABF764B}" ref="A2" dT="2024-06-26T06:41:07" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -833,20 +833,21 @@
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="115"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="45"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="102"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="115"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="102"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="76"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="14"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -863,39 +864,42 @@
         <v>actor_prop</v>
       </c>
       <c r="E1" s="1" t="str">
+        <v>actor_current_using_prop</v>
+      </c>
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="I1" s="1" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="J1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="K1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
@@ -926,65 +930,70 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="str">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5" t="str">
+      <c r="E4" s="3" t="str">
+        <v>教廷秘使的装束</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="H4" s="3"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -997,13 +1006,16 @@
       <c r="D5" s="1" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="E5" s="1" t="str">
+        <v>不死者印记;破旧的衣服;腐朽的匕首</v>
+      </c>
+      <c r="H5" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1"/>
+      <c r="K5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -1018,14 +1030,17 @@
       <c r="D6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="E6" s="1" t="str">
+        <v>左爪胎记</v>
+      </c>
+      <c r="H6" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="1"/>
+      <c r="K6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -1040,7 +1055,10 @@
       <c r="D7" s="1" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="E7" s="1" t="str">
+        <v>守墓人的装束;断指钥匙</v>
+      </c>
+      <c r="H7" s="1" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1048,8 +1066,8 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="1"/>
+      <c r="K7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -1062,13 +1080,14 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="G8" s="1" t="str">
+      <c r="E8" s="1"/>
+      <c r="H8" s="1" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1"/>
+      <c r="K8" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -1081,7 +1100,8 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="G9" s="1" t="str">
+      <c r="E9" s="1"/>
+      <c r="H9" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1089,8 +1109,8 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1"/>
+      <c r="K9" s="2" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
@@ -1104,24 +1124,25 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="H10" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="I10" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="K10" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="L10" s="2" t="str">
+      <c r="M10" s="2" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="N10" s="2" t="str">
+      <c r="O10" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -1136,13 +1157,14 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="str">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="H11" s="1" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="K11" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1156,13 +1178,14 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="H12" s="1" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="K12" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1175,14 +1198,15 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="str">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="str">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="K13" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1197,13 +1221,14 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="str">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="I14" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="1" t="str">
+      <c r="K14" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1217,16 +1242,17 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="str">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="H15" s="1" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="I15" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="K15" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1259,20 +1285,21 @@
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="49"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="115"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="45"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="102"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="84"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="76"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="49"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="115"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="102"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="84"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="14"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -1289,39 +1316,42 @@
         <v>actor_prop</v>
       </c>
       <c r="E1" s="1" t="str">
+        <v>actor_current_using_prop</v>
+      </c>
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_memory</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="I1" s="1" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="J1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="K1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
@@ -1341,33 +1371,35 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1380,13 +1412,16 @@
       <c r="D4" s="1" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="E4" s="1" t="str">
+        <v>不死者印记;破旧的衣服;腐朽的匕首</v>
+      </c>
+      <c r="H4" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="1"/>
+      <c r="K4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -1400,26 +1435,27 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="H5" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="I5" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="K5" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N5" s="2" t="str">
+      <c r="O5" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <v>要离开的角色必须是人类。</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <v>要离开的角色身上必须具有‘不死者印记’。</v>
       </c>
     </row>
@@ -1434,10 +1470,11 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="K6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1452,24 +1489,25 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="I7" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="K7" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="str">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="M7" s="2" t="str">
+      <c r="N7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="N7" s="6" t="str">
+      <c r="O7" s="6" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1789,49 +1827,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1867,7 +1905,7 @@
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -1876,7 +1914,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -1914,7 +1952,7 @@
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -1923,13 +1961,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="3" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -1960,7 +1998,7 @@
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -1969,13 +2007,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2008,7 +2046,7 @@
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2017,7 +2055,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2042,7 +2080,7 @@
       <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2051,7 +2089,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2160,7 +2198,7 @@
         <v>无外观信息</v>
       </c>
       <c r="G2" s="2" t="str">
-        <v>0,0,0</v>
+        <v>0,0,0,0</v>
       </c>
       <c r="H2" s="2" t="str">
         <v>rag/rag2.md</v>
@@ -2186,7 +2224,7 @@
         <v>无外观信息</v>
       </c>
       <c r="G3" s="2" t="str">
-        <v>0,0,0</v>
+        <v>0,0,0,0</v>
       </c>
       <c r="H3" s="2" t="str">
         <v>rag/rag2.md</v>
@@ -2212,7 +2250,7 @@
         <v>炙热无比的长钩</v>
       </c>
       <c r="G4" s="2" t="str">
-        <v>0,10000,0</v>
+        <v>0,0,10000,0</v>
       </c>
       <c r="H4" s="2" t="str">
         <v>rag/rag2.md</v>
@@ -2238,7 +2276,7 @@
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
       <c r="G5" s="2" t="str">
-        <v>0,1,0</v>
+        <v>0,0,1,0</v>
       </c>
       <c r="H5" s="2" t="str">
         <v>rag/rag2.md</v>
@@ -2264,7 +2302,7 @@
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
       <c r="G6" s="2" t="str">
-        <v>0,0,1</v>
+        <v>0,0,0,1</v>
       </c>
       <c r="H6" s="2" t="str">
         <v>rag/rag2.md</v>
@@ -2290,7 +2328,7 @@
         <v>形状像断掉的手指的钥匙</v>
       </c>
       <c r="G7" s="2" t="str">
-        <v>0,0,0</v>
+        <v>0,0,0,0</v>
       </c>
       <c r="H7" s="2" t="str">
         <v>rag/rag2.md</v>
@@ -2316,7 +2354,7 @@
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
       <c r="G8" s="2" t="str">
-        <v>0,0,1</v>
+        <v>0,0,0,1</v>
       </c>
       <c r="H8" s="2" t="str">
         <v>rag/rag2.md</v>
@@ -2342,7 +2380,7 @@
         <v>黑色长袍与斗篷。</v>
       </c>
       <c r="G9" s="2" t="str">
-        <v>0,0,1</v>
+        <v>0,0,0,1</v>
       </c>
       <c r="H9" s="2" t="str">
         <v>rag/rag2.md</v>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -33,42 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={81519ACF-F4C7-43EC-BBC0-2DCE43304055}</author>
-    <author>tc={589A3824-E810-49B2-9FD6-6A574C4B6DDC}</author>
-    <author>tc={99FA8D93-BE6E-4108-AA6F-6D775F4DBE8C}</author>
-    <author>tc={954DB5A5-6E49-4B98-AE28-95106D1E88BC}</author>
-    <author>tc={D9B91AC0-B5A7-4431-850B-E7F40E282792}</author>
-    <author>tc={640A1F76-B74C-40C1-8A8E-7DA199739D48}</author>
+    <author>tc={D0BBDEBC-BE72-4AD2-8219-85103BCEC826}</author>
+    <author>tc={747DB93C-7AB1-47E5-9B16-39AF33E4A745}</author>
+    <author>tc={4F7A6503-4435-493C-80CA-7CD4776E9D86}</author>
+    <author>tc={9EC03FE5-AE0D-4C90-B1F6-AEC8B446BA1B}</author>
+    <author>tc={E48C8BDD-69FC-441A-878D-29B5FC86193F}</author>
+    <author>tc={46F01611-4B57-49A7-8822-06A5CEC7A7E6}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{81519ACF-F4C7-43EC-BBC0-2DCE43304055}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{D0BBDEBC-BE72-4AD2-8219-85103BCEC826}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{589A3824-E810-49B2-9FD6-6A574C4B6DDC}">
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{747DB93C-7AB1-47E5-9B16-39AF33E4A745}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{99FA8D93-BE6E-4108-AA6F-6D775F4DBE8C}">
+    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{4F7A6503-4435-493C-80CA-7CD4776E9D86}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{9EC03FE5-AE0D-4C90-B1F6-AEC8B446BA1B}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{E48C8BDD-69FC-441A-878D-29B5FC86193F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{954DB5A5-6E49-4B98-AE28-95106D1E88BC}">
+    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{46F01611-4B57-49A7-8822-06A5CEC7A7E6}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="4" shapeId="0" xr:uid="{D9B91AC0-B5A7-4431-850B-E7F40E282792}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{640A1F76-B74C-40C1-8A8E-7DA199739D48}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F379A7CB-93DF-4E0A-8BA8-259C091A4DAD}</author>
+    <author>tc={3E209442-526B-44C8-B09D-EA0B4907C6D6}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F379A7CB-93DF-4E0A-8BA8-259C091A4DAD}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3E209442-526B-44C8-B09D-EA0B4907C6D6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,22 +93,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={08B17F9F-22F8-4811-99ED-759DE44E5009}</author>
-    <author>tc={7F405A4F-C384-4F74-8A18-7E1D7FF305BF}</author>
-    <author>tc={625BF8F5-ECF1-4405-8851-19C1406408E1}</author>
+    <author>tc={E4F17891-16D4-4721-869E-FF593C4C51D8}</author>
+    <author>tc={B5F08C40-83C5-4264-8A42-E9EDAA04429E}</author>
+    <author>tc={14C968F9-8D8D-4C80-8F9D-7AC2DE93639E}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{08B17F9F-22F8-4811-99ED-759DE44E5009}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{E4F17891-16D4-4721-869E-FF593C4C51D8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{7F405A4F-C384-4F74-8A18-7E1D7FF305BF}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{B5F08C40-83C5-4264-8A42-E9EDAA04429E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{625BF8F5-ECF1-4405-8851-19C1406408E1}">
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{14C968F9-8D8D-4C80-8F9D-7AC2DE93639E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
@@ -120,22 +120,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F770BF13-5F0F-4154-A946-2198B7067AB8}</author>
-    <author>tc={64C091AF-983B-4E3D-A681-12AFA85B62E2}</author>
+    <author>tc={13FB0462-67E8-40DB-8A1B-3DD1C7B7BB1B}</author>
+    <author>tc={57F1A3C5-98B0-4856-B23C-77BDF2B931AB}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F770BF13-5F0F-4154-A946-2198B7067AB8}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{13FB0462-67E8-40DB-8A1B-3DD1C7B7BB1B}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{57F1A3C5-98B0-4856-B23C-77BDF2B931AB}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{64C091AF-983B-4E3D-A681-12AFA85B62E2}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -145,10 +145,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={EF7DB43F-26FB-4E33-8E7D-6D14CABF764B}</author>
+    <author>tc={99479855-AD8D-4C82-B9EF-B1C768C6D8EC}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{EF7DB43F-26FB-4E33-8E7D-6D14CABF764B}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{99479855-AD8D-4C82-B9EF-B1C768C6D8EC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -226,14 +226,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -363,8 +363,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" userId="S::::f8949032-1b4b-4a2f-aa62-be50de26cac5" providerId="AD"/>
-  <person displayName="侯清辰" id="{36CA99D6-C7E1-48CF-BF76-693528F14643}" userId="S::::d60a69b5-2f29-4370-a192-4dff3bf7feee" providerId="AD"/>
+  <person displayName="杨行" id="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" userId="S::::f2d66e17-32b1-47bd-b3bb-8a87ab4642ea" providerId="AD"/>
+  <person displayName="侯清辰" id="{5153926C-63B6-47B0-AC82-6037AAD0D5AA}" userId="S::::c8fd6238-dff2-4625-82f4-89c71a529969" providerId="AD"/>
 </personList>
 </file>
 
@@ -665,33 +665,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{81519ACF-F4C7-43EC-BBC0-2DCE43304055}" ref="J1" dT="2024-05-10T07:08:22" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
+  <threadedComment id="{D0BBDEBC-BE72-4AD2-8219-85103BCEC826}" ref="H6" dT="2024-06-14T02:50:34" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{747DB93C-7AB1-47E5-9B16-39AF33E4A745}" ref="C2" dT="2024-06-14T02:49:51" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{4F7A6503-4435-493C-80CA-7CD4776E9D86}" ref="H9" dT="2024-06-14T02:51:06" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{9EC03FE5-AE0D-4C90-B1F6-AEC8B446BA1B}" ref="A4" dT="2024-05-28T04:59:59" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{E48C8BDD-69FC-441A-878D-29B5FC86193F}" ref="K1" dT="2024-05-31T03:31:01" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{46F01611-4B57-49A7-8822-06A5CEC7A7E6}" ref="J1" dT="2024-05-10T07:08:22" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{85766361-bf6e-4fb8-88b4-59916388ae94}" ref="J1" dT="2024-06-19T05:39:57" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{81519ACF-F4C7-43EC-BBC0-2DCE43304055}">
+  <threadedComment id="{7a8f66a4-8ae1-4f9d-95c0-0a585772f3cd}" ref="J1" dT="2024-06-19T05:39:57" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{46F01611-4B57-49A7-8822-06A5CEC7A7E6}">
     <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{589A3824-E810-49B2-9FD6-6A574C4B6DDC}" ref="C2" dT="2024-06-14T02:49:51" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{99FA8D93-BE6E-4108-AA6F-6D775F4DBE8C}" ref="K1" dT="2024-05-31T03:31:01" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{954DB5A5-6E49-4B98-AE28-95106D1E88BC}" ref="H6" dT="2024-06-14T02:50:34" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{D9B91AC0-B5A7-4431-850B-E7F40E282792}" ref="H9" dT="2024-06-14T02:51:06" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{640A1F76-B74C-40C1-8A8E-7DA199739D48}" ref="A4" dT="2024-05-28T04:59:59" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{F379A7CB-93DF-4E0A-8BA8-259C091A4DAD}" ref="D1" dT="2024-06-09T13:30:31" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
+  <threadedComment id="{3E209442-526B-44C8-B09D-EA0B4907C6D6}" ref="D1" dT="2024-06-09T13:30:31" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -699,13 +699,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{08B17F9F-22F8-4811-99ED-759DE44E5009}" ref="C5" dT="2024-06-14T02:48:45" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
+  <threadedComment id="{E4F17891-16D4-4721-869E-FF593C4C51D8}" ref="C5" dT="2024-06-14T02:48:45" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{7F405A4F-C384-4F74-8A18-7E1D7FF305BF}" ref="E1" dT="2024-06-09T13:30:45" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
+  <threadedComment id="{B5F08C40-83C5-4264-8A42-E9EDAA04429E}" ref="E1" dT="2024-06-09T13:30:45" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{625BF8F5-ECF1-4405-8851-19C1406408E1}" ref="C6" dT="2024-06-14T02:49:20" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
+  <threadedComment id="{14C968F9-8D8D-4C80-8F9D-7AC2DE93639E}" ref="C6" dT="2024-06-14T02:49:20" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
@@ -713,25 +713,25 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{F770BF13-5F0F-4154-A946-2198B7067AB8}" ref="D1" dT="2024-05-10T08:11:19" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
+  <threadedComment id="{13FB0462-67E8-40DB-8A1B-3DD1C7B7BB1B}" ref="C1" dT="2024-05-10T07:54:02" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{57F1A3C5-98B0-4856-B23C-77BDF2B931AB}" ref="D1" dT="2024-05-10T08:11:19" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{95867441-7de7-4d74-ae42-de3d74b5d7bb}" ref="D1" dT="2024-05-10T08:15:39" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{F770BF13-5F0F-4154-A946-2198B7067AB8}">
+  <threadedComment id="{9395dd9c-79a8-4705-839a-ec9695c28571}" ref="D1" dT="2024-05-10T08:15:39" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{57F1A3C5-98B0-4856-B23C-77BDF2B931AB}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{64C091AF-983B-4E3D-A681-12AFA85B62E2}" ref="C1" dT="2024-05-10T07:54:02" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{EF7DB43F-26FB-4E33-8E7D-6D14CABF764B}" ref="A2" dT="2024-06-26T06:41:07" personId="{A4C8DFF2-D6B6-4A88-BFE0-DA562CD44F9D}" parentId="{}">
+  <threadedComment id="{99479855-AD8D-4C82-B9EF-B1C768C6D8EC}" ref="A2" dT="2024-06-26T06:41:07" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -934,66 +934,66 @@
       <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="str">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4" t="str">
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1375,31 +1375,31 @@
       <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1827,49 +1827,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1905,7 +1905,7 @@
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -1914,7 +1914,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -1952,7 +1952,7 @@
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -1961,13 +1961,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2007,13 +2007,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2055,7 +2055,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2080,7 +2080,7 @@
       <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2089,7 +2089,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -33,42 +33,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={D0BBDEBC-BE72-4AD2-8219-85103BCEC826}</author>
-    <author>tc={747DB93C-7AB1-47E5-9B16-39AF33E4A745}</author>
-    <author>tc={4F7A6503-4435-493C-80CA-7CD4776E9D86}</author>
-    <author>tc={9EC03FE5-AE0D-4C90-B1F6-AEC8B446BA1B}</author>
-    <author>tc={E48C8BDD-69FC-441A-878D-29B5FC86193F}</author>
-    <author>tc={46F01611-4B57-49A7-8822-06A5CEC7A7E6}</author>
+    <author>tc={4888C72F-844C-4E42-A1E0-7E513E46E074}</author>
+    <author>tc={DEF321D1-9D6A-4F79-8C91-5D51D6D63DC6}</author>
+    <author>tc={9F468E66-502E-4E4E-B896-B7E9B9DE272C}</author>
+    <author>tc={8BB45A2E-51CB-455A-A5DB-147EB3B9AE92}</author>
+    <author>tc={D3C47417-4673-4518-AB61-84FCB80655CD}</author>
+    <author>tc={EB3B585F-507F-4522-85A7-B6D82D7557C9}</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{D0BBDEBC-BE72-4AD2-8219-85103BCEC826}">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{4888C72F-844C-4E42-A1E0-7E513E46E074}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{DEF321D1-9D6A-4F79-8C91-5D51D6D63DC6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{747DB93C-7AB1-47E5-9B16-39AF33E4A745}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{4F7A6503-4435-493C-80CA-7CD4776E9D86}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{9EC03FE5-AE0D-4C90-B1F6-AEC8B446BA1B}">
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{9F468E66-502E-4E4E-B896-B7E9B9DE272C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{E48C8BDD-69FC-441A-878D-29B5FC86193F}">
+    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{8BB45A2E-51CB-455A-A5DB-147EB3B9AE92}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{D3C47417-4673-4518-AB61-84FCB80655CD}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{46F01611-4B57-49A7-8822-06A5CEC7A7E6}">
+    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{EB3B585F-507F-4522-85A7-B6D82D7557C9}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3E209442-526B-44C8-B09D-EA0B4907C6D6}</author>
+    <author>tc={408F8C31-42B8-4F84-87D2-92DC1AF46779}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3E209442-526B-44C8-B09D-EA0B4907C6D6}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{408F8C31-42B8-4F84-87D2-92DC1AF46779}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,22 +93,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E4F17891-16D4-4721-869E-FF593C4C51D8}</author>
-    <author>tc={B5F08C40-83C5-4264-8A42-E9EDAA04429E}</author>
-    <author>tc={14C968F9-8D8D-4C80-8F9D-7AC2DE93639E}</author>
+    <author>tc={9A2C7972-00D8-4052-BDCB-DB2E267D6D66}</author>
+    <author>tc={96025EC3-3895-47B1-B2CC-F5CE7AF733E9}</author>
+    <author>tc={24D52379-8453-4DE7-83F4-258872B8BD1A}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{E4F17891-16D4-4721-869E-FF593C4C51D8}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9A2C7972-00D8-4052-BDCB-DB2E267D6D66}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{96025EC3-3895-47B1-B2CC-F5CE7AF733E9}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{B5F08C40-83C5-4264-8A42-E9EDAA04429E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{14C968F9-8D8D-4C80-8F9D-7AC2DE93639E}">
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{24D52379-8453-4DE7-83F4-258872B8BD1A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
@@ -120,22 +120,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={13FB0462-67E8-40DB-8A1B-3DD1C7B7BB1B}</author>
-    <author>tc={57F1A3C5-98B0-4856-B23C-77BDF2B931AB}</author>
+    <author>tc={5C7CD0B5-8E8B-4022-BB1E-0E2A44212101}</author>
+    <author>tc={836141CE-64F2-47A4-B0CC-32CBA2F438BF}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{13FB0462-67E8-40DB-8A1B-3DD1C7B7BB1B}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{57F1A3C5-98B0-4856-B23C-77BDF2B931AB}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5C7CD0B5-8E8B-4022-BB1E-0E2A44212101}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{836141CE-64F2-47A4-B0CC-32CBA2F438BF}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -145,10 +145,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={99479855-AD8D-4C82-B9EF-B1C768C6D8EC}</author>
+    <author>tc={13B52695-517A-43D9-BDCB-AECE30EC507F}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{99479855-AD8D-4C82-B9EF-B1C768C6D8EC}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{13B52695-517A-43D9-BDCB-AECE30EC507F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -226,14 +226,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -363,8 +363,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" userId="S::::f2d66e17-32b1-47bd-b3bb-8a87ab4642ea" providerId="AD"/>
-  <person displayName="侯清辰" id="{5153926C-63B6-47B0-AC82-6037AAD0D5AA}" userId="S::::c8fd6238-dff2-4625-82f4-89c71a529969" providerId="AD"/>
+  <person displayName="侯清辰" id="{84D2F695-B099-4956-9EF6-40355BAB5B6A}" userId="S::::0f50f4f2-6b68-4fda-bb2d-785d2618c4e6" providerId="AD"/>
+  <person displayName="杨行" id="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" userId="S::::e6af7a26-4c47-4954-bb20-b3bf8c156531" providerId="AD"/>
 </personList>
 </file>
 
@@ -665,33 +665,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{D0BBDEBC-BE72-4AD2-8219-85103BCEC826}" ref="H6" dT="2024-06-14T02:50:34" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
+  <threadedComment id="{4888C72F-844C-4E42-A1E0-7E513E46E074}" ref="H9" dT="2024-06-14T02:51:06" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{DEF321D1-9D6A-4F79-8C91-5D51D6D63DC6}" ref="H6" dT="2024-06-14T02:50:34" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{747DB93C-7AB1-47E5-9B16-39AF33E4A745}" ref="C2" dT="2024-06-14T02:49:51" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{4F7A6503-4435-493C-80CA-7CD4776E9D86}" ref="H9" dT="2024-06-14T02:51:06" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{9EC03FE5-AE0D-4C90-B1F6-AEC8B446BA1B}" ref="A4" dT="2024-05-28T04:59:59" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
+  <threadedComment id="{9F468E66-502E-4E4E-B896-B7E9B9DE272C}" ref="A4" dT="2024-05-28T04:59:59" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{E48C8BDD-69FC-441A-878D-29B5FC86193F}" ref="K1" dT="2024-05-31T03:31:01" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
+  <threadedComment id="{8BB45A2E-51CB-455A-A5DB-147EB3B9AE92}" ref="J1" dT="2024-05-10T07:08:22" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{6fe62aa6-9947-4cdc-be54-afda42a0b67a}" ref="J1" dT="2024-06-19T05:39:57" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{8BB45A2E-51CB-455A-A5DB-147EB3B9AE92}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{D3C47417-4673-4518-AB61-84FCB80655CD}" ref="K1" dT="2024-05-31T03:31:01" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{46F01611-4B57-49A7-8822-06A5CEC7A7E6}" ref="J1" dT="2024-05-10T07:08:22" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{7a8f66a4-8ae1-4f9d-95c0-0a585772f3cd}" ref="J1" dT="2024-06-19T05:39:57" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{46F01611-4B57-49A7-8822-06A5CEC7A7E6}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
+  <threadedComment id="{EB3B585F-507F-4522-85A7-B6D82D7557C9}" ref="C2" dT="2024-06-14T02:49:51" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{3E209442-526B-44C8-B09D-EA0B4907C6D6}" ref="D1" dT="2024-06-09T13:30:31" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
+  <threadedComment id="{408F8C31-42B8-4F84-87D2-92DC1AF46779}" ref="D1" dT="2024-06-09T13:30:31" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -699,13 +699,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E4F17891-16D4-4721-869E-FF593C4C51D8}" ref="C5" dT="2024-06-14T02:48:45" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
+  <threadedComment id="{9A2C7972-00D8-4052-BDCB-DB2E267D6D66}" ref="E1" dT="2024-06-09T13:30:45" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+    <text>@宾晓华 这里</text>
+  </threadedComment>
+  <threadedComment id="{96025EC3-3895-47B1-B2CC-F5CE7AF733E9}" ref="C5" dT="2024-06-14T02:48:45" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{B5F08C40-83C5-4264-8A42-E9EDAA04429E}" ref="E1" dT="2024-06-09T13:30:45" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
-    <text>@宾晓华 这里</text>
-  </threadedComment>
-  <threadedComment id="{14C968F9-8D8D-4C80-8F9D-7AC2DE93639E}" ref="C6" dT="2024-06-14T02:49:20" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
+  <threadedComment id="{24D52379-8453-4DE7-83F4-258872B8BD1A}" ref="C6" dT="2024-06-14T02:49:20" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
@@ -713,25 +713,25 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{13FB0462-67E8-40DB-8A1B-3DD1C7B7BB1B}" ref="C1" dT="2024-05-10T07:54:02" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{57F1A3C5-98B0-4856-B23C-77BDF2B931AB}" ref="D1" dT="2024-05-10T08:11:19" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
+  <threadedComment id="{5C7CD0B5-8E8B-4022-BB1E-0E2A44212101}" ref="D1" dT="2024-05-10T08:11:19" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{9395dd9c-79a8-4705-839a-ec9695c28571}" ref="D1" dT="2024-05-10T08:15:39" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{57F1A3C5-98B0-4856-B23C-77BDF2B931AB}">
+  <threadedComment id="{3e993879-522b-45e4-95d6-9e642c38d3ae}" ref="D1" dT="2024-05-10T08:15:39" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{5C7CD0B5-8E8B-4022-BB1E-0E2A44212101}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{836141CE-64F2-47A4-B0CC-32CBA2F438BF}" ref="C1" dT="2024-05-10T07:54:02" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{99479855-AD8D-4C82-B9EF-B1C768C6D8EC}" ref="A2" dT="2024-06-26T06:41:07" personId="{ADEBFA77-4B51-4948-B1E7-01A407D48629}" parentId="{}">
+  <threadedComment id="{13B52695-517A-43D9-BDCB-AECE30EC507F}" ref="A2" dT="2024-06-26T06:41:07" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -873,7 +873,7 @@
         <v>actors_in_stage</v>
       </c>
       <c r="H1" s="1" t="str">
-        <v>kick_off_memory</v>
+        <v>kick_off_message</v>
       </c>
       <c r="I1" s="1" t="str">
         <v>exit_of_portal</v>
@@ -934,66 +934,66 @@
       <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="str">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3" t="str">
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1325,7 +1325,7 @@
         <v>actors_in_stage</v>
       </c>
       <c r="H1" s="1" t="str">
-        <v>kick_off_memory</v>
+        <v>kick_off_message</v>
       </c>
       <c r="I1" s="1" t="str">
         <v>exit_of_portal</v>
@@ -1375,31 +1375,31 @@
       <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1827,49 +1827,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1905,7 +1905,7 @@
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -1914,7 +1914,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -1952,7 +1952,7 @@
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -1961,13 +1961,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="3" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2007,13 +2007,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2055,7 +2055,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2080,7 +2080,7 @@
       <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2089,7 +2089,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -33,40 +33,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4888C72F-844C-4E42-A1E0-7E513E46E074}</author>
-    <author>tc={DEF321D1-9D6A-4F79-8C91-5D51D6D63DC6}</author>
-    <author>tc={9F468E66-502E-4E4E-B896-B7E9B9DE272C}</author>
-    <author>tc={8BB45A2E-51CB-455A-A5DB-147EB3B9AE92}</author>
-    <author>tc={D3C47417-4673-4518-AB61-84FCB80655CD}</author>
-    <author>tc={EB3B585F-507F-4522-85A7-B6D82D7557C9}</author>
+    <author>tc={C7BEFBC3-BF62-4F3F-9A45-BAFF554251AC}</author>
+    <author>tc={8DA67E9C-E775-49ED-89FB-34AD1E48E4DF}</author>
+    <author>tc={D7452A9B-0A81-40B8-8683-C06736FFBDA1}</author>
+    <author>tc={94F85563-DE3C-4F45-8AF0-86DFCA404F8D}</author>
+    <author>tc={7CA96FFB-B1BE-46E5-9B0C-D2E755809C28}</author>
+    <author>tc={B96EF982-1D98-4EEA-8F85-370CA84B3B94}</author>
   </authors>
   <commentList>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{4888C72F-844C-4E42-A1E0-7E513E46E074}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{C7BEFBC3-BF62-4F3F-9A45-BAFF554251AC}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{8DA67E9C-E775-49ED-89FB-34AD1E48E4DF}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{DEF321D1-9D6A-4F79-8C91-5D51D6D63DC6}">
+    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{D7452A9B-0A81-40B8-8683-C06736FFBDA1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{9F468E66-502E-4E4E-B896-B7E9B9DE272C}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{8BB45A2E-51CB-455A-A5DB-147EB3B9AE92}">
+    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{94F85563-DE3C-4F45-8AF0-86DFCA404F8D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{D3C47417-4673-4518-AB61-84FCB80655CD}">
+    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{7CA96FFB-B1BE-46E5-9B0C-D2E755809C28}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{EB3B585F-507F-4522-85A7-B6D82D7557C9}">
+    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{B96EF982-1D98-4EEA-8F85-370CA84B3B94}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
@@ -78,10 +78,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={408F8C31-42B8-4F84-87D2-92DC1AF46779}</author>
+    <author>tc={58B7E06A-D2E3-4E7A-82A2-DB9B7894B6F8}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{408F8C31-42B8-4F84-87D2-92DC1AF46779}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{58B7E06A-D2E3-4E7A-82A2-DB9B7894B6F8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,22 +93,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9A2C7972-00D8-4052-BDCB-DB2E267D6D66}</author>
-    <author>tc={96025EC3-3895-47B1-B2CC-F5CE7AF733E9}</author>
-    <author>tc={24D52379-8453-4DE7-83F4-258872B8BD1A}</author>
+    <author>tc={3F303CD2-730B-474A-8C6F-A14408DFDEDF}</author>
+    <author>tc={E2BA7931-AE2A-4252-BA56-336B6968773D}</author>
+    <author>tc={05CFDCC0-5AA0-4EC9-9C84-87945BBC5B44}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9A2C7972-00D8-4052-BDCB-DB2E267D6D66}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3F303CD2-730B-474A-8C6F-A14408DFDEDF}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{96025EC3-3895-47B1-B2CC-F5CE7AF733E9}">
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{E2BA7931-AE2A-4252-BA56-336B6968773D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{24D52379-8453-4DE7-83F4-258872B8BD1A}">
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{05CFDCC0-5AA0-4EC9-9C84-87945BBC5B44}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
@@ -120,22 +120,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={5C7CD0B5-8E8B-4022-BB1E-0E2A44212101}</author>
-    <author>tc={836141CE-64F2-47A4-B0CC-32CBA2F438BF}</author>
+    <author>tc={27625905-C783-42B0-91D9-81DEB2C46246}</author>
+    <author>tc={BBC2E41C-19CB-4684-868B-AAD92329F4A8}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5C7CD0B5-8E8B-4022-BB1E-0E2A44212101}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{27625905-C783-42B0-91D9-81DEB2C46246}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{BBC2E41C-19CB-4684-868B-AAD92329F4A8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{836141CE-64F2-47A4-B0CC-32CBA2F438BF}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -145,10 +145,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={13B52695-517A-43D9-BDCB-AECE30EC507F}</author>
+    <author>tc={3147C514-1952-4C75-93C5-DE61DE459CC0}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{13B52695-517A-43D9-BDCB-AECE30EC507F}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{3147C514-1952-4C75-93C5-DE61DE459CC0}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -180,24 +180,6 @@
       <t xml:space="preserve"> 用于测试与重构用的，目前只作为测试切换场景，场景限制条件与对场景使用道具用</t>
     </r>
   </si>
-  <si>
-    <t/>
-    <r>
-      <t xml:space="preserve"># 测试的世界，用于测试对场景使用道具与进出场景。目前只有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@杨行</t>
-    </r>
-    <r>
-      <t>用</t>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -207,13 +189,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,7 +208,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -241,6 +216,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -333,13 +315,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -363,8 +345,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{84D2F695-B099-4956-9EF6-40355BAB5B6A}" userId="S::::0f50f4f2-6b68-4fda-bb2d-785d2618c4e6" providerId="AD"/>
-  <person displayName="杨行" id="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" userId="S::::e6af7a26-4c47-4954-bb20-b3bf8c156531" providerId="AD"/>
+  <person displayName="杨行" id="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" userId="S::::7ca825da-3fbf-451e-9fbe-7f6952b3a07c" providerId="AD"/>
+  <person displayName="侯清辰" id="{C660A6F9-D9CF-48B1-8B6B-DF5A47CC75F6}" userId="S::::b9580aee-045b-4a56-9625-bd7614898772" providerId="AD"/>
 </personList>
 </file>
 
@@ -665,25 +647,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{4888C72F-844C-4E42-A1E0-7E513E46E074}" ref="H9" dT="2024-06-14T02:51:06" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+  <threadedComment id="{C7BEFBC3-BF62-4F3F-9A45-BAFF554251AC}" ref="A4" dT="2024-05-28T04:59:59" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{8DA67E9C-E775-49ED-89FB-34AD1E48E4DF}" ref="H9" dT="2024-06-14T02:51:06" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{DEF321D1-9D6A-4F79-8C91-5D51D6D63DC6}" ref="H6" dT="2024-06-14T02:50:34" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+  <threadedComment id="{D7452A9B-0A81-40B8-8683-C06736FFBDA1}" ref="H6" dT="2024-06-14T02:50:34" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{9F468E66-502E-4E4E-B896-B7E9B9DE272C}" ref="A4" dT="2024-05-28T04:59:59" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{8BB45A2E-51CB-455A-A5DB-147EB3B9AE92}" ref="J1" dT="2024-05-10T07:08:22" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+  <threadedComment id="{94F85563-DE3C-4F45-8AF0-86DFCA404F8D}" ref="J1" dT="2024-05-10T07:08:22" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{6fe62aa6-9947-4cdc-be54-afda42a0b67a}" ref="J1" dT="2024-06-19T05:39:57" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{8BB45A2E-51CB-455A-A5DB-147EB3B9AE92}">
+  <threadedComment id="{de053a1d-9a32-4f6d-85aa-1bec778a0204}" ref="J1" dT="2024-06-19T05:39:57" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{94F85563-DE3C-4F45-8AF0-86DFCA404F8D}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{D3C47417-4673-4518-AB61-84FCB80655CD}" ref="K1" dT="2024-05-31T03:31:01" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+  <threadedComment id="{7CA96FFB-B1BE-46E5-9B0C-D2E755809C28}" ref="K1" dT="2024-05-31T03:31:01" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{EB3B585F-507F-4522-85A7-B6D82D7557C9}" ref="C2" dT="2024-06-14T02:49:51" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+  <threadedComment id="{B96EF982-1D98-4EEA-8F85-370CA84B3B94}" ref="C2" dT="2024-06-14T02:49:51" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
@@ -691,7 +673,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{408F8C31-42B8-4F84-87D2-92DC1AF46779}" ref="D1" dT="2024-06-09T13:30:31" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+  <threadedComment id="{58B7E06A-D2E3-4E7A-82A2-DB9B7894B6F8}" ref="D1" dT="2024-06-09T13:30:31" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -699,13 +681,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{9A2C7972-00D8-4052-BDCB-DB2E267D6D66}" ref="E1" dT="2024-06-09T13:30:45" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+  <threadedComment id="{3F303CD2-730B-474A-8C6F-A14408DFDEDF}" ref="E1" dT="2024-06-09T13:30:45" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{96025EC3-3895-47B1-B2CC-F5CE7AF733E9}" ref="C5" dT="2024-06-14T02:48:45" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+  <threadedComment id="{E2BA7931-AE2A-4252-BA56-336B6968773D}" ref="C5" dT="2024-06-14T02:48:45" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{24D52379-8453-4DE7-83F4-258872B8BD1A}" ref="C6" dT="2024-06-14T02:49:20" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+  <threadedComment id="{05CFDCC0-5AA0-4EC9-9C84-87945BBC5B44}" ref="C6" dT="2024-06-14T02:49:20" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
@@ -713,25 +695,25 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{5C7CD0B5-8E8B-4022-BB1E-0E2A44212101}" ref="D1" dT="2024-05-10T08:11:19" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+  <threadedComment id="{27625905-C783-42B0-91D9-81DEB2C46246}" ref="C1" dT="2024-05-10T07:54:02" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{BBC2E41C-19CB-4684-868B-AAD92329F4A8}" ref="D1" dT="2024-05-10T08:11:19" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{3e993879-522b-45e4-95d6-9e642c38d3ae}" ref="D1" dT="2024-05-10T08:15:39" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{5C7CD0B5-8E8B-4022-BB1E-0E2A44212101}">
+  <threadedComment id="{b516c714-a56e-4ff4-acdd-d5e9d2a722b6}" ref="D1" dT="2024-05-10T08:15:39" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{BBC2E41C-19CB-4684-868B-AAD92329F4A8}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{836141CE-64F2-47A4-B0CC-32CBA2F438BF}" ref="C1" dT="2024-05-10T07:54:02" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{13B52695-517A-43D9-BDCB-AECE30EC507F}" ref="A2" dT="2024-06-26T06:41:07" personId="{E538CC9F-42B9-483A-BBC9-D3941B75AE61}" parentId="{}">
+  <threadedComment id="{3147C514-1952-4C75-93C5-DE61DE459CC0}" ref="A2" dT="2024-06-26T06:41:07" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -771,30 +753,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -851,214 +833,205 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <v>Config</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v># 这是一个内部开发与测试用的demo，文体风格是恐怖类型。
-## 目的在这个阶段测试LLM对恐怖、血腥与暴力元素的容忍度。已经如果出了问题，我方应该怎么兼容。
-## 目前场景有6个。
-## Player 有2个——出生地有2个。
-## 道具若干。
-## NPC有4个。分2个阵营：
-- 阵营1，人与狗：正常的NPC（知道信息多，可以对话）+ 仆从型NPC(守护前者，并服从前者命令)
-- 阵营2，大小老鼠：大老鼠是BOSS设定 + 小老鼠是触发型NPC(根据条件激活并执行任务，目前任务是唤醒BOSS)
-## 基本流程：
-- 第一个场景为测试使用道具。
-- BOSS如果醒了就是‘鬼抓人’的游戏，BOSS的设计就是遍历场景去找到你并杀你。
-- 正常就是对话类型游戏。</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
+      <c r="B2" s="2" t="str">
+        <v>AboutGame</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <v>## 游戏风格声明
+- 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
+- 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="str">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="str">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4" t="str">
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2" t="str">
+      <c r="J5" s="2"/>
+      <c r="K5" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2" t="str">
+      <c r="J6" s="2"/>
+      <c r="K6" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1066,42 +1039,42 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2" t="str">
+      <c r="J7" s="2"/>
+      <c r="K7" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="H8" s="1" t="str">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="H8" s="2" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2" t="str">
+      <c r="J8" s="2"/>
+      <c r="K8" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="H9" s="1" t="str">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="H9" s="2" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1109,150 +1082,150 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2" t="str">
+      <c r="J9" s="2"/>
+      <c r="K9" s="1" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="str">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="K10" s="1" t="str">
+      <c r="K10" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="M10" s="2" t="str">
+      <c r="M10" s="1" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="O10" s="2" t="str">
+      <c r="O10" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="str">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" s="2" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="K11" s="1" t="str">
+      <c r="K11" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="str">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="H12" s="2" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="K12" s="1" t="str">
+      <c r="K12" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="str">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="str">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="K13" s="1" t="str">
+      <c r="K13" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="str">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I14" s="2" t="str">
+      <c r="I14" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="K14" s="1" t="str">
+      <c r="K14" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="2" t="str">
         <v>圣灰园正门前广场（忽略）</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="str">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="2" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="I15" s="2" t="str">
+      <c r="I15" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="K15" s="1" t="str">
+      <c r="K15" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1282,7 +1255,7 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="49"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="49"/>
@@ -1303,152 +1276,154 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>exit_of_portal</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <v>Config</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
+      <c r="B2" s="2" t="str">
+        <v>AboutGame</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <v>## 游戏风格声明
+- 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
+- 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2" t="str">
+      <c r="J4" s="2"/>
+      <c r="K4" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="K5" s="1" t="str">
+      <c r="K5" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="O5" s="2" t="str">
+      <c r="O5" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -1460,51 +1435,51 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="K6" s="1" t="str">
+      <c r="K6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="K7" s="1" t="str">
+      <c r="K7" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="str">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="N7" s="2" t="str">
+      <c r="N7" s="1" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="O7" s="6" t="str">
@@ -1559,184 +1534,184 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8100</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>8101</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>8102</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>8103</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>8104</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>8105</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1793,92 +1768,92 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>body</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -1898,40 +1873,40 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -1946,39 +1921,39 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 吱吱吱～～（开心的摇尾巴）～～～～"
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -1993,38 +1968,38 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -2041,61 +2016,61 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="2" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="I9" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="2" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
@@ -2153,236 +2128,236 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>炙热无比的长钩</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>0,0,10000,0</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很"锋利和尖锐"。</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>形状像断掉的手指的钥匙</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="H8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="2" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>黑色长袍与斗篷。</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2423,54 +2398,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>world_system_appearance_builder</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8300</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>/worldsystems/appearance_builder</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -8,12 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="封面说明" sheetId="2" r:id="rId6"/>
-    <sheet name="World2" sheetId="3" r:id="rId7"/>
-    <sheet name="World3" sheetId="4" r:id="rId8"/>
-    <sheet name="Stage" sheetId="5" r:id="rId9"/>
-    <sheet name="Actor" sheetId="6" r:id="rId10"/>
-    <sheet name="Prop" sheetId="7" r:id="rId11"/>
-    <sheet name="WorldSystem" sheetId="8" r:id="rId12"/>
+    <sheet name="World3" sheetId="3" r:id="rId7"/>
+    <sheet name="World2" sheetId="4" r:id="rId8"/>
+    <sheet name="World1" sheetId="5" r:id="rId9"/>
+    <sheet name="Stage" sheetId="6" r:id="rId10"/>
+    <sheet name="Actor" sheetId="7" r:id="rId11"/>
+    <sheet name="Prop" sheetId="8" r:id="rId12"/>
+    <sheet name="WorldSystem" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -33,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C7BEFBC3-BF62-4F3F-9A45-BAFF554251AC}</author>
-    <author>tc={8DA67E9C-E775-49ED-89FB-34AD1E48E4DF}</author>
-    <author>tc={D7452A9B-0A81-40B8-8683-C06736FFBDA1}</author>
-    <author>tc={94F85563-DE3C-4F45-8AF0-86DFCA404F8D}</author>
-    <author>tc={7CA96FFB-B1BE-46E5-9B0C-D2E755809C28}</author>
-    <author>tc={B96EF982-1D98-4EEA-8F85-370CA84B3B94}</author>
+    <author>tc={2F2B105E-ABB9-49A6-A96A-1C2223C1A0EB}</author>
+    <author>tc={DACC6C51-C749-4C3E-AD4B-5B743F2531F9}</author>
+    <author>tc={47852719-2E72-450B-A968-6DDFEB9FE1ED}</author>
+    <author>tc={DEF3E860-50AC-4C7D-9E94-840A47B1DFE3}</author>
+    <author>tc={04FF245D-A34F-47B4-ABC0-7A260DB70FD5}</author>
+    <author>tc={01DEDB52-06C1-4708-A775-164D272A2E73}</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{C7BEFBC3-BF62-4F3F-9A45-BAFF554251AC}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{2F2B105E-ABB9-49A6-A96A-1C2223C1A0EB}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{DACC6C51-C749-4C3E-AD4B-5B743F2531F9}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{47852719-2E72-450B-A968-6DDFEB9FE1ED}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{8DA67E9C-E775-49ED-89FB-34AD1E48E4DF}">
+    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{DEF3E860-50AC-4C7D-9E94-840A47B1DFE3}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{D7452A9B-0A81-40B8-8683-C06736FFBDA1}">
+    <comment ref="H6" authorId="4" shapeId="0" xr:uid="{04FF245D-A34F-47B4-ABC0-7A260DB70FD5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{94F85563-DE3C-4F45-8AF0-86DFCA404F8D}">
+    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{01DEDB52-06C1-4708-A775-164D272A2E73}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{7CA96FFB-B1BE-46E5-9B0C-D2E755809C28}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{B96EF982-1D98-4EEA-8F85-370CA84B3B94}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
   </commentList>
@@ -78,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={58B7E06A-D2E3-4E7A-82A2-DB9B7894B6F8}</author>
+    <author>tc={CD7F0DBD-E3FE-40D2-A7C1-EDBDDA444698}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{58B7E06A-D2E3-4E7A-82A2-DB9B7894B6F8}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CD7F0DBD-E3FE-40D2-A7C1-EDBDDA444698}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -93,22 +94,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3F303CD2-730B-474A-8C6F-A14408DFDEDF}</author>
-    <author>tc={E2BA7931-AE2A-4252-BA56-336B6968773D}</author>
-    <author>tc={05CFDCC0-5AA0-4EC9-9C84-87945BBC5B44}</author>
+    <author>tc={184EF88C-9DC4-4E35-B1AD-1504F187565C}</author>
+    <author>tc={A14DC847-8A5D-4AFB-B0E8-16198BA1EE3B}</author>
+    <author>tc={5CC9D391-438E-4205-87FE-70F9C7648A1A}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3F303CD2-730B-474A-8C6F-A14408DFDEDF}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{184EF88C-9DC4-4E35-B1AD-1504F187565C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{E2BA7931-AE2A-4252-BA56-336B6968773D}">
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{A14DC847-8A5D-4AFB-B0E8-16198BA1EE3B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{05CFDCC0-5AA0-4EC9-9C84-87945BBC5B44}">
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{5CC9D391-438E-4205-87FE-70F9C7648A1A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
@@ -120,16 +121,16 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={27625905-C783-42B0-91D9-81DEB2C46246}</author>
-    <author>tc={BBC2E41C-19CB-4684-868B-AAD92329F4A8}</author>
+    <author>tc={178E8CDE-B784-48ED-B787-757CEE75CE7D}</author>
+    <author>tc={1287B476-6EE7-450C-8F12-9BD8CB211CD8}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{27625905-C783-42B0-91D9-81DEB2C46246}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{178E8CDE-B784-48ED-B787-757CEE75CE7D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{BBC2E41C-19CB-4684-868B-AAD92329F4A8}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{1287B476-6EE7-450C-8F12-9BD8CB211CD8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -145,10 +146,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3147C514-1952-4C75-93C5-DE61DE459CC0}</author>
+    <author>tc={932B37A1-F03E-420B-94E7-A3969E047B71}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{3147C514-1952-4C75-93C5-DE61DE459CC0}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{932B37A1-F03E-420B-94E7-A3969E047B71}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -208,7 +209,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -229,7 +230,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -345,8 +346,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" userId="S::::7ca825da-3fbf-451e-9fbe-7f6952b3a07c" providerId="AD"/>
-  <person displayName="侯清辰" id="{C660A6F9-D9CF-48B1-8B6B-DF5A47CC75F6}" userId="S::::b9580aee-045b-4a56-9625-bd7614898772" providerId="AD"/>
+  <person displayName="杨行" id="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" userId="S::::11ddfe37-f195-46ac-bc44-aea4258142bc" providerId="AD"/>
+  <person displayName="侯清辰" id="{C1E011DB-E0F2-4F4D-8D8E-476A1B0E7EAA}" userId="S::::1fc103d3-fc90-495c-a006-4dd1eb5d58f2" providerId="AD"/>
 </personList>
 </file>
 
@@ -647,33 +648,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{C7BEFBC3-BF62-4F3F-9A45-BAFF554251AC}" ref="A4" dT="2024-05-28T04:59:59" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
+  <threadedComment id="{2F2B105E-ABB9-49A6-A96A-1C2223C1A0EB}" ref="C2" dT="2024-06-14T02:49:51" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{DACC6C51-C749-4C3E-AD4B-5B743F2531F9}" ref="J1" dT="2024-05-10T07:08:22" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{cea4b617-c401-4645-ae88-909a9da6b2ed}" ref="J1" dT="2024-06-19T05:39:57" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{DACC6C51-C749-4C3E-AD4B-5B743F2531F9}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{47852719-2E72-450B-A968-6DDFEB9FE1ED}" ref="A4" dT="2024-05-28T04:59:59" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{8DA67E9C-E775-49ED-89FB-34AD1E48E4DF}" ref="H9" dT="2024-06-14T02:51:06" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  <threadedComment id="{DEF3E860-50AC-4C7D-9E94-840A47B1DFE3}" ref="K1" dT="2024-05-31T03:31:01" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{D7452A9B-0A81-40B8-8683-C06736FFBDA1}" ref="H6" dT="2024-06-14T02:50:34" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
+  <threadedComment id="{04FF245D-A34F-47B4-ABC0-7A260DB70FD5}" ref="H6" dT="2024-06-14T02:50:34" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{94F85563-DE3C-4F45-8AF0-86DFCA404F8D}" ref="J1" dT="2024-05-10T07:08:22" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{de053a1d-9a32-4f6d-85aa-1bec778a0204}" ref="J1" dT="2024-06-19T05:39:57" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{94F85563-DE3C-4F45-8AF0-86DFCA404F8D}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{7CA96FFB-B1BE-46E5-9B0C-D2E755809C28}" ref="K1" dT="2024-05-31T03:31:01" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{B96EF982-1D98-4EEA-8F85-370CA84B3B94}" ref="C2" dT="2024-06-14T02:49:51" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  <threadedComment id="{01DEDB52-06C1-4708-A775-164D272A2E73}" ref="H9" dT="2024-06-14T02:51:06" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{58B7E06A-D2E3-4E7A-82A2-DB9B7894B6F8}" ref="D1" dT="2024-06-09T13:30:31" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
+  <threadedComment id="{CD7F0DBD-E3FE-40D2-A7C1-EDBDDA444698}" ref="D1" dT="2024-06-09T13:30:31" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -681,13 +682,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{3F303CD2-730B-474A-8C6F-A14408DFDEDF}" ref="E1" dT="2024-06-09T13:30:45" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
+  <threadedComment id="{184EF88C-9DC4-4E35-B1AD-1504F187565C}" ref="E1" dT="2024-06-09T13:30:45" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{E2BA7931-AE2A-4252-BA56-336B6968773D}" ref="C5" dT="2024-06-14T02:48:45" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
+  <threadedComment id="{A14DC847-8A5D-4AFB-B0E8-16198BA1EE3B}" ref="C5" dT="2024-06-14T02:48:45" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{05CFDCC0-5AA0-4EC9-9C84-87945BBC5B44}" ref="C6" dT="2024-06-14T02:49:20" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
+  <threadedComment id="{5CC9D391-438E-4205-87FE-70F9C7648A1A}" ref="C6" dT="2024-06-14T02:49:20" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
@@ -695,17 +696,17 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{27625905-C783-42B0-91D9-81DEB2C46246}" ref="C1" dT="2024-05-10T07:54:02" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
+  <threadedComment id="{178E8CDE-B784-48ED-B787-757CEE75CE7D}" ref="C1" dT="2024-05-10T07:54:02" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{BBC2E41C-19CB-4684-868B-AAD92329F4A8}" ref="D1" dT="2024-05-10T08:11:19" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
+  <threadedComment id="{1287B476-6EE7-450C-8F12-9BD8CB211CD8}" ref="D1" dT="2024-05-10T08:11:19" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{b516c714-a56e-4ff4-acdd-d5e9d2a722b6}" ref="D1" dT="2024-05-10T08:15:39" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{BBC2E41C-19CB-4684-868B-AAD92329F4A8}">
+  <threadedComment id="{3b76bc24-babe-4a92-94e3-be01770491c8}" ref="D1" dT="2024-05-10T08:15:39" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{1287B476-6EE7-450C-8F12-9BD8CB211CD8}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
 </ThreadedComments>
@@ -713,7 +714,7 @@
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{3147C514-1952-4C75-93C5-DE61DE459CC0}" ref="A2" dT="2024-06-26T06:41:07" personId="{67A7ECE1-1750-41B0-9D10-8627F133F49E}" parentId="{}">
+  <threadedComment id="{932B37A1-F03E-420B-94E7-A3969E047B71}" ref="A2" dT="2024-06-26T06:41:07" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -811,6 +812,264 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="49"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="49"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="115"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="102"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="84"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="14"/>
+  </cols>
+  <sheetData>
+    <row customHeight="true" ht="23" r="1">
+      <c r="A1" s="2" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <v>type</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <v>description</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <v>actor_prop</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <v>actor_current_using_prop</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <v>stage_prop</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <v>actors_in_stage</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <v>kick_off_message</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <v>exit_of_portal</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <v>appearance</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <v>attributes</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <v>stage_entry_status</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <v>stage_entry_actor_status</v>
+      </c>
+      <c r="N1" s="1" t="str">
+        <v>stage_entry_actor_props</v>
+      </c>
+      <c r="O1" s="1" t="str">
+        <v>stage_exit_status</v>
+      </c>
+      <c r="P1" s="1" t="str">
+        <v>stage_exit_actor_status</v>
+      </c>
+      <c r="Q1" s="1" t="str">
+        <v>stage_exit_actor_props</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="str">
+        <v>测试的游戏介绍</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <v>AboutGame</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <v>## 游戏风格声明
+- 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
+- 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row customHeight="true" ht="42" r="3">
+      <c r="A3" s="4" t="str">
+        <v>角色外观生成器</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <v>WorldSystem</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <v>见‘WorldSystem’</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="str">
+        <v>无名的复活者</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <v>Player</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
+        <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <v>不死者印记;破旧的衣服;腐朽的匕首</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
+- 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
+- 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1" t="str">
+        <v>100,100,10,1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="5">
+      <c r="A5" s="2" t="str">
+        <v>禁言铁棺</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="str">
+        <v>无名的复活者</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <v>灰颜墓地</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <v>10000,10000,5,10000</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
+- 否则就不允许任何在你之中的角色离开。</v>
+      </c>
+      <c r="P5" t="str">
+        <v>要离开的角色必须是人类。</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>要离开的角色身上必须具有‘不死者印记’。</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="6">
+      <c r="A6" s="2" t="str">
+        <v>灰颜墓地</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="str">
+        <v>墓地里静悄悄</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="str">
+        <v>灰颜礼拜堂</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="str">
+        <v>厅堂里安静无比。</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <v>礼拜堂的密室</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="str">
+        <v>- 要求进入者必须是人类
+- 但是如果是灰面紫瞳的不死人，就不允许进入</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
+      </c>
+      <c r="O7" s="3" t="str">
+        <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
+- 其他道具对你使用均无效</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="8"/>
+    <row customHeight="true" ht="23" r="9"/>
+    <row customHeight="true" ht="23" r="10"/>
+    <row customHeight="true" ht="23" r="11"/>
+    <row customHeight="true" ht="23" r="12"/>
+    <row customHeight="true" ht="23" r="13"/>
+    <row customHeight="true" ht="23" r="14"/>
+    <row customHeight="true" ht="23" r="15"/>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="true" workbookViewId="0">
+      <pane state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
@@ -920,7 +1179,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
@@ -949,7 +1208,7 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="6" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
@@ -1241,7 +1500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -1254,12 +1513,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="82"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="141"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="49"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="49"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="115"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="45"/>
@@ -1336,9 +1595,13 @@
         <v>AboutGame</v>
       </c>
       <c r="C2" s="2" t="str">
-        <v>## 游戏风格声明
-- 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
-- 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
+        <v>## 游戏概述：
+- 本游戏以中国历史中的三国时代（借鉴小说《三国演义》）为背景的 历史奇幻类 角色扮演游戏。
+- 本游戏融合了历史的真实感与奇幻元素。以“架空”的三国时代为背景。
+- 玩家和你将沉浸在一个充满战争、权谋、超自然恐怖与英雄主义的世界中。在复杂的联盟与背叛中穿梭，你们将面对激烈的战斗、黑暗的仪式，以及在乱世中求生的残酷现实。
+- 玩家和你的行为可改变游戏中的历史走向与历史人物的命运。
+- 游戏内容（文本）可能包含恐怖、血腥与暴力场景。这一切旨在为玩家带来深度沉浸式的体验。
+- 注意！请你接受以上设定。</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1363,7 +1626,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
@@ -1377,23 +1640,23 @@
       <c r="S3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>无名的复活者</v>
+      <c r="A4" s="1" t="str">
+        <v>人物.火十一</v>
       </c>
       <c r="B4" s="2" t="str">
         <v>Player</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="str">
-        <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
+        <v>黑火印记;粗布牢服</v>
       </c>
       <c r="E4" s="2" t="str">
-        <v>不死者印记;破旧的衣服;腐朽的匕首</v>
+        <v>粗布牢服</v>
       </c>
       <c r="H4" s="2" t="str">
-        <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
-- 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
-- 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
+        <v>- 在昏暗潮湿的牢房内，你缓缓睁开眼睛，意识逐渐恢复。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。
+- 你难以回忆起任何事情。
+- 你看见了面前的，有些腐化的木牌上写着：“火十一”，也许这就是你的名字？</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1" t="str">
@@ -1402,7 +1665,7 @@
     </row>
     <row customHeight="true" ht="23" r="5">
       <c r="A5" s="2" t="str">
-        <v>禁言铁棺</v>
+        <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
       <c r="B5" s="2" t="str">
         <v>Stage</v>
@@ -1410,96 +1673,29 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="str">
-        <v>无名的复活者</v>
+      <c r="G5" s="1" t="str">
+        <v>人物.火十一</v>
       </c>
       <c r="H5" s="2" t="str">
-        <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <v>灰颜墓地</v>
-      </c>
+        <v>- 人物.火十一，他醒来了。</v>
+      </c>
+      <c r="I5" s="2"/>
       <c r="K5" s="2" t="str">
-        <v>10000,10000,5,10000</v>
-      </c>
-      <c r="O5" s="1" t="str">
-        <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
-- 否则就不允许任何在你之中的角色离开。</v>
-      </c>
-      <c r="P5" t="str">
-        <v>要离开的角色必须是人类。</v>
-      </c>
-      <c r="Q5" t="str">
-        <v>要离开的角色身上必须具有‘不死者印记’。</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
-        <v>灰颜墓地</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <v>Stage</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="str">
-        <v>墓地里静悄悄</v>
-      </c>
-      <c r="K6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>灰颜礼拜堂</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <v>Stage</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="str">
-        <v>厅堂里安静无比。</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <v>礼拜堂的密室</v>
-      </c>
-      <c r="K7" s="2" t="str">
-        <v>10000,10000,1,10000</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="str">
-        <v>- 要求进入者必须是人类
-- 但是如果是灰面紫瞳的不死人，就不允许进入</v>
-      </c>
-      <c r="N7" s="1" t="str">
-        <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
-      </c>
-      <c r="O7" s="6" t="str">
-        <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
-- 其他道具对你使用均无效</v>
-      </c>
-    </row>
+      <c r="O5" s="1"/>
+    </row>
+    <row customHeight="true" ht="23" r="6"/>
+    <row customHeight="true" ht="23" r="7"/>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
-    <row customHeight="true" ht="23" r="12"/>
-    <row customHeight="true" ht="23" r="13"/>
-    <row customHeight="true" ht="23" r="14"/>
-    <row customHeight="true" ht="23" r="15"/>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -1518,7 +1714,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="52"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="53"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="52"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
@@ -1717,7 +1913,35 @@
     </row>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
-    <row customHeight="true" ht="23" r="10"/>
+    <row r="10">
+      <c r="A10" s="2" t="str">
+        <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <v>stage_name_cell_fire11</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <v>牢门上，一个有些腐化的木牌上写着：“火十一”——即是这牢房的名字。
+在昏暗潮湿的牢房中，四周的空气弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍，石墙的缝隙中透出微弱的冷风。
+牢房的空间狭窄逼仄，头顶低矮的天花板让人感到压抑。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。地面上散落着几根破旧的稻草，散发着难以忍受的酸臭味，脚下的土地坚硬冰冷。铁栏门上满是锈迹，偶尔有冷风吹过，门上的铁链和锁扣发出轻微的摩擦声，显得格外刺耳。
+墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。角落里的一张石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙刺手。整个牢房中只有低沉的滴水声和铁链的摩擦声回荡在寂静中。</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8106</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <v>/stage/stage_name_cell_fire11</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <v>sys_templates/three_kingdoms_stage_sys_prompt_template.md</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="11"/>
     <row customHeight="true" ht="23" r="12"/>
     <row customHeight="true" ht="23" r="13"/>
@@ -1733,7 +1957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -1747,11 +1971,11 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="49"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="290"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="224"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="62"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="62"/>
@@ -2076,7 +2300,40 @@
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
-    <row customHeight="true" ht="23" r="12"/>
+    <row r="12">
+      <c r="A12" s="1" t="str">
+        <v>人物.火十一</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <v>player_name_subject_fire11</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <v>### 你的背景
+- 你是玩家操纵角色，不需要背景描述。</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <v>无设定</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8206</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <v>/actor/player_name_subject_fire11</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <v>二十岁左右的男性人类。身材中等，不高不矮，看上去并不很强壮。
+眼睛是特殊的红色，面色呈现一种不健康的灰暗。</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="13"/>
     <row customHeight="true" ht="23" r="14"/>
     <row customHeight="true" ht="23" r="15"/>
@@ -2090,7 +2347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -2363,10 +2620,110 @@
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
-    <row customHeight="true" ht="23" r="12"/>
-    <row customHeight="true" ht="23" r="13"/>
-    <row customHeight="true" ht="23" r="14"/>
-    <row customHeight="true" ht="23" r="15"/>
+    <row customHeight="true" ht="23" r="12">
+      <c r="A12" s="2" t="str">
+        <v>黑火印记</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <v>mark_of_black_fire</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <v>No</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <v>SpecialComponent</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <v>被诅咒之人的印记——盘旋的黑色火焰化作灭世的龙</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <v>右手的手背上的印记，呈黑色，形状看上去犹如盘旋的黑色火焰</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <v>0,0,0,0</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="13">
+      <c r="A13" s="2" t="str">
+        <v>黄巾军长剑</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <v>huangjin_long_sword</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <v>No</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <v>Weapon</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <v>普通但可靠的剑，黄巾军中低阶军官的标准装备。这种剑由黄巾军内部的铁匠工坊铸造，材料虽不算上乘，但胜在耐用和易于维护。</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <v>剑身长约三尺，剑刃虽有些许磨损的痕迹，但依然锋利。剑柄包裹着简单的粗麻绳。剑鞘由黑色牛皮制成，质朴无华并不显眼。</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <v>0,0,1,0</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="14">
+      <c r="A14" s="2" t="str">
+        <v>黄巾军军官服</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <v>huangjin_officer_uniform</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <v>No</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <v>Clothes</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <v>黄巾军军官服是普通军官在行军作战时的常规装束，设计简洁实用，以便于在战场上行动自如。这套服装由耐磨的粗布制成，能够应对各种恶劣的环境，兼具一定的防护作用。</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <v>由深黄色的粗布制成，整体设计简朴且耐用。上衣为束腰的短袍，配有几道简单的绣纹装饰，袖口较窄，便于行动。腰间系着一条宽厚的布带，用以固定短刀或其他小物件。下装是宽松的裤子，裤腿绑着布条，以防止绊脚。脚上穿着一双结实的草鞋，适合在各种地形上行走。整套装束并无多余的装饰。</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <v>0,0,0,1</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="15">
+      <c r="A15" t="str">
+        <v>粗布牢服</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <v>coarse_prison_uniform</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <v>No</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <v>Clothes</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <v>粗布牢服是秘密监狱中囚犯的标准服装，由廉价且耐磨的粗布制成。服装设计简陋，只为满足基本的保暖和遮体需求。上面有一些“奇特的符号”</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <v>由深灰色的粗糙麻布制成，布料质地粗糙，表面有明显的纺织纹理和磨损痕迹。衣领低矮，袖子宽大且略显破旧，袖口处甚至还有几道撕裂的口子。服装的前襟和后背上用粗线绣着几个简单的符号，线迹不规整，仿佛是仓促中加上的。衣服的下摆长及膝盖，边缘已经磨损得参差不齐，显现出长期使用的痕迹</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <v>0,0,0,1</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="16"/>
     <row customHeight="true" ht="23" r="17"/>
     <row customHeight="true" ht="23" r="18"/>
@@ -2377,7 +2734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2F2B105E-ABB9-49A6-A96A-1C2223C1A0EB}</author>
-    <author>tc={DACC6C51-C749-4C3E-AD4B-5B743F2531F9}</author>
-    <author>tc={47852719-2E72-450B-A968-6DDFEB9FE1ED}</author>
-    <author>tc={DEF3E860-50AC-4C7D-9E94-840A47B1DFE3}</author>
-    <author>tc={04FF245D-A34F-47B4-ABC0-7A260DB70FD5}</author>
-    <author>tc={01DEDB52-06C1-4708-A775-164D272A2E73}</author>
+    <author>tc={C518A5D9-81D8-47A5-B18C-CB052CDB6465}</author>
+    <author>tc={D2BCFBF8-E81A-4C06-BA7B-352803A3FF9D}</author>
+    <author>tc={DEE854E8-2A8D-4735-9422-713A5DA9DD92}</author>
+    <author>tc={2D3B5312-CF63-4685-81C1-76F05279722A}</author>
+    <author>tc={708A6262-42D7-426C-A2FB-53D5782F6ED5}</author>
+    <author>tc={E106CCCD-9B51-4884-8F24-2B05CD0C3C20}</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{2F2B105E-ABB9-49A6-A96A-1C2223C1A0EB}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{C518A5D9-81D8-47A5-B18C-CB052CDB6465}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{D2BCFBF8-E81A-4C06-BA7B-352803A3FF9D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{DEE854E8-2A8D-4735-9422-713A5DA9DD92}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{2D3B5312-CF63-4685-81C1-76F05279722A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{DACC6C51-C749-4C3E-AD4B-5B743F2531F9}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{47852719-2E72-450B-A968-6DDFEB9FE1ED}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{DEF3E860-50AC-4C7D-9E94-840A47B1DFE3}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="4" shapeId="0" xr:uid="{04FF245D-A34F-47B4-ABC0-7A260DB70FD5}">
+    <comment ref="H6" authorId="4" shapeId="0" xr:uid="{708A6262-42D7-426C-A2FB-53D5782F6ED5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{01DEDB52-06C1-4708-A775-164D272A2E73}">
+    <comment ref="K1" authorId="5" shapeId="0" xr:uid="{E106CCCD-9B51-4884-8F24-2B05CD0C3C20}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={CD7F0DBD-E3FE-40D2-A7C1-EDBDDA444698}</author>
+    <author>tc={A4684288-6C04-4313-9140-CE2DD7E9AC07}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CD7F0DBD-E3FE-40D2-A7C1-EDBDDA444698}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A4684288-6C04-4313-9140-CE2DD7E9AC07}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={184EF88C-9DC4-4E35-B1AD-1504F187565C}</author>
-    <author>tc={A14DC847-8A5D-4AFB-B0E8-16198BA1EE3B}</author>
-    <author>tc={5CC9D391-438E-4205-87FE-70F9C7648A1A}</author>
+    <author>tc={3E8AD4AD-01BC-41A2-AA18-13DB19C36C88}</author>
+    <author>tc={A43A6276-1C6F-4CED-AF1C-E6DBC28B9AF7}</author>
+    <author>tc={E09A15CB-6F36-4178-85C8-8DCC14AE76E7}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{184EF88C-9DC4-4E35-B1AD-1504F187565C}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{3E8AD4AD-01BC-41A2-AA18-13DB19C36C88}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{A14DC847-8A5D-4AFB-B0E8-16198BA1EE3B}">
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{A43A6276-1C6F-4CED-AF1C-E6DBC28B9AF7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{5CC9D391-438E-4205-87FE-70F9C7648A1A}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{E09A15CB-6F36-4178-85C8-8DCC14AE76E7}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
   </commentList>
@@ -121,16 +121,16 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={178E8CDE-B784-48ED-B787-757CEE75CE7D}</author>
-    <author>tc={1287B476-6EE7-450C-8F12-9BD8CB211CD8}</author>
+    <author>tc={38D69206-B253-4CAB-AFB6-79B7494B0490}</author>
+    <author>tc={45A93A8F-3BAE-4B10-9EFB-AB137CEB59C5}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{178E8CDE-B784-48ED-B787-757CEE75CE7D}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{38D69206-B253-4CAB-AFB6-79B7494B0490}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{1287B476-6EE7-450C-8F12-9BD8CB211CD8}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{45A93A8F-3BAE-4B10-9EFB-AB137CEB59C5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -146,10 +146,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={932B37A1-F03E-420B-94E7-A3969E047B71}</author>
+    <author>tc={329BCA6F-6630-4407-B07A-473792C57FAB}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{932B37A1-F03E-420B-94E7-A3969E047B71}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{329BCA6F-6630-4407-B07A-473792C57FAB}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -195,13 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -216,7 +209,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -224,6 +217,13 @@
     </font>
     <font>
       <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -322,10 +322,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -346,8 +346,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" userId="S::::11ddfe37-f195-46ac-bc44-aea4258142bc" providerId="AD"/>
-  <person displayName="侯清辰" id="{C1E011DB-E0F2-4F4D-8D8E-476A1B0E7EAA}" userId="S::::1fc103d3-fc90-495c-a006-4dd1eb5d58f2" providerId="AD"/>
+  <person displayName="杨行" id="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" userId="S::::44260760-2a3b-4ecc-b777-31257894f512" providerId="AD"/>
+  <person displayName="侯清辰" id="{46A44BB1-C1B5-4BBF-BD58-54CFFDC7079E}" userId="S::::1cd1f6f3-a176-4d9b-8dcd-63a5a19adc40" providerId="AD"/>
 </personList>
 </file>
 
@@ -648,33 +648,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{2F2B105E-ABB9-49A6-A96A-1C2223C1A0EB}" ref="C2" dT="2024-06-14T02:49:51" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
+  <threadedComment id="{C518A5D9-81D8-47A5-B18C-CB052CDB6465}" ref="A4" dT="2024-05-28T04:59:59" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{D2BCFBF8-E81A-4C06-BA7B-352803A3FF9D}" ref="J1" dT="2024-05-10T07:08:22" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{17099b7a-994f-4531-a29c-30f1edfee732}" ref="J1" dT="2024-06-19T05:39:57" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{D2BCFBF8-E81A-4C06-BA7B-352803A3FF9D}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{DEE854E8-2A8D-4735-9422-713A5DA9DD92}" ref="H9" dT="2024-06-14T02:51:06" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{2D3B5312-CF63-4685-81C1-76F05279722A}" ref="C2" dT="2024-06-14T02:49:51" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{DACC6C51-C749-4C3E-AD4B-5B743F2531F9}" ref="J1" dT="2024-05-10T07:08:22" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{cea4b617-c401-4645-ae88-909a9da6b2ed}" ref="J1" dT="2024-06-19T05:39:57" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{DACC6C51-C749-4C3E-AD4B-5B743F2531F9}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{47852719-2E72-450B-A968-6DDFEB9FE1ED}" ref="A4" dT="2024-05-28T04:59:59" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{DEF3E860-50AC-4C7D-9E94-840A47B1DFE3}" ref="K1" dT="2024-05-31T03:31:01" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{04FF245D-A34F-47B4-ABC0-7A260DB70FD5}" ref="H6" dT="2024-06-14T02:50:34" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
+  <threadedComment id="{708A6262-42D7-426C-A2FB-53D5782F6ED5}" ref="H6" dT="2024-06-14T02:50:34" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{01DEDB52-06C1-4708-A775-164D272A2E73}" ref="H9" dT="2024-06-14T02:51:06" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  <threadedComment id="{E106CCCD-9B51-4884-8F24-2B05CD0C3C20}" ref="K1" dT="2024-05-31T03:31:01" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{CD7F0DBD-E3FE-40D2-A7C1-EDBDDA444698}" ref="D1" dT="2024-06-09T13:30:31" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
+  <threadedComment id="{A4684288-6C04-4313-9140-CE2DD7E9AC07}" ref="D1" dT="2024-06-09T13:30:31" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -682,31 +682,31 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{184EF88C-9DC4-4E35-B1AD-1504F187565C}" ref="E1" dT="2024-06-09T13:30:45" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
-    <text>@宾晓华 这里</text>
+  <threadedComment id="{3E8AD4AD-01BC-41A2-AA18-13DB19C36C88}" ref="C6" dT="2024-06-14T02:49:20" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{A14DC847-8A5D-4AFB-B0E8-16198BA1EE3B}" ref="C5" dT="2024-06-14T02:48:45" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
+  <threadedComment id="{A43A6276-1C6F-4CED-AF1C-E6DBC28B9AF7}" ref="C5" dT="2024-06-14T02:48:45" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{5CC9D391-438E-4205-87FE-70F9C7648A1A}" ref="C6" dT="2024-06-14T02:49:20" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  <threadedComment id="{E09A15CB-6F36-4178-85C8-8DCC14AE76E7}" ref="E1" dT="2024-06-09T13:30:45" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
+    <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{178E8CDE-B784-48ED-B787-757CEE75CE7D}" ref="C1" dT="2024-05-10T07:54:02" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
+  <threadedComment id="{38D69206-B253-4CAB-AFB6-79B7494B0490}" ref="C1" dT="2024-05-10T07:54:02" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{1287B476-6EE7-450C-8F12-9BD8CB211CD8}" ref="D1" dT="2024-05-10T08:11:19" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
+  <threadedComment id="{45A93A8F-3BAE-4B10-9EFB-AB137CEB59C5}" ref="D1" dT="2024-05-10T08:11:19" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{3b76bc24-babe-4a92-94e3-be01770491c8}" ref="D1" dT="2024-05-10T08:15:39" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{1287B476-6EE7-450C-8F12-9BD8CB211CD8}">
+  <threadedComment id="{4ef63090-77f3-49e3-b31d-a29e682986aa}" ref="D1" dT="2024-05-10T08:15:39" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{45A93A8F-3BAE-4B10-9EFB-AB137CEB59C5}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
 </ThreadedComments>
@@ -714,7 +714,7 @@
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{932B37A1-F03E-420B-94E7-A3969E047B71}" ref="A2" dT="2024-06-26T06:41:07" personId="{FE53ADA0-2028-4943-AF8A-B9E25931C220}" parentId="{}">
+  <threadedComment id="{329BCA6F-6630-4407-B07A-473792C57FAB}" ref="A2" dT="2024-06-26T06:41:07" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -754,30 +754,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -834,154 +834,154 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
-        <v>exit_of_portal</v>
-      </c>
-      <c r="J1" s="2" t="str">
+      <c r="I1" s="1" t="str">
+        <v>stage_portal</v>
+      </c>
+      <c r="J1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="6" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="6" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="6" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1" t="str">
+      <c r="J4" s="1"/>
+      <c r="K4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="K5" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="O5" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -993,51 +993,51 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="K6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="K7" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="str">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="N7" s="1" t="str">
+      <c r="N7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="O7" s="3" t="str">
@@ -1092,205 +1092,205 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
-        <v>exit_of_portal</v>
-      </c>
-      <c r="J1" s="2" t="str">
+      <c r="I1" s="1" t="str">
+        <v>stage_portal</v>
+      </c>
+      <c r="J1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="6" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="6" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="6" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="6" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="6" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="str">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="6" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="str">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5" t="str">
+      <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1" t="str">
+      <c r="J5" s="1"/>
+      <c r="K5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1" t="str">
+      <c r="J6" s="1"/>
+      <c r="K6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1298,42 +1298,42 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1" t="str">
+      <c r="J7" s="1"/>
+      <c r="K7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="H8" s="2" t="str">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="H8" s="1" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1" t="str">
+      <c r="J8" s="1"/>
+      <c r="K8" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="H9" s="2" t="str">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="H9" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1341,150 +1341,150 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1" t="str">
+      <c r="J9" s="1"/>
+      <c r="K9" s="2" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="I10" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="K10" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="M10" s="1" t="str">
+      <c r="M10" s="2" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="O10" s="1" t="str">
+      <c r="O10" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="1" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="K11" s="2" t="str">
+      <c r="K11" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="1" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="K12" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="str">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="K13" s="2" t="str">
+      <c r="K13" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="str">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I14" s="1" t="str">
+      <c r="I14" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="K14" s="2" t="str">
+      <c r="K14" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="1" t="str">
         <v>圣灰园正门前广场（忽略）</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="str">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="1" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="I15" s="1" t="str">
+      <c r="I15" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="K15" s="2" t="str">
+      <c r="K15" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1535,66 +1535,66 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
-        <v>exit_of_portal</v>
-      </c>
-      <c r="J1" s="2" t="str">
+      <c r="I1" s="1" t="str">
+        <v>stage_portal</v>
+      </c>
+      <c r="J1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>## 游戏概述：
 - 本游戏以中国历史中的三国时代（借鉴小说《三国演义》）为背景的 历史奇幻类 角色扮演游戏。
 - 本游戏融合了历史的真实感与奇幻元素。以“架空”的三国时代为背景。
@@ -1603,87 +1603,89 @@
 - 游戏内容（文本）可能包含恐怖、血腥与暴力场景。这一切旨在为玩家带来深度沉浸式的体验。
 - 注意！请你接受以上设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="6" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="6" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="6" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>黑火印记;粗布牢服</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>- 在昏暗潮湿的牢房内，你缓缓睁开眼睛，意识逐渐恢复。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。
 - 你难以回忆起任何事情。
-- 你看见了面前的，有些腐化的木牌上写着：“火十一”，也许这就是你的名字？</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1" t="str">
+- 牢房的 铁栏门 似乎已经被破坏打开。
+- 铁栏门上挂着一块腐化的木牌上写着：“火十一”。也许这就是你的名字？或者是这个地方的名字？</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+    <row r="5">
+      <c r="A5" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="1" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="H5" s="2" t="str">
-        <v>- 人物.火十一，他醒来了。</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="K5" s="2" t="str">
+      <c r="H5" s="1" t="str">
+        <v>- 人物.火十一，他醒来了。
+- 牢房的 铁栏门 似乎已经被破坏打开。</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="O5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="6"/>
     <row customHeight="true" ht="23" r="7"/>
@@ -1730,215 +1732,214 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8100</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>8101</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>8102</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>8103</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>8104</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>8105</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>stage_name_cell_fire11</v>
       </c>
-      <c r="C10" s="2" t="str">
-        <v>牢门上，一个有些腐化的木牌上写着：“火十一”——即是这牢房的名字。
-在昏暗潮湿的牢房中，四周的空气弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍，石墙的缝隙中透出微弱的冷风。
-牢房的空间狭窄逼仄，头顶低矮的天花板让人感到压抑。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。地面上散落着几根破旧的稻草，散发着难以忍受的酸臭味，脚下的土地坚硬冰冷。铁栏门上满是锈迹，偶尔有冷风吹过，门上的铁链和锁扣发出轻微的摩擦声，显得格外刺耳。
+      <c r="C10" s="1" t="str">
+        <v>在昏暗潮湿的牢房中，四周的空气弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍，石墙的缝隙中透出微弱的冷风。
+牢房的空间狭窄逼仄，头顶低矮的天花板让人感到压抑。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。地面上散落着几根破旧的稻草，散发着难以忍受的酸臭味，脚下的土地坚硬冰冷。铁栏门上满是锈迹，偶尔有冷风吹过，门上的铁链和锁扣发出轻微的摩擦声，显得格外刺耳。门上挂着一块腐化的木牌上写着：“火十一”。
 墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。角落里的一张石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙刺手。整个牢房中只有低沉的滴水声和铁链的摩擦声回荡在寂静中。</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>8106</v>
       </c>
-      <c r="E10" s="2" t="str">
+      <c r="E10" s="1" t="str">
         <v>/stage/stage_name_cell_fire11</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="2" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template.md</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1992,92 +1993,92 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>body</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="6" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="6" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="6" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="6" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="6" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -2097,40 +2098,40 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>8201</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -2145,39 +2146,39 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 吱吱吱～～（开心的摇尾巴）～～～～"
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>8202</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="6" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -2192,38 +2193,38 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>8203</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -2240,96 +2241,96 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>8204</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>8205</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>player_name_subject_fire11</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="1" t="str">
         <v>### 你的背景
 - 你是玩家操纵角色，不需要背景描述。</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="2" t="str">
         <v>无设定</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>8206</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="2" t="str">
         <v>/actor/player_name_subject_fire11</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="5" t="str">
+      <c r="H12" s="4" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
-      <c r="I12" s="1" t="str">
+      <c r="I12" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J12" s="2" t="str">
         <v>二十岁左右的男性人类。身材中等，不高不矮，看上去并不很强壮。
 眼睛是特殊的红色，面色呈现一种不健康的灰暗。</v>
       </c>
@@ -2385,316 +2386,316 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>炙热无比的长钩</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>0,0,10000,0</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很"锋利和尖锐"。</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>形状像断掉的手指的钥匙</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="H8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="1" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>黑色长袍与斗篷。</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="H9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>黑火印记</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>mark_of_black_fire</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="E12" s="1" t="str">
         <v>被诅咒之人的印记——盘旋的黑色火焰化作灭世的龙</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="1" t="str">
         <v>右手的手背上的印记，呈黑色，形状看上去犹如盘旋的黑色火焰</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="H12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>黄巾军长剑</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>huangjin_long_sword</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="E13" s="1" t="str">
         <v>普通但可靠的剑，黄巾军中低阶军官的标准装备。这种剑由黄巾军内部的铁匠工坊铸造，材料虽不算上乘，但胜在耐用和易于维护。</v>
       </c>
-      <c r="F13" s="2" t="str">
+      <c r="F13" s="1" t="str">
         <v>剑身长约三尺，剑刃虽有些许磨损的痕迹，但依然锋利。剑柄包裹着简单的粗麻绳。剑鞘由黑色牛皮制成，质朴无华并不显眼。</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="G13" s="2" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="H13" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <v>黄巾军军官服</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>huangjin_officer_uniform</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="E14" s="1" t="str">
         <v>黄巾军军官服是普通军官在行军作战时的常规装束，设计简洁实用，以便于在战场上行动自如。这套服装由耐磨的粗布制成，能够应对各种恶劣的环境，兼具一定的防护作用。</v>
       </c>
-      <c r="F14" s="2" t="str">
+      <c r="F14" s="1" t="str">
         <v>由深黄色的粗布制成，整体设计简朴且耐用。上衣为束腰的短袍，配有几道简单的绣纹装饰，袖口较窄，便于行动。腰间系着一条宽厚的布带，用以固定短刀或其他小物件。下装是宽松的裤子，裤腿绑着布条，以防止绊脚。脚上穿着一双结实的草鞋，适合在各种地形上行走。整套装束并无多余的装饰。</v>
       </c>
-      <c r="G14" s="1" t="str">
+      <c r="G14" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H14" s="1" t="str">
+      <c r="H14" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2702,25 +2703,25 @@
       <c r="A15" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>coarse_prison_uniform</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E15" s="1" t="str">
+      <c r="E15" s="2" t="str">
         <v>粗布牢服是秘密监狱中囚犯的标准服装，由廉价且耐磨的粗布制成。服装设计简陋，只为满足基本的保暖和遮体需求。上面有一些“奇特的符号”</v>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="F15" s="2" t="str">
         <v>由深灰色的粗糙麻布制成，布料质地粗糙，表面有明显的纺织纹理和磨损痕迹。衣领低矮，袖子宽大且略显破旧，袖口处甚至还有几道撕裂的口子。服装的前襟和后背上用粗线绣着几个简单的符号，线迹不规整，仿佛是仓促中加上的。衣服的下摆长及膝盖，边缘已经磨损得参差不齐，显现出长期使用的痕迹</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2755,54 +2756,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>world_system_appearance_builder</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8300</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>/worldsystems/appearance_builder</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C518A5D9-81D8-47A5-B18C-CB052CDB6465}</author>
-    <author>tc={D2BCFBF8-E81A-4C06-BA7B-352803A3FF9D}</author>
-    <author>tc={DEE854E8-2A8D-4735-9422-713A5DA9DD92}</author>
-    <author>tc={2D3B5312-CF63-4685-81C1-76F05279722A}</author>
-    <author>tc={708A6262-42D7-426C-A2FB-53D5782F6ED5}</author>
-    <author>tc={E106CCCD-9B51-4884-8F24-2B05CD0C3C20}</author>
+    <author>tc={BD8343D3-24BA-4559-8761-C0C02B0C73DD}</author>
+    <author>tc={FD08CAE4-1EDF-44BD-B537-A9EA522312B2}</author>
+    <author>tc={2DD8F32D-5485-4BD6-BB8C-6693FAE6173C}</author>
+    <author>tc={0E0DD86D-F379-46E2-8463-4A5B28946494}</author>
+    <author>tc={8CF5C1AB-5A55-445F-98ED-FE2FE2A017F6}</author>
+    <author>tc={7771005D-1D67-46B9-986A-77257186039E}</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{C518A5D9-81D8-47A5-B18C-CB052CDB6465}">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{BD8343D3-24BA-4559-8761-C0C02B0C73DD}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{FD08CAE4-1EDF-44BD-B537-A9EA522312B2}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{D2BCFBF8-E81A-4C06-BA7B-352803A3FF9D}">
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{2DD8F32D-5485-4BD6-BB8C-6693FAE6173C}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{0E0DD86D-F379-46E2-8463-4A5B28946494}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{DEE854E8-2A8D-4735-9422-713A5DA9DD92}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{2D3B5312-CF63-4685-81C1-76F05279722A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="4" shapeId="0" xr:uid="{708A6262-42D7-426C-A2FB-53D5782F6ED5}">
+    <comment ref="H6" authorId="4" shapeId="0" xr:uid="{8CF5C1AB-5A55-445F-98ED-FE2FE2A017F6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="5" shapeId="0" xr:uid="{E106CCCD-9B51-4884-8F24-2B05CD0C3C20}">
+    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{7771005D-1D67-46B9-986A-77257186039E}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A4684288-6C04-4313-9140-CE2DD7E9AC07}</author>
+    <author>tc={43705EFB-35BF-46E1-9B71-C07A90692355}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A4684288-6C04-4313-9140-CE2DD7E9AC07}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{43705EFB-35BF-46E1-9B71-C07A90692355}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3E8AD4AD-01BC-41A2-AA18-13DB19C36C88}</author>
-    <author>tc={A43A6276-1C6F-4CED-AF1C-E6DBC28B9AF7}</author>
-    <author>tc={E09A15CB-6F36-4178-85C8-8DCC14AE76E7}</author>
+    <author>tc={19269FCD-C3BB-4604-BD7A-3BCDA596676D}</author>
+    <author>tc={62A8E37F-5BCF-4EAE-8141-ACCEDF3BE381}</author>
+    <author>tc={AAC0B14D-8FCD-4B93-B4A4-C505B9460F66}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{3E8AD4AD-01BC-41A2-AA18-13DB19C36C88}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{19269FCD-C3BB-4604-BD7A-3BCDA596676D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{62A8E37F-5BCF-4EAE-8141-ACCEDF3BE381}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{A43A6276-1C6F-4CED-AF1C-E6DBC28B9AF7}">
+    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{AAC0B14D-8FCD-4B93-B4A4-C505B9460F66}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{E09A15CB-6F36-4178-85C8-8DCC14AE76E7}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
   </commentList>
@@ -121,22 +121,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={38D69206-B253-4CAB-AFB6-79B7494B0490}</author>
-    <author>tc={45A93A8F-3BAE-4B10-9EFB-AB137CEB59C5}</author>
+    <author>tc={565CE2D6-F907-4686-A3C3-46DE7E17FC2B}</author>
+    <author>tc={1814F36C-07F9-4019-8A32-B48BA0545957}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{38D69206-B253-4CAB-AFB6-79B7494B0490}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{45A93A8F-3BAE-4B10-9EFB-AB137CEB59C5}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{565CE2D6-F907-4686-A3C3-46DE7E17FC2B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{1814F36C-07F9-4019-8A32-B48BA0545957}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -146,10 +146,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={329BCA6F-6630-4407-B07A-473792C57FAB}</author>
+    <author>tc={DDD34B7F-E959-4B36-818F-9B4F54214538}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{329BCA6F-6630-4407-B07A-473792C57FAB}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{DDD34B7F-E959-4B36-818F-9B4F54214538}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -209,7 +209,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -230,7 +230,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -316,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
@@ -325,7 +325,7 @@
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -346,8 +346,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" userId="S::::44260760-2a3b-4ecc-b777-31257894f512" providerId="AD"/>
-  <person displayName="侯清辰" id="{46A44BB1-C1B5-4BBF-BD58-54CFFDC7079E}" userId="S::::1cd1f6f3-a176-4d9b-8dcd-63a5a19adc40" providerId="AD"/>
+  <person displayName="侯清辰" id="{6A49716F-F488-460B-91DF-9ED5EFDDE34C}" userId="S::::45862e8b-d67b-4011-a796-efd105d0cc25" providerId="AD"/>
+  <person displayName="杨行" id="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" userId="S::::80d5ab60-db49-4b2d-bc3c-229a6fe55022" providerId="AD"/>
 </personList>
 </file>
 
@@ -648,33 +648,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{C518A5D9-81D8-47A5-B18C-CB052CDB6465}" ref="A4" dT="2024-05-28T04:59:59" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
+  <threadedComment id="{BD8343D3-24BA-4559-8761-C0C02B0C73DD}" ref="H9" dT="2024-06-14T02:51:06" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{FD08CAE4-1EDF-44BD-B537-A9EA522312B2}" ref="A4" dT="2024-05-28T04:59:59" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{D2BCFBF8-E81A-4C06-BA7B-352803A3FF9D}" ref="J1" dT="2024-05-10T07:08:22" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
+  <threadedComment id="{2DD8F32D-5485-4BD6-BB8C-6693FAE6173C}" ref="K1" dT="2024-05-31T03:31:01" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{0E0DD86D-F379-46E2-8463-4A5B28946494}" ref="J1" dT="2024-05-10T07:08:22" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{17099b7a-994f-4531-a29c-30f1edfee732}" ref="J1" dT="2024-06-19T05:39:57" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{D2BCFBF8-E81A-4C06-BA7B-352803A3FF9D}">
+  <threadedComment id="{9844d8bd-0bff-43d4-84f9-b5e1d1e2ef74}" ref="J1" dT="2024-06-19T05:39:57" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{0E0DD86D-F379-46E2-8463-4A5B28946494}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{DEE854E8-2A8D-4735-9422-713A5DA9DD92}" ref="H9" dT="2024-06-14T02:51:06" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{2D3B5312-CF63-4685-81C1-76F05279722A}" ref="C2" dT="2024-06-14T02:49:51" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{708A6262-42D7-426C-A2FB-53D5782F6ED5}" ref="H6" dT="2024-06-14T02:50:34" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
+  <threadedComment id="{8CF5C1AB-5A55-445F-98ED-FE2FE2A017F6}" ref="H6" dT="2024-06-14T02:50:34" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{E106CCCD-9B51-4884-8F24-2B05CD0C3C20}" ref="K1" dT="2024-05-31T03:31:01" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  <threadedComment id="{7771005D-1D67-46B9-986A-77257186039E}" ref="C2" dT="2024-06-14T02:49:51" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{A4684288-6C04-4313-9140-CE2DD7E9AC07}" ref="D1" dT="2024-06-09T13:30:31" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
+  <threadedComment id="{43705EFB-35BF-46E1-9B71-C07A90692355}" ref="D1" dT="2024-06-09T13:30:31" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -682,39 +682,39 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{3E8AD4AD-01BC-41A2-AA18-13DB19C36C88}" ref="C6" dT="2024-06-14T02:49:20" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
+  <threadedComment id="{19269FCD-C3BB-4604-BD7A-3BCDA596676D}" ref="E1" dT="2024-06-09T13:30:45" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
+    <text>@宾晓华 这里</text>
+  </threadedComment>
+  <threadedComment id="{62A8E37F-5BCF-4EAE-8141-ACCEDF3BE381}" ref="C6" dT="2024-06-14T02:49:20" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{A43A6276-1C6F-4CED-AF1C-E6DBC28B9AF7}" ref="C5" dT="2024-06-14T02:48:45" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
+  <threadedComment id="{AAC0B14D-8FCD-4B93-B4A4-C505B9460F66}" ref="C5" dT="2024-06-14T02:48:45" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
-  </threadedComment>
-  <threadedComment id="{E09A15CB-6F36-4178-85C8-8DCC14AE76E7}" ref="E1" dT="2024-06-09T13:30:45" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
-    <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{38D69206-B253-4CAB-AFB6-79B7494B0490}" ref="C1" dT="2024-05-10T07:54:02" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{45A93A8F-3BAE-4B10-9EFB-AB137CEB59C5}" ref="D1" dT="2024-05-10T08:11:19" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
+  <threadedComment id="{565CE2D6-F907-4686-A3C3-46DE7E17FC2B}" ref="D1" dT="2024-05-10T08:11:19" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{4ef63090-77f3-49e3-b31d-a29e682986aa}" ref="D1" dT="2024-05-10T08:15:39" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{45A93A8F-3BAE-4B10-9EFB-AB137CEB59C5}">
+  <threadedComment id="{99d8ed78-6299-4bfd-be73-6c7bb1d31a8d}" ref="D1" dT="2024-05-10T08:15:39" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{565CE2D6-F907-4686-A3C3-46DE7E17FC2B}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{1814F36C-07F9-4019-8A32-B48BA0545957}" ref="C1" dT="2024-05-10T07:54:02" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{329BCA6F-6630-4407-B07A-473792C57FAB}" ref="A2" dT="2024-06-26T06:41:07" personId="{1C8E3E62-6F24-4E0E-98B8-91F1DD915D47}" parentId="{}">
+  <threadedComment id="{DDD34B7F-E959-4B36-818F-9B4F54214538}" ref="A2" dT="2024-06-26T06:41:07" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -908,22 +908,22 @@
       <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1040,7 +1040,7 @@
       <c r="N7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="O7" s="3" t="str">
+      <c r="O7" s="6" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1166,22 +1166,22 @@
       <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1193,17 +1193,17 @@
       <c r="S3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="str">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="6" t="str">
+      <c r="E4" s="3" t="str">
         <v>教廷秘使的装束</v>
       </c>
       <c r="F4" s="4"/>
@@ -1214,7 +1214,7 @@
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
@@ -1513,7 +1513,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="141"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="49"/>
@@ -1613,22 +1613,22 @@
       <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1681,13 +1681,29 @@
         <v>- 人物.火十一，他醒来了。
 - 牢房的 铁栏门 似乎已经被破坏打开。</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="str">
+        <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
+      </c>
       <c r="K5" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row customHeight="true" ht="23" r="6"/>
+    <row customHeight="true" ht="23" r="6">
+      <c r="A6" s="1" t="str">
+        <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <v>- 场景内没有任何角色与道具。
+- 任何角色进入此场景，你都会对其低语(WhisperAction)，试图吓走对方。</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="7"/>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
@@ -1923,9 +1939,7 @@
         <v>stage_name_cell_fire11</v>
       </c>
       <c r="C10" s="1" t="str">
-        <v>在昏暗潮湿的牢房中，四周的空气弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍，石墙的缝隙中透出微弱的冷风。
-牢房的空间狭窄逼仄，头顶低矮的天花板让人感到压抑。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。地面上散落着几根破旧的稻草，散发着难以忍受的酸臭味，脚下的土地坚硬冰冷。铁栏门上满是锈迹，偶尔有冷风吹过，门上的铁链和锁扣发出轻微的摩擦声，显得格外刺耳。门上挂着一块腐化的木牌上写着：“火十一”。
-墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。角落里的一张石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙刺手。整个牢房中只有低沉的滴水声和铁链的摩擦声回荡在寂静中。</v>
+        <v>在昏暗潮湿的牢房中，四周的空气弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍，石墙的缝隙中透出微弱的冷风。牢房的空间狭窄逼仄，头顶低矮的天花板让人感到压抑。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。地面上散落着几根破旧的稻草，散发着难以忍受的酸臭味，脚下的土地坚硬冰冷。铁栏门上满是锈迹，偶尔有冷风吹过，门上的铁链和锁扣发出轻微的摩擦声，显得格外刺耳。门上挂着一块腐化的木牌上写着：“火十一”。墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。角落里的一张石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙刺手。整个牢房中只有低沉的滴水声和铁链的摩擦声回荡在寂静中。</v>
       </c>
       <c r="D10" s="1">
         <v>8106</v>
@@ -1943,7 +1957,32 @@
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="11"/>
+    <row customHeight="true" ht="23" r="11">
+      <c r="A11" s="1" t="str">
+        <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <v>stage_name_zone_fire</v>
+      </c>
+      <c r="C11" t="str">
+        <v>墙壁和天花板都由厚重的岩石构成，表面焦黑斑驳。地面上散落着焦黑的灰烬、燃烧过的木炭和烧焦的尸体，有些尸体还能看出人形，而另一些已经扭曲变形，难以辨认。四处摆放着残破的金属器具，表面布满了因高温而变形的痕迹。铁锤、火钳等工具随意地丢弃在角落，增添了这里的凌乱和恐怖感。正中央有一个巨大的石制平台，表面覆盖着焦黑的烧痕和不规则的裂纹。四周立着几根高大的石柱，柱顶燃烧着火焰，散发出幽暗的红光，照亮了整个房间。平台上有几道深深的凹槽，似乎是用来固定囚犯的锁链。空气中弥漫着一种无法忽视的刺鼻气味，混合着燃烧的皮肉和化学物质的味道。墙壁上有几处金属管道，从深处延伸而来，将高温的蒸汽和燃烧气体导入室内。</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8107</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <v>/stage/stage_name_zone_fire</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <v>sys_templates/three_kingdoms_stage_sys_prompt_template2.md</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="12"/>
     <row customHeight="true" ht="23" r="13"/>
     <row customHeight="true" ht="23" r="14"/>
@@ -2027,26 +2066,26 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="6" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>8200</v>
       </c>
-      <c r="F4" s="6" t="str">
+      <c r="F4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
@@ -2105,7 +2144,7 @@
 - （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -2152,7 +2191,7 @@
 3. 吱。。。。。。。（谨慎与小心翼翼）。。
 4. 吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -2167,7 +2206,7 @@
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="6" t="str">
+      <c r="J6" s="3" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -2198,7 +2237,7 @@
 - （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2246,7 +2285,7 @@
 - （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - （凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2280,7 +2319,7 @@
       <c r="D9" s="1" t="str">
         <v>- 我知道了。</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BD8343D3-24BA-4559-8761-C0C02B0C73DD}</author>
-    <author>tc={FD08CAE4-1EDF-44BD-B537-A9EA522312B2}</author>
-    <author>tc={2DD8F32D-5485-4BD6-BB8C-6693FAE6173C}</author>
-    <author>tc={0E0DD86D-F379-46E2-8463-4A5B28946494}</author>
-    <author>tc={8CF5C1AB-5A55-445F-98ED-FE2FE2A017F6}</author>
-    <author>tc={7771005D-1D67-46B9-986A-77257186039E}</author>
+    <author>tc={92261437-502E-4805-8C68-7DE1BBA72E28}</author>
+    <author>tc={08EA2EF0-265A-44BE-8876-8AE72A99798F}</author>
+    <author>tc={C705F8A1-2EC1-4BE0-8354-AF82963B142C}</author>
+    <author>tc={8BB2A2DA-72D7-4FBB-88D0-E75D11870235}</author>
+    <author>tc={DCC57555-467A-4581-9EAA-213BD260F132}</author>
+    <author>tc={3C05C127-E575-42AE-B27D-4812B68CBEFB}</author>
   </authors>
   <commentList>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{BD8343D3-24BA-4559-8761-C0C02B0C73DD}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{92261437-502E-4805-8C68-7DE1BBA72E28}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{08EA2EF0-265A-44BE-8876-8AE72A99798F}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{C705F8A1-2EC1-4BE0-8354-AF82963B142C}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{8BB2A2DA-72D7-4FBB-88D0-E75D11870235}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="4" shapeId="0" xr:uid="{DCC57555-467A-4581-9EAA-213BD260F132}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{FD08CAE4-1EDF-44BD-B537-A9EA522312B2}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{2DD8F32D-5485-4BD6-BB8C-6693FAE6173C}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{0E0DD86D-F379-46E2-8463-4A5B28946494}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="4" shapeId="0" xr:uid="{8CF5C1AB-5A55-445F-98ED-FE2FE2A017F6}">
+    <comment ref="H6" authorId="5" shapeId="0" xr:uid="{3C05C127-E575-42AE-B27D-4812B68CBEFB}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{7771005D-1D67-46B9-986A-77257186039E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={43705EFB-35BF-46E1-9B71-C07A90692355}</author>
+    <author>tc={668FCED2-746D-403D-9D54-9A3CE2A76A74}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{43705EFB-35BF-46E1-9B71-C07A90692355}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{668FCED2-746D-403D-9D54-9A3CE2A76A74}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={19269FCD-C3BB-4604-BD7A-3BCDA596676D}</author>
-    <author>tc={62A8E37F-5BCF-4EAE-8141-ACCEDF3BE381}</author>
-    <author>tc={AAC0B14D-8FCD-4B93-B4A4-C505B9460F66}</author>
+    <author>tc={DA6DBBDA-715A-4C0D-9668-69055F49EDA3}</author>
+    <author>tc={00C115F0-F030-4410-A3B5-D9E8EBEAAB85}</author>
+    <author>tc={92128847-FB71-4F61-B559-D86C4E224399}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{19269FCD-C3BB-4604-BD7A-3BCDA596676D}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DA6DBBDA-715A-4C0D-9668-69055F49EDA3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{62A8E37F-5BCF-4EAE-8141-ACCEDF3BE381}">
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{00C115F0-F030-4410-A3B5-D9E8EBEAAB85}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{92128847-FB71-4F61-B559-D86C4E224399}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{AAC0B14D-8FCD-4B93-B4A4-C505B9460F66}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
   </commentList>
@@ -121,22 +121,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={565CE2D6-F907-4686-A3C3-46DE7E17FC2B}</author>
-    <author>tc={1814F36C-07F9-4019-8A32-B48BA0545957}</author>
+    <author>tc={66C44083-CE7D-4BC6-9C0F-E307E89A140B}</author>
+    <author>tc={04A61655-A45C-4FF8-BC8B-9E2D08BF43C7}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{565CE2D6-F907-4686-A3C3-46DE7E17FC2B}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{66C44083-CE7D-4BC6-9C0F-E307E89A140B}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{04A61655-A45C-4FF8-BC8B-9E2D08BF43C7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{1814F36C-07F9-4019-8A32-B48BA0545957}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -146,10 +146,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DDD34B7F-E959-4B36-818F-9B4F54214538}</author>
+    <author>tc={0CF925EB-DC9D-472F-95E9-938556B0A312}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{DDD34B7F-E959-4B36-818F-9B4F54214538}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{0CF925EB-DC9D-472F-95E9-938556B0A312}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -209,6 +209,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -224,13 +231,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -316,13 +316,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -346,8 +346,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{6A49716F-F488-460B-91DF-9ED5EFDDE34C}" userId="S::::45862e8b-d67b-4011-a796-efd105d0cc25" providerId="AD"/>
-  <person displayName="杨行" id="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" userId="S::::80d5ab60-db49-4b2d-bc3c-229a6fe55022" providerId="AD"/>
+  <person displayName="侯清辰" id="{DC077595-0454-4B9B-A368-846318D64205}" userId="S::::e47cb2f9-8ad8-4d9c-a7a2-7fd7846fff75" providerId="AD"/>
+  <person displayName="杨行" id="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" userId="S::::e15f82a4-01dc-43f1-a6c9-080836a00170" providerId="AD"/>
 </personList>
 </file>
 
@@ -648,33 +648,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{BD8343D3-24BA-4559-8761-C0C02B0C73DD}" ref="H9" dT="2024-06-14T02:51:06" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
+  <threadedComment id="{92261437-502E-4805-8C68-7DE1BBA72E28}" ref="K1" dT="2024-05-31T03:31:01" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{08EA2EF0-265A-44BE-8876-8AE72A99798F}" ref="J1" dT="2024-05-10T07:08:22" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{c5c0a217-f1b1-4ec6-8618-3ca3dbe101a5}" ref="J1" dT="2024-06-19T05:39:57" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{08EA2EF0-265A-44BE-8876-8AE72A99798F}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{C705F8A1-2EC1-4BE0-8354-AF82963B142C}" ref="C2" dT="2024-06-14T02:49:51" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{8BB2A2DA-72D7-4FBB-88D0-E75D11870235}" ref="A4" dT="2024-05-28T04:59:59" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{DCC57555-467A-4581-9EAA-213BD260F132}" ref="H9" dT="2024-06-14T02:51:06" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{FD08CAE4-1EDF-44BD-B537-A9EA522312B2}" ref="A4" dT="2024-05-28T04:59:59" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{2DD8F32D-5485-4BD6-BB8C-6693FAE6173C}" ref="K1" dT="2024-05-31T03:31:01" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{0E0DD86D-F379-46E2-8463-4A5B28946494}" ref="J1" dT="2024-05-10T07:08:22" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{9844d8bd-0bff-43d4-84f9-b5e1d1e2ef74}" ref="J1" dT="2024-06-19T05:39:57" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{0E0DD86D-F379-46E2-8463-4A5B28946494}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{8CF5C1AB-5A55-445F-98ED-FE2FE2A017F6}" ref="H6" dT="2024-06-14T02:50:34" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
+  <threadedComment id="{3C05C127-E575-42AE-B27D-4812B68CBEFB}" ref="H6" dT="2024-06-14T02:50:34" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{7771005D-1D67-46B9-986A-77257186039E}" ref="C2" dT="2024-06-14T02:49:51" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{43705EFB-35BF-46E1-9B71-C07A90692355}" ref="D1" dT="2024-06-09T13:30:31" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
+  <threadedComment id="{668FCED2-746D-403D-9D54-9A3CE2A76A74}" ref="E1" dT="2024-06-09T13:30:31" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -682,39 +682,39 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{19269FCD-C3BB-4604-BD7A-3BCDA596676D}" ref="E1" dT="2024-06-09T13:30:45" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
+  <threadedComment id="{DA6DBBDA-715A-4C0D-9668-69055F49EDA3}" ref="E1" dT="2024-06-09T13:30:45" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{62A8E37F-5BCF-4EAE-8141-ACCEDF3BE381}" ref="C6" dT="2024-06-14T02:49:20" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
+  <threadedComment id="{00C115F0-F030-4410-A3B5-D9E8EBEAAB85}" ref="C5" dT="2024-06-14T02:48:45" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  </threadedComment>
+  <threadedComment id="{92128847-FB71-4F61-B559-D86C4E224399}" ref="C6" dT="2024-06-14T02:49:20" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
-  </threadedComment>
-  <threadedComment id="{AAC0B14D-8FCD-4B93-B4A4-C505B9460F66}" ref="C5" dT="2024-06-14T02:48:45" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
-    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{565CE2D6-F907-4686-A3C3-46DE7E17FC2B}" ref="D1" dT="2024-05-10T08:11:19" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
+  <threadedComment id="{66C44083-CE7D-4BC6-9C0F-E307E89A140B}" ref="C1" dT="2024-05-10T07:54:02" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{04A61655-A45C-4FF8-BC8B-9E2D08BF43C7}" ref="D1" dT="2024-05-10T08:11:19" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{99d8ed78-6299-4bfd-be73-6c7bb1d31a8d}" ref="D1" dT="2024-05-10T08:15:39" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{565CE2D6-F907-4686-A3C3-46DE7E17FC2B}">
+  <threadedComment id="{1abe4dcd-0ac8-459e-9b68-9d5eea6eac79}" ref="D1" dT="2024-05-10T08:15:39" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{04A61655-A45C-4FF8-BC8B-9E2D08BF43C7}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{1814F36C-07F9-4019-8A32-B48BA0545957}" ref="C1" dT="2024-05-10T07:54:02" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{DDD34B7F-E959-4B36-818F-9B4F54214538}" ref="A2" dT="2024-06-26T06:41:07" personId="{E5B1F1C3-911F-487B-8C4B-486DB4168FA0}" parentId="{}">
+  <threadedComment id="{0CF925EB-DC9D-472F-95E9-938556B0A312}" ref="A2" dT="2024-06-26T06:41:07" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -908,31 +908,31 @@
       <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1040,7 +1040,7 @@
       <c r="N7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="O7" s="6" t="str">
+      <c r="O7" s="3" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1166,66 +1166,66 @@
       <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="str">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="str">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4" t="str">
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1513,7 +1513,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="47"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="141"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="49"/>
@@ -1613,31 +1613,31 @@
       <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="str">
@@ -1728,13 +1728,13 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="497"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="52"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="653"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="53"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="52"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
@@ -1745,6 +1745,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -1758,18 +1759,21 @@
         <v>description</v>
       </c>
       <c r="D1" s="1" t="str">
+        <v>conversation_example</v>
+      </c>
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="I1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
@@ -1783,19 +1787,22 @@
       <c r="C2" s="1" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2" t="str">
+        <v>- 注意：请根据你的 场景设定，自行发挥</v>
+      </c>
+      <c r="E2" s="1">
         <v>8100</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="F2" s="1" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="G2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="I2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1809,19 +1816,22 @@
       <c r="C3" s="1" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2" t="str">
+        <v>- 注意：请根据你的 场景设定，自行发挥</v>
+      </c>
+      <c r="E3" s="1">
         <v>8101</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="F3" s="1" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="G3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="H3" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="I3" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1835,19 +1845,22 @@
       <c r="C4" s="1" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2" t="str">
+        <v>- 注意：请根据你的 场景设定，自行发挥</v>
+      </c>
+      <c r="E4" s="1">
         <v>8102</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="F4" s="1" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="H4" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1861,19 +1874,22 @@
       <c r="C5" s="1" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2" t="str">
+        <v>- 注意：请根据你的 场景设定，自行发挥</v>
+      </c>
+      <c r="E5" s="1">
         <v>8103</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="F5" s="1" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="H5" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="I5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1887,19 +1903,22 @@
       <c r="C6" s="1" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2" t="str">
+        <v>- 注意：请根据你的 场景设定，自行发挥</v>
+      </c>
+      <c r="E6" s="1">
         <v>8104</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="F6" s="1" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="H6" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1913,19 +1932,22 @@
       <c r="C7" s="2" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2" t="str">
+        <v>- 注意：请根据你的 场景设定，自行发挥</v>
+      </c>
+      <c r="E7" s="1">
         <v>8105</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="F7" s="1" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="H7" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1941,19 +1963,22 @@
       <c r="C10" s="1" t="str">
         <v>在昏暗潮湿的牢房中，四周的空气弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍，石墙的缝隙中透出微弱的冷风。牢房的空间狭窄逼仄，头顶低矮的天花板让人感到压抑。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。地面上散落着几根破旧的稻草，散发着难以忍受的酸臭味，脚下的土地坚硬冰冷。铁栏门上满是锈迹，偶尔有冷风吹过，门上的铁链和锁扣发出轻微的摩擦声，显得格外刺耳。门上挂着一块腐化的木牌上写着：“火十一”。墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。角落里的一张石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙刺手。整个牢房中只有低沉的滴水声和铁链的摩擦声回荡在寂静中。</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2" t="str">
+        <v>- 注意：请根据你的 场景设定，自行发挥</v>
+      </c>
+      <c r="E10" s="1">
         <v>8106</v>
       </c>
-      <c r="E10" s="1" t="str">
+      <c r="F10" s="1" t="str">
         <v>/stage/stage_name_cell_fire11</v>
       </c>
-      <c r="F10" s="2" t="str">
+      <c r="G10" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="H10" s="2" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template.md</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="I10" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -1967,19 +1992,22 @@
       <c r="C11" t="str">
         <v>墙壁和天花板都由厚重的岩石构成，表面焦黑斑驳。地面上散落着焦黑的灰烬、燃烧过的木炭和烧焦的尸体，有些尸体还能看出人形，而另一些已经扭曲变形，难以辨认。四处摆放着残破的金属器具，表面布满了因高温而变形的痕迹。铁锤、火钳等工具随意地丢弃在角落，增添了这里的凌乱和恐怖感。正中央有一个巨大的石制平台，表面覆盖着焦黑的烧痕和不规则的裂纹。四周立着几根高大的石柱，柱顶燃烧着火焰，散发出幽暗的红光，照亮了整个房间。平台上有几道深深的凹槽，似乎是用来固定囚犯的锁链。空气中弥漫着一种无法忽视的刺鼻气味，混合着燃烧的皮肉和化学物质的味道。墙壁上有几处金属管道，从深处延伸而来，将高温的蒸汽和燃烧气体导入室内。</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="str">
+        <v>- 注意：请根据你的 场景设定，自行发挥</v>
+      </c>
+      <c r="E11" s="2">
         <v>8107</v>
       </c>
-      <c r="E11" s="1" t="str">
+      <c r="F11" s="1" t="str">
         <v>/stage/stage_name_zone_fire</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="G11" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="H11" s="2" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template2.md</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="I11" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -2066,49 +2094,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
-        <v>- 赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="4" t="str">
+        <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
+      </c>
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2138,13 +2166,13 @@
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>- 嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
-- 嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
-- （怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
-- （长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
-- 嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
-      </c>
-      <c r="E5" s="3">
+        <v>- 例句：嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
+- 例句：嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
+- 例句：（怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
+- 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
+- 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
+      </c>
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -2153,7 +2181,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2186,12 +2214,12 @@
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
       <c r="D6" s="1" t="str">
-        <v>1. 吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
-2. 吱吱吱～～（开心的摇尾巴）～～～～"
-3. 吱。。。。。。。（谨慎与小心翼翼）。。
-4. 吱吱？吱吱～吱吱～（奸诈）</v>
-      </c>
-      <c r="E6" s="3">
+        <v>1. 例句：吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
+2. 例句：吱吱吱～～（开心的摇尾巴）～～～～"
+3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
+4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
+      </c>
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -2200,13 +2228,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -2233,11 +2261,11 @@
 - 确保摩尔的存活</v>
       </c>
       <c r="D7" s="1" t="str">
-        <v>- （阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
-- （邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
-- （咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
-      </c>
-      <c r="E7" s="3">
+        <v>- 例句：（阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
+- 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
+- 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
+      </c>
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2246,13 +2274,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2281,11 +2309,11 @@
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>- （狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
-- （咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
-- （凶狠）汪汪汪！！！！</v>
-      </c>
-      <c r="E8" s="3">
+        <v>- 例句：（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
+- 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
+- 例句：（凶狠）汪汪汪！！！！</v>
+      </c>
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2294,7 +2322,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2317,9 +2345,9 @@
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
       <c r="D9" s="1" t="str">
-        <v>- 我知道了。</v>
-      </c>
-      <c r="E9" s="3">
+        <v>- 例句：我知道了。</v>
+      </c>
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2328,7 +2356,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2352,7 +2380,7 @@
 - 你是玩家操纵角色，不需要背景描述。</v>
       </c>
       <c r="D12" s="2" t="str">
-        <v>无设定</v>
+        <v>- 注意：请根据你的 角色设定，自行发挥</v>
       </c>
       <c r="E12" s="2">
         <v>8206</v>
@@ -2363,7 +2391,7 @@
       <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="4" t="str">
+      <c r="H12" s="5" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I12" s="2" t="str">

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={92261437-502E-4805-8C68-7DE1BBA72E28}</author>
-    <author>tc={08EA2EF0-265A-44BE-8876-8AE72A99798F}</author>
-    <author>tc={C705F8A1-2EC1-4BE0-8354-AF82963B142C}</author>
-    <author>tc={8BB2A2DA-72D7-4FBB-88D0-E75D11870235}</author>
-    <author>tc={DCC57555-467A-4581-9EAA-213BD260F132}</author>
-    <author>tc={3C05C127-E575-42AE-B27D-4812B68CBEFB}</author>
+    <author>tc={4C9F166B-C4C6-4B3E-A906-D0DDCC60B025}</author>
+    <author>tc={9C36760A-AEB2-4703-B60F-F9B59E1EFE4F}</author>
+    <author>tc={C47B04F5-CF26-4BDC-8F0F-123D93BEEE2E}</author>
+    <author>tc={2C7323B3-10BE-45D9-B90E-5850D073D9E3}</author>
+    <author>tc={F0DE577E-3FFF-4B16-A4DF-B7EA7F910358}</author>
+    <author>tc={AEC16752-941A-4BF0-B4EF-A07DBC3BB001}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{92261437-502E-4805-8C68-7DE1BBA72E28}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4C9F166B-C4C6-4B3E-A906-D0DDCC60B025}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{9C36760A-AEB2-4703-B60F-F9B59E1EFE4F}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{C47B04F5-CF26-4BDC-8F0F-123D93BEEE2E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{08EA2EF0-265A-44BE-8876-8AE72A99798F}">
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{2C7323B3-10BE-45D9-B90E-5850D073D9E3}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{C705F8A1-2EC1-4BE0-8354-AF82963B142C}">
+    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{F0DE577E-3FFF-4B16-A4DF-B7EA7F910358}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{8BB2A2DA-72D7-4FBB-88D0-E75D11870235}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="4" shapeId="0" xr:uid="{DCC57555-467A-4581-9EAA-213BD260F132}">
+    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{AEC16752-941A-4BF0-B4EF-A07DBC3BB001}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="5" shapeId="0" xr:uid="{3C05C127-E575-42AE-B27D-4812B68CBEFB}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={668FCED2-746D-403D-9D54-9A3CE2A76A74}</author>
+    <author>tc={416E00CE-9AA6-40CD-ACFE-C50CDDF7F3DE}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{668FCED2-746D-403D-9D54-9A3CE2A76A74}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{416E00CE-9AA6-40CD-ACFE-C50CDDF7F3DE}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DA6DBBDA-715A-4C0D-9668-69055F49EDA3}</author>
-    <author>tc={00C115F0-F030-4410-A3B5-D9E8EBEAAB85}</author>
-    <author>tc={92128847-FB71-4F61-B559-D86C4E224399}</author>
+    <author>tc={20678408-E269-4265-8B26-5951E17055CF}</author>
+    <author>tc={4A18D6BE-7812-42F5-8B32-14FFFE16E2DC}</author>
+    <author>tc={1E3B46D6-5381-45B7-B12C-B1282FE591BD}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DA6DBBDA-715A-4C0D-9668-69055F49EDA3}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{20678408-E269-4265-8B26-5951E17055CF}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{4A18D6BE-7812-42F5-8B32-14FFFE16E2DC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{00C115F0-F030-4410-A3B5-D9E8EBEAAB85}">
+    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{1E3B46D6-5381-45B7-B12C-B1282FE591BD}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{92128847-FB71-4F61-B559-D86C4E224399}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
   </commentList>
@@ -121,16 +121,16 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={66C44083-CE7D-4BC6-9C0F-E307E89A140B}</author>
-    <author>tc={04A61655-A45C-4FF8-BC8B-9E2D08BF43C7}</author>
+    <author>tc={2597348B-477F-47B6-87D2-123382166C5A}</author>
+    <author>tc={53E15A60-2C84-49F3-8E6A-CDF094B376DE}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{66C44083-CE7D-4BC6-9C0F-E307E89A140B}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2597348B-477F-47B6-87D2-123382166C5A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{04A61655-A45C-4FF8-BC8B-9E2D08BF43C7}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{53E15A60-2C84-49F3-8E6A-CDF094B376DE}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -146,10 +146,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={0CF925EB-DC9D-472F-95E9-938556B0A312}</author>
+    <author>tc={8FB04939-2D90-4A9C-BEA2-93C39E539795}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{0CF925EB-DC9D-472F-95E9-938556B0A312}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{8FB04939-2D90-4A9C-BEA2-93C39E539795}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -216,14 +216,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -346,8 +346,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{DC077595-0454-4B9B-A368-846318D64205}" userId="S::::e47cb2f9-8ad8-4d9c-a7a2-7fd7846fff75" providerId="AD"/>
-  <person displayName="杨行" id="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" userId="S::::e15f82a4-01dc-43f1-a6c9-080836a00170" providerId="AD"/>
+  <person displayName="杨行" id="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" userId="S::::7f9c6977-3bbc-42a9-98e0-4c992e226582" providerId="AD"/>
+  <person displayName="侯清辰" id="{0DE5193B-12E3-43B7-B367-8A7FE27BF654}" userId="S::::41314f8e-2b2d-4e17-9932-08c7f1cae9c2" providerId="AD"/>
 </personList>
 </file>
 
@@ -648,33 +648,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{92261437-502E-4805-8C68-7DE1BBA72E28}" ref="K1" dT="2024-05-31T03:31:01" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+  <threadedComment id="{4C9F166B-C4C6-4B3E-A906-D0DDCC60B025}" ref="J1" dT="2024-05-10T07:08:22" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{260a6aaa-6658-422c-9a45-822cae48391a}" ref="J1" dT="2024-06-19T05:39:57" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{4C9F166B-C4C6-4B3E-A906-D0DDCC60B025}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{9C36760A-AEB2-4703-B60F-F9B59E1EFE4F}" ref="H6" dT="2024-06-14T02:50:34" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{C47B04F5-CF26-4BDC-8F0F-123D93BEEE2E}" ref="K1" dT="2024-05-31T03:31:01" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{08EA2EF0-265A-44BE-8876-8AE72A99798F}" ref="J1" dT="2024-05-10T07:08:22" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  <threadedComment id="{2C7323B3-10BE-45D9-B90E-5850D073D9E3}" ref="A4" dT="2024-05-28T04:59:59" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{c5c0a217-f1b1-4ec6-8618-3ca3dbe101a5}" ref="J1" dT="2024-06-19T05:39:57" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{08EA2EF0-265A-44BE-8876-8AE72A99798F}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{C705F8A1-2EC1-4BE0-8354-AF82963B142C}" ref="C2" dT="2024-06-14T02:49:51" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+  <threadedComment id="{F0DE577E-3FFF-4B16-A4DF-B7EA7F910358}" ref="C2" dT="2024-06-14T02:49:51" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{8BB2A2DA-72D7-4FBB-88D0-E75D11870235}" ref="A4" dT="2024-05-28T04:59:59" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{DCC57555-467A-4581-9EAA-213BD260F132}" ref="H9" dT="2024-06-14T02:51:06" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+  <threadedComment id="{AEC16752-941A-4BF0-B4EF-A07DBC3BB001}" ref="H9" dT="2024-06-14T02:51:06" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{3C05C127-E575-42AE-B27D-4812B68CBEFB}" ref="H6" dT="2024-06-14T02:50:34" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{668FCED2-746D-403D-9D54-9A3CE2A76A74}" ref="E1" dT="2024-06-09T13:30:31" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+  <threadedComment id="{416E00CE-9AA6-40CD-ACFE-C50CDDF7F3DE}" ref="E1" dT="2024-06-09T13:30:31" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -682,31 +682,31 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{DA6DBBDA-715A-4C0D-9668-69055F49EDA3}" ref="E1" dT="2024-06-09T13:30:45" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+  <threadedComment id="{20678408-E269-4265-8B26-5951E17055CF}" ref="C6" dT="2024-06-14T02:49:20" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  </threadedComment>
+  <threadedComment id="{4A18D6BE-7812-42F5-8B32-14FFFE16E2DC}" ref="E1" dT="2024-06-09T13:30:45" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{00C115F0-F030-4410-A3B5-D9E8EBEAAB85}" ref="C5" dT="2024-06-14T02:48:45" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+  <threadedComment id="{1E3B46D6-5381-45B7-B12C-B1282FE591BD}" ref="C5" dT="2024-06-14T02:48:45" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
-  </threadedComment>
-  <threadedComment id="{92128847-FB71-4F61-B559-D86C4E224399}" ref="C6" dT="2024-06-14T02:49:20" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{66C44083-CE7D-4BC6-9C0F-E307E89A140B}" ref="C1" dT="2024-05-10T07:54:02" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+  <threadedComment id="{2597348B-477F-47B6-87D2-123382166C5A}" ref="C1" dT="2024-05-10T07:54:02" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{04A61655-A45C-4FF8-BC8B-9E2D08BF43C7}" ref="D1" dT="2024-05-10T08:11:19" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+  <threadedComment id="{53E15A60-2C84-49F3-8E6A-CDF094B376DE}" ref="D1" dT="2024-05-10T08:11:19" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{1abe4dcd-0ac8-459e-9b68-9d5eea6eac79}" ref="D1" dT="2024-05-10T08:15:39" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{04A61655-A45C-4FF8-BC8B-9E2D08BF43C7}">
+  <threadedComment id="{0bf8d23b-9757-4eb2-a54e-5bd85a520de7}" ref="D1" dT="2024-05-10T08:15:39" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{53E15A60-2C84-49F3-8E6A-CDF094B376DE}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
 </ThreadedComments>
@@ -714,7 +714,7 @@
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{0CF925EB-DC9D-472F-95E9-938556B0A312}" ref="A2" dT="2024-06-26T06:41:07" personId="{334EB16E-3666-4BD9-A16D-3887E8D45D6A}" parentId="{}">
+  <threadedComment id="{8FB04939-2D90-4A9C-BEA2-93C39E539795}" ref="A2" dT="2024-06-26T06:41:07" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -908,31 +908,31 @@
       <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1166,66 +1166,66 @@
       <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="str">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="5" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="6" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5" t="str">
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1613,31 +1613,31 @@
       <c r="K2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="str">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row customHeight="true" ht="23" r="6">
+    <row r="6">
       <c r="A6" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
@@ -1697,8 +1697,7 @@
         <v>Stage</v>
       </c>
       <c r="H6" s="2" t="str">
-        <v>- 场景内没有任何角色与道具。
-- 任何角色进入此场景，你都会对其低语(WhisperAction)，试图吓走对方。</v>
+        <v>- 任何角色进入此场景，你都会对其低语(WhisperAction)，试图吓走对方。</v>
       </c>
       <c r="K6" s="1" t="str">
         <v>10000,10000,1,10000</v>
@@ -2094,49 +2093,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="5" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2172,7 +2171,7 @@
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -2181,7 +2180,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2219,7 +2218,7 @@
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -2228,13 +2227,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="5" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -2265,7 +2264,7 @@
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2274,13 +2273,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2313,7 +2312,7 @@
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2322,7 +2321,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2347,7 +2346,7 @@
       <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2356,7 +2355,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2391,7 +2390,7 @@
       <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="5" t="str">
+      <c r="H12" s="4" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I12" s="2" t="str">
@@ -2399,7 +2398,8 @@
       </c>
       <c r="J12" s="2" t="str">
         <v>二十岁左右的男性人类。身材中等，不高不矮，看上去并不很强壮。
-眼睛是特殊的红色，面色呈现一种不健康的灰暗。</v>
+眼睛是特殊的红色，面色呈现一种不健康的灰暗。
+胸前有黑色的印记，形状看上去犹如盘旋的黑色火焰。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13"/>
@@ -2705,7 +2705,7 @@
         <v>被诅咒之人的印记——盘旋的黑色火焰化作灭世的龙</v>
       </c>
       <c r="F12" s="1" t="str">
-        <v>右手的手背上的印记，呈黑色，形状看上去犹如盘旋的黑色火焰</v>
+        <v>胸前的印记，呈黑色，形状看上去犹如盘旋的黑色火焰</v>
       </c>
       <c r="G12" s="2" t="str">
         <v>0,0,0,0</v>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4C9F166B-C4C6-4B3E-A906-D0DDCC60B025}</author>
-    <author>tc={9C36760A-AEB2-4703-B60F-F9B59E1EFE4F}</author>
-    <author>tc={C47B04F5-CF26-4BDC-8F0F-123D93BEEE2E}</author>
-    <author>tc={2C7323B3-10BE-45D9-B90E-5850D073D9E3}</author>
-    <author>tc={F0DE577E-3FFF-4B16-A4DF-B7EA7F910358}</author>
-    <author>tc={AEC16752-941A-4BF0-B4EF-A07DBC3BB001}</author>
+    <author>tc={BAFE0AD5-BB52-426D-B473-5CA9BB1A9171}</author>
+    <author>tc={D92FF313-5176-436A-AACF-7E0D46E8F99E}</author>
+    <author>tc={0E43032D-437D-4CC4-97CC-44677386D56B}</author>
+    <author>tc={86CB64E2-49DF-4EA5-851D-12AEF5D237A7}</author>
+    <author>tc={950585A5-B5CC-40E9-BEA7-6B431F627B9D}</author>
+    <author>tc={334E8340-9706-435F-ADD0-53AA75E85D6D}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4C9F166B-C4C6-4B3E-A906-D0DDCC60B025}">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{BAFE0AD5-BB52-426D-B473-5CA9BB1A9171}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{9C36760A-AEB2-4703-B60F-F9B59E1EFE4F}">
+    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{D92FF313-5176-436A-AACF-7E0D46E8F99E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{C47B04F5-CF26-4BDC-8F0F-123D93BEEE2E}">
+    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{0E43032D-437D-4CC4-97CC-44677386D56B}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{86CB64E2-49DF-4EA5-851D-12AEF5D237A7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{2C7323B3-10BE-45D9-B90E-5850D073D9E3}">
+    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{950585A5-B5CC-40E9-BEA7-6B431F627B9D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{F0DE577E-3FFF-4B16-A4DF-B7EA7F910358}">
+    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{334E8340-9706-435F-ADD0-53AA75E85D6D}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{AEC16752-941A-4BF0-B4EF-A07DBC3BB001}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={416E00CE-9AA6-40CD-ACFE-C50CDDF7F3DE}</author>
+    <author>tc={80524611-3D7E-4308-BEDB-DBAA52CEFBE2}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{416E00CE-9AA6-40CD-ACFE-C50CDDF7F3DE}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{80524611-3D7E-4308-BEDB-DBAA52CEFBE2}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={20678408-E269-4265-8B26-5951E17055CF}</author>
-    <author>tc={4A18D6BE-7812-42F5-8B32-14FFFE16E2DC}</author>
-    <author>tc={1E3B46D6-5381-45B7-B12C-B1282FE591BD}</author>
+    <author>tc={B0F408FB-A79B-4C12-9B5A-F9DF0F232DF4}</author>
+    <author>tc={BBB7DDFB-AB4D-48F5-938D-E6700975DFF3}</author>
+    <author>tc={01B6B6E7-09B2-4239-A87E-8461716203DB}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{20678408-E269-4265-8B26-5951E17055CF}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{4A18D6BE-7812-42F5-8B32-14FFFE16E2DC}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B0F408FB-A79B-4C12-9B5A-F9DF0F232DF4}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{1E3B46D6-5381-45B7-B12C-B1282FE591BD}">
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{BBB7DDFB-AB4D-48F5-938D-E6700975DFF3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{01B6B6E7-09B2-4239-A87E-8461716203DB}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
   </commentList>
@@ -121,16 +121,16 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2597348B-477F-47B6-87D2-123382166C5A}</author>
-    <author>tc={53E15A60-2C84-49F3-8E6A-CDF094B376DE}</author>
+    <author>tc={63D88385-060E-4FC1-B3D4-B94200F4BF3A}</author>
+    <author>tc={892A93B1-8A60-4A25-81CB-8C6EEC729101}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2597348B-477F-47B6-87D2-123382166C5A}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{63D88385-060E-4FC1-B3D4-B94200F4BF3A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{53E15A60-2C84-49F3-8E6A-CDF094B376DE}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{892A93B1-8A60-4A25-81CB-8C6EEC729101}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -146,10 +146,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={8FB04939-2D90-4A9C-BEA2-93C39E539795}</author>
+    <author>tc={748C5CF2-8862-4416-9CE5-655347CD8042}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{8FB04939-2D90-4A9C-BEA2-93C39E539795}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{748C5CF2-8862-4416-9CE5-655347CD8042}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -346,8 +346,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" userId="S::::7f9c6977-3bbc-42a9-98e0-4c992e226582" providerId="AD"/>
-  <person displayName="侯清辰" id="{0DE5193B-12E3-43B7-B367-8A7FE27BF654}" userId="S::::41314f8e-2b2d-4e17-9932-08c7f1cae9c2" providerId="AD"/>
+  <person displayName="杨行" id="{26498D34-F09F-4932-8456-4C98BC6A51A5}" userId="S::::e0078706-616b-4ca7-8ed7-23e006166ae4" providerId="AD"/>
+  <person displayName="侯清辰" id="{59955B21-892D-4928-A1B1-B70124AC2338}" userId="S::::e598803b-958c-4b90-a7ca-15447f757e41" providerId="AD"/>
 </personList>
 </file>
 
@@ -648,33 +648,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{4C9F166B-C4C6-4B3E-A906-D0DDCC60B025}" ref="J1" dT="2024-05-10T07:08:22" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
+  <threadedComment id="{BAFE0AD5-BB52-426D-B473-5CA9BB1A9171}" ref="H9" dT="2024-06-14T02:51:06" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{D92FF313-5176-436A-AACF-7E0D46E8F99E}" ref="H6" dT="2024-06-14T02:50:34" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{0E43032D-437D-4CC4-97CC-44677386D56B}" ref="C2" dT="2024-06-14T02:49:51" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{86CB64E2-49DF-4EA5-851D-12AEF5D237A7}" ref="K1" dT="2024-05-31T03:31:01" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{950585A5-B5CC-40E9-BEA7-6B431F627B9D}" ref="A4" dT="2024-05-28T04:59:59" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{334E8340-9706-435F-ADD0-53AA75E85D6D}" ref="J1" dT="2024-05-10T07:08:22" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{260a6aaa-6658-422c-9a45-822cae48391a}" ref="J1" dT="2024-06-19T05:39:57" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{4C9F166B-C4C6-4B3E-A906-D0DDCC60B025}">
+  <threadedComment id="{46c02d11-6e76-4297-9c9a-a596da2116c8}" ref="J1" dT="2024-06-19T05:39:57" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{334E8340-9706-435F-ADD0-53AA75E85D6D}">
     <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{9C36760A-AEB2-4703-B60F-F9B59E1EFE4F}" ref="H6" dT="2024-06-14T02:50:34" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{C47B04F5-CF26-4BDC-8F0F-123D93BEEE2E}" ref="K1" dT="2024-05-31T03:31:01" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{2C7323B3-10BE-45D9-B90E-5850D073D9E3}" ref="A4" dT="2024-05-28T04:59:59" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{F0DE577E-3FFF-4B16-A4DF-B7EA7F910358}" ref="C2" dT="2024-06-14T02:49:51" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{AEC16752-941A-4BF0-B4EF-A07DBC3BB001}" ref="H9" dT="2024-06-14T02:51:06" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{416E00CE-9AA6-40CD-ACFE-C50CDDF7F3DE}" ref="E1" dT="2024-06-09T13:30:31" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
+  <threadedComment id="{80524611-3D7E-4308-BEDB-DBAA52CEFBE2}" ref="E1" dT="2024-06-09T13:30:31" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -682,31 +682,31 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{20678408-E269-4265-8B26-5951E17055CF}" ref="C6" dT="2024-06-14T02:49:20" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
-  </threadedComment>
-  <threadedComment id="{4A18D6BE-7812-42F5-8B32-14FFFE16E2DC}" ref="E1" dT="2024-06-09T13:30:45" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
+  <threadedComment id="{B0F408FB-A79B-4C12-9B5A-F9DF0F232DF4}" ref="E1" dT="2024-06-09T13:30:45" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{1E3B46D6-5381-45B7-B12C-B1282FE591BD}" ref="C5" dT="2024-06-14T02:48:45" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
+  <threadedComment id="{BBB7DDFB-AB4D-48F5-938D-E6700975DFF3}" ref="C5" dT="2024-06-14T02:48:45" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  </threadedComment>
+  <threadedComment id="{01B6B6E7-09B2-4239-A87E-8461716203DB}" ref="C6" dT="2024-06-14T02:49:20" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{2597348B-477F-47B6-87D2-123382166C5A}" ref="C1" dT="2024-05-10T07:54:02" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
+  <threadedComment id="{63D88385-060E-4FC1-B3D4-B94200F4BF3A}" ref="C1" dT="2024-05-10T07:54:02" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
-  <threadedComment id="{53E15A60-2C84-49F3-8E6A-CDF094B376DE}" ref="D1" dT="2024-05-10T08:11:19" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
+  <threadedComment id="{892A93B1-8A60-4A25-81CB-8C6EEC729101}" ref="D1" dT="2024-05-10T08:11:19" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{0bf8d23b-9757-4eb2-a54e-5bd85a520de7}" ref="D1" dT="2024-05-10T08:15:39" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{53E15A60-2C84-49F3-8E6A-CDF094B376DE}">
+  <threadedComment id="{1a72dcdc-a874-45a4-a165-208cc7ad772e}" ref="D1" dT="2024-05-10T08:15:39" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{892A93B1-8A60-4A25-81CB-8C6EEC729101}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
 </ThreadedComments>
@@ -714,7 +714,7 @@
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{8FB04939-2D90-4A9C-BEA2-93C39E539795}" ref="A2" dT="2024-06-26T06:41:07" personId="{6F0EC1A4-4681-4C10-A18B-5F9D97C3D48F}" parentId="{}">
+  <threadedComment id="{748C5CF2-8862-4416-9CE5-655347CD8042}" ref="A2" dT="2024-06-26T06:41:07" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BAFE0AD5-BB52-426D-B473-5CA9BB1A9171}</author>
-    <author>tc={D92FF313-5176-436A-AACF-7E0D46E8F99E}</author>
-    <author>tc={0E43032D-437D-4CC4-97CC-44677386D56B}</author>
-    <author>tc={86CB64E2-49DF-4EA5-851D-12AEF5D237A7}</author>
-    <author>tc={950585A5-B5CC-40E9-BEA7-6B431F627B9D}</author>
-    <author>tc={334E8340-9706-435F-ADD0-53AA75E85D6D}</author>
+    <author>tc={BF20E5C8-3AAB-4855-AB11-8B97169BD748}</author>
+    <author>tc={C170D348-7276-4071-A4E3-9380CAB4AEF8}</author>
+    <author>tc={5B48A475-6C6E-4659-BBB6-AB585350CDAE}</author>
+    <author>tc={D43A3F34-0BA1-41F1-923D-C75B15439E1A}</author>
+    <author>tc={51A48584-24E4-4EFD-BF39-B30F8246ADE6}</author>
+    <author>tc={3F56AB89-4D68-4A32-9ABA-2BC14766A646}</author>
   </authors>
   <commentList>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{BAFE0AD5-BB52-426D-B473-5CA9BB1A9171}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{BF20E5C8-3AAB-4855-AB11-8B97169BD748}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{C170D348-7276-4071-A4E3-9380CAB4AEF8}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{5B48A475-6C6E-4659-BBB6-AB585350CDAE}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{D92FF313-5176-436A-AACF-7E0D46E8F99E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{0E43032D-437D-4CC4-97CC-44677386D56B}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{86CB64E2-49DF-4EA5-851D-12AEF5D237A7}">
+    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{D43A3F34-0BA1-41F1-923D-C75B15439E1A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{950585A5-B5CC-40E9-BEA7-6B431F627B9D}">
+    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{51A48584-24E4-4EFD-BF39-B30F8246ADE6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{334E8340-9706-435F-ADD0-53AA75E85D6D}">
+    <comment ref="H6" authorId="5" shapeId="0" xr:uid="{3F56AB89-4D68-4A32-9ABA-2BC14766A646}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={80524611-3D7E-4308-BEDB-DBAA52CEFBE2}</author>
+    <author>tc={BA07FF79-A1EB-4F40-9D07-DF93D962B5F1}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{80524611-3D7E-4308-BEDB-DBAA52CEFBE2}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{BA07FF79-A1EB-4F40-9D07-DF93D962B5F1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B0F408FB-A79B-4C12-9B5A-F9DF0F232DF4}</author>
-    <author>tc={BBB7DDFB-AB4D-48F5-938D-E6700975DFF3}</author>
-    <author>tc={01B6B6E7-09B2-4239-A87E-8461716203DB}</author>
+    <author>tc={BEBADBAA-AA0A-4631-816A-E8E91C3DC2A3}</author>
+    <author>tc={973D535B-891E-4F98-9E98-8F0DF77B7344}</author>
+    <author>tc={5DB3F701-FE83-4DE7-9549-DC48EDA49FCD}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B0F408FB-A79B-4C12-9B5A-F9DF0F232DF4}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{BBB7DDFB-AB4D-48F5-938D-E6700975DFF3}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{BEBADBAA-AA0A-4631-816A-E8E91C3DC2A3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{01B6B6E7-09B2-4239-A87E-8461716203DB}">
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{973D535B-891E-4F98-9E98-8F0DF77B7344}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{5DB3F701-FE83-4DE7-9549-DC48EDA49FCD}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
   </commentList>
@@ -121,22 +121,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={63D88385-060E-4FC1-B3D4-B94200F4BF3A}</author>
-    <author>tc={892A93B1-8A60-4A25-81CB-8C6EEC729101}</author>
+    <author>tc={F92F4E08-CD42-4113-84B1-B5A0D7275D14}</author>
+    <author>tc={BF6188FA-0079-4361-BCE9-4ACB9609EA0E}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{63D88385-060E-4FC1-B3D4-B94200F4BF3A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{892A93B1-8A60-4A25-81CB-8C6EEC729101}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F92F4E08-CD42-4113-84B1-B5A0D7275D14}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{BF6188FA-0079-4361-BCE9-4ACB9609EA0E}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -146,10 +146,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={748C5CF2-8862-4416-9CE5-655347CD8042}</author>
+    <author>tc={35440534-CD24-4E22-860C-82FB53B3AD60}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{748C5CF2-8862-4416-9CE5-655347CD8042}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{35440534-CD24-4E22-860C-82FB53B3AD60}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -195,14 +195,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -346,8 +346,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{26498D34-F09F-4932-8456-4C98BC6A51A5}" userId="S::::e0078706-616b-4ca7-8ed7-23e006166ae4" providerId="AD"/>
-  <person displayName="侯清辰" id="{59955B21-892D-4928-A1B1-B70124AC2338}" userId="S::::e598803b-958c-4b90-a7ca-15447f757e41" providerId="AD"/>
+  <person displayName="侯清辰" id="{1508E7C3-14C9-446C-BF5E-65098A0036C8}" userId="S::::a53cd67f-e8bc-4e39-ab6c-3158cde7332c" providerId="AD"/>
+  <person displayName="杨行" id="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" userId="S::::f622cf18-6e69-4e65-80a3-82d9ded8a812" providerId="AD"/>
 </personList>
 </file>
 
@@ -648,33 +648,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{BAFE0AD5-BB52-426D-B473-5CA9BB1A9171}" ref="H9" dT="2024-06-14T02:51:06" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
+  <threadedComment id="{BF20E5C8-3AAB-4855-AB11-8B97169BD748}" ref="C2" dT="2024-06-14T02:49:51" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{C170D348-7276-4071-A4E3-9380CAB4AEF8}" ref="J1" dT="2024-05-10T07:08:22" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{bcd12310-f1d5-4d68-ad45-00e0327ed96e}" ref="J1" dT="2024-06-19T05:39:57" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{C170D348-7276-4071-A4E3-9380CAB4AEF8}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{5B48A475-6C6E-4659-BBB6-AB585350CDAE}" ref="H9" dT="2024-06-14T02:51:06" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{D92FF313-5176-436A-AACF-7E0D46E8F99E}" ref="H6" dT="2024-06-14T02:50:34" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{0E43032D-437D-4CC4-97CC-44677386D56B}" ref="C2" dT="2024-06-14T02:49:51" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{86CB64E2-49DF-4EA5-851D-12AEF5D237A7}" ref="K1" dT="2024-05-31T03:31:01" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
+  <threadedComment id="{D43A3F34-0BA1-41F1-923D-C75B15439E1A}" ref="K1" dT="2024-05-31T03:31:01" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{950585A5-B5CC-40E9-BEA7-6B431F627B9D}" ref="A4" dT="2024-05-28T04:59:59" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
+  <threadedComment id="{51A48584-24E4-4EFD-BF39-B30F8246ADE6}" ref="A4" dT="2024-05-28T04:59:59" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{334E8340-9706-435F-ADD0-53AA75E85D6D}" ref="J1" dT="2024-05-10T07:08:22" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{46c02d11-6e76-4297-9c9a-a596da2116c8}" ref="J1" dT="2024-06-19T05:39:57" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{334E8340-9706-435F-ADD0-53AA75E85D6D}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
+  <threadedComment id="{3F56AB89-4D68-4A32-9ABA-2BC14766A646}" ref="H6" dT="2024-06-14T02:50:34" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{80524611-3D7E-4308-BEDB-DBAA52CEFBE2}" ref="E1" dT="2024-06-09T13:30:31" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
+  <threadedComment id="{BA07FF79-A1EB-4F40-9D07-DF93D962B5F1}" ref="E1" dT="2024-06-09T13:30:31" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -682,39 +682,39 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B0F408FB-A79B-4C12-9B5A-F9DF0F232DF4}" ref="E1" dT="2024-06-09T13:30:45" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
-    <text>@宾晓华 这里</text>
-  </threadedComment>
-  <threadedComment id="{BBB7DDFB-AB4D-48F5-938D-E6700975DFF3}" ref="C5" dT="2024-06-14T02:48:45" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
+  <threadedComment id="{BEBADBAA-AA0A-4631-816A-E8E91C3DC2A3}" ref="C5" dT="2024-06-14T02:48:45" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{01B6B6E7-09B2-4239-A87E-8461716203DB}" ref="C6" dT="2024-06-14T02:49:20" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
+  <threadedComment id="{973D535B-891E-4F98-9E98-8F0DF77B7344}" ref="C6" dT="2024-06-14T02:49:20" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  </threadedComment>
+  <threadedComment id="{5DB3F701-FE83-4DE7-9549-DC48EDA49FCD}" ref="E1" dT="2024-06-09T13:30:45" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
+    <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{63D88385-060E-4FC1-B3D4-B94200F4BF3A}" ref="C1" dT="2024-05-10T07:54:02" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{892A93B1-8A60-4A25-81CB-8C6EEC729101}" ref="D1" dT="2024-05-10T08:11:19" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
+  <threadedComment id="{F92F4E08-CD42-4113-84B1-B5A0D7275D14}" ref="D1" dT="2024-05-10T08:11:19" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{1a72dcdc-a874-45a4-a165-208cc7ad772e}" ref="D1" dT="2024-05-10T08:15:39" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{892A93B1-8A60-4A25-81CB-8C6EEC729101}">
+  <threadedComment id="{cfdb0563-9334-4f20-9858-9ced544f8134}" ref="D1" dT="2024-05-10T08:15:39" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{F92F4E08-CD42-4113-84B1-B5A0D7275D14}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{BF6188FA-0079-4361-BCE9-4ACB9609EA0E}" ref="C1" dT="2024-05-10T07:54:02" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{748C5CF2-8862-4416-9CE5-655347CD8042}" ref="A2" dT="2024-06-26T06:41:07" personId="{26498D34-F09F-4932-8456-4C98BC6A51A5}" parentId="{}">
+  <threadedComment id="{35440534-CD24-4E22-860C-82FB53B3AD60}" ref="A2" dT="2024-06-26T06:41:07" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -754,30 +754,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -834,78 +834,78 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="5" t="str">
@@ -935,53 +935,53 @@
       <c r="S3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2" t="str">
+      <c r="J4" s="2"/>
+      <c r="K4" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="K5" s="1" t="str">
+      <c r="K5" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="O5" s="2" t="str">
+      <c r="O5" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -993,51 +993,51 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="K6" s="1" t="str">
+      <c r="K6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="K7" s="1" t="str">
+      <c r="K7" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="str">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="N7" s="2" t="str">
+      <c r="N7" s="1" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="O7" s="3" t="str">
@@ -1092,78 +1092,78 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="5" t="str">
@@ -1228,69 +1228,69 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2" t="str">
+      <c r="J5" s="2"/>
+      <c r="K5" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2" t="str">
+      <c r="J6" s="2"/>
+      <c r="K6" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1298,42 +1298,42 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2" t="str">
+      <c r="J7" s="2"/>
+      <c r="K7" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="H8" s="1" t="str">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="H8" s="2" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2" t="str">
+      <c r="J8" s="2"/>
+      <c r="K8" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="H9" s="1" t="str">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="H9" s="2" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1341,150 +1341,150 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2" t="str">
+      <c r="J9" s="2"/>
+      <c r="K9" s="1" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="str">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="K10" s="1" t="str">
+      <c r="K10" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="M10" s="2" t="str">
+      <c r="M10" s="1" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="O10" s="2" t="str">
+      <c r="O10" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="str">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" s="2" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="K11" s="1" t="str">
+      <c r="K11" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="str">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="H12" s="2" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="K12" s="1" t="str">
+      <c r="K12" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="str">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="str">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="K13" s="1" t="str">
+      <c r="K13" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="str">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I14" s="2" t="str">
+      <c r="I14" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="K14" s="1" t="str">
+      <c r="K14" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="2" t="str">
         <v>圣灰园正门前广场（忽略）</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="str">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="2" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="I15" s="2" t="str">
+      <c r="I15" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="K15" s="1" t="str">
+      <c r="K15" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1535,66 +1535,66 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>## 游戏概述：
 - 本游戏以中国历史中的三国时代（借鉴小说《三国演义》）为背景的 历史奇幻类 角色扮演游戏。
 - 本游戏融合了历史的真实感与奇幻元素。以“架空”的三国时代为背景。
@@ -1603,14 +1603,14 @@
 - 游戏内容（文本）可能包含恐怖、血腥与暴力场景。这一切旨在为玩家带来深度沉浸式的体验。
 - 注意！请你接受以上设定。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="5" t="str">
@@ -1640,66 +1640,66 @@
       <c r="S3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
         <v>黑火印记;粗布牢服</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>- 在昏暗潮湿的牢房内，你缓缓睁开眼睛，意识逐渐恢复。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。
 - 你难以回忆起任何事情。
 - 牢房的 铁栏门 似乎已经被破坏打开。
 - 铁栏门上挂着一块腐化的木牌上写着：“火十一”。也许这就是你的名字？或者是这个地方的名字？</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2" t="str">
+      <c r="J4" s="2"/>
+      <c r="K4" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="G5" s="2" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="1" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>- 人物.火十一，他醒来了。
 - 牢房的 铁栏门 似乎已经被破坏打开。</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="K5" s="1" t="str">
+      <c r="K5" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="O5" s="2"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>- 任何角色进入此场景，你都会对其低语(WhisperAction)，试图吓走对方。</v>
       </c>
-      <c r="K6" s="1" t="str">
+      <c r="K6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1748,265 +1748,265 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>8100</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>8101</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>8102</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>8103</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>8104</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>8105</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row r="10">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>stage_name_cell_fire11</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="2" t="str">
         <v>在昏暗潮湿的牢房中，四周的空气弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍，石墙的缝隙中透出微弱的冷风。牢房的空间狭窄逼仄，头顶低矮的天花板让人感到压抑。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。地面上散落着几根破旧的稻草，散发着难以忍受的酸臭味，脚下的土地坚硬冰冷。铁栏门上满是锈迹，偶尔有冷风吹过，门上的铁链和锁扣发出轻微的摩擦声，显得格外刺耳。门上挂着一块腐化的木牌上写着：“火十一”。墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。角落里的一张石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙刺手。整个牢房中只有低沉的滴水声和铁链的摩擦声回荡在寂静中。</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>8106</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="2" t="str">
         <v>/stage/stage_name_cell_fire11</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template.md</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="I10" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>stage_name_zone_fire</v>
       </c>
       <c r="C11" t="str">
         <v>墙壁和天花板都由厚重的岩石构成，表面焦黑斑驳。地面上散落着焦黑的灰烬、燃烧过的木炭和烧焦的尸体，有些尸体还能看出人形，而另一些已经扭曲变形，难以辨认。四处摆放着残破的金属器具，表面布满了因高温而变形的痕迹。铁锤、火钳等工具随意地丢弃在角落，增添了这里的凌乱和恐怖感。正中央有一个巨大的石制平台，表面覆盖着焦黑的烧痕和不规则的裂纹。四周立着几根高大的石柱，柱顶燃烧着火焰，散发出幽暗的红光，照亮了整个房间。平台上有几道深深的凹槽，似乎是用来固定囚犯的锁链。空气中弥漫着一种无法忽视的刺鼻气味，混合着燃烧的皮肉和化学物质的味道。墙壁上有几处金属管道，从深处延伸而来，将高温的蒸汽和燃烧气体导入室内。</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>8107</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="F11" s="2" t="str">
         <v>/stage/stage_name_zone_fire</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="1" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template2.md</v>
       </c>
-      <c r="I11" s="2" t="str">
+      <c r="I11" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -2059,34 +2059,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>body</v>
       </c>
     </row>
@@ -2115,13 +2115,13 @@
       <c r="F4" s="5" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J4" s="4" t="str">
@@ -2138,13 +2138,13 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -2164,7 +2164,7 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 例句：嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 例句：嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - 例句：（怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
@@ -2174,30 +2174,30 @@
       <c r="E5" s="5">
         <v>8201</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -2212,7 +2212,7 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>1. 例句：吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 例句：吱吱吱～～（开心的摇尾巴）～～～～"
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
@@ -2221,16 +2221,16 @@
       <c r="E6" s="5">
         <v>8202</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J6" s="5" t="str">
@@ -2238,13 +2238,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -2259,7 +2259,7 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- 例句：（阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
@@ -2267,16 +2267,16 @@
       <c r="E7" s="5">
         <v>8203</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J7" s="4" t="str">
@@ -2284,13 +2284,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -2307,7 +2307,7 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>- 例句：（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
@@ -2315,88 +2315,88 @@
       <c r="E8" s="5">
         <v>8204</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="2" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>- 例句：我知道了。</v>
       </c>
       <c r="E9" s="5">
         <v>8205</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
       <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="I9" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="2" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>player_name_subject_fire11</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="2" t="str">
         <v>### 你的背景
 - 你是玩家操纵角色，不需要背景描述。</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="1" t="str">
         <v>- 注意：请根据你的 角色设定，自行发挥</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>8206</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="1" t="str">
         <v>/actor/player_name_subject_fire11</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
       <c r="H12" s="4" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
-      <c r="I12" s="2" t="str">
+      <c r="I12" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="J12" s="1" t="str">
         <v>二十岁左右的男性人类。身材中等，不高不矮，看上去并不很强壮。
 眼睛是特殊的红色，面色呈现一种不健康的灰暗。
 胸前有黑色的印记，形状看上去犹如盘旋的黑色火焰。</v>
@@ -2453,316 +2453,316 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>炙热无比的长钩</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>0,0,10000,0</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很"锋利和尖锐"。</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>形状像断掉的手指的钥匙</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="H8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="2" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>黑色长袍与斗篷。</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>黑火印记</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>mark_of_black_fire</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E12" s="1" t="str">
+      <c r="E12" s="2" t="str">
         <v>被诅咒之人的印记——盘旋的黑色火焰化作灭世的龙</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="2" t="str">
         <v>胸前的印记，呈黑色，形状看上去犹如盘旋的黑色火焰</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>黄巾军长剑</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>huangjin_long_sword</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E13" s="2" t="str">
         <v>普通但可靠的剑，黄巾军中低阶军官的标准装备。这种剑由黄巾军内部的铁匠工坊铸造，材料虽不算上乘，但胜在耐用和易于维护。</v>
       </c>
-      <c r="F13" s="1" t="str">
+      <c r="F13" s="2" t="str">
         <v>剑身长约三尺，剑刃虽有些许磨损的痕迹，但依然锋利。剑柄包裹着简单的粗麻绳。剑鞘由黑色牛皮制成，质朴无华并不显眼。</v>
       </c>
-      <c r="G13" s="2" t="str">
+      <c r="G13" s="1" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="H13" s="2" t="str">
+      <c r="H13" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="2" t="str">
         <v>黄巾军军官服</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <v>huangjin_officer_uniform</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D14" s="1" t="str">
+      <c r="D14" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E14" s="1" t="str">
+      <c r="E14" s="2" t="str">
         <v>黄巾军军官服是普通军官在行军作战时的常规装束，设计简洁实用，以便于在战场上行动自如。这套服装由耐磨的粗布制成，能够应对各种恶劣的环境，兼具一定的防护作用。</v>
       </c>
-      <c r="F14" s="1" t="str">
+      <c r="F14" s="2" t="str">
         <v>由深黄色的粗布制成，整体设计简朴且耐用。上衣为束腰的短袍，配有几道简单的绣纹装饰，袖口较窄，便于行动。腰间系着一条宽厚的布带，用以固定短刀或其他小物件。下装是宽松的裤子，裤腿绑着布条，以防止绊脚。脚上穿着一双结实的草鞋，适合在各种地形上行走。整套装束并无多余的装饰。</v>
       </c>
-      <c r="G14" s="2" t="str">
+      <c r="G14" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="H14" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2770,25 +2770,25 @@
       <c r="A15" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>coarse_prison_uniform</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D15" s="1" t="str">
+      <c r="D15" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="E15" s="1" t="str">
         <v>粗布牢服是秘密监狱中囚犯的标准服装，由廉价且耐磨的粗布制成。服装设计简陋，只为满足基本的保暖和遮体需求。上面有一些“奇特的符号”</v>
       </c>
-      <c r="F15" s="2" t="str">
+      <c r="F15" s="1" t="str">
         <v>由深灰色的粗糙麻布制成，布料质地粗糙，表面有明显的纺织纹理和磨损痕迹。衣领低矮，袖子宽大且略显破旧，袖口处甚至还有几道撕裂的口子。服装的前襟和后背上用粗线绣着几个简单的符号，线迹不规整，仿佛是仓促中加上的。衣服的下摆长及膝盖，边缘已经磨损得参差不齐，显现出长期使用的痕迹</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2823,54 +2823,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>world_system_appearance_builder</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8300</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>/worldsystems/appearance_builder</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BF20E5C8-3AAB-4855-AB11-8B97169BD748}</author>
-    <author>tc={C170D348-7276-4071-A4E3-9380CAB4AEF8}</author>
-    <author>tc={5B48A475-6C6E-4659-BBB6-AB585350CDAE}</author>
-    <author>tc={D43A3F34-0BA1-41F1-923D-C75B15439E1A}</author>
-    <author>tc={51A48584-24E4-4EFD-BF39-B30F8246ADE6}</author>
-    <author>tc={3F56AB89-4D68-4A32-9ABA-2BC14766A646}</author>
+    <author>tc={D3A113C9-AFA0-433A-9285-0D7E1C53CCDD}</author>
+    <author>tc={F8D523F5-E1F2-407A-917C-C52AFD07A662}</author>
+    <author>tc={7CB0C307-1419-4770-BF25-928D6CE27ECB}</author>
+    <author>tc={29B0E296-A61A-4AA3-BB68-4383390A2205}</author>
+    <author>tc={705B052B-17EC-4EF2-9E13-107D71941DC9}</author>
+    <author>tc={B1A53607-EE1C-4AA4-A499-E1C7926ED3CA}</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{BF20E5C8-3AAB-4855-AB11-8B97169BD748}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{D3A113C9-AFA0-433A-9285-0D7E1C53CCDD}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{C170D348-7276-4071-A4E3-9380CAB4AEF8}">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{F8D523F5-E1F2-407A-917C-C52AFD07A662}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{7CB0C307-1419-4770-BF25-928D6CE27ECB}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{5B48A475-6C6E-4659-BBB6-AB585350CDAE}">
+    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{29B0E296-A61A-4AA3-BB68-4383390A2205}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="4" shapeId="0" xr:uid="{705B052B-17EC-4EF2-9E13-107D71941DC9}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{D43A3F34-0BA1-41F1-923D-C75B15439E1A}">
+    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{B1A53607-EE1C-4AA4-A499-E1C7926ED3CA}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{51A48584-24E4-4EFD-BF39-B30F8246ADE6}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="5" shapeId="0" xr:uid="{3F56AB89-4D68-4A32-9ABA-2BC14766A646}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BA07FF79-A1EB-4F40-9D07-DF93D962B5F1}</author>
+    <author>tc={288C8EEF-B6D4-4371-81DF-A716BC8ED3B3}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{BA07FF79-A1EB-4F40-9D07-DF93D962B5F1}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{288C8EEF-B6D4-4371-81DF-A716BC8ED3B3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BEBADBAA-AA0A-4631-816A-E8E91C3DC2A3}</author>
-    <author>tc={973D535B-891E-4F98-9E98-8F0DF77B7344}</author>
-    <author>tc={5DB3F701-FE83-4DE7-9549-DC48EDA49FCD}</author>
+    <author>tc={734B1611-A146-4864-8384-778EDF7D58A3}</author>
+    <author>tc={C81A6B0B-9BD3-4405-A902-388D02B2B911}</author>
+    <author>tc={019F4A9B-9FF4-4583-AE75-9A667979B88E}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{BEBADBAA-AA0A-4631-816A-E8E91C3DC2A3}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{734B1611-A146-4864-8384-778EDF7D58A3}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{973D535B-891E-4F98-9E98-8F0DF77B7344}">
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{C81A6B0B-9BD3-4405-A902-388D02B2B911}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{5DB3F701-FE83-4DE7-9549-DC48EDA49FCD}">
+    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{019F4A9B-9FF4-4583-AE75-9A667979B88E}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
   </commentList>
@@ -121,11 +121,11 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F92F4E08-CD42-4113-84B1-B5A0D7275D14}</author>
-    <author>tc={BF6188FA-0079-4361-BCE9-4ACB9609EA0E}</author>
+    <author>tc={33C5F58B-8B29-484D-B189-ED504C5344FB}</author>
+    <author>tc={91A96B2F-60C7-4CD0-98A5-6CD3E25F784B}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F92F4E08-CD42-4113-84B1-B5A0D7275D14}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{33C5F58B-8B29-484D-B189-ED504C5344FB}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -134,7 +134,7 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{BF6188FA-0079-4361-BCE9-4ACB9609EA0E}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{91A96B2F-60C7-4CD0-98A5-6CD3E25F784B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
@@ -146,10 +146,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={35440534-CD24-4E22-860C-82FB53B3AD60}</author>
+    <author>tc={108BD14D-D789-4339-AB1E-BCF86A59BCB6}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{35440534-CD24-4E22-860C-82FB53B3AD60}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{108BD14D-D789-4339-AB1E-BCF86A59BCB6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -195,13 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -231,6 +224,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -316,13 +316,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -346,8 +346,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{1508E7C3-14C9-446C-BF5E-65098A0036C8}" userId="S::::a53cd67f-e8bc-4e39-ab6c-3158cde7332c" providerId="AD"/>
-  <person displayName="杨行" id="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" userId="S::::f622cf18-6e69-4e65-80a3-82d9ded8a812" providerId="AD"/>
+  <person displayName="侯清辰" id="{F289BBED-7752-43DA-A977-D19F9F0CD79D}" userId="S::::b9869bce-88c8-4e8e-8bac-ed27108a3a8a" providerId="AD"/>
+  <person displayName="杨行" id="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" userId="S::::b282e513-2591-443b-b026-8276cfda52ec" providerId="AD"/>
 </personList>
 </file>
 
@@ -648,33 +648,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{BF20E5C8-3AAB-4855-AB11-8B97169BD748}" ref="C2" dT="2024-06-14T02:49:51" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  <threadedComment id="{D3A113C9-AFA0-433A-9285-0D7E1C53CCDD}" ref="A4" dT="2024-05-28T04:59:59" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{C170D348-7276-4071-A4E3-9380CAB4AEF8}" ref="J1" dT="2024-05-10T07:08:22" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
+  <threadedComment id="{F8D523F5-E1F2-407A-917C-C52AFD07A662}" ref="L1" dT="2024-05-31T03:31:01" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{7CB0C307-1419-4770-BF25-928D6CE27ECB}" ref="K1" dT="2024-05-10T07:08:22" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{bcd12310-f1d5-4d68-ad45-00e0327ed96e}" ref="J1" dT="2024-06-19T05:39:57" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{C170D348-7276-4071-A4E3-9380CAB4AEF8}">
+  <threadedComment id="{ecbe19a7-f93d-49ac-b11f-eae42337416d}" ref="K1" dT="2024-06-19T05:39:57" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{7CB0C307-1419-4770-BF25-928D6CE27ECB}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{5B48A475-6C6E-4659-BBB6-AB585350CDAE}" ref="H9" dT="2024-06-14T02:51:06" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
+  <threadedComment id="{29B0E296-A61A-4AA3-BB68-4383390A2205}" ref="H6" dT="2024-06-14T02:50:34" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{705B052B-17EC-4EF2-9E13-107D71941DC9}" ref="H9" dT="2024-06-14T02:51:06" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{D43A3F34-0BA1-41F1-923D-C75B15439E1A}" ref="K1" dT="2024-05-31T03:31:01" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{51A48584-24E4-4EFD-BF39-B30F8246ADE6}" ref="A4" dT="2024-05-28T04:59:59" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{3F56AB89-4D68-4A32-9ABA-2BC14766A646}" ref="H6" dT="2024-06-14T02:50:34" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  <threadedComment id="{B1A53607-EE1C-4AA4-A499-E1C7926ED3CA}" ref="C2" dT="2024-06-14T02:49:51" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{BA07FF79-A1EB-4F40-9D07-DF93D962B5F1}" ref="E1" dT="2024-06-09T13:30:31" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
+  <threadedComment id="{288C8EEF-B6D4-4371-81DF-A716BC8ED3B3}" ref="E1" dT="2024-06-09T13:30:31" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -682,31 +682,31 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{BEBADBAA-AA0A-4631-816A-E8E91C3DC2A3}" ref="C5" dT="2024-06-14T02:48:45" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
-    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  <threadedComment id="{734B1611-A146-4864-8384-778EDF7D58A3}" ref="E1" dT="2024-06-09T13:30:45" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+    <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{973D535B-891E-4F98-9E98-8F0DF77B7344}" ref="C6" dT="2024-06-14T02:49:20" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
+  <threadedComment id="{C81A6B0B-9BD3-4405-A902-388D02B2B911}" ref="C6" dT="2024-06-14T02:49:20" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{5DB3F701-FE83-4DE7-9549-DC48EDA49FCD}" ref="E1" dT="2024-06-09T13:30:45" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
-    <text>@宾晓华 这里</text>
+  <threadedComment id="{019F4A9B-9FF4-4583-AE75-9A667979B88E}" ref="C5" dT="2024-06-14T02:48:45" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{F92F4E08-CD42-4113-84B1-B5A0D7275D14}" ref="D1" dT="2024-05-10T08:11:19" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
+  <threadedComment id="{33C5F58B-8B29-484D-B189-ED504C5344FB}" ref="D1" dT="2024-05-10T08:11:19" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{cfdb0563-9334-4f20-9858-9ced544f8134}" ref="D1" dT="2024-05-10T08:15:39" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{F92F4E08-CD42-4113-84B1-B5A0D7275D14}">
+  <threadedComment id="{1ae56ee5-a3cd-46c0-86f8-f3fbba3e92f2}" ref="D1" dT="2024-05-10T08:15:39" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{33C5F58B-8B29-484D-B189-ED504C5344FB}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{BF6188FA-0079-4361-BCE9-4ACB9609EA0E}" ref="C1" dT="2024-05-10T07:54:02" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
+  <threadedComment id="{91A96B2F-60C7-4CD0-98A5-6CD3E25F784B}" ref="C1" dT="2024-05-10T07:54:02" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
@@ -714,7 +714,7 @@
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{35440534-CD24-4E22-860C-82FB53B3AD60}" ref="A2" dT="2024-06-26T06:41:07" personId="{5BC18C9C-04F0-4907-B00B-6BD3BCEF7DC8}" parentId="{}">
+  <threadedComment id="{108BD14D-D789-4339-AB1E-BCF86A59BCB6}" ref="A2" dT="2024-06-26T06:41:07" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -754,30 +754,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -821,226 +821,234 @@
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="115"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="45"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="102"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="84"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="76"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="102"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="84"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="14"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
+        <v>stage_graph</v>
+      </c>
+      <c r="K1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="R1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1" t="str">
+      <c r="K4" s="1"/>
+      <c r="L4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="J5" s="1"/>
+      <c r="L5" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="P5" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <v>要离开的角色必须是人类。</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="R5" t="str">
         <v>要离开的角色身上必须具有‘不死者印记’。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="L6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="J7" s="2"/>
+      <c r="L7" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="str">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="N7" s="1" t="str">
+      <c r="O7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="O7" s="3" t="str">
+      <c r="P7" s="6" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1079,218 +1087,225 @@
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="115"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="45"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="102"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="102"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="76"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="14"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="4" t="str">
+        <v>stage_graph</v>
+      </c>
+      <c r="K1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="R1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="str">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6" t="str">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4" t="str">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1" t="str">
+      <c r="K5" s="1"/>
+      <c r="L5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1" t="str">
+      <c r="K6" s="1"/>
+      <c r="L6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1298,42 +1313,42 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1" t="str">
+      <c r="K7" s="1"/>
+      <c r="L7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="H8" s="2" t="str">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="H8" s="1" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1" t="str">
+      <c r="K8" s="1"/>
+      <c r="L8" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="H9" s="2" t="str">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="H9" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1341,150 +1356,153 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1" t="str">
+      <c r="K9" s="1"/>
+      <c r="L9" s="2" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="I10" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="J10" s="1"/>
+      <c r="L10" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="M10" s="1" t="str">
+      <c r="N10" s="2" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="O10" s="1" t="str">
+      <c r="P10" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="1" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="K11" s="2" t="str">
+      <c r="L11" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="1" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="L12" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="str">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="K13" s="2" t="str">
+      <c r="L13" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="str">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I14" s="1" t="str">
+      <c r="I14" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="K14" s="2" t="str">
+      <c r="J14" s="2"/>
+      <c r="L14" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="1" t="str">
         <v>圣灰园正门前广场（忽略）</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="str">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="1" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="I15" s="1" t="str">
+      <c r="I15" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="K15" s="2" t="str">
+      <c r="J15" s="2"/>
+      <c r="L15" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1520,186 +1538,201 @@
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="49"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="115"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="45"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="102"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="84"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="76"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="193"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="102"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="84"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="14"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
+        <v>stage_graph</v>
+      </c>
+      <c r="K1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="R1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
-        <v>## 游戏概述：
-- 本游戏以中国历史中的三国时代（借鉴小说《三国演义》）为背景的 历史奇幻类 角色扮演游戏。
+      <c r="C2" s="1" t="str">
+        <v>- 本游戏以中国历史中的三国时代（借鉴小说《三国演义》）为背景的 历史奇幻类 角色扮演游戏。
 - 本游戏融合了历史的真实感与奇幻元素。以“架空”的三国时代为背景。
 - 玩家和你将沉浸在一个充满战争、权谋、超自然恐怖与英雄主义的世界中。在复杂的联盟与背叛中穿梭，你们将面对激烈的战斗、黑暗的仪式，以及在乱世中求生的残酷现实。
 - 玩家和你的行为可改变游戏中的历史走向与历史人物的命运。
 - 游戏内容（文本）可能包含恐怖、血腥与暴力场景。这一切旨在为玩家带来深度沉浸式的体验。
 - 注意！请你接受以上设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>黑火印记;粗布牢服</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="H4" s="2" t="str">
-        <v>- 在昏暗潮湿的牢房内，你缓缓睁开眼睛，意识逐渐恢复。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。
-- 你难以回忆起任何事情。
-- 牢房的 铁栏门 似乎已经被破坏打开。
-- 铁栏门上挂着一块腐化的木牌上写着：“火十一”。也许这就是你的名字？或者是这个地方的名字？</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1" t="str">
+      <c r="H4" s="1" t="str">
+        <v>### 环境
+- 你 在昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
+### 事件
+- 你缓缓睁开眼睛，意识逐渐恢复。你难以回忆起任何事情。
+- 牢房的 铁栏门 似乎已经被破坏打开。上挂着一块腐化的木牌上写着：“火十一”。也许这就是你的名字？或者是这个地方的名字？</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="1" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="H5" s="2" t="str">
-        <v>- 人物.火十一，他醒来了。
+      <c r="H5" s="1" t="str">
+        <v>### 环境
+- 昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
+### 事件
+- 人物.火十一，他醒来了。
 - 牢房的 铁栏门 似乎已经被破坏打开。</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="J5" s="1" t="str">
+        <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
+      </c>
+      <c r="L5" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="O5" s="1"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="H6" s="1" t="str">
-        <v>- 任何角色进入此场景，你都会对其低语(WhisperAction)，试图吓走对方。</v>
-      </c>
-      <c r="K6" s="2" t="str">
+      <c r="H6" s="2" t="str">
+        <v>### 环境
+- 四周立着几根高大的石柱，柱顶燃烧着火焰，散发出幽暗的红光，照亮了整个房间。
+### 补充规则
+- 如果任何角色进入此场景，你就会对其低语(WhisperAction)，试图吓走对方。</v>
+      </c>
+      <c r="L6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1748,265 +1781,279 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>8100</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="I2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>8101</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="I3" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>8102</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>8103</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>8104</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>8105</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>stage_name_cell_fire11</v>
       </c>
-      <c r="C10" s="2" t="str">
-        <v>在昏暗潮湿的牢房中，四周的空气弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍，石墙的缝隙中透出微弱的冷风。牢房的空间狭窄逼仄，头顶低矮的天花板让人感到压抑。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。地面上散落着几根破旧的稻草，散发着难以忍受的酸臭味，脚下的土地坚硬冰冷。铁栏门上满是锈迹，偶尔有冷风吹过，门上的铁链和锁扣发出轻微的摩擦声，显得格外刺耳。门上挂着一块腐化的木牌上写着：“火十一”。墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。角落里的一张石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙刺手。整个牢房中只有低沉的滴水声和铁链的摩擦声回荡在寂静中。</v>
-      </c>
-      <c r="D10" s="1" t="str">
+      <c r="C10" s="1" t="str">
+        <v>昏暗潮湿的牢房。空气弥漫着发霉的味道，混杂着血腥和腐烂的气息，令人作呕。
+墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍。
+石墙的缝隙中透出微弱的冷风。
+牢房的空间狭窄逼仄，头顶低矮的天花板让人感到压抑。
+地面上散落着几根破旧的稻草，散发着难以忍受的酸臭味，脚下的土地坚硬冰冷。
+铁栏门上满是锈迹。门上挂着一块腐化的木牌上写着：“火十一”。
+墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。
+角落里的石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙。</v>
+      </c>
+      <c r="D10" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>8106</v>
       </c>
-      <c r="F10" s="2" t="str">
+      <c r="F10" s="1" t="str">
         <v>/stage/stage_name_cell_fire11</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template.md</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="2" t="str">
+    <row r="11">
+      <c r="A11" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>stage_name_zone_fire</v>
       </c>
-      <c r="C11" t="str">
-        <v>墙壁和天花板都由厚重的岩石构成，表面焦黑斑驳。地面上散落着焦黑的灰烬、燃烧过的木炭和烧焦的尸体，有些尸体还能看出人形，而另一些已经扭曲变形，难以辨认。四处摆放着残破的金属器具，表面布满了因高温而变形的痕迹。铁锤、火钳等工具随意地丢弃在角落，增添了这里的凌乱和恐怖感。正中央有一个巨大的石制平台，表面覆盖着焦黑的烧痕和不规则的裂纹。四周立着几根高大的石柱，柱顶燃烧着火焰，散发出幽暗的红光，照亮了整个房间。平台上有几道深深的凹槽，似乎是用来固定囚犯的锁链。空气中弥漫着一种无法忽视的刺鼻气味，混合着燃烧的皮肉和化学物质的味道。墙壁上有几处金属管道，从深处延伸而来，将高温的蒸汽和燃烧气体导入室内。</v>
-      </c>
-      <c r="D11" s="1" t="str">
+      <c r="C11" s="2" t="str">
+        <v>墙壁和天花板都由厚重的岩石构成，表面焦黑斑驳。
+地面上散落着焦黑的灰烬、燃烧过的木炭和烧焦的尸体，有些尸体还能看出人形，而另一些已经扭曲变形，难以辨认。
+四处摆放着残破的金属器具，表面布满了因高温而变形的痕迹。铁锤、火钳等工具随意地丢弃在角落。
+正中央有一个巨大的石制平台，表面覆盖着焦黑的烧痕和不规则的裂纹。
+四周立着几根高大的石柱。
+平台上有几道深深的凹槽，是用来固定囚犯的锁链。
+空气中弥漫着刺鼻气味，混合着燃烧的皮肉和化学物质的味道。
+墙壁上有几处金属管道。</v>
+      </c>
+      <c r="D11" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>8107</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F11" s="1" t="str">
         <v>/stage/stage_name_zone_fire</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="G11" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" s="2" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template2.md</v>
       </c>
-      <c r="I11" s="1" t="str">
+      <c r="I11" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -2059,92 +2106,92 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>body</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -2164,40 +2211,40 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 例句：嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 例句：嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - 例句：（怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -2212,39 +2259,39 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>1. 例句：吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 例句：吱吱吱～～（开心的摇尾巴）～～～～"
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -2259,38 +2306,38 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- 例句：（阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -2307,96 +2354,96 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>- 例句：（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>player_name_subject_fire11</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="1" t="str">
         <v>### 你的背景
 - 你是玩家操纵角色，不需要背景描述。</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="2" t="str">
         <v>- 注意：请根据你的 角色设定，自行发挥</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>8206</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="2" t="str">
         <v>/actor/player_name_subject_fire11</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="4" t="str">
+      <c r="H12" s="3" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
-      <c r="I12" s="1" t="str">
+      <c r="I12" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J12" s="2" t="str">
         <v>二十岁左右的男性人类。身材中等，不高不矮，看上去并不很强壮。
 眼睛是特殊的红色，面色呈现一种不健康的灰暗。
 胸前有黑色的印记，形状看上去犹如盘旋的黑色火焰。</v>
@@ -2453,316 +2500,316 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>炙热无比的长钩</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>0,0,10000,0</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很"锋利和尖锐"。</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>形状像断掉的手指的钥匙</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="H8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="1" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>黑色长袍与斗篷。</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="H9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>黑火印记</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>mark_of_black_fire</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="1" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="E12" s="1" t="str">
         <v>被诅咒之人的印记——盘旋的黑色火焰化作灭世的龙</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="1" t="str">
         <v>胸前的印记，呈黑色，形状看上去犹如盘旋的黑色火焰</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="H12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>黄巾军长剑</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>huangjin_long_sword</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="E13" s="1" t="str">
         <v>普通但可靠的剑，黄巾军中低阶军官的标准装备。这种剑由黄巾军内部的铁匠工坊铸造，材料虽不算上乘，但胜在耐用和易于维护。</v>
       </c>
-      <c r="F13" s="2" t="str">
+      <c r="F13" s="1" t="str">
         <v>剑身长约三尺，剑刃虽有些许磨损的痕迹，但依然锋利。剑柄包裹着简单的粗麻绳。剑鞘由黑色牛皮制成，质朴无华并不显眼。</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="G13" s="2" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="H13" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <v>黄巾军军官服</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>huangjin_officer_uniform</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="E14" s="1" t="str">
         <v>黄巾军军官服是普通军官在行军作战时的常规装束，设计简洁实用，以便于在战场上行动自如。这套服装由耐磨的粗布制成，能够应对各种恶劣的环境，兼具一定的防护作用。</v>
       </c>
-      <c r="F14" s="2" t="str">
+      <c r="F14" s="1" t="str">
         <v>由深黄色的粗布制成，整体设计简朴且耐用。上衣为束腰的短袍，配有几道简单的绣纹装饰，袖口较窄，便于行动。腰间系着一条宽厚的布带，用以固定短刀或其他小物件。下装是宽松的裤子，裤腿绑着布条，以防止绊脚。脚上穿着一双结实的草鞋，适合在各种地形上行走。整套装束并无多余的装饰。</v>
       </c>
-      <c r="G14" s="1" t="str">
+      <c r="G14" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H14" s="1" t="str">
+      <c r="H14" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2770,25 +2817,25 @@
       <c r="A15" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>coarse_prison_uniform</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E15" s="1" t="str">
+      <c r="E15" s="2" t="str">
         <v>粗布牢服是秘密监狱中囚犯的标准服装，由廉价且耐磨的粗布制成。服装设计简陋，只为满足基本的保暖和遮体需求。上面有一些“奇特的符号”</v>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="F15" s="2" t="str">
         <v>由深灰色的粗糙麻布制成，布料质地粗糙，表面有明显的纺织纹理和磨损痕迹。衣领低矮，袖子宽大且略显破旧，袖口处甚至还有几道撕裂的口子。服装的前襟和后背上用粗线绣着几个简单的符号，线迹不规整，仿佛是仓促中加上的。衣服的下摆长及膝盖，边缘已经磨损得参差不齐，显现出长期使用的痕迹</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2823,54 +2870,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>world_system_appearance_builder</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8300</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>/worldsystems/appearance_builder</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={D3A113C9-AFA0-433A-9285-0D7E1C53CCDD}</author>
-    <author>tc={F8D523F5-E1F2-407A-917C-C52AFD07A662}</author>
-    <author>tc={7CB0C307-1419-4770-BF25-928D6CE27ECB}</author>
-    <author>tc={29B0E296-A61A-4AA3-BB68-4383390A2205}</author>
-    <author>tc={705B052B-17EC-4EF2-9E13-107D71941DC9}</author>
-    <author>tc={B1A53607-EE1C-4AA4-A499-E1C7926ED3CA}</author>
+    <author>tc={1C319216-BEF0-4440-A1A0-011AC724BF86}</author>
+    <author>tc={857280FC-F5F0-4E7E-BD28-906DA4E0134B}</author>
+    <author>tc={30A271DC-E0F4-43D0-901E-1CE0E7F5C0B3}</author>
+    <author>tc={42DB3AE8-3273-4182-B0C1-D1259D77F90C}</author>
+    <author>tc={D13506E8-3FFB-48CF-B7EE-8E61C012A009}</author>
+    <author>tc={3D0C2FB9-05EA-4FEE-BFFB-CCBBA2979ACA}</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{D3A113C9-AFA0-433A-9285-0D7E1C53CCDD}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{1C319216-BEF0-4440-A1A0-011AC724BF86}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{857280FC-F5F0-4E7E-BD28-906DA4E0134B}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{30A271DC-E0F4-43D0-901E-1CE0E7F5C0B3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{F8D523F5-E1F2-407A-917C-C52AFD07A662}">
+    <comment ref="L1" authorId="3" shapeId="0" xr:uid="{42DB3AE8-3273-4182-B0C1-D1259D77F90C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{7CB0C307-1419-4770-BF25-928D6CE27ECB}">
+    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{D13506E8-3FFB-48CF-B7EE-8E61C012A009}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{29B0E296-A61A-4AA3-BB68-4383390A2205}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="4" shapeId="0" xr:uid="{705B052B-17EC-4EF2-9E13-107D71941DC9}">
+    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{3D0C2FB9-05EA-4FEE-BFFB-CCBBA2979ACA}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{B1A53607-EE1C-4AA4-A499-E1C7926ED3CA}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={288C8EEF-B6D4-4371-81DF-A716BC8ED3B3}</author>
+    <author>tc={4A37DDD2-BED6-46BC-9377-320421CA761B}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{288C8EEF-B6D4-4371-81DF-A716BC8ED3B3}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4A37DDD2-BED6-46BC-9377-320421CA761B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={734B1611-A146-4864-8384-778EDF7D58A3}</author>
-    <author>tc={C81A6B0B-9BD3-4405-A902-388D02B2B911}</author>
-    <author>tc={019F4A9B-9FF4-4583-AE75-9A667979B88E}</author>
+    <author>tc={CF1E112D-877F-4796-87C0-DED8C0B20F40}</author>
+    <author>tc={B2A1F7BA-F054-42A4-A6DE-F096852AB655}</author>
+    <author>tc={F245E37C-8D4D-4BA4-B4B6-240F5C9B3845}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{734B1611-A146-4864-8384-778EDF7D58A3}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{CF1E112D-877F-4796-87C0-DED8C0B20F40}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{C81A6B0B-9BD3-4405-A902-388D02B2B911}">
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{B2A1F7BA-F054-42A4-A6DE-F096852AB655}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{019F4A9B-9FF4-4583-AE75-9A667979B88E}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{F245E37C-8D4D-4BA4-B4B6-240F5C9B3845}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
   </commentList>
@@ -121,11 +121,11 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={33C5F58B-8B29-484D-B189-ED504C5344FB}</author>
-    <author>tc={91A96B2F-60C7-4CD0-98A5-6CD3E25F784B}</author>
+    <author>tc={57FE509E-2837-4734-ABAC-579EEDAE6E70}</author>
+    <author>tc={896A0EDE-0BCB-4E76-A36D-F27FB0773E77}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{33C5F58B-8B29-484D-B189-ED504C5344FB}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{57FE509E-2837-4734-ABAC-579EEDAE6E70}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -134,7 +134,7 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{91A96B2F-60C7-4CD0-98A5-6CD3E25F784B}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{896A0EDE-0BCB-4E76-A36D-F27FB0773E77}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
@@ -146,10 +146,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={108BD14D-D789-4339-AB1E-BCF86A59BCB6}</author>
+    <author>tc={28E1CDFB-5AE5-4B40-879E-3279E72F1DBC}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{108BD14D-D789-4339-AB1E-BCF86A59BCB6}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{28E1CDFB-5AE5-4B40-879E-3279E72F1DBC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -346,8 +346,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{F289BBED-7752-43DA-A977-D19F9F0CD79D}" userId="S::::b9869bce-88c8-4e8e-8bac-ed27108a3a8a" providerId="AD"/>
-  <person displayName="杨行" id="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" userId="S::::b282e513-2591-443b-b026-8276cfda52ec" providerId="AD"/>
+  <person displayName="侯清辰" id="{AE7D3F42-8683-4477-971A-E358B95E3CDB}" userId="S::::2ef03f93-b3c6-4bc6-80ab-efc7d27f32ed" providerId="AD"/>
+  <person displayName="杨行" id="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" userId="S::::f3799916-60cf-42cb-a637-424bfe7a1fdc" providerId="AD"/>
 </personList>
 </file>
 
@@ -648,33 +648,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{D3A113C9-AFA0-433A-9285-0D7E1C53CCDD}" ref="A4" dT="2024-05-28T04:59:59" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+  <threadedComment id="{1C319216-BEF0-4440-A1A0-011AC724BF86}" ref="C2" dT="2024-06-14T02:49:51" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{857280FC-F5F0-4E7E-BD28-906DA4E0134B}" ref="H6" dT="2024-06-14T02:50:34" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{30A271DC-E0F4-43D0-901E-1CE0E7F5C0B3}" ref="A4" dT="2024-05-28T04:59:59" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{F8D523F5-E1F2-407A-917C-C52AFD07A662}" ref="L1" dT="2024-05-31T03:31:01" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+  <threadedComment id="{42DB3AE8-3273-4182-B0C1-D1259D77F90C}" ref="L1" dT="2024-05-31T03:31:01" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{7CB0C307-1419-4770-BF25-928D6CE27ECB}" ref="K1" dT="2024-05-10T07:08:22" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+  <threadedComment id="{D13506E8-3FFB-48CF-B7EE-8E61C012A009}" ref="K1" dT="2024-05-10T07:08:22" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{ecbe19a7-f93d-49ac-b11f-eae42337416d}" ref="K1" dT="2024-06-19T05:39:57" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{7CB0C307-1419-4770-BF25-928D6CE27ECB}">
+  <threadedComment id="{772d867a-43aa-47f3-a8a1-3ae169629fd4}" ref="K1" dT="2024-06-19T05:39:57" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{D13506E8-3FFB-48CF-B7EE-8E61C012A009}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{29B0E296-A61A-4AA3-BB68-4383390A2205}" ref="H6" dT="2024-06-14T02:50:34" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{705B052B-17EC-4EF2-9E13-107D71941DC9}" ref="H9" dT="2024-06-14T02:51:06" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+  <threadedComment id="{3D0C2FB9-05EA-4FEE-BFFB-CCBBA2979ACA}" ref="H9" dT="2024-06-14T02:51:06" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{B1A53607-EE1C-4AA4-A499-E1C7926ED3CA}" ref="C2" dT="2024-06-14T02:49:51" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{288C8EEF-B6D4-4371-81DF-A716BC8ED3B3}" ref="E1" dT="2024-06-09T13:30:31" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+  <threadedComment id="{4A37DDD2-BED6-46BC-9377-320421CA761B}" ref="E1" dT="2024-06-09T13:30:31" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -682,31 +682,31 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{734B1611-A146-4864-8384-778EDF7D58A3}" ref="E1" dT="2024-06-09T13:30:45" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
-    <text>@宾晓华 这里</text>
+  <threadedComment id="{CF1E112D-877F-4796-87C0-DED8C0B20F40}" ref="C5" dT="2024-06-14T02:48:45" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{C81A6B0B-9BD3-4405-A902-388D02B2B911}" ref="C6" dT="2024-06-14T02:49:20" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+  <threadedComment id="{B2A1F7BA-F054-42A4-A6DE-F096852AB655}" ref="C6" dT="2024-06-14T02:49:20" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{019F4A9B-9FF4-4583-AE75-9A667979B88E}" ref="C5" dT="2024-06-14T02:48:45" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
-    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  <threadedComment id="{F245E37C-8D4D-4BA4-B4B6-240F5C9B3845}" ref="E1" dT="2024-06-09T13:30:45" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
+    <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{33C5F58B-8B29-484D-B189-ED504C5344FB}" ref="D1" dT="2024-05-10T08:11:19" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+  <threadedComment id="{57FE509E-2837-4734-ABAC-579EEDAE6E70}" ref="D1" dT="2024-05-10T08:11:19" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{1ae56ee5-a3cd-46c0-86f8-f3fbba3e92f2}" ref="D1" dT="2024-05-10T08:15:39" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{33C5F58B-8B29-484D-B189-ED504C5344FB}">
+  <threadedComment id="{34387cd5-c78f-43cd-8629-baa1cde01e64}" ref="D1" dT="2024-05-10T08:15:39" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{57FE509E-2837-4734-ABAC-579EEDAE6E70}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{91A96B2F-60C7-4CD0-98A5-6CD3E25F784B}" ref="C1" dT="2024-05-10T07:54:02" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+  <threadedComment id="{896A0EDE-0BCB-4E76-A36D-F27FB0773E77}" ref="C1" dT="2024-05-10T07:54:02" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
@@ -714,7 +714,7 @@
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{108BD14D-D789-4339-AB1E-BCF86A59BCB6}" ref="A2" dT="2024-06-26T06:41:07" personId="{B07EE196-ADD5-414F-9F40-1F9404FFCD4F}" parentId="{}">
+  <threadedComment id="{28E1CDFB-5AE5-4B40-879E-3279E72F1DBC}" ref="A2" dT="2024-06-26T06:41:07" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={1C319216-BEF0-4440-A1A0-011AC724BF86}</author>
-    <author>tc={857280FC-F5F0-4E7E-BD28-906DA4E0134B}</author>
-    <author>tc={30A271DC-E0F4-43D0-901E-1CE0E7F5C0B3}</author>
-    <author>tc={42DB3AE8-3273-4182-B0C1-D1259D77F90C}</author>
-    <author>tc={D13506E8-3FFB-48CF-B7EE-8E61C012A009}</author>
-    <author>tc={3D0C2FB9-05EA-4FEE-BFFB-CCBBA2979ACA}</author>
+    <author>tc={EDD9931E-835B-4A99-821F-997C066B53B5}</author>
+    <author>tc={B2714A14-1BF3-4D59-A295-23F137464C9D}</author>
+    <author>tc={E0C804A6-4C7D-4C7A-992C-2BF25096B40D}</author>
+    <author>tc={5D9DED00-0F08-4E8C-8406-4CF097D10454}</author>
+    <author>tc={5CA8D473-7583-4913-8AFA-A3A38D371B60}</author>
+    <author>tc={316D17CF-5C73-46AB-B39A-AA48AEA59EF8}</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{1C319216-BEF0-4440-A1A0-011AC724BF86}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{EDD9931E-835B-4A99-821F-997C066B53B5}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{B2714A14-1BF3-4D59-A295-23F137464C9D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{E0C804A6-4C7D-4C7A-992C-2BF25096B40D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{5D9DED00-0F08-4E8C-8406-4CF097D10454}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{857280FC-F5F0-4E7E-BD28-906DA4E0134B}">
+    <comment ref="H9" authorId="4" shapeId="0" xr:uid="{5CA8D473-7583-4913-8AFA-A3A38D371B60}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{30A271DC-E0F4-43D0-901E-1CE0E7F5C0B3}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="3" shapeId="0" xr:uid="{42DB3AE8-3273-4182-B0C1-D1259D77F90C}">
+    <comment ref="L1" authorId="5" shapeId="0" xr:uid="{316D17CF-5C73-46AB-B39A-AA48AEA59EF8}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{D13506E8-3FFB-48CF-B7EE-8E61C012A009}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{3D0C2FB9-05EA-4FEE-BFFB-CCBBA2979ACA}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4A37DDD2-BED6-46BC-9377-320421CA761B}</author>
+    <author>tc={73D81988-784D-41AE-BD1F-C1BDEC9EDF48}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4A37DDD2-BED6-46BC-9377-320421CA761B}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{73D81988-784D-41AE-BD1F-C1BDEC9EDF48}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,22 +94,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={CF1E112D-877F-4796-87C0-DED8C0B20F40}</author>
-    <author>tc={B2A1F7BA-F054-42A4-A6DE-F096852AB655}</author>
-    <author>tc={F245E37C-8D4D-4BA4-B4B6-240F5C9B3845}</author>
+    <author>tc={E6A0FBDB-319D-4CCC-A014-5DD040E9E620}</author>
+    <author>tc={C4B37413-D07E-4F6A-80D8-D0E353AAB652}</author>
+    <author>tc={52763191-78A2-4312-AC1F-2FE928F9823F}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{CF1E112D-877F-4796-87C0-DED8C0B20F40}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{E6A0FBDB-319D-4CCC-A014-5DD040E9E620}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{B2A1F7BA-F054-42A4-A6DE-F096852AB655}">
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{C4B37413-D07E-4F6A-80D8-D0E353AAB652}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{F245E37C-8D4D-4BA4-B4B6-240F5C9B3845}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{52763191-78A2-4312-AC1F-2FE928F9823F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -121,22 +121,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={57FE509E-2837-4734-ABAC-579EEDAE6E70}</author>
-    <author>tc={896A0EDE-0BCB-4E76-A36D-F27FB0773E77}</author>
+    <author>tc={519C90DE-B551-4D53-B0F8-C1D019B14407}</author>
+    <author>tc={11401632-59CB-4474-AB4F-758BEBD4F33A}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{57FE509E-2837-4734-ABAC-579EEDAE6E70}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{519C90DE-B551-4D53-B0F8-C1D019B14407}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{11401632-59CB-4474-AB4F-758BEBD4F33A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{896A0EDE-0BCB-4E76-A36D-F27FB0773E77}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -146,10 +146,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={28E1CDFB-5AE5-4B40-879E-3279E72F1DBC}</author>
+    <author>tc={C1304EB1-1768-4B85-8705-FE7996EB7F8F}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{28E1CDFB-5AE5-4B40-879E-3279E72F1DBC}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{C1304EB1-1768-4B85-8705-FE7996EB7F8F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -195,14 +195,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,14 +223,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -316,13 +316,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -346,8 +346,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{AE7D3F42-8683-4477-971A-E358B95E3CDB}" userId="S::::2ef03f93-b3c6-4bc6-80ab-efc7d27f32ed" providerId="AD"/>
-  <person displayName="杨行" id="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" userId="S::::f3799916-60cf-42cb-a637-424bfe7a1fdc" providerId="AD"/>
+  <person displayName="杨行" id="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" userId="S::::50441cb9-af35-4da2-9836-16d38729009a" providerId="AD"/>
+  <person displayName="侯清辰" id="{F681068E-DDF5-4D80-A4DF-7B83C16EE399}" userId="S::::8cd096e5-20b0-494d-8dd0-8f76a9d1fbe2" providerId="AD"/>
 </personList>
 </file>
 
@@ -648,33 +648,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{1C319216-BEF0-4440-A1A0-011AC724BF86}" ref="C2" dT="2024-06-14T02:49:51" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
+  <threadedComment id="{EDD9931E-835B-4A99-821F-997C066B53B5}" ref="H6" dT="2024-06-14T02:50:34" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{B2714A14-1BF3-4D59-A295-23F137464C9D}" ref="K1" dT="2024-05-10T07:08:22" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{539bbfef-348e-4ccf-bbc4-d886d277d3b1}" ref="K1" dT="2024-06-19T05:39:57" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{B2714A14-1BF3-4D59-A295-23F137464C9D}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{E0C804A6-4C7D-4C7A-992C-2BF25096B40D}" ref="A4" dT="2024-05-28T04:59:59" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{5D9DED00-0F08-4E8C-8406-4CF097D10454}" ref="C2" dT="2024-06-14T02:49:51" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{857280FC-F5F0-4E7E-BD28-906DA4E0134B}" ref="H6" dT="2024-06-14T02:50:34" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  <threadedComment id="{5CA8D473-7583-4913-8AFA-A3A38D371B60}" ref="H9" dT="2024-06-14T02:51:06" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{30A271DC-E0F4-43D0-901E-1CE0E7F5C0B3}" ref="A4" dT="2024-05-28T04:59:59" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{42DB3AE8-3273-4182-B0C1-D1259D77F90C}" ref="L1" dT="2024-05-31T03:31:01" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
+  <threadedComment id="{316D17CF-5C73-46AB-B39A-AA48AEA59EF8}" ref="L1" dT="2024-05-31T03:31:01" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{D13506E8-3FFB-48CF-B7EE-8E61C012A009}" ref="K1" dT="2024-05-10T07:08:22" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{772d867a-43aa-47f3-a8a1-3ae169629fd4}" ref="K1" dT="2024-06-19T05:39:57" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{D13506E8-3FFB-48CF-B7EE-8E61C012A009}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{3D0C2FB9-05EA-4FEE-BFFB-CCBBA2979ACA}" ref="H9" dT="2024-06-14T02:51:06" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{4A37DDD2-BED6-46BC-9377-320421CA761B}" ref="E1" dT="2024-06-09T13:30:31" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
+  <threadedComment id="{73D81988-784D-41AE-BD1F-C1BDEC9EDF48}" ref="E1" dT="2024-06-09T13:30:31" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -682,13 +682,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{CF1E112D-877F-4796-87C0-DED8C0B20F40}" ref="C5" dT="2024-06-14T02:48:45" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
+  <threadedComment id="{E6A0FBDB-319D-4CCC-A014-5DD040E9E620}" ref="C5" dT="2024-06-14T02:48:45" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{B2A1F7BA-F054-42A4-A6DE-F096852AB655}" ref="C6" dT="2024-06-14T02:49:20" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
+  <threadedComment id="{C4B37413-D07E-4F6A-80D8-D0E353AAB652}" ref="C6" dT="2024-06-14T02:49:20" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{F245E37C-8D4D-4BA4-B4B6-240F5C9B3845}" ref="E1" dT="2024-06-09T13:30:45" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
+  <threadedComment id="{52763191-78A2-4312-AC1F-2FE928F9823F}" ref="E1" dT="2024-06-09T13:30:45" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -696,25 +696,25 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{57FE509E-2837-4734-ABAC-579EEDAE6E70}" ref="D1" dT="2024-05-10T08:11:19" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
+  <threadedComment id="{519C90DE-B551-4D53-B0F8-C1D019B14407}" ref="C1" dT="2024-05-10T07:54:02" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
+  </threadedComment>
+  <threadedComment id="{11401632-59CB-4474-AB4F-758BEBD4F33A}" ref="D1" dT="2024-05-10T08:11:19" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{34387cd5-c78f-43cd-8629-baa1cde01e64}" ref="D1" dT="2024-05-10T08:15:39" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{57FE509E-2837-4734-ABAC-579EEDAE6E70}">
+  <threadedComment id="{739a967c-af99-4070-bf0d-903c0855a162}" ref="D1" dT="2024-05-10T08:15:39" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{11401632-59CB-4474-AB4F-758BEBD4F33A}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{896A0EDE-0BCB-4E76-A36D-F27FB0773E77}" ref="C1" dT="2024-05-10T07:54:02" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{28E1CDFB-5AE5-4B40-879E-3279E72F1DBC}" ref="A2" dT="2024-06-26T06:41:07" personId="{93AAEAED-213F-4937-A9C5-798D8DB54EE6}" parentId="{}">
+  <threadedComment id="{C1304EB1-1768-4B85-8705-FE7996EB7F8F}" ref="A2" dT="2024-06-26T06:41:07" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -754,30 +754,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -835,82 +835,82 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="2" t="str">
+      <c r="R1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="4" t="str">
@@ -924,71 +924,71 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2" t="str">
+      <c r="K4" s="2"/>
+      <c r="L4" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="L5" s="1" t="str">
+      <c r="J5" s="2"/>
+      <c r="L5" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="P5" s="2" t="str">
+      <c r="P5" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -1000,55 +1000,55 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="L6" s="1" t="str">
+      <c r="L6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="L7" s="1" t="str">
+      <c r="J7" s="1"/>
+      <c r="L7" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="str">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="O7" s="2" t="str">
+      <c r="O7" s="1" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="P7" s="6" t="str">
+      <c r="P7" s="3" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1101,82 +1101,82 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>stage_portal</v>
       </c>
       <c r="J1" s="4" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="2" t="str">
+      <c r="R1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="4" t="str">
@@ -1190,21 +1190,21 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
@@ -1220,92 +1220,92 @@
       <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5" t="str">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="3" t="str">
+      <c r="L4" s="5" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2" t="str">
+      <c r="K5" s="2"/>
+      <c r="L5" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2" t="str">
+      <c r="K6" s="2"/>
+      <c r="L6" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1313,42 +1313,42 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2" t="str">
+      <c r="K7" s="2"/>
+      <c r="L7" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="H8" s="1" t="str">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="H8" s="2" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2" t="str">
+      <c r="K8" s="2"/>
+      <c r="L8" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="H9" s="1" t="str">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="H9" s="2" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1356,153 +1356,153 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="2" t="str">
+      <c r="K9" s="2"/>
+      <c r="L9" s="1" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="str">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="L10" s="1" t="str">
+      <c r="J10" s="2"/>
+      <c r="L10" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N10" s="2" t="str">
+      <c r="N10" s="1" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="P10" s="2" t="str">
+      <c r="P10" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="str">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" s="2" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="L11" s="1" t="str">
+      <c r="L11" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="str">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="H12" s="2" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="L12" s="1" t="str">
+      <c r="L12" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="str">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="str">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="L13" s="1" t="str">
+      <c r="L13" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="str">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I14" s="2" t="str">
+      <c r="I14" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="L14" s="1" t="str">
+      <c r="J14" s="1"/>
+      <c r="L14" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="2" t="str">
         <v>圣灰园正门前广场（忽略）</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="str">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="2" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="I15" s="2" t="str">
+      <c r="I15" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="L15" s="1" t="str">
+      <c r="J15" s="1"/>
+      <c r="L15" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1554,69 +1554,69 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="2" t="str">
+      <c r="R1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>- 本游戏以中国历史中的三国时代（借鉴小说《三国演义》）为背景的 历史奇幻类 角色扮演游戏。
 - 本游戏融合了历史的真实感与奇幻元素。以“架空”的三国时代为背景。
 - 玩家和你将沉浸在一个充满战争、权谋、超自然恐怖与英雄主义的世界中。在复杂的联盟与背叛中穿梭，你们将面对激烈的战斗、黑暗的仪式，以及在乱世中求生的残酷现实。
@@ -1624,15 +1624,15 @@
 - 游戏内容（文本）可能包含恐怖、血腥与暴力场景。这一切旨在为玩家带来深度沉浸式的体验。
 - 注意！请你接受以上设定。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="4" t="str">
@@ -1646,93 +1646,93 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
         <v>黑火印记;粗布牢服</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>### 环境
 - 你 在昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
 ### 事件
 - 你缓缓睁开眼睛，意识逐渐恢复。你难以回忆起任何事情。
 - 牢房的 铁栏门 似乎已经被破坏打开。上挂着一块腐化的木牌上写着：“火十一”。也许这就是你的名字？或者是这个地方的名字？</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2" t="str">
+      <c r="K4" s="2"/>
+      <c r="L4" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="G5" s="2" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="1" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>### 环境
 - 昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
 ### 事件
 - 人物.火十一，他醒来了。
 - 牢房的 铁栏门 似乎已经被破坏打开。</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="L5" s="1" t="str">
+      <c r="L5" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>### 环境
 - 四周立着几根高大的石柱，柱顶燃烧着火焰，散发出幽暗的红光，照亮了整个房间。
 ### 补充规则
 - 如果任何角色进入此场景，你就会对其低语(WhisperAction)，试图吓走对方。</v>
       </c>
-      <c r="L6" s="1" t="str">
+      <c r="L6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1781,218 +1781,218 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>8100</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>8101</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>8102</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>8103</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>8104</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>8105</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row r="10">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>stage_name_cell_fire11</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="2" t="str">
         <v>昏暗潮湿的牢房。空气弥漫着发霉的味道，混杂着血腥和腐烂的气息，令人作呕。
 墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍。
 石墙的缝隙中透出微弱的冷风。
@@ -2002,33 +2002,33 @@
 墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。
 角落里的石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙。</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>8106</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="2" t="str">
         <v>/stage/stage_name_cell_fire11</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template.md</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="I10" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>stage_name_zone_fire</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="1" t="str">
         <v>墙壁和天花板都由厚重的岩石构成，表面焦黑斑驳。
 地面上散落着焦黑的灰烬、燃烧过的木炭和烧焦的尸体，有些尸体还能看出人形，而另一些已经扭曲变形，难以辨认。
 四处摆放着残破的金属器具，表面布满了因高温而变形的痕迹。铁锤、火钳等工具随意地丢弃在角落。
@@ -2038,22 +2038,22 @@
 空气中弥漫着刺鼻气味，混合着燃烧的皮肉和化学物质的味道。
 墙壁上有几处金属管道。</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>8107</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="F11" s="2" t="str">
         <v>/stage/stage_name_zone_fire</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="1" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template2.md</v>
       </c>
-      <c r="I11" s="2" t="str">
+      <c r="I11" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -2106,34 +2106,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>body</v>
       </c>
     </row>
@@ -2162,36 +2162,36 @@
       <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -2211,7 +2211,7 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 例句：嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 例句：嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - 例句：（怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
@@ -2221,30 +2221,30 @@
       <c r="E5" s="4">
         <v>8201</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -2259,7 +2259,7 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>1. 例句：吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 例句：吱吱吱～～（开心的摇尾巴）～～～～"
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
@@ -2268,16 +2268,16 @@
       <c r="E6" s="4">
         <v>8202</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J6" s="4" t="str">
@@ -2285,13 +2285,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -2306,7 +2306,7 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- 例句：（阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
@@ -2314,30 +2314,30 @@
       <c r="E7" s="4">
         <v>8203</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -2354,7 +2354,7 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>- 例句：（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
@@ -2362,88 +2362,88 @@
       <c r="E8" s="4">
         <v>8204</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="2" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>- 例句：我知道了。</v>
       </c>
       <c r="E9" s="4">
         <v>8205</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="I9" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="2" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>player_name_subject_fire11</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="2" t="str">
         <v>### 你的背景
 - 你是玩家操纵角色，不需要背景描述。</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="1" t="str">
         <v>- 注意：请根据你的 角色设定，自行发挥</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>8206</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="1" t="str">
         <v>/actor/player_name_subject_fire11</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" s="5" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
-      <c r="I12" s="2" t="str">
+      <c r="I12" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="J12" s="1" t="str">
         <v>二十岁左右的男性人类。身材中等，不高不矮，看上去并不很强壮。
 眼睛是特殊的红色，面色呈现一种不健康的灰暗。
 胸前有黑色的印记，形状看上去犹如盘旋的黑色火焰。</v>
@@ -2500,316 +2500,316 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>炙热无比的长钩</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>0,0,10000,0</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很"锋利和尖锐"。</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>形状像断掉的手指的钥匙</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="H8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="2" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>黑色长袍与斗篷。</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>黑火印记</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>mark_of_black_fire</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="2" t="str">
         <v>SpecialComponent</v>
       </c>
-      <c r="E12" s="1" t="str">
+      <c r="E12" s="2" t="str">
         <v>被诅咒之人的印记——盘旋的黑色火焰化作灭世的龙</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="2" t="str">
         <v>胸前的印记，呈黑色，形状看上去犹如盘旋的黑色火焰</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>黄巾军长剑</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>huangjin_long_sword</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E13" s="2" t="str">
         <v>普通但可靠的剑，黄巾军中低阶军官的标准装备。这种剑由黄巾军内部的铁匠工坊铸造，材料虽不算上乘，但胜在耐用和易于维护。</v>
       </c>
-      <c r="F13" s="1" t="str">
+      <c r="F13" s="2" t="str">
         <v>剑身长约三尺，剑刃虽有些许磨损的痕迹，但依然锋利。剑柄包裹着简单的粗麻绳。剑鞘由黑色牛皮制成，质朴无华并不显眼。</v>
       </c>
-      <c r="G13" s="2" t="str">
+      <c r="G13" s="1" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="H13" s="2" t="str">
+      <c r="H13" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="2" t="str">
         <v>黄巾军军官服</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <v>huangjin_officer_uniform</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D14" s="1" t="str">
+      <c r="D14" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E14" s="1" t="str">
+      <c r="E14" s="2" t="str">
         <v>黄巾军军官服是普通军官在行军作战时的常规装束，设计简洁实用，以便于在战场上行动自如。这套服装由耐磨的粗布制成，能够应对各种恶劣的环境，兼具一定的防护作用。</v>
       </c>
-      <c r="F14" s="1" t="str">
+      <c r="F14" s="2" t="str">
         <v>由深黄色的粗布制成，整体设计简朴且耐用。上衣为束腰的短袍，配有几道简单的绣纹装饰，袖口较窄，便于行动。腰间系着一条宽厚的布带，用以固定短刀或其他小物件。下装是宽松的裤子，裤腿绑着布条，以防止绊脚。脚上穿着一双结实的草鞋，适合在各种地形上行走。整套装束并无多余的装饰。</v>
       </c>
-      <c r="G14" s="2" t="str">
+      <c r="G14" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="H14" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2817,25 +2817,25 @@
       <c r="A15" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>coarse_prison_uniform</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D15" s="1" t="str">
+      <c r="D15" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="E15" s="1" t="str">
         <v>粗布牢服是秘密监狱中囚犯的标准服装，由廉价且耐磨的粗布制成。服装设计简陋，只为满足基本的保暖和遮体需求。上面有一些“奇特的符号”</v>
       </c>
-      <c r="F15" s="2" t="str">
+      <c r="F15" s="1" t="str">
         <v>由深灰色的粗糙麻布制成，布料质地粗糙，表面有明显的纺织纹理和磨损痕迹。衣领低矮，袖子宽大且略显破旧，袖口处甚至还有几道撕裂的口子。服装的前襟和后背上用粗线绣着几个简单的符号，线迹不规整，仿佛是仓促中加上的。衣服的下摆长及膝盖，边缘已经磨损得参差不齐，显现出长期使用的痕迹</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2870,54 +2870,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>world_system_appearance_builder</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8300</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>/worldsystems/appearance_builder</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,40 +34,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={EDD9931E-835B-4A99-821F-997C066B53B5}</author>
-    <author>tc={B2714A14-1BF3-4D59-A295-23F137464C9D}</author>
-    <author>tc={E0C804A6-4C7D-4C7A-992C-2BF25096B40D}</author>
-    <author>tc={5D9DED00-0F08-4E8C-8406-4CF097D10454}</author>
-    <author>tc={5CA8D473-7583-4913-8AFA-A3A38D371B60}</author>
-    <author>tc={316D17CF-5C73-46AB-B39A-AA48AEA59EF8}</author>
+    <author>tc={3AE76B74-BE81-49F9-A2CB-23A0A49804F4}</author>
+    <author>tc={6CAE764E-339E-49DF-A537-59A4C9FA0FDA}</author>
+    <author>tc={F516CC7E-9173-4013-8291-F28E93421227}</author>
+    <author>tc={B8BC76AA-495E-4E0B-A686-05279F39C99C}</author>
+    <author>tc={08547489-531E-4993-A9B9-39B28A50BD41}</author>
+    <author>tc={A15E2536-6962-4C27-AF98-1617D34FC945}</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{EDD9931E-835B-4A99-821F-997C066B53B5}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{3AE76B74-BE81-49F9-A2CB-23A0A49804F4}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{6CAE764E-339E-49DF-A537-59A4C9FA0FDA}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{F516CC7E-9173-4013-8291-F28E93421227}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{B8BC76AA-495E-4E0B-A686-05279F39C99C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{B2714A14-1BF3-4D59-A295-23F137464C9D}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{E0C804A6-4C7D-4C7A-992C-2BF25096B40D}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{5D9DED00-0F08-4E8C-8406-4CF097D10454}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="4" shapeId="0" xr:uid="{5CA8D473-7583-4913-8AFA-A3A38D371B60}">
+    <comment ref="H9" authorId="4" shapeId="0" xr:uid="{08547489-531E-4993-A9B9-39B28A50BD41}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="5" shapeId="0" xr:uid="{316D17CF-5C73-46AB-B39A-AA48AEA59EF8}">
+    <comment ref="L1" authorId="5" shapeId="0" xr:uid="{A15E2536-6962-4C27-AF98-1617D34FC945}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={73D81988-784D-41AE-BD1F-C1BDEC9EDF48}</author>
+    <author>tc={BE375E74-CD4A-4861-8C61-67FADABA28B1}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{73D81988-784D-41AE-BD1F-C1BDEC9EDF48}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{BE375E74-CD4A-4861-8C61-67FADABA28B1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E6A0FBDB-319D-4CCC-A014-5DD040E9E620}</author>
-    <author>tc={C4B37413-D07E-4F6A-80D8-D0E353AAB652}</author>
-    <author>tc={52763191-78A2-4312-AC1F-2FE928F9823F}</author>
+    <author>tc={71B8601E-81B4-471A-A72B-F32BC7927954}</author>
+    <author>tc={6FDC7447-B8FF-4895-9F1A-6FCBD5F45EBA}</author>
+    <author>tc={0DA7A192-3189-46F7-8C46-8DD2211EDB33}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{E6A0FBDB-319D-4CCC-A014-5DD040E9E620}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{C4B37413-D07E-4F6A-80D8-D0E353AAB652}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{71B8601E-81B4-471A-A72B-F32BC7927954}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{52763191-78A2-4312-AC1F-2FE928F9823F}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{6FDC7447-B8FF-4895-9F1A-6FCBD5F45EBA}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{0DA7A192-3189-46F7-8C46-8DD2211EDB33}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
   </commentList>
@@ -121,22 +121,22 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={519C90DE-B551-4D53-B0F8-C1D019B14407}</author>
-    <author>tc={11401632-59CB-4474-AB4F-758BEBD4F33A}</author>
+    <author>tc={1C37091D-267D-4E3A-A6CD-04FBC6A767EC}</author>
+    <author>tc={9C64D85C-9595-4C6D-BD30-EAF7BE269569}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{519C90DE-B551-4D53-B0F8-C1D019B14407}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{11401632-59CB-4474-AB4F-758BEBD4F33A}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{1C37091D-267D-4E3A-A6CD-04FBC6A767EC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{9C64D85C-9595-4C6D-BD30-EAF7BE269569}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
     </comment>
   </commentList>
@@ -146,10 +146,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C1304EB1-1768-4B85-8705-FE7996EB7F8F}</author>
+    <author>tc={FDB7EEAC-FE56-4E27-AA47-A1043CA12A21}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{C1304EB1-1768-4B85-8705-FE7996EB7F8F}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{FDB7EEAC-FE56-4E27-AA47-A1043CA12A21}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -195,14 +195,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,14 +223,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -322,10 +322,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -346,8 +346,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" userId="S::::50441cb9-af35-4da2-9836-16d38729009a" providerId="AD"/>
-  <person displayName="侯清辰" id="{F681068E-DDF5-4D80-A4DF-7B83C16EE399}" userId="S::::8cd096e5-20b0-494d-8dd0-8f76a9d1fbe2" providerId="AD"/>
+  <person displayName="侯清辰" id="{3924073B-2757-44CE-AB65-B965973C2893}" userId="S::::d8e31ca0-5ff5-423c-8675-b312b1640562" providerId="AD"/>
+  <person displayName="杨行" id="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" userId="S::::68127748-bd07-4f17-a6ed-6fad06cb5929" providerId="AD"/>
 </personList>
 </file>
 
@@ -648,25 +648,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{EDD9931E-835B-4A99-821F-997C066B53B5}" ref="H6" dT="2024-06-14T02:50:34" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
+  <threadedComment id="{3AE76B74-BE81-49F9-A2CB-23A0A49804F4}" ref="C2" dT="2024-06-14T02:49:51" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{6CAE764E-339E-49DF-A537-59A4C9FA0FDA}" ref="K1" dT="2024-05-10T07:08:22" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{586db9f2-c817-41da-ae60-b1c94809fd0f}" ref="K1" dT="2024-06-19T05:39:57" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{6CAE764E-339E-49DF-A537-59A4C9FA0FDA}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{F516CC7E-9173-4013-8291-F28E93421227}" ref="A4" dT="2024-05-28T04:59:59" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{B8BC76AA-495E-4E0B-A686-05279F39C99C}" ref="H6" dT="2024-06-14T02:50:34" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{B2714A14-1BF3-4D59-A295-23F137464C9D}" ref="K1" dT="2024-05-10T07:08:22" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{539bbfef-348e-4ccf-bbc4-d886d277d3b1}" ref="K1" dT="2024-06-19T05:39:57" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{B2714A14-1BF3-4D59-A295-23F137464C9D}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{E0C804A6-4C7D-4C7A-992C-2BF25096B40D}" ref="A4" dT="2024-05-28T04:59:59" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{5D9DED00-0F08-4E8C-8406-4CF097D10454}" ref="C2" dT="2024-06-14T02:49:51" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{5CA8D473-7583-4913-8AFA-A3A38D371B60}" ref="H9" dT="2024-06-14T02:51:06" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
+  <threadedComment id="{08547489-531E-4993-A9B9-39B28A50BD41}" ref="H9" dT="2024-06-14T02:51:06" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{316D17CF-5C73-46AB-B39A-AA48AEA59EF8}" ref="L1" dT="2024-05-31T03:31:01" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
+  <threadedComment id="{A15E2536-6962-4C27-AF98-1617D34FC945}" ref="L1" dT="2024-05-31T03:31:01" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
 </ThreadedComments>
@@ -674,7 +674,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{73D81988-784D-41AE-BD1F-C1BDEC9EDF48}" ref="E1" dT="2024-06-09T13:30:31" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
+  <threadedComment id="{BE375E74-CD4A-4861-8C61-67FADABA28B1}" ref="E1" dT="2024-06-09T13:30:31" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -682,39 +682,39 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E6A0FBDB-319D-4CCC-A014-5DD040E9E620}" ref="C5" dT="2024-06-14T02:48:45" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
-    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
-  </threadedComment>
-  <threadedComment id="{C4B37413-D07E-4F6A-80D8-D0E353AAB652}" ref="C6" dT="2024-06-14T02:49:20" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
+  <threadedComment id="{71B8601E-81B4-471A-A72B-F32BC7927954}" ref="C6" dT="2024-06-14T02:49:20" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{52763191-78A2-4312-AC1F-2FE928F9823F}" ref="E1" dT="2024-06-09T13:30:45" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
+  <threadedComment id="{6FDC7447-B8FF-4895-9F1A-6FCBD5F45EBA}" ref="E1" dT="2024-06-09T13:30:45" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
     <text>@宾晓华 这里</text>
+  </threadedComment>
+  <threadedComment id="{0DA7A192-3189-46F7-8C46-8DD2211EDB33}" ref="C5" dT="2024-06-14T02:48:45" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{519C90DE-B551-4D53-B0F8-C1D019B14407}" ref="C1" dT="2024-05-10T07:54:02" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-  <threadedComment id="{11401632-59CB-4474-AB4F-758BEBD4F33A}" ref="D1" dT="2024-05-10T08:11:19" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
+  <threadedComment id="{1C37091D-267D-4E3A-A6CD-04FBC6A767EC}" ref="D1" dT="2024-05-10T08:11:19" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{739a967c-af99-4070-bf0d-903c0855a162}" ref="D1" dT="2024-05-10T08:15:39" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{11401632-59CB-4474-AB4F-758BEBD4F33A}">
+  <threadedComment id="{57326866-0346-4e98-a90a-486f65e93501}" ref="D1" dT="2024-05-10T08:15:39" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{1C37091D-267D-4E3A-A6CD-04FBC6A767EC}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
+  </threadedComment>
+  <threadedComment id="{9C64D85C-9595-4C6D-BD30-EAF7BE269569}" ref="C1" dT="2024-05-10T07:54:02" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
+    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{C1304EB1-1768-4B85-8705-FE7996EB7F8F}" ref="A2" dT="2024-06-26T06:41:07" personId="{CEB619E1-2C46-4557-8B9C-E2AEDA781300}" parentId="{}">
+  <threadedComment id="{FDB7EEAC-FE56-4E27-AA47-A1043CA12A21}" ref="A2" dT="2024-06-26T06:41:07" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -754,30 +754,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -835,82 +835,82 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="1" t="str">
+      <c r="R1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="4" t="str">
@@ -924,71 +924,71 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="1" t="str">
+      <c r="K4" s="1"/>
+      <c r="L4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="L5" s="2" t="str">
+      <c r="J5" s="1"/>
+      <c r="L5" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="P5" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -1000,52 +1000,52 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="L6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="L7" s="2" t="str">
+      <c r="J7" s="2"/>
+      <c r="L7" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="str">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="O7" s="1" t="str">
+      <c r="O7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="P7" s="3" t="str">
@@ -1101,82 +1101,82 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
       <c r="J1" s="4" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="1" t="str">
+      <c r="R1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="4" t="str">
@@ -1190,21 +1190,21 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
@@ -1220,92 +1220,92 @@
       <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="str">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="5" t="str">
+      <c r="L4" s="6" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1" t="str">
+      <c r="K5" s="1"/>
+      <c r="L5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1" t="str">
+      <c r="K6" s="1"/>
+      <c r="L6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1313,42 +1313,42 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1" t="str">
+      <c r="K7" s="1"/>
+      <c r="L7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="H8" s="2" t="str">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="H8" s="1" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1" t="str">
+      <c r="K8" s="1"/>
+      <c r="L8" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="H9" s="2" t="str">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="H9" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1356,153 +1356,153 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1" t="str">
+      <c r="K9" s="1"/>
+      <c r="L9" s="2" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="I10" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="L10" s="2" t="str">
+      <c r="J10" s="1"/>
+      <c r="L10" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="N10" s="2" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="P10" s="1" t="str">
+      <c r="P10" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="1" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="L11" s="2" t="str">
+      <c r="L11" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="1" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="L12" s="2" t="str">
+      <c r="L12" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="str">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="L13" s="2" t="str">
+      <c r="L13" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="str">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I14" s="1" t="str">
+      <c r="I14" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="L14" s="2" t="str">
+      <c r="J14" s="2"/>
+      <c r="L14" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="1" t="str">
         <v>圣灰园正门前广场（忽略）</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="str">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="1" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="I15" s="1" t="str">
+      <c r="I15" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="L15" s="2" t="str">
+      <c r="J15" s="2"/>
+      <c r="L15" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1554,69 +1554,69 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="1" t="str">
+      <c r="R1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>- 本游戏以中国历史中的三国时代（借鉴小说《三国演义》）为背景的 历史奇幻类 角色扮演游戏。
 - 本游戏融合了历史的真实感与奇幻元素。以“架空”的三国时代为背景。
 - 玩家和你将沉浸在一个充满战争、权谋、超自然恐怖与英雄主义的世界中。在复杂的联盟与背叛中穿梭，你们将面对激烈的战斗、黑暗的仪式，以及在乱世中求生的残酷现实。
@@ -1624,15 +1624,15 @@
 - 游戏内容（文本）可能包含恐怖、血腥与暴力场景。这一切旨在为玩家带来深度沉浸式的体验。
 - 注意！请你接受以上设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
       <c r="A3" s="4" t="str">
@@ -1646,93 +1646,93 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>黑火印记;粗布牢服</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>### 环境
 - 你 在昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
 ### 事件
 - 你缓缓睁开眼睛，意识逐渐恢复。你难以回忆起任何事情。
 - 牢房的 铁栏门 似乎已经被破坏打开。上挂着一块腐化的木牌上写着：“火十一”。也许这就是你的名字？或者是这个地方的名字？</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="1" t="str">
+      <c r="K4" s="1"/>
+      <c r="L4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="1" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>### 环境
 - 昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
 ### 事件
 - 人物.火十一，他醒来了。
 - 牢房的 铁栏门 似乎已经被破坏打开。</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="L5" s="2" t="str">
+      <c r="L5" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="P5" s="1"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>### 环境
 - 四周立着几根高大的石柱，柱顶燃烧着火焰，散发出幽暗的红光，照亮了整个房间。
 ### 补充规则
 - 如果任何角色进入此场景，你就会对其低语(WhisperAction)，试图吓走对方。</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="L6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1781,218 +1781,218 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>8100</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="I2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>8101</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="I3" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>8102</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>8103</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>8104</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>8105</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>stage_name_cell_fire11</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="1" t="str">
         <v>昏暗潮湿的牢房。空气弥漫着发霉的味道，混杂着血腥和腐烂的气息，令人作呕。
 墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍。
 石墙的缝隙中透出微弱的冷风。
@@ -2002,33 +2002,33 @@
 墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。
 角落里的石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙。</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D10" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>8106</v>
       </c>
-      <c r="F10" s="2" t="str">
+      <c r="F10" s="1" t="str">
         <v>/stage/stage_name_cell_fire11</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template.md</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>stage_name_zone_fire</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="2" t="str">
         <v>墙壁和天花板都由厚重的岩石构成，表面焦黑斑驳。
 地面上散落着焦黑的灰烬、燃烧过的木炭和烧焦的尸体，有些尸体还能看出人形，而另一些已经扭曲变形，难以辨认。
 四处摆放着残破的金属器具，表面布满了因高温而变形的痕迹。铁锤、火钳等工具随意地丢弃在角落。
@@ -2038,22 +2038,22 @@
 空气中弥漫着刺鼻气味，混合着燃烧的皮肉和化学物质的味道。
 墙壁上有几处金属管道。</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>8107</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F11" s="1" t="str">
         <v>/stage/stage_name_zone_fire</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="G11" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" s="2" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template2.md</v>
       </c>
-      <c r="I11" s="1" t="str">
+      <c r="I11" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -2106,34 +2106,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>body</v>
       </c>
     </row>
@@ -2162,36 +2162,36 @@
       <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="6" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="6" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -2211,7 +2211,7 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 例句：嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 例句：嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - 例句：（怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
@@ -2221,30 +2221,30 @@
       <c r="E5" s="4">
         <v>8201</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="6" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -2259,7 +2259,7 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>1. 例句：吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 例句：吱吱吱～～（开心的摇尾巴）～～～～"
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
@@ -2268,16 +2268,16 @@
       <c r="E6" s="4">
         <v>8202</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="6" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
       <c r="J6" s="4" t="str">
@@ -2285,13 +2285,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -2306,7 +2306,7 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- 例句：（阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
@@ -2314,30 +2314,30 @@
       <c r="E7" s="4">
         <v>8203</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="6" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="6" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -2354,7 +2354,7 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>- 例句：（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
@@ -2362,88 +2362,88 @@
       <c r="E8" s="4">
         <v>8204</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="6" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
       <c r="E9" s="4">
         <v>8205</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="6" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>player_name_subject_fire11</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="1" t="str">
         <v>### 你的背景
 - 你是玩家操纵角色，不需要背景描述。</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="2" t="str">
         <v>- 注意：请根据你的 角色设定，自行发挥</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>8206</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="2" t="str">
         <v>/actor/player_name_subject_fire11</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="5" t="str">
+      <c r="H12" s="6" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
-      <c r="I12" s="1" t="str">
+      <c r="I12" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J12" s="2" t="str">
         <v>二十岁左右的男性人类。身材中等，不高不矮，看上去并不很强壮。
 眼睛是特殊的红色，面色呈现一种不健康的灰暗。
 胸前有黑色的印记，形状看上去犹如盘旋的黑色火焰。</v>
@@ -2500,316 +2500,316 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D2" s="2" t="str">
-        <v>SpecialComponent</v>
-      </c>
-      <c r="E2" s="2" t="str">
+      <c r="D2" s="1" t="str">
+        <v>Special</v>
+      </c>
+      <c r="E2" s="1" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <v>SpecialComponent</v>
-      </c>
-      <c r="E3" s="2" t="str">
+      <c r="D3" s="1" t="str">
+        <v>Special</v>
+      </c>
+      <c r="E3" s="1" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>炙热无比的长钩</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>0,0,10000,0</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很"锋利和尖锐"。</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>形状像断掉的手指的钥匙</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="H8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="1" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>黑色长袍与斗篷。</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="H9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>黑火印记</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>mark_of_black_fire</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D12" s="2" t="str">
-        <v>SpecialComponent</v>
-      </c>
-      <c r="E12" s="2" t="str">
+      <c r="D12" s="1" t="str">
+        <v>Special</v>
+      </c>
+      <c r="E12" s="1" t="str">
         <v>被诅咒之人的印记——盘旋的黑色火焰化作灭世的龙</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="1" t="str">
         <v>胸前的印记，呈黑色，形状看上去犹如盘旋的黑色火焰</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="H12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>黄巾军长剑</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>huangjin_long_sword</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="E13" s="1" t="str">
         <v>普通但可靠的剑，黄巾军中低阶军官的标准装备。这种剑由黄巾军内部的铁匠工坊铸造，材料虽不算上乘，但胜在耐用和易于维护。</v>
       </c>
-      <c r="F13" s="2" t="str">
+      <c r="F13" s="1" t="str">
         <v>剑身长约三尺，剑刃虽有些许磨损的痕迹，但依然锋利。剑柄包裹着简单的粗麻绳。剑鞘由黑色牛皮制成，质朴无华并不显眼。</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="G13" s="2" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="H13" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <v>黄巾军军官服</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>huangjin_officer_uniform</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="E14" s="1" t="str">
         <v>黄巾军军官服是普通军官在行军作战时的常规装束，设计简洁实用，以便于在战场上行动自如。这套服装由耐磨的粗布制成，能够应对各种恶劣的环境，兼具一定的防护作用。</v>
       </c>
-      <c r="F14" s="2" t="str">
+      <c r="F14" s="1" t="str">
         <v>由深黄色的粗布制成，整体设计简朴且耐用。上衣为束腰的短袍，配有几道简单的绣纹装饰，袖口较窄，便于行动。腰间系着一条宽厚的布带，用以固定短刀或其他小物件。下装是宽松的裤子，裤腿绑着布条，以防止绊脚。脚上穿着一双结实的草鞋，适合在各种地形上行走。整套装束并无多余的装饰。</v>
       </c>
-      <c r="G14" s="1" t="str">
+      <c r="G14" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H14" s="1" t="str">
+      <c r="H14" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2817,25 +2817,25 @@
       <c r="A15" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>coarse_prison_uniform</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="E15" s="1" t="str">
+      <c r="E15" s="2" t="str">
         <v>粗布牢服是秘密监狱中囚犯的标准服装，由廉价且耐磨的粗布制成。服装设计简陋，只为满足基本的保暖和遮体需求。上面有一些“奇特的符号”</v>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="F15" s="2" t="str">
         <v>由深灰色的粗糙麻布制成，布料质地粗糙，表面有明显的纺织纹理和磨损痕迹。衣领低矮，袖子宽大且略显破旧，袖口处甚至还有几道撕裂的口子。服装的前襟和后背上用粗线绣着几个简单的符号，线迹不规整，仿佛是仓促中加上的。衣服的下摆长及膝盖，边缘已经磨损得参差不齐，显现出长期使用的痕迹</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2870,54 +2870,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>world_system_appearance_builder</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8300</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>/worldsystems/appearance_builder</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3AE76B74-BE81-49F9-A2CB-23A0A49804F4}</author>
-    <author>tc={6CAE764E-339E-49DF-A537-59A4C9FA0FDA}</author>
-    <author>tc={F516CC7E-9173-4013-8291-F28E93421227}</author>
-    <author>tc={B8BC76AA-495E-4E0B-A686-05279F39C99C}</author>
-    <author>tc={08547489-531E-4993-A9B9-39B28A50BD41}</author>
-    <author>tc={A15E2536-6962-4C27-AF98-1617D34FC945}</author>
+    <author>tc={16AA3F70-7E13-43D3-BCCD-6AEA3590CD80}</author>
+    <author>tc={92F0C456-D10D-4997-B88E-584373F0D0BC}</author>
+    <author>tc={9C7DDE15-9667-44EB-87DA-B44FF272382D}</author>
+    <author>tc={6E579C15-137D-4BB1-86BB-6CF8E7D0BA6E}</author>
+    <author>tc={64C91A41-3331-4CB2-81C2-31B523A1F96E}</author>
+    <author>tc={ECB21406-9F32-46D4-9332-40380C7FD9BB}</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{3AE76B74-BE81-49F9-A2CB-23A0A49804F4}">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{16AA3F70-7E13-43D3-BCCD-6AEA3590CD80}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{6CAE764E-339E-49DF-A537-59A4C9FA0FDA}">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{92F0C456-D10D-4997-B88E-584373F0D0BC}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{9C7DDE15-9667-44EB-87DA-B44FF272382D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{6E579C15-137D-4BB1-86BB-6CF8E7D0BA6E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{F516CC7E-9173-4013-8291-F28E93421227}">
+    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{64C91A41-3331-4CB2-81C2-31B523A1F96E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{B8BC76AA-495E-4E0B-A686-05279F39C99C}">
+    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{ECB21406-9F32-46D4-9332-40380C7FD9BB}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="4" shapeId="0" xr:uid="{08547489-531E-4993-A9B9-39B28A50BD41}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="5" shapeId="0" xr:uid="{A15E2536-6962-4C27-AF98-1617D34FC945}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BE375E74-CD4A-4861-8C61-67FADABA28B1}</author>
+    <author>tc={F9B440AA-3205-463F-B8F0-FE41ACB87399}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{BE375E74-CD4A-4861-8C61-67FADABA28B1}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F9B440AA-3205-463F-B8F0-FE41ACB87399}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={71B8601E-81B4-471A-A72B-F32BC7927954}</author>
-    <author>tc={6FDC7447-B8FF-4895-9F1A-6FCBD5F45EBA}</author>
-    <author>tc={0DA7A192-3189-46F7-8C46-8DD2211EDB33}</author>
+    <author>tc={27AC28A9-780D-45F9-A739-5043BD96A77D}</author>
+    <author>tc={FDD0890F-B31F-4FAA-8BB1-91257166B7F1}</author>
+    <author>tc={67161B4E-664C-4805-9ED6-BC5F9F9F6E63}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{71B8601E-81B4-471A-A72B-F32BC7927954}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{27AC28A9-780D-45F9-A739-5043BD96A77D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{FDD0890F-B31F-4FAA-8BB1-91257166B7F1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{6FDC7447-B8FF-4895-9F1A-6FCBD5F45EBA}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{67161B4E-664C-4805-9ED6-BC5F9F9F6E63}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{0DA7A192-3189-46F7-8C46-8DD2211EDB33}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
   </commentList>
@@ -121,11 +121,11 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={1C37091D-267D-4E3A-A6CD-04FBC6A767EC}</author>
-    <author>tc={9C64D85C-9595-4C6D-BD30-EAF7BE269569}</author>
+    <author>tc={D4B91DDE-97CA-4764-90C3-CE81DFB75673}</author>
+    <author>tc={ECF4CB96-81A7-41E2-8299-938ECA037C4F}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{1C37091D-267D-4E3A-A6CD-04FBC6A767EC}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D4B91DDE-97CA-4764-90C3-CE81DFB75673}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
@@ -134,7 +134,7 @@
 Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{9C64D85C-9595-4C6D-BD30-EAF7BE269569}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{ECF4CB96-81A7-41E2-8299-938ECA037C4F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
       </text>
@@ -146,10 +146,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={FDB7EEAC-FE56-4E27-AA47-A1043CA12A21}</author>
+    <author>tc={7975240D-C6F0-42DA-81CD-EB4FCEC79299}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{FDB7EEAC-FE56-4E27-AA47-A1043CA12A21}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{7975240D-C6F0-42DA-81CD-EB4FCEC79299}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -209,14 +209,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -316,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
@@ -325,7 +325,7 @@
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -346,8 +346,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{3924073B-2757-44CE-AB65-B965973C2893}" userId="S::::d8e31ca0-5ff5-423c-8675-b312b1640562" providerId="AD"/>
-  <person displayName="杨行" id="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" userId="S::::68127748-bd07-4f17-a6ed-6fad06cb5929" providerId="AD"/>
+  <person displayName="侯清辰" id="{4402B1E9-DDFD-44DE-97F8-CD4B848F02B8}" userId="S::::addf53ab-ad06-4ffa-b6be-2bc19536a454" providerId="AD"/>
+  <person displayName="杨行" id="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" userId="S::::7104e3da-6210-4bf4-9c00-d82c7416aabe" providerId="AD"/>
 </personList>
 </file>
 
@@ -648,33 +648,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{3AE76B74-BE81-49F9-A2CB-23A0A49804F4}" ref="C2" dT="2024-06-14T02:49:51" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  <threadedComment id="{16AA3F70-7E13-43D3-BCCD-6AEA3590CD80}" ref="H9" dT="2024-06-14T02:51:06" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{6CAE764E-339E-49DF-A537-59A4C9FA0FDA}" ref="K1" dT="2024-05-10T07:08:22" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
+  <threadedComment id="{92F0C456-D10D-4997-B88E-584373F0D0BC}" ref="L1" dT="2024-05-31T03:31:01" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{9C7DDE15-9667-44EB-87DA-B44FF272382D}" ref="H6" dT="2024-06-14T02:50:34" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{6E579C15-137D-4BB1-86BB-6CF8E7D0BA6E}" ref="K1" dT="2024-05-10T07:08:22" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{586db9f2-c817-41da-ae60-b1c94809fd0f}" ref="K1" dT="2024-06-19T05:39:57" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{6CAE764E-339E-49DF-A537-59A4C9FA0FDA}">
+  <threadedComment id="{3324551c-1e93-4ea3-b07c-4eb4cfe3e40c}" ref="K1" dT="2024-06-19T05:39:57" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{6E579C15-137D-4BB1-86BB-6CF8E7D0BA6E}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{F516CC7E-9173-4013-8291-F28E93421227}" ref="A4" dT="2024-05-28T04:59:59" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
+  <threadedComment id="{64C91A41-3331-4CB2-81C2-31B523A1F96E}" ref="A4" dT="2024-05-28T04:59:59" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{B8BC76AA-495E-4E0B-A686-05279F39C99C}" ref="H6" dT="2024-06-14T02:50:34" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{08547489-531E-4993-A9B9-39B28A50BD41}" ref="H9" dT="2024-06-14T02:51:06" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{A15E2536-6962-4C27-AF98-1617D34FC945}" ref="L1" dT="2024-05-31T03:31:01" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  <threadedComment id="{ECB21406-9F32-46D4-9332-40380C7FD9BB}" ref="C2" dT="2024-06-14T02:49:51" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{BE375E74-CD4A-4861-8C61-67FADABA28B1}" ref="E1" dT="2024-06-09T13:30:31" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
+  <threadedComment id="{F9B440AA-3205-463F-B8F0-FE41ACB87399}" ref="E1" dT="2024-06-09T13:30:31" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -682,31 +682,31 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{71B8601E-81B4-471A-A72B-F32BC7927954}" ref="C6" dT="2024-06-14T02:49:20" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
+  <threadedComment id="{27AC28A9-780D-45F9-A739-5043BD96A77D}" ref="C5" dT="2024-06-14T02:48:45" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  </threadedComment>
+  <threadedComment id="{FDD0890F-B31F-4FAA-8BB1-91257166B7F1}" ref="C6" dT="2024-06-14T02:49:20" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{6FDC7447-B8FF-4895-9F1A-6FCBD5F45EBA}" ref="E1" dT="2024-06-09T13:30:45" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
+  <threadedComment id="{67161B4E-664C-4805-9ED6-BC5F9F9F6E63}" ref="E1" dT="2024-06-09T13:30:45" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
     <text>@宾晓华 这里</text>
-  </threadedComment>
-  <threadedComment id="{0DA7A192-3189-46F7-8C46-8DD2211EDB33}" ref="C5" dT="2024-06-14T02:48:45" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
-    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{1C37091D-267D-4E3A-A6CD-04FBC6A767EC}" ref="D1" dT="2024-05-10T08:11:19" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
+  <threadedComment id="{D4B91DDE-97CA-4764-90C3-CE81DFB75673}" ref="D1" dT="2024-05-10T08:11:19" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
     <text>RoleComponent, 角色的一部分，不可分割
 Weapon，武器，可能用于战斗
 Clothes，全身套装，影响外观
 NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
 Event，发生的事件</text>
   </threadedComment>
-  <threadedComment id="{57326866-0346-4e98-a90a-486f65e93501}" ref="D1" dT="2024-05-10T08:15:39" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{1C37091D-267D-4E3A-A6CD-04FBC6A767EC}">
+  <threadedComment id="{37980bfc-713e-4e5a-979d-d3b9de850f24}" ref="D1" dT="2024-05-10T08:15:39" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{D4B91DDE-97CA-4764-90C3-CE81DFB75673}">
     <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
   </threadedComment>
-  <threadedComment id="{9C64D85C-9595-4C6D-BD30-EAF7BE269569}" ref="C1" dT="2024-05-10T07:54:02" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
+  <threadedComment id="{ECF4CB96-81A7-41E2-8299-938ECA037C4F}" ref="C1" dT="2024-05-10T07:54:02" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
     <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
   </threadedComment>
 </ThreadedComments>
@@ -714,7 +714,7 @@
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{FDB7EEAC-FE56-4E27-AA47-A1043CA12A21}" ref="A2" dT="2024-06-26T06:41:07" personId="{8A9439A8-1595-4F8B-AAA2-D556DB5DF265}" parentId="{}">
+  <threadedComment id="{7975240D-C6F0-42DA-81CD-EB4FCEC79299}" ref="A2" dT="2024-06-26T06:41:07" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -913,32 +913,32 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1048,7 +1048,7 @@
       <c r="O7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="P7" s="3" t="str">
+      <c r="P7" s="6" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="4" t="str">
+      <c r="J1" s="3" t="str">
         <v>stage_graph</v>
       </c>
       <c r="K1" s="1" t="str">
@@ -1179,68 +1179,68 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="str">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="6" t="str">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1635,32 +1635,32 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="str">
@@ -2140,49 +2140,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="6" t="str">
+      <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="6" t="str">
+      <c r="J4" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2218,7 +2218,7 @@
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -2227,7 +2227,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="6" t="str">
+      <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2265,7 +2265,7 @@
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -2274,13 +2274,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="6" t="str">
+      <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="3" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2320,13 +2320,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="6" t="str">
+      <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="6" t="str">
+      <c r="J7" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2368,7 +2368,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="6" t="str">
+      <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2393,7 +2393,7 @@
       <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2402,7 +2402,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="6" t="str">
+      <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2437,7 +2437,7 @@
       <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="6" t="str">
+      <c r="H12" s="4" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I12" s="2" t="str">

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={16AA3F70-7E13-43D3-BCCD-6AEA3590CD80}</author>
-    <author>tc={92F0C456-D10D-4997-B88E-584373F0D0BC}</author>
-    <author>tc={9C7DDE15-9667-44EB-87DA-B44FF272382D}</author>
-    <author>tc={6E579C15-137D-4BB1-86BB-6CF8E7D0BA6E}</author>
-    <author>tc={64C91A41-3331-4CB2-81C2-31B523A1F96E}</author>
-    <author>tc={ECB21406-9F32-46D4-9332-40380C7FD9BB}</author>
+    <author>tc={9FDEFB76-C00F-4B05-A2A3-96E185C2930A}</author>
+    <author>tc={EF29455E-F4A9-4715-B78B-B89B3DE273C8}</author>
+    <author>tc={C41ABAC0-4277-4F41-A49C-0C89C4C93D9A}</author>
+    <author>tc={FD7223A5-34B1-4DA1-9F3B-36226A005E3F}</author>
+    <author>tc={3A3D65FF-0F6F-46EA-B398-20FB24293831}</author>
+    <author>tc={76CDE97F-F72F-430F-AD19-04386DC8E131}</author>
   </authors>
   <commentList>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{16AA3F70-7E13-43D3-BCCD-6AEA3590CD80}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{9FDEFB76-C00F-4B05-A2A3-96E185C2930A}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{EF29455E-F4A9-4715-B78B-B89B3DE273C8}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{C41ABAC0-4277-4F41-A49C-0C89C4C93D9A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{92F0C456-D10D-4997-B88E-584373F0D0BC}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{9C7DDE15-9667-44EB-87DA-B44FF272382D}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{6E579C15-137D-4BB1-86BB-6CF8E7D0BA6E}">
+    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{FD7223A5-34B1-4DA1-9F3B-36226A005E3F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{64C91A41-3331-4CB2-81C2-31B523A1F96E}">
+    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{3A3D65FF-0F6F-46EA-B398-20FB24293831}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{76CDE97F-F72F-430F-AD19-04386DC8E131}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{ECB21406-9F32-46D4-9332-40380C7FD9BB}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F9B440AA-3205-463F-B8F0-FE41ACB87399}</author>
+    <author>tc={A25891D3-CC40-44BE-A7EB-33DC0413A682}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F9B440AA-3205-463F-B8F0-FE41ACB87399}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A25891D3-CC40-44BE-A7EB-33DC0413A682}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,22 +94,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={27AC28A9-780D-45F9-A739-5043BD96A77D}</author>
-    <author>tc={FDD0890F-B31F-4FAA-8BB1-91257166B7F1}</author>
-    <author>tc={67161B4E-664C-4805-9ED6-BC5F9F9F6E63}</author>
+    <author>tc={FFC8DCE8-39E2-4819-B18F-D6C94FA9D6A6}</author>
+    <author>tc={26E4527F-4857-4DFD-B801-B0383B8A2918}</author>
+    <author>tc={25FF839E-0ED8-43C8-8F72-AF5F6FFFCEC9}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{27AC28A9-780D-45F9-A739-5043BD96A77D}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{FFC8DCE8-39E2-4819-B18F-D6C94FA9D6A6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{FDD0890F-B31F-4FAA-8BB1-91257166B7F1}">
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{26E4527F-4857-4DFD-B801-B0383B8A2918}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{67161B4E-664C-4805-9ED6-BC5F9F9F6E63}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{25FF839E-0ED8-43C8-8F72-AF5F6FFFCEC9}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -121,35 +121,10 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={D4B91DDE-97CA-4764-90C3-CE81DFB75673}</author>
-    <author>tc={ECF4CB96-81A7-41E2-8299-938ECA037C4F}</author>
+    <author>tc={B6A2F811-D0A0-4B7C-99B8-5F725E55AB75}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D4B91DDE-97CA-4764-90C3-CE81DFB75673}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: RoleComponent, 角色的一部分，不可分割
-Weapon，武器，可能用于战斗
-Clothes，全身套装，影响外观
-NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
-Event，发生的事件 Reply: @侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{ECF4CB96-81A7-41E2-8299-938ECA037C4F}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={7975240D-C6F0-42DA-81CD-EB4FCEC79299}</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{7975240D-C6F0-42DA-81CD-EB4FCEC79299}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B6A2F811-D0A0-4B7C-99B8-5F725E55AB75}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
@@ -209,7 +184,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -230,7 +205,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -316,13 +291,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -346,8 +321,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{4402B1E9-DDFD-44DE-97F8-CD4B848F02B8}" userId="S::::addf53ab-ad06-4ffa-b6be-2bc19536a454" providerId="AD"/>
-  <person displayName="杨行" id="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" userId="S::::7104e3da-6210-4bf4-9c00-d82c7416aabe" providerId="AD"/>
+  <person displayName="杨行" id="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" userId="S::::20257650-a855-4658-b03f-8011c3d1f4ef" providerId="AD"/>
+  <person displayName="侯清辰" id="{7A348A0A-ED56-4C92-9144-EEEBFE02E7E3}" userId="S::::f924fae1-d43a-4bf1-b73f-e8dea2e46b40" providerId="AD"/>
 </personList>
 </file>
 
@@ -648,33 +623,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{16AA3F70-7E13-43D3-BCCD-6AEA3590CD80}" ref="H9" dT="2024-06-14T02:51:06" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
+  <threadedComment id="{9FDEFB76-C00F-4B05-A2A3-96E185C2930A}" ref="H6" dT="2024-06-14T02:50:34" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{EF29455E-F4A9-4715-B78B-B89B3DE273C8}" ref="L1" dT="2024-05-31T03:31:01" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{C41ABAC0-4277-4F41-A49C-0C89C4C93D9A}" ref="H9" dT="2024-06-14T02:51:06" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{92F0C456-D10D-4997-B88E-584373F0D0BC}" ref="L1" dT="2024-05-31T03:31:01" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{9C7DDE15-9667-44EB-87DA-B44FF272382D}" ref="H6" dT="2024-06-14T02:50:34" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{6E579C15-137D-4BB1-86BB-6CF8E7D0BA6E}" ref="K1" dT="2024-05-10T07:08:22" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
+  <threadedComment id="{FD7223A5-34B1-4DA1-9F3B-36226A005E3F}" ref="K1" dT="2024-05-10T07:08:22" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{3324551c-1e93-4ea3-b07c-4eb4cfe3e40c}" ref="K1" dT="2024-06-19T05:39:57" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{6E579C15-137D-4BB1-86BB-6CF8E7D0BA6E}">
+  <threadedComment id="{2a0f454c-2190-4769-8417-78b15f0677ad}" ref="K1" dT="2024-06-19T05:39:57" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{FD7223A5-34B1-4DA1-9F3B-36226A005E3F}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{64C91A41-3331-4CB2-81C2-31B523A1F96E}" ref="A4" dT="2024-05-28T04:59:59" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
+  <threadedComment id="{3A3D65FF-0F6F-46EA-B398-20FB24293831}" ref="C2" dT="2024-06-14T02:49:51" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{76CDE97F-F72F-430F-AD19-04386DC8E131}" ref="A4" dT="2024-05-28T04:59:59" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{ECB21406-9F32-46D4-9332-40380C7FD9BB}" ref="C2" dT="2024-06-14T02:49:51" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{F9B440AA-3205-463F-B8F0-FE41ACB87399}" ref="E1" dT="2024-06-09T13:30:31" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
+  <threadedComment id="{A25891D3-CC40-44BE-A7EB-33DC0413A682}" ref="E1" dT="2024-06-09T13:30:31" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -682,13 +657,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{27AC28A9-780D-45F9-A739-5043BD96A77D}" ref="C5" dT="2024-06-14T02:48:45" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
+  <threadedComment id="{FFC8DCE8-39E2-4819-B18F-D6C94FA9D6A6}" ref="C5" dT="2024-06-14T02:48:45" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{FDD0890F-B31F-4FAA-8BB1-91257166B7F1}" ref="C6" dT="2024-06-14T02:49:20" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
+  <threadedComment id="{26E4527F-4857-4DFD-B801-B0383B8A2918}" ref="C6" dT="2024-06-14T02:49:20" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{67161B4E-664C-4805-9ED6-BC5F9F9F6E63}" ref="E1" dT="2024-06-09T13:30:45" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
+  <threadedComment id="{25FF839E-0ED8-43C8-8F72-AF5F6FFFCEC9}" ref="E1" dT="2024-06-09T13:30:45" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -696,25 +671,7 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{D4B91DDE-97CA-4764-90C3-CE81DFB75673}" ref="D1" dT="2024-05-10T08:11:19" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
-    <text>RoleComponent, 角色的一部分，不可分割
-Weapon，武器，可能用于战斗
-Clothes，全身套装，影响外观
-NonConsumableItem，不可消耗的东西，例如钥匙。后续会有可消耗的东西
-Event，发生的事件</text>
-  </threadedComment>
-  <threadedComment id="{37980bfc-713e-4e5a-979d-d3b9de850f24}" ref="D1" dT="2024-05-10T08:15:39" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{D4B91DDE-97CA-4764-90C3-CE81DFB75673}">
-    <text>@侯清辰 我加完了，程序里的解析也弄好了。到时候我上传一下。目前是没啥用。后续用到再说</text>
-  </threadedComment>
-  <threadedComment id="{ECF4CB96-81A7-41E2-8299-938ECA037C4F}" ref="C1" dT="2024-05-10T07:54:02" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
-    <text>世界独一无二，基本是影响游戏流程的东西。如果标记Yes，就可以被战斗杀死抢夺</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{7975240D-C6F0-42DA-81CD-EB4FCEC79299}" ref="A2" dT="2024-06-26T06:41:07" personId="{AC690032-9809-4C52-8E00-0D5C72CB5FB7}" parentId="{}">
+  <threadedComment id="{B6A2F811-D0A0-4B7C-99B8-5F725E55AB75}" ref="A2" dT="2024-06-26T06:41:07" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
     <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
@@ -913,23 +870,23 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1048,7 +1005,7 @@
       <c r="O7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="P7" s="6" t="str">
+      <c r="P7" s="3" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1128,7 +1085,7 @@
       <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="5" t="str">
         <v>stage_graph</v>
       </c>
       <c r="K1" s="1" t="str">
@@ -1179,23 +1136,23 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1207,29 +1164,29 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="5" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="str">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="5" t="str">
         <v>教廷秘使的装束</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="6" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
@@ -1635,23 +1592,23 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -2140,26 +2097,26 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="5" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="5" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="5" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>8200</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="5" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
@@ -2218,7 +2175,7 @@
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -2265,7 +2222,7 @@
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -2280,7 +2237,7 @@
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="5" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -2311,7 +2268,7 @@
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2359,7 +2316,7 @@
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2393,7 +2350,7 @@
       <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2478,11 +2435,11 @@
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="38"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="69"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="69"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="69"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
@@ -2496,7 +2453,6 @@
     <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="22" min="22" style="0" width="17"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -2507,21 +2463,18 @@
         <v>codename</v>
       </c>
       <c r="C1" s="1" t="str">
-        <v>isunique</v>
+        <v>type</v>
       </c>
       <c r="D1" s="1" t="str">
-        <v>type</v>
+        <v>description</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>description</v>
-      </c>
-      <c r="F1" s="1" t="str">
         <v>appearance</v>
       </c>
+      <c r="F1" s="2" t="str">
+        <v>attributes</v>
+      </c>
       <c r="G1" s="2" t="str">
-        <v>attributes</v>
-      </c>
-      <c r="H1" s="2" t="str">
         <v>RAG</v>
       </c>
     </row>
@@ -2533,21 +2486,18 @@
         <v>mark_of_undead</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>No</v>
+        <v>Special</v>
       </c>
       <c r="D2" s="1" t="str">
-        <v>Special</v>
+        <v>被诅咒之人的印记。</v>
       </c>
       <c r="E2" s="1" t="str">
-        <v>被诅咒之人的印记。</v>
-      </c>
-      <c r="F2" s="1" t="str">
         <v>无外观信息</v>
       </c>
+      <c r="F2" s="2" t="str">
+        <v>0,0,0,0</v>
+      </c>
       <c r="G2" s="2" t="str">
-        <v>0,0,0,0</v>
-      </c>
-      <c r="H2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2559,21 +2509,18 @@
         <v>birthmark_on_left_paw</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>No</v>
+        <v>Special</v>
       </c>
       <c r="D3" s="1" t="str">
-        <v>Special</v>
+        <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
       <c r="E3" s="1" t="str">
-        <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
-      </c>
-      <c r="F3" s="1" t="str">
         <v>无外观信息</v>
       </c>
+      <c r="F3" s="2" t="str">
+        <v>0,0,0,0</v>
+      </c>
       <c r="G3" s="2" t="str">
-        <v>0,0,0,0</v>
-      </c>
-      <c r="H3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2585,21 +2532,18 @@
         <v>stove_hook</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>Yes</v>
+        <v>Weapon</v>
       </c>
       <c r="D4" s="1" t="str">
-        <v>Weapon</v>
+        <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
       <c r="E4" s="1" t="str">
-        <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
-      </c>
-      <c r="F4" s="1" t="str">
         <v>炙热无比的长钩</v>
       </c>
+      <c r="F4" s="2" t="str">
+        <v>0,0,10000,0</v>
+      </c>
       <c r="G4" s="2" t="str">
-        <v>0,0,10000,0</v>
-      </c>
-      <c r="H4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2611,21 +2555,18 @@
         <v>decayed_dagger</v>
       </c>
       <c r="C5" s="1" t="str">
-        <v>No</v>
+        <v>Weapon</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>Weapon</v>
+        <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很"锋利和尖锐"。</v>
       </c>
       <c r="E5" s="1" t="str">
-        <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很"锋利和尖锐"。</v>
-      </c>
-      <c r="F5" s="1" t="str">
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
+      <c r="F5" s="2" t="str">
+        <v>0,0,1,0</v>
+      </c>
       <c r="G5" s="2" t="str">
-        <v>0,0,1,0</v>
-      </c>
-      <c r="H5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2637,21 +2578,18 @@
         <v>shabby_clothes</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>No</v>
+        <v>Clothes</v>
       </c>
       <c r="D6" s="1" t="str">
-        <v>Clothes</v>
+        <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
       <c r="E6" s="1" t="str">
-        <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
-      </c>
-      <c r="F6" s="1" t="str">
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
+      <c r="F6" s="2" t="str">
+        <v>0,0,0,1</v>
+      </c>
       <c r="G6" s="2" t="str">
-        <v>0,0,0,1</v>
-      </c>
-      <c r="H6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2663,21 +2601,18 @@
         <v>broken_finger_key</v>
       </c>
       <c r="C7" s="1" t="str">
-        <v>Yes</v>
+        <v>NonConsumableItem</v>
       </c>
       <c r="D7" s="1" t="str">
-        <v>NonConsumableItem</v>
+        <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
       <c r="E7" s="1" t="str">
-        <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
-      </c>
-      <c r="F7" s="1" t="str">
         <v>形状像断掉的手指的钥匙</v>
       </c>
+      <c r="F7" s="2" t="str">
+        <v>0,0,0,0</v>
+      </c>
       <c r="G7" s="2" t="str">
-        <v>0,0,0,0</v>
-      </c>
-      <c r="H7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2689,21 +2624,18 @@
         <v>gravekeepers_clothing</v>
       </c>
       <c r="C8" s="1" t="str">
-        <v>No</v>
+        <v>Clothes</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>Clothes</v>
+        <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
       <c r="E8" s="1" t="str">
-        <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
-      </c>
-      <c r="F8" s="1" t="str">
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
+      <c r="F8" s="2" t="str">
+        <v>0,0,0,1</v>
+      </c>
       <c r="G8" s="2" t="str">
-        <v>0,0,0,1</v>
-      </c>
-      <c r="H8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2715,21 +2647,18 @@
         <v>papal_emissary_clothing</v>
       </c>
       <c r="C9" s="1" t="str">
-        <v>No</v>
+        <v>Clothes</v>
       </c>
       <c r="D9" s="1" t="str">
-        <v>Clothes</v>
+        <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
       <c r="E9" s="1" t="str">
-        <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
-      </c>
-      <c r="F9" s="1" t="str">
         <v>黑色长袍与斗篷。</v>
       </c>
+      <c r="F9" s="2" t="str">
+        <v>0,0,0,1</v>
+      </c>
       <c r="G9" s="2" t="str">
-        <v>0,0,0,1</v>
-      </c>
-      <c r="H9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
@@ -2743,21 +2672,18 @@
         <v>mark_of_black_fire</v>
       </c>
       <c r="C12" s="1" t="str">
-        <v>No</v>
+        <v>Special</v>
       </c>
       <c r="D12" s="1" t="str">
-        <v>Special</v>
+        <v>被诅咒之人的印记——盘旋的黑色火焰化作灭世的龙</v>
       </c>
       <c r="E12" s="1" t="str">
-        <v>被诅咒之人的印记——盘旋的黑色火焰化作灭世的龙</v>
-      </c>
-      <c r="F12" s="1" t="str">
         <v>胸前的印记，呈黑色，形状看上去犹如盘旋的黑色火焰</v>
       </c>
+      <c r="F12" s="2" t="str">
+        <v>0,0,0,0</v>
+      </c>
       <c r="G12" s="2" t="str">
-        <v>0,0,0,0</v>
-      </c>
-      <c r="H12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2769,21 +2695,18 @@
         <v>huangjin_long_sword</v>
       </c>
       <c r="C13" s="1" t="str">
-        <v>No</v>
+        <v>Weapon</v>
       </c>
       <c r="D13" s="1" t="str">
-        <v>Weapon</v>
+        <v>普通但可靠的剑，黄巾军中低阶军官的标准装备。这种剑由黄巾军内部的铁匠工坊铸造，材料虽不算上乘，但胜在耐用和易于维护。</v>
       </c>
       <c r="E13" s="1" t="str">
-        <v>普通但可靠的剑，黄巾军中低阶军官的标准装备。这种剑由黄巾军内部的铁匠工坊铸造，材料虽不算上乘，但胜在耐用和易于维护。</v>
-      </c>
-      <c r="F13" s="1" t="str">
         <v>剑身长约三尺，剑刃虽有些许磨损的痕迹，但依然锋利。剑柄包裹着简单的粗麻绳。剑鞘由黑色牛皮制成，质朴无华并不显眼。</v>
       </c>
+      <c r="F13" s="2" t="str">
+        <v>0,0,1,0</v>
+      </c>
       <c r="G13" s="2" t="str">
-        <v>0,0,1,0</v>
-      </c>
-      <c r="H13" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2795,21 +2718,18 @@
         <v>huangjin_officer_uniform</v>
       </c>
       <c r="C14" s="1" t="str">
-        <v>No</v>
+        <v>Clothes</v>
       </c>
       <c r="D14" s="1" t="str">
-        <v>Clothes</v>
+        <v>黄巾军军官服是普通军官在行军作战时的常规装束，设计简洁实用，以便于在战场上行动自如。这套服装由耐磨的粗布制成，能够应对各种恶劣的环境，兼具一定的防护作用。</v>
       </c>
       <c r="E14" s="1" t="str">
-        <v>黄巾军军官服是普通军官在行军作战时的常规装束，设计简洁实用，以便于在战场上行动自如。这套服装由耐磨的粗布制成，能够应对各种恶劣的环境，兼具一定的防护作用。</v>
-      </c>
-      <c r="F14" s="1" t="str">
         <v>由深黄色的粗布制成，整体设计简朴且耐用。上衣为束腰的短袍，配有几道简单的绣纹装饰，袖口较窄，便于行动。腰间系着一条宽厚的布带，用以固定短刀或其他小物件。下装是宽松的裤子，裤腿绑着布条，以防止绊脚。脚上穿着一双结实的草鞋，适合在各种地形上行走。整套装束并无多余的装饰。</v>
       </c>
+      <c r="F14" s="2" t="str">
+        <v>0,0,0,1</v>
+      </c>
       <c r="G14" s="2" t="str">
-        <v>0,0,0,1</v>
-      </c>
-      <c r="H14" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2821,21 +2741,18 @@
         <v>coarse_prison_uniform</v>
       </c>
       <c r="C15" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="D15" s="1" t="str">
         <v>Clothes</v>
       </c>
+      <c r="D15" s="2" t="str">
+        <v>粗布牢服是秘密监狱中囚犯的标准服装，由廉价且耐磨的粗布制成。服装设计简陋，只为满足基本的保暖和遮体需求。上面有一些“奇特的符号”</v>
+      </c>
       <c r="E15" s="2" t="str">
-        <v>粗布牢服是秘密监狱中囚犯的标准服装，由廉价且耐磨的粗布制成。服装设计简陋，只为满足基本的保暖和遮体需求。上面有一些“奇特的符号”</v>
+        <v>由深灰色的粗糙麻布制成，布料质地粗糙，表面有明显的纺织纹理和磨损痕迹。衣领低矮，袖子宽大且略显破旧，袖口处甚至还有几道撕裂的口子。服装的前襟和后背上用粗线绣着几个简单的符号，线迹不规整，仿佛是仓促中加上的。衣服的下摆长及膝盖，边缘已经磨损得参差不齐，显现出长期使用的痕迹</v>
       </c>
       <c r="F15" s="2" t="str">
-        <v>由深灰色的粗糙麻布制成，布料质地粗糙，表面有明显的纺织纹理和磨损痕迹。衣领低矮，袖子宽大且略显破旧，袖口处甚至还有几道撕裂的口子。服装的前襟和后背上用粗线绣着几个简单的符号，线迹不规整，仿佛是仓促中加上的。衣服的下摆长及膝盖，边缘已经磨损得参差不齐，显现出长期使用的痕迹</v>
+        <v>0,0,0,1</v>
       </c>
       <c r="G15" s="2" t="str">
-        <v>0,0,0,1</v>
-      </c>
-      <c r="H15" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2845,7 +2762,6 @@
     <row customHeight="true" ht="23" r="19"/>
     <row customHeight="true" ht="23" r="20"/>
   </sheetData>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,40 +34,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9FDEFB76-C00F-4B05-A2A3-96E185C2930A}</author>
-    <author>tc={EF29455E-F4A9-4715-B78B-B89B3DE273C8}</author>
-    <author>tc={C41ABAC0-4277-4F41-A49C-0C89C4C93D9A}</author>
-    <author>tc={FD7223A5-34B1-4DA1-9F3B-36226A005E3F}</author>
-    <author>tc={3A3D65FF-0F6F-46EA-B398-20FB24293831}</author>
-    <author>tc={76CDE97F-F72F-430F-AD19-04386DC8E131}</author>
+    <author>tc={5B7D9771-7B27-43EB-884A-F4EC91C174D8}</author>
+    <author>tc={6DED823F-DFDA-425E-B5D7-0D782AA04C88}</author>
+    <author>tc={BF34D2B2-1BDB-4FB4-ABC0-52E16B6BAD22}</author>
+    <author>tc={27B2A58E-2532-414A-85D0-21D7C7CE172A}</author>
+    <author>tc={D119318F-34EC-47F0-8763-2EF6E0C6775A}</author>
+    <author>tc={58A8E78E-FC3E-450F-848F-82B9B0EEF6B3}</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{9FDEFB76-C00F-4B05-A2A3-96E185C2930A}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{5B7D9771-7B27-43EB-884A-F4EC91C174D8}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{6DED823F-DFDA-425E-B5D7-0D782AA04C88}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{BF34D2B2-1BDB-4FB4-ABC0-52E16B6BAD22}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{27B2A58E-2532-414A-85D0-21D7C7CE172A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{EF29455E-F4A9-4715-B78B-B89B3DE273C8}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{C41ABAC0-4277-4F41-A49C-0C89C4C93D9A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{FD7223A5-34B1-4DA1-9F3B-36226A005E3F}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{3A3D65FF-0F6F-46EA-B398-20FB24293831}">
+    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{D119318F-34EC-47F0-8763-2EF6E0C6775A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{76CDE97F-F72F-430F-AD19-04386DC8E131}">
+    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{58A8E78E-FC3E-450F-848F-82B9B0EEF6B3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A25891D3-CC40-44BE-A7EB-33DC0413A682}</author>
+    <author>tc={8C8D6E0F-9711-40A0-8908-F63F8F945351}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A25891D3-CC40-44BE-A7EB-33DC0413A682}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8C8D6E0F-9711-40A0-8908-F63F8F945351}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,39 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={FFC8DCE8-39E2-4819-B18F-D6C94FA9D6A6}</author>
-    <author>tc={26E4527F-4857-4DFD-B801-B0383B8A2918}</author>
-    <author>tc={25FF839E-0ED8-43C8-8F72-AF5F6FFFCEC9}</author>
+    <author>tc={50F90038-1B18-4ACB-B5B4-635DC5FCEE6A}</author>
+    <author>tc={557BB3BA-4B19-45D8-8B6C-5CAC2F9D5A54}</author>
+    <author>tc={FB462013-3473-4DEF-8F4C-A48929615FA1}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{FFC8DCE8-39E2-4819-B18F-D6C94FA9D6A6}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{50F90038-1B18-4ACB-B5B4-635DC5FCEE6A}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{557BB3BA-4B19-45D8-8B6C-5CAC2F9D5A54}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{26E4527F-4857-4DFD-B801-B0383B8A2918}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{25FF839E-0ED8-43C8-8F72-AF5F6FFFCEC9}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{FB462013-3473-4DEF-8F4C-A48929615FA1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={B6A2F811-D0A0-4B7C-99B8-5F725E55AB75}</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B6A2F811-D0A0-4B7C-99B8-5F725E55AB75}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个名字不可以随便改！</t>
       </text>
     </comment>
   </commentList>
@@ -170,13 +155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -184,7 +162,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -206,6 +184,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -291,13 +276,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -321,8 +306,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" userId="S::::20257650-a855-4658-b03f-8011c3d1f4ef" providerId="AD"/>
-  <person displayName="侯清辰" id="{7A348A0A-ED56-4C92-9144-EEEBFE02E7E3}" userId="S::::f924fae1-d43a-4bf1-b73f-e8dea2e46b40" providerId="AD"/>
+  <person displayName="侯清辰" id="{14B344C8-D102-4A60-86CC-5B7D04CD7BF5}" userId="S::::5eb7e4f2-42c1-421c-b99a-8692e38f8889" providerId="AD"/>
+  <person displayName="杨行" id="{85C33966-434C-4298-8B83-713BAC93C6C8}" userId="S::::56cb1b62-f53e-443a-995e-bb6d8ebed0cc" providerId="AD"/>
 </personList>
 </file>
 
@@ -623,25 +608,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{9FDEFB76-C00F-4B05-A2A3-96E185C2930A}" ref="H6" dT="2024-06-14T02:50:34" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
+  <threadedComment id="{5B7D9771-7B27-43EB-884A-F4EC91C174D8}" ref="K1" dT="2024-05-10T07:08:22" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{9de2b047-7b16-4369-ba6b-32fdc7c97d06}" ref="K1" dT="2024-06-19T05:39:57" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{5B7D9771-7B27-43EB-884A-F4EC91C174D8}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{6DED823F-DFDA-425E-B5D7-0D782AA04C88}" ref="L1" dT="2024-05-31T03:31:01" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{BF34D2B2-1BDB-4FB4-ABC0-52E16B6BAD22}" ref="H9" dT="2024-06-14T02:51:06" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{27B2A58E-2532-414A-85D0-21D7C7CE172A}" ref="H6" dT="2024-06-14T02:50:34" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{EF29455E-F4A9-4715-B78B-B89B3DE273C8}" ref="L1" dT="2024-05-31T03:31:01" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{C41ABAC0-4277-4F41-A49C-0C89C4C93D9A}" ref="H9" dT="2024-06-14T02:51:06" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{FD7223A5-34B1-4DA1-9F3B-36226A005E3F}" ref="K1" dT="2024-05-10T07:08:22" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{2a0f454c-2190-4769-8417-78b15f0677ad}" ref="K1" dT="2024-06-19T05:39:57" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{FD7223A5-34B1-4DA1-9F3B-36226A005E3F}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{3A3D65FF-0F6F-46EA-B398-20FB24293831}" ref="C2" dT="2024-06-14T02:49:51" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
+  <threadedComment id="{D119318F-34EC-47F0-8763-2EF6E0C6775A}" ref="C2" dT="2024-06-14T02:49:51" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{76CDE97F-F72F-430F-AD19-04386DC8E131}" ref="A4" dT="2024-05-28T04:59:59" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
+  <threadedComment id="{58A8E78E-FC3E-450F-848F-82B9B0EEF6B3}" ref="A4" dT="2024-05-28T04:59:59" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
@@ -649,7 +634,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{A25891D3-CC40-44BE-A7EB-33DC0413A682}" ref="E1" dT="2024-06-09T13:30:31" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
+  <threadedComment id="{8C8D6E0F-9711-40A0-8908-F63F8F945351}" ref="E1" dT="2024-06-09T13:30:31" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -657,22 +642,14 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{FFC8DCE8-39E2-4819-B18F-D6C94FA9D6A6}" ref="C5" dT="2024-06-14T02:48:45" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
+  <threadedComment id="{50F90038-1B18-4ACB-B5B4-635DC5FCEE6A}" ref="C6" dT="2024-06-14T02:49:20" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  </threadedComment>
+  <threadedComment id="{557BB3BA-4B19-45D8-8B6C-5CAC2F9D5A54}" ref="C5" dT="2024-06-14T02:48:45" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{26E4527F-4857-4DFD-B801-B0383B8A2918}" ref="C6" dT="2024-06-14T02:49:20" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
-  </threadedComment>
-  <threadedComment id="{25FF839E-0ED8-43C8-8F72-AF5F6FFFCEC9}" ref="E1" dT="2024-06-09T13:30:45" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
+  <threadedComment id="{FB462013-3473-4DEF-8F4C-A48929615FA1}" ref="E1" dT="2024-06-09T13:30:45" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
     <text>@宾晓华 这里</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B6A2F811-D0A0-4B7C-99B8-5F725E55AB75}" ref="A2" dT="2024-06-26T06:41:07" personId="{5D2339BE-75B6-4F3D-8A08-DD2043696B0E}" parentId="{}">
-    <text>这个名字不可以随便改！</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -711,30 +688,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -792,160 +769,160 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="2" t="str">
+      <c r="R1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2" t="str">
+      <c r="K4" s="2"/>
+      <c r="L4" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="L5" s="1" t="str">
+      <c r="J5" s="2"/>
+      <c r="L5" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="P5" s="2" t="str">
+      <c r="P5" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -957,55 +934,55 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="L6" s="1" t="str">
+      <c r="L6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="L7" s="1" t="str">
+      <c r="J7" s="1"/>
+      <c r="L7" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="str">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="O7" s="2" t="str">
+      <c r="O7" s="1" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="P7" s="3" t="str">
+      <c r="P7" s="6" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1058,211 +1035,211 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="5" t="str">
+      <c r="J1" s="4" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="2" t="str">
+      <c r="R1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="str">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6" t="str">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="4" t="str">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2" t="str">
+      <c r="K5" s="2"/>
+      <c r="L5" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2" t="str">
+      <c r="K6" s="2"/>
+      <c r="L6" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1270,42 +1247,42 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2" t="str">
+      <c r="K7" s="2"/>
+      <c r="L7" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="H8" s="1" t="str">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="H8" s="2" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2" t="str">
+      <c r="K8" s="2"/>
+      <c r="L8" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="H9" s="1" t="str">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="H9" s="2" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1313,153 +1290,153 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="2" t="str">
+      <c r="K9" s="2"/>
+      <c r="L9" s="1" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="str">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="L10" s="1" t="str">
+      <c r="J10" s="2"/>
+      <c r="L10" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N10" s="2" t="str">
+      <c r="N10" s="1" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="P10" s="2" t="str">
+      <c r="P10" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="str">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" s="2" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="L11" s="1" t="str">
+      <c r="L11" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="str">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="H12" s="2" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="L12" s="1" t="str">
+      <c r="L12" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="str">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="str">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="L13" s="1" t="str">
+      <c r="L13" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="str">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I14" s="2" t="str">
+      <c r="I14" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="L14" s="1" t="str">
+      <c r="J14" s="1"/>
+      <c r="L14" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="2" t="str">
         <v>圣灰园正门前广场（忽略）</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="str">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="2" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="I15" s="2" t="str">
+      <c r="I15" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="L15" s="1" t="str">
+      <c r="J15" s="1"/>
+      <c r="L15" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1511,69 +1488,69 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="2" t="str">
+      <c r="R1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>- 本游戏以中国历史中的三国时代（借鉴小说《三国演义》）为背景的 历史奇幻类 角色扮演游戏。
 - 本游戏融合了历史的真实感与奇幻元素。以“架空”的三国时代为背景。
 - 玩家和你将沉浸在一个充满战争、权谋、超自然恐怖与英雄主义的世界中。在复杂的联盟与背叛中穿梭，你们将面对激烈的战斗、黑暗的仪式，以及在乱世中求生的残酷现实。
@@ -1581,123 +1558,151 @@
 - 游戏内容（文本）可能包含恐怖、血腥与暴力场景。这一切旨在为玩家带来深度沉浸式的体验。
 - 注意！请你接受以上设定。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row customHeight="true" ht="42" r="4">
       <c r="A4" s="2" t="str">
+        <v>技能系统</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v>WorldSystem</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>见‘WorldSystem’</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
         <v>黑火印记;粗布牢服</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>### 环境
 - 你 在昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
 ### 事件
 - 你缓缓睁开眼睛，意识逐渐恢复。你难以回忆起任何事情。
 - 牢房的 铁栏门 似乎已经被破坏打开。上挂着一块腐化的木牌上写着：“火十一”。也许这就是你的名字？或者是这个地方的名字？</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2" t="str">
+      <c r="K5" s="2"/>
+      <c r="L5" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="str">
+    <row r="6">
+      <c r="A6" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="G5" s="2" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="1" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>### 环境
 - 昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
 ### 事件
 - 人物.火十一，他醒来了。
 - 牢房的 铁栏门 似乎已经被破坏打开。</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J6" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="L5" s="1" t="str">
+      <c r="L6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>### 环境
 - 四周立着几根高大的石柱，柱顶燃烧着火焰，散发出幽暗的红光，照亮了整个房间。
 ### 补充规则
 - 如果任何角色进入此场景，你就会对其低语(WhisperAction)，试图吓走对方。</v>
       </c>
-      <c r="L6" s="1" t="str">
+      <c r="L7" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="7"/>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
+    <row customHeight="true" ht="23" r="12"/>
   </sheetData>
 </worksheet>
 </file>
@@ -1738,218 +1743,218 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>8100</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>8101</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>8102</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>8103</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>8104</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>8105</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row r="10">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>stage_name_cell_fire11</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="2" t="str">
         <v>昏暗潮湿的牢房。空气弥漫着发霉的味道，混杂着血腥和腐烂的气息，令人作呕。
 墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍。
 石墙的缝隙中透出微弱的冷风。
@@ -1959,33 +1964,33 @@
 墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。
 角落里的石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙。</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>8106</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="2" t="str">
         <v>/stage/stage_name_cell_fire11</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template.md</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="I10" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>stage_name_zone_fire</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="1" t="str">
         <v>墙壁和天花板都由厚重的岩石构成，表面焦黑斑驳。
 地面上散落着焦黑的灰烬、燃烧过的木炭和烧焦的尸体，有些尸体还能看出人形，而另一些已经扭曲变形，难以辨认。
 四处摆放着残破的金属器具，表面布满了因高温而变形的痕迹。铁锤、火钳等工具随意地丢弃在角落。
@@ -1995,22 +2000,22 @@
 空气中弥漫着刺鼻气味，混合着燃烧的皮肉和化学物质的味道。
 墙壁上有几处金属管道。</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>8107</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="F11" s="2" t="str">
         <v>/stage/stage_name_zone_fire</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="1" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template2.md</v>
       </c>
-      <c r="I11" s="2" t="str">
+      <c r="I11" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -2063,92 +2068,92 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>body</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -2168,40 +2173,40 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 例句：嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 例句：嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - 例句：（怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -2216,39 +2221,39 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>1. 例句：吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 例句：吱吱吱～～（开心的摇尾巴）～～～～"
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -2263,38 +2268,38 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- 例句：（阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -2311,96 +2316,96 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>- 例句：（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="2" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="I9" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="2" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>player_name_subject_fire11</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="2" t="str">
         <v>### 你的背景
 - 你是玩家操纵角色，不需要背景描述。</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="1" t="str">
         <v>- 注意：请根据你的 角色设定，自行发挥</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>8206</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="1" t="str">
         <v>/actor/player_name_subject_fire11</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="4" t="str">
+      <c r="H12" s="3" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
-      <c r="I12" s="2" t="str">
+      <c r="I12" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="J12" s="1" t="str">
         <v>二十岁左右的男性人类。身材中等，不高不矮，看上去并不很强壮。
 眼睛是特殊的红色，面色呈现一种不健康的灰暗。
 胸前有黑色的印记，形状看上去犹如盘旋的黑色火焰。</v>
@@ -2456,280 +2461,280 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>Special</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>Special</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>炙热无比的长钩</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>0,0,10000,0</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很"锋利和尖锐"。</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>形状像断掉的手指的钥匙</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="2" t="str">
         <v>黑色长袍与斗篷。</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>黑火印记</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>mark_of_black_fire</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="2" t="str">
         <v>Special</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="2" t="str">
         <v>被诅咒之人的印记——盘旋的黑色火焰化作灭世的龙</v>
       </c>
-      <c r="E12" s="1" t="str">
+      <c r="E12" s="2" t="str">
         <v>胸前的印记，呈黑色，形状看上去犹如盘旋的黑色火焰</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>黄巾军长剑</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>huangjin_long_sword</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="2" t="str">
         <v>普通但可靠的剑，黄巾军中低阶军官的标准装备。这种剑由黄巾军内部的铁匠工坊铸造，材料虽不算上乘，但胜在耐用和易于维护。</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E13" s="2" t="str">
         <v>剑身长约三尺，剑刃虽有些许磨损的痕迹，但依然锋利。剑柄包裹着简单的粗麻绳。剑鞘由黑色牛皮制成，质朴无华并不显眼。</v>
       </c>
-      <c r="F13" s="2" t="str">
+      <c r="F13" s="1" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="G13" s="2" t="str">
+      <c r="G13" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="2" t="str">
         <v>黄巾军军官服</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <v>huangjin_officer_uniform</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D14" s="1" t="str">
+      <c r="D14" s="2" t="str">
         <v>黄巾军军官服是普通军官在行军作战时的常规装束，设计简洁实用，以便于在战场上行动自如。这套服装由耐磨的粗布制成，能够应对各种恶劣的环境，兼具一定的防护作用。</v>
       </c>
-      <c r="E14" s="1" t="str">
+      <c r="E14" s="2" t="str">
         <v>由深黄色的粗布制成，整体设计简朴且耐用。上衣为束腰的短袍，配有几道简单的绣纹装饰，袖口较窄，便于行动。腰间系着一条宽厚的布带，用以固定短刀或其他小物件。下装是宽松的裤子，裤腿绑着布条，以防止绊脚。脚上穿着一双结实的草鞋，适合在各种地形上行走。整套装束并无多余的装饰。</v>
       </c>
-      <c r="F14" s="2" t="str">
+      <c r="F14" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G14" s="2" t="str">
+      <c r="G14" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2737,22 +2742,22 @@
       <c r="A15" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>coarse_prison_uniform</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="1" t="str">
         <v>粗布牢服是秘密监狱中囚犯的标准服装，由廉价且耐磨的粗布制成。服装设计简陋，只为满足基本的保暖和遮体需求。上面有一些“奇特的符号”</v>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="E15" s="1" t="str">
         <v>由深灰色的粗糙麻布制成，布料质地粗糙，表面有明显的纺织纹理和磨损痕迹。衣领低矮，袖子宽大且略显破旧，袖口处甚至还有几道撕裂的口子。服装的前襟和后背上用粗线绣着几个简单的符号，线迹不规整，仿佛是仓促中加上的。衣服的下摆长及膝盖，边缘已经磨损得参差不齐，显现出长期使用的痕迹</v>
       </c>
-      <c r="F15" s="2" t="str">
+      <c r="F15" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2776,68 +2781,94 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="74"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="69"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="60"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="46"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <v>world_system_appearance_builder</v>
-      </c>
-      <c r="C2" s="1" t="str">
+      <c r="B2" s="2" t="str">
+        <v>world_appearance_system</v>
+      </c>
+      <c r="C2" s="2" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8300</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <v>/worldsystems/appearance_builder</v>
-      </c>
-      <c r="F2" s="2" t="str">
-        <v>rag/rag2.md</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <v>sys_templates/world_system_appearance_builder_sys_prompt_template.md</v>
-      </c>
-      <c r="H2" s="2" t="str">
+      <c r="E2" s="2" t="str">
+        <v>/worldsystems/world_appearance_system</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <v>sys_templates/three_kingdoms_world_system_sys_prompt_template.md</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="str">
+        <v>技能系统</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <v>world_skill_system</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <v>- 你的功能是：根据我给你输入的信息，来判断是否可以释放技能和技能释放的效果。</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8301</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <v>/worldsystems/world_skill_system</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <v>sys_templates/three_kingdoms_world_system_sys_prompt_template.md</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
+      </c>
+    </row>
   </sheetData>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={5B7D9771-7B27-43EB-884A-F4EC91C174D8}</author>
-    <author>tc={6DED823F-DFDA-425E-B5D7-0D782AA04C88}</author>
-    <author>tc={BF34D2B2-1BDB-4FB4-ABC0-52E16B6BAD22}</author>
-    <author>tc={27B2A58E-2532-414A-85D0-21D7C7CE172A}</author>
-    <author>tc={D119318F-34EC-47F0-8763-2EF6E0C6775A}</author>
-    <author>tc={58A8E78E-FC3E-450F-848F-82B9B0EEF6B3}</author>
+    <author>tc={0F326A1F-CE67-46E4-B497-E61E318BBDE9}</author>
+    <author>tc={FECD971C-28CA-4904-ABF8-E84A5C4A3F7C}</author>
+    <author>tc={01DAE7ED-A296-4A32-831E-B367F36ED8ED}</author>
+    <author>tc={30ED67B9-0102-4E47-9017-9A4FACF90B44}</author>
+    <author>tc={90C38EAB-60BF-4893-B8F3-F0B2150D3426}</author>
+    <author>tc={2C3FA33C-FB37-49D1-9344-0325F2E37D4D}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{5B7D9771-7B27-43EB-884A-F4EC91C174D8}">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{0F326A1F-CE67-46E4-B497-E61E318BBDE9}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{6DED823F-DFDA-425E-B5D7-0D782AA04C88}">
+    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{FECD971C-28CA-4904-ABF8-E84A5C4A3F7C}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{01DAE7ED-A296-4A32-831E-B367F36ED8ED}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{30ED67B9-0102-4E47-9017-9A4FACF90B44}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{90C38EAB-60BF-4893-B8F3-F0B2150D3426}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{BF34D2B2-1BDB-4FB4-ABC0-52E16B6BAD22}">
+    <comment ref="K1" authorId="5" shapeId="0" xr:uid="{2C3FA33C-FB37-49D1-9344-0325F2E37D4D}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{27B2A58E-2532-414A-85D0-21D7C7CE172A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{D119318F-34EC-47F0-8763-2EF6E0C6775A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{58A8E78E-FC3E-450F-848F-82B9B0EEF6B3}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={8C8D6E0F-9711-40A0-8908-F63F8F945351}</author>
+    <author>tc={30E52FBE-52B0-48D0-A9B1-85B1DC917C0D}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8C8D6E0F-9711-40A0-8908-F63F8F945351}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{30E52FBE-52B0-48D0-A9B1-85B1DC917C0D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,22 +94,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={50F90038-1B18-4ACB-B5B4-635DC5FCEE6A}</author>
-    <author>tc={557BB3BA-4B19-45D8-8B6C-5CAC2F9D5A54}</author>
-    <author>tc={FB462013-3473-4DEF-8F4C-A48929615FA1}</author>
+    <author>tc={533F8DA8-A280-4BB5-A958-2D2DFC827F38}</author>
+    <author>tc={40774EC8-73AB-4BB8-8427-3D3E56B8FD9B}</author>
+    <author>tc={651EA08B-5ABE-428C-ADEC-8F79850ECAC3}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{50F90038-1B18-4ACB-B5B4-635DC5FCEE6A}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{533F8DA8-A280-4BB5-A958-2D2DFC827F38}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{557BB3BA-4B19-45D8-8B6C-5CAC2F9D5A54}">
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{40774EC8-73AB-4BB8-8427-3D3E56B8FD9B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{FB462013-3473-4DEF-8F4C-A48929615FA1}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{651EA08B-5ABE-428C-ADEC-8F79850ECAC3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -155,6 +155,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -170,13 +177,6 @@
     </font>
     <font>
       <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -306,8 +306,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{14B344C8-D102-4A60-86CC-5B7D04CD7BF5}" userId="S::::5eb7e4f2-42c1-421c-b99a-8692e38f8889" providerId="AD"/>
-  <person displayName="杨行" id="{85C33966-434C-4298-8B83-713BAC93C6C8}" userId="S::::56cb1b62-f53e-443a-995e-bb6d8ebed0cc" providerId="AD"/>
+  <person displayName="杨行" id="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" userId="S::::1558cbf5-1816-44dc-a5e5-03d1c2284988" providerId="AD"/>
+  <person displayName="侯清辰" id="{484788B5-AF2F-4088-BB35-18A43CCF08A9}" userId="S::::4a02a03c-2c1a-476a-81d0-e86df69fbc5c" providerId="AD"/>
 </personList>
 </file>
 
@@ -608,33 +608,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{5B7D9771-7B27-43EB-884A-F4EC91C174D8}" ref="K1" dT="2024-05-10T07:08:22" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
+  <threadedComment id="{0F326A1F-CE67-46E4-B497-E61E318BBDE9}" ref="H9" dT="2024-06-14T02:51:06" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{FECD971C-28CA-4904-ABF8-E84A5C4A3F7C}" ref="H6" dT="2024-06-14T02:50:34" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{01DAE7ED-A296-4A32-831E-B367F36ED8ED}" ref="A4" dT="2024-05-28T04:59:59" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{30ED67B9-0102-4E47-9017-9A4FACF90B44}" ref="C2" dT="2024-06-14T02:49:51" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{90C38EAB-60BF-4893-B8F3-F0B2150D3426}" ref="L1" dT="2024-05-31T03:31:01" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{2C3FA33C-FB37-49D1-9344-0325F2E37D4D}" ref="K1" dT="2024-05-10T07:08:22" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{9de2b047-7b16-4369-ba6b-32fdc7c97d06}" ref="K1" dT="2024-06-19T05:39:57" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{5B7D9771-7B27-43EB-884A-F4EC91C174D8}">
+  <threadedComment id="{98bdbfdb-194d-4ac6-9b09-4ad57ccc7f56}" ref="K1" dT="2024-06-19T05:39:57" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{2C3FA33C-FB37-49D1-9344-0325F2E37D4D}">
     <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{6DED823F-DFDA-425E-B5D7-0D782AA04C88}" ref="L1" dT="2024-05-31T03:31:01" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{BF34D2B2-1BDB-4FB4-ABC0-52E16B6BAD22}" ref="H9" dT="2024-06-14T02:51:06" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{27B2A58E-2532-414A-85D0-21D7C7CE172A}" ref="H6" dT="2024-06-14T02:50:34" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{D119318F-34EC-47F0-8763-2EF6E0C6775A}" ref="C2" dT="2024-06-14T02:49:51" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{58A8E78E-FC3E-450F-848F-82B9B0EEF6B3}" ref="A4" dT="2024-05-28T04:59:59" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{8C8D6E0F-9711-40A0-8908-F63F8F945351}" ref="E1" dT="2024-06-09T13:30:31" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
+  <threadedComment id="{30E52FBE-52B0-48D0-A9B1-85B1DC917C0D}" ref="E1" dT="2024-06-09T13:30:31" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,13 +642,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{50F90038-1B18-4ACB-B5B4-635DC5FCEE6A}" ref="C6" dT="2024-06-14T02:49:20" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
+  <threadedComment id="{533F8DA8-A280-4BB5-A958-2D2DFC827F38}" ref="C6" dT="2024-06-14T02:49:20" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{557BB3BA-4B19-45D8-8B6C-5CAC2F9D5A54}" ref="C5" dT="2024-06-14T02:48:45" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
+  <threadedComment id="{40774EC8-73AB-4BB8-8427-3D3E56B8FD9B}" ref="C5" dT="2024-06-14T02:48:45" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{FB462013-3473-4DEF-8F4C-A48929615FA1}" ref="E1" dT="2024-06-09T13:30:45" personId="{85C33966-434C-4298-8B83-713BAC93C6C8}" parentId="{}">
+  <threadedComment id="{651EA08B-5ABE-428C-ADEC-8F79850ECAC3}" ref="E1" dT="2024-06-09T13:30:45" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -688,30 +688,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -769,160 +769,160 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="1" t="str">
+      <c r="R1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="1" t="str">
+      <c r="K4" s="1"/>
+      <c r="L4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="L5" s="2" t="str">
+      <c r="J5" s="1"/>
+      <c r="L5" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="P5" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -934,52 +934,52 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="L6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="L7" s="2" t="str">
+      <c r="J7" s="2"/>
+      <c r="L7" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="str">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="O7" s="1" t="str">
+      <c r="O7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
       <c r="P7" s="6" t="str">
@@ -1035,211 +1035,211 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="4" t="str">
+      <c r="J1" s="3" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="1" t="str">
+      <c r="R1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="str">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3" t="str">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1" t="str">
+      <c r="K5" s="1"/>
+      <c r="L5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1" t="str">
+      <c r="K6" s="1"/>
+      <c r="L6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1247,42 +1247,42 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1" t="str">
+      <c r="K7" s="1"/>
+      <c r="L7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="H8" s="2" t="str">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="H8" s="1" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1" t="str">
+      <c r="K8" s="1"/>
+      <c r="L8" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="H9" s="2" t="str">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="H9" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1290,153 +1290,153 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1" t="str">
+      <c r="K9" s="1"/>
+      <c r="L9" s="2" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="I10" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="L10" s="2" t="str">
+      <c r="J10" s="1"/>
+      <c r="L10" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="N10" s="2" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="P10" s="1" t="str">
+      <c r="P10" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="1" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="L11" s="2" t="str">
+      <c r="L11" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="1" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="L12" s="2" t="str">
+      <c r="L12" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="str">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="L13" s="2" t="str">
+      <c r="L13" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="str">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I14" s="1" t="str">
+      <c r="I14" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="L14" s="2" t="str">
+      <c r="J14" s="2"/>
+      <c r="L14" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="1" t="str">
         <v>圣灰园正门前广场（忽略）</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="str">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="1" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="I15" s="1" t="str">
+      <c r="I15" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="L15" s="2" t="str">
+      <c r="J15" s="2"/>
+      <c r="L15" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1488,69 +1488,69 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="1" t="str">
+      <c r="R1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>- 本游戏以中国历史中的三国时代（借鉴小说《三国演义》）为背景的 历史奇幻类 角色扮演游戏。
 - 本游戏融合了历史的真实感与奇幻元素。以“架空”的三国时代为背景。
 - 玩家和你将沉浸在一个充满战争、权谋、超自然恐怖与英雄主义的世界中。在复杂的联盟与背叛中穿梭，你们将面对激烈的战斗、黑暗的仪式，以及在乱世中求生的残酷现实。
@@ -1558,143 +1558,143 @@
 - 游戏内容（文本）可能包含恐怖、血腥与暴力场景。这一切旨在为玩家带来深度沉浸式的体验。
 - 注意！请你接受以上设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row customHeight="true" ht="42" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
         <v>黑火印记;粗布牢服</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>### 环境
 - 你 在昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
 ### 事件
 - 你缓缓睁开眼睛，意识逐渐恢复。你难以回忆起任何事情。
 - 牢房的 铁栏门 似乎已经被破坏打开。上挂着一块腐化的木牌上写着：“火十一”。也许这就是你的名字？或者是这个地方的名字？</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1" t="str">
+      <c r="K5" s="1"/>
+      <c r="L5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="1" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>### 环境
 - 昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
 ### 事件
 - 人物.火十一，他醒来了。
 - 牢房的 铁栏门 似乎已经被破坏打开。</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="L6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="P6" s="1"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>### 环境
 - 四周立着几根高大的石柱，柱顶燃烧着火焰，散发出幽暗的红光，照亮了整个房间。
 ### 补充规则
 - 如果任何角色进入此场景，你就会对其低语(WhisperAction)，试图吓走对方。</v>
       </c>
-      <c r="L7" s="2" t="str">
+      <c r="L7" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1743,218 +1743,218 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>8100</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="I2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>8101</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="I3" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>8102</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>8103</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>8104</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>8105</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>stage_name_cell_fire11</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="1" t="str">
         <v>昏暗潮湿的牢房。空气弥漫着发霉的味道，混杂着血腥和腐烂的气息，令人作呕。
 墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍。
 石墙的缝隙中透出微弱的冷风。
@@ -1964,33 +1964,33 @@
 墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。
 角落里的石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙。</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D10" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>8106</v>
       </c>
-      <c r="F10" s="2" t="str">
+      <c r="F10" s="1" t="str">
         <v>/stage/stage_name_cell_fire11</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template.md</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>stage_name_zone_fire</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="2" t="str">
         <v>墙壁和天花板都由厚重的岩石构成，表面焦黑斑驳。
 地面上散落着焦黑的灰烬、燃烧过的木炭和烧焦的尸体，有些尸体还能看出人形，而另一些已经扭曲变形，难以辨认。
 四处摆放着残破的金属器具，表面布满了因高温而变形的痕迹。铁锤、火钳等工具随意地丢弃在角落。
@@ -2000,22 +2000,22 @@
 空气中弥漫着刺鼻气味，混合着燃烧的皮肉和化学物质的味道。
 墙壁上有几处金属管道。</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>8107</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F11" s="1" t="str">
         <v>/stage/stage_name_zone_fire</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="G11" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" s="2" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template2.md</v>
       </c>
-      <c r="I11" s="1" t="str">
+      <c r="I11" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -2068,92 +2068,92 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>body</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -2173,40 +2173,40 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 例句：嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 例句：嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - 例句：（怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>8201</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -2221,39 +2221,39 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>1. 例句：吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 例句：吱吱吱～～（开心的摇尾巴）～～～～"
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>8202</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="3" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -2268,38 +2268,38 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- 例句：（阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>8203</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -2316,96 +2316,96 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>- 例句：（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>8204</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>8205</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>player_name_subject_fire11</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="1" t="str">
         <v>### 你的背景
 - 你是玩家操纵角色，不需要背景描述。</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="2" t="str">
         <v>- 注意：请根据你的 角色设定，自行发挥</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>8206</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="2" t="str">
         <v>/actor/player_name_subject_fire11</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" s="4" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
-      <c r="I12" s="1" t="str">
+      <c r="I12" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J12" s="2" t="str">
         <v>二十岁左右的男性人类。身材中等，不高不矮，看上去并不很强壮。
 眼睛是特殊的红色，面色呈现一种不健康的灰暗。
 胸前有黑色的印记，形状看上去犹如盘旋的黑色火焰。</v>
@@ -2461,280 +2461,280 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>Special</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>Special</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>炙热无比的长钩</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>0,0,10000,0</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很"锋利和尖锐"。</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>形状像断掉的手指的钥匙</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="1" t="str">
         <v>黑色长袍与斗篷。</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>黑火印记</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>mark_of_black_fire</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="1" t="str">
         <v>Special</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="1" t="str">
         <v>被诅咒之人的印记——盘旋的黑色火焰化作灭世的龙</v>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="E12" s="1" t="str">
         <v>胸前的印记，呈黑色，形状看上去犹如盘旋的黑色火焰</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>黄巾军长剑</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>huangjin_long_sword</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="1" t="str">
         <v>普通但可靠的剑，黄巾军中低阶军官的标准装备。这种剑由黄巾军内部的铁匠工坊铸造，材料虽不算上乘，但胜在耐用和易于维护。</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="E13" s="1" t="str">
         <v>剑身长约三尺，剑刃虽有些许磨损的痕迹，但依然锋利。剑柄包裹着简单的粗麻绳。剑鞘由黑色牛皮制成，质朴无华并不显眼。</v>
       </c>
-      <c r="F13" s="1" t="str">
+      <c r="F13" s="2" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="G13" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <v>黄巾军军官服</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>huangjin_officer_uniform</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="1" t="str">
         <v>黄巾军军官服是普通军官在行军作战时的常规装束，设计简洁实用，以便于在战场上行动自如。这套服装由耐磨的粗布制成，能够应对各种恶劣的环境，兼具一定的防护作用。</v>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="E14" s="1" t="str">
         <v>由深黄色的粗布制成，整体设计简朴且耐用。上衣为束腰的短袍，配有几道简单的绣纹装饰，袖口较窄，便于行动。腰间系着一条宽厚的布带，用以固定短刀或其他小物件。下装是宽松的裤子，裤腿绑着布条，以防止绊脚。脚上穿着一双结实的草鞋，适合在各种地形上行走。整套装束并无多余的装饰。</v>
       </c>
-      <c r="F14" s="1" t="str">
+      <c r="F14" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G14" s="1" t="str">
+      <c r="G14" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2742,22 +2742,22 @@
       <c r="A15" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>coarse_prison_uniform</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D15" s="1" t="str">
+      <c r="D15" s="2" t="str">
         <v>粗布牢服是秘密监狱中囚犯的标准服装，由廉价且耐磨的粗布制成。服装设计简陋，只为满足基本的保暖和遮体需求。上面有一些“奇特的符号”</v>
       </c>
-      <c r="E15" s="1" t="str">
+      <c r="E15" s="2" t="str">
         <v>由深灰色的粗糙麻布制成，布料质地粗糙，表面有明显的纺织纹理和磨损痕迹。衣领低矮，袖子宽大且略显破旧，袖口处甚至还有几道撕裂的口子。服装的前襟和后背上用粗线绣着几个简单的符号，线迹不规整，仿佛是仓促中加上的。衣服的下摆长及膝盖，边缘已经磨损得参差不齐，显现出长期使用的痕迹</v>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="F15" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2792,80 +2792,80 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>world_appearance_system</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8300</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>/worldsystems/world_appearance_system</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>sys_templates/three_kingdoms_world_system_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>world_skill_system</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>- 你的功能是：根据我给你输入的信息，来判断是否可以释放技能和技能释放的效果。</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>8301</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>/worldsystems/world_skill_system</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>sys_templates/three_kingdoms_world_system_sys_prompt_template.md</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={0F326A1F-CE67-46E4-B497-E61E318BBDE9}</author>
-    <author>tc={FECD971C-28CA-4904-ABF8-E84A5C4A3F7C}</author>
-    <author>tc={01DAE7ED-A296-4A32-831E-B367F36ED8ED}</author>
-    <author>tc={30ED67B9-0102-4E47-9017-9A4FACF90B44}</author>
-    <author>tc={90C38EAB-60BF-4893-B8F3-F0B2150D3426}</author>
-    <author>tc={2C3FA33C-FB37-49D1-9344-0325F2E37D4D}</author>
+    <author>tc={32422CBD-9C79-452D-9E3C-B4F703381084}</author>
+    <author>tc={BF92AEB7-FE4D-47C9-9B67-93AC3AAE3565}</author>
+    <author>tc={BDC19DAC-9D8C-4755-A51A-D3A2D8C09BCE}</author>
+    <author>tc={9F43E3C2-6E92-4ED6-A96C-15A9C503E822}</author>
+    <author>tc={B7C21719-E9BB-4833-AD50-ECA12D328BFC}</author>
+    <author>tc={D4ECC7F0-5504-41BE-9D19-7B171831C76C}</author>
   </authors>
   <commentList>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{0F326A1F-CE67-46E4-B497-E61E318BBDE9}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{FECD971C-28CA-4904-ABF8-E84A5C4A3F7C}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{32422CBD-9C79-452D-9E3C-B4F703381084}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{01DAE7ED-A296-4A32-831E-B367F36ED8ED}">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{BF92AEB7-FE4D-47C9-9B67-93AC3AAE3565}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{BDC19DAC-9D8C-4755-A51A-D3A2D8C09BCE}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{30ED67B9-0102-4E47-9017-9A4FACF90B44}">
+    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{9F43E3C2-6E92-4ED6-A96C-15A9C503E822}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{90C38EAB-60BF-4893-B8F3-F0B2150D3426}">
+    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{B7C21719-E9BB-4833-AD50-ECA12D328BFC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="5" shapeId="0" xr:uid="{2C3FA33C-FB37-49D1-9344-0325F2E37D4D}">
+    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{D4ECC7F0-5504-41BE-9D19-7B171831C76C}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={30E52FBE-52B0-48D0-A9B1-85B1DC917C0D}</author>
+    <author>tc={3C625BB5-FF12-4BE8-8243-66D37CADB30B}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{30E52FBE-52B0-48D0-A9B1-85B1DC917C0D}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3C625BB5-FF12-4BE8-8243-66D37CADB30B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={533F8DA8-A280-4BB5-A958-2D2DFC827F38}</author>
-    <author>tc={40774EC8-73AB-4BB8-8427-3D3E56B8FD9B}</author>
-    <author>tc={651EA08B-5ABE-428C-ADEC-8F79850ECAC3}</author>
+    <author>tc={3ECAF16A-2417-40F5-9CFC-F78C436AA79E}</author>
+    <author>tc={D2315231-6E73-4CA3-9B13-E1BF7CC92BF1}</author>
+    <author>tc={50567962-F44C-4020-8DA3-496EA7F7C01A}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{533F8DA8-A280-4BB5-A958-2D2DFC827F38}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3ECAF16A-2417-40F5-9CFC-F78C436AA79E}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{D2315231-6E73-4CA3-9B13-E1BF7CC92BF1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{40774EC8-73AB-4BB8-8427-3D3E56B8FD9B}">
+    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{50567962-F44C-4020-8DA3-496EA7F7C01A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{651EA08B-5ABE-428C-ADEC-8F79850ECAC3}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
   </commentList>
@@ -306,8 +306,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" userId="S::::1558cbf5-1816-44dc-a5e5-03d1c2284988" providerId="AD"/>
-  <person displayName="侯清辰" id="{484788B5-AF2F-4088-BB35-18A43CCF08A9}" userId="S::::4a02a03c-2c1a-476a-81d0-e86df69fbc5c" providerId="AD"/>
+  <person displayName="杨行" id="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" userId="S::::818b539d-5bb4-4a0c-82b8-68ae4b422687" providerId="AD"/>
+  <person displayName="侯清辰" id="{5E235D2F-ECFF-42E7-80E7-C22C5156CCC2}" userId="S::::5c0b2dc4-cab9-43bf-9900-2c2b77b6994b" providerId="AD"/>
 </personList>
 </file>
 
@@ -608,33 +608,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{0F326A1F-CE67-46E4-B497-E61E318BBDE9}" ref="H9" dT="2024-06-14T02:51:06" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{FECD971C-28CA-4904-ABF8-E84A5C4A3F7C}" ref="H6" dT="2024-06-14T02:50:34" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
+  <threadedComment id="{32422CBD-9C79-452D-9E3C-B4F703381084}" ref="H6" dT="2024-06-14T02:50:34" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{01DAE7ED-A296-4A32-831E-B367F36ED8ED}" ref="A4" dT="2024-05-28T04:59:59" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
+  <threadedComment id="{BF92AEB7-FE4D-47C9-9B67-93AC3AAE3565}" ref="K1" dT="2024-05-10T07:08:22" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{c0c57f11-1938-4efd-abb0-d4465c87c6f2}" ref="K1" dT="2024-06-19T05:39:57" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{BF92AEB7-FE4D-47C9-9B67-93AC3AAE3565}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{BDC19DAC-9D8C-4755-A51A-D3A2D8C09BCE}" ref="A4" dT="2024-05-28T04:59:59" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{30ED67B9-0102-4E47-9017-9A4FACF90B44}" ref="C2" dT="2024-06-14T02:49:51" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
+  <threadedComment id="{9F43E3C2-6E92-4ED6-A96C-15A9C503E822}" ref="C2" dT="2024-06-14T02:49:51" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{90C38EAB-60BF-4893-B8F3-F0B2150D3426}" ref="L1" dT="2024-05-31T03:31:01" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
+  <threadedComment id="{B7C21719-E9BB-4833-AD50-ECA12D328BFC}" ref="L1" dT="2024-05-31T03:31:01" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{2C3FA33C-FB37-49D1-9344-0325F2E37D4D}" ref="K1" dT="2024-05-10T07:08:22" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{98bdbfdb-194d-4ac6-9b09-4ad57ccc7f56}" ref="K1" dT="2024-06-19T05:39:57" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{2C3FA33C-FB37-49D1-9344-0325F2E37D4D}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
+  <threadedComment id="{D4ECC7F0-5504-41BE-9D19-7B171831C76C}" ref="H9" dT="2024-06-14T02:51:06" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{30E52FBE-52B0-48D0-A9B1-85B1DC917C0D}" ref="E1" dT="2024-06-09T13:30:31" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
+  <threadedComment id="{3C625BB5-FF12-4BE8-8243-66D37CADB30B}" ref="E1" dT="2024-06-09T13:30:31" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,14 +642,14 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{533F8DA8-A280-4BB5-A958-2D2DFC827F38}" ref="C6" dT="2024-06-14T02:49:20" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
+  <threadedComment id="{3ECAF16A-2417-40F5-9CFC-F78C436AA79E}" ref="E1" dT="2024-06-09T13:30:45" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
+    <text>@宾晓华 这里</text>
+  </threadedComment>
+  <threadedComment id="{D2315231-6E73-4CA3-9B13-E1BF7CC92BF1}" ref="C6" dT="2024-06-14T02:49:20" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{40774EC8-73AB-4BB8-8427-3D3E56B8FD9B}" ref="C5" dT="2024-06-14T02:48:45" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
+  <threadedComment id="{50567962-F44C-4020-8DA3-496EA7F7C01A}" ref="C5" dT="2024-06-14T02:48:45" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
-  </threadedComment>
-  <threadedComment id="{651EA08B-5ABE-428C-ADEC-8F79850ECAC3}" ref="E1" dT="2024-06-09T13:30:45" personId="{19D29D3C-F874-4012-81E2-0EEC1BDD4269}" parentId="{}">
-    <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
 </file>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={32422CBD-9C79-452D-9E3C-B4F703381084}</author>
-    <author>tc={BF92AEB7-FE4D-47C9-9B67-93AC3AAE3565}</author>
-    <author>tc={BDC19DAC-9D8C-4755-A51A-D3A2D8C09BCE}</author>
-    <author>tc={9F43E3C2-6E92-4ED6-A96C-15A9C503E822}</author>
-    <author>tc={B7C21719-E9BB-4833-AD50-ECA12D328BFC}</author>
-    <author>tc={D4ECC7F0-5504-41BE-9D19-7B171831C76C}</author>
+    <author>tc={7D501B52-DC02-44C4-9B02-7AD656B4FB3E}</author>
+    <author>tc={BD376292-4D42-4FB1-AF7C-7392910B0329}</author>
+    <author>tc={90CEA191-985C-46B7-93BA-DB4AFB3DE5BF}</author>
+    <author>tc={2A7EE3B0-8F35-4846-9BB8-FEE5A28CDD0E}</author>
+    <author>tc={AD606BDD-E966-4943-A596-334227CFAA55}</author>
+    <author>tc={66C69637-A96E-4C87-86DF-FB5CC08EDA1A}</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{32422CBD-9C79-452D-9E3C-B4F703381084}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{7D501B52-DC02-44C4-9B02-7AD656B4FB3E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{BF92AEB7-FE4D-47C9-9B67-93AC3AAE3565}">
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{BD376292-4D42-4FB1-AF7C-7392910B0329}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{90CEA191-985C-46B7-93BA-DB4AFB3DE5BF}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{BDC19DAC-9D8C-4755-A51A-D3A2D8C09BCE}">
+    <comment ref="H9" authorId="3" shapeId="0" xr:uid="{2A7EE3B0-8F35-4846-9BB8-FEE5A28CDD0E}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{9F43E3C2-6E92-4ED6-A96C-15A9C503E822}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{B7C21719-E9BB-4833-AD50-ECA12D328BFC}">
+    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{AD606BDD-E966-4943-A596-334227CFAA55}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{D4ECC7F0-5504-41BE-9D19-7B171831C76C}">
+    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{66C69637-A96E-4C87-86DF-FB5CC08EDA1A}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3C625BB5-FF12-4BE8-8243-66D37CADB30B}</author>
+    <author>tc={6981A968-CCCF-41E9-8F57-37DADF71FB5D}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3C625BB5-FF12-4BE8-8243-66D37CADB30B}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{6981A968-CCCF-41E9-8F57-37DADF71FB5D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3ECAF16A-2417-40F5-9CFC-F78C436AA79E}</author>
-    <author>tc={D2315231-6E73-4CA3-9B13-E1BF7CC92BF1}</author>
-    <author>tc={50567962-F44C-4020-8DA3-496EA7F7C01A}</author>
+    <author>tc={58B64131-B0CA-4699-BAA8-831DEE1031CD}</author>
+    <author>tc={88431A2E-81BB-48DC-A9A5-256457A2975F}</author>
+    <author>tc={CDC18E75-20AC-4CDC-A9F2-6DE8E19B3FEB}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3ECAF16A-2417-40F5-9CFC-F78C436AA79E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{D2315231-6E73-4CA3-9B13-E1BF7CC92BF1}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{58B64131-B0CA-4699-BAA8-831DEE1031CD}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{50567962-F44C-4020-8DA3-496EA7F7C01A}">
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{88431A2E-81BB-48DC-A9A5-256457A2975F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{CDC18E75-20AC-4CDC-A9F2-6DE8E19B3FEB}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
   </commentList>
@@ -155,6 +155,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -170,13 +177,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -276,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
@@ -285,7 +285,7 @@
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,8 +306,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" userId="S::::818b539d-5bb4-4a0c-82b8-68ae4b422687" providerId="AD"/>
-  <person displayName="侯清辰" id="{5E235D2F-ECFF-42E7-80E7-C22C5156CCC2}" userId="S::::5c0b2dc4-cab9-43bf-9900-2c2b77b6994b" providerId="AD"/>
+  <person displayName="杨行" id="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" userId="S::::125bec33-7572-4738-88bc-45f4a693ad17" providerId="AD"/>
+  <person displayName="侯清辰" id="{19D3D82B-CEFF-45EC-98B6-2DF86122F72D}" userId="S::::7f0d0df8-8a05-4783-960d-d707c7b9151e" providerId="AD"/>
 </personList>
 </file>
 
@@ -608,33 +608,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{32422CBD-9C79-452D-9E3C-B4F703381084}" ref="H6" dT="2024-06-14T02:50:34" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
+  <threadedComment id="{7D501B52-DC02-44C4-9B02-7AD656B4FB3E}" ref="H6" dT="2024-06-14T02:50:34" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{BF92AEB7-FE4D-47C9-9B67-93AC3AAE3565}" ref="K1" dT="2024-05-10T07:08:22" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
+  <threadedComment id="{BD376292-4D42-4FB1-AF7C-7392910B0329}" ref="C2" dT="2024-06-14T02:49:51" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{90CEA191-985C-46B7-93BA-DB4AFB3DE5BF}" ref="K1" dT="2024-05-10T07:08:22" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{c0c57f11-1938-4efd-abb0-d4465c87c6f2}" ref="K1" dT="2024-06-19T05:39:57" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{BF92AEB7-FE4D-47C9-9B67-93AC3AAE3565}">
+  <threadedComment id="{f38cd6dd-e649-4eda-9ae0-0f4e7500bece}" ref="K1" dT="2024-06-19T05:39:57" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{90CEA191-985C-46B7-93BA-DB4AFB3DE5BF}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{BDC19DAC-9D8C-4755-A51A-D3A2D8C09BCE}" ref="A4" dT="2024-05-28T04:59:59" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  <threadedComment id="{2A7EE3B0-8F35-4846-9BB8-FEE5A28CDD0E}" ref="H9" dT="2024-06-14T02:51:06" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{9F43E3C2-6E92-4ED6-A96C-15A9C503E822}" ref="C2" dT="2024-06-14T02:49:51" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{B7C21719-E9BB-4833-AD50-ECA12D328BFC}" ref="L1" dT="2024-05-31T03:31:01" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
+  <threadedComment id="{AD606BDD-E966-4943-A596-334227CFAA55}" ref="L1" dT="2024-05-31T03:31:01" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{D4ECC7F0-5504-41BE-9D19-7B171831C76C}" ref="H9" dT="2024-06-14T02:51:06" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  <threadedComment id="{66C69637-A96E-4C87-86DF-FB5CC08EDA1A}" ref="A4" dT="2024-05-28T04:59:59" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{3C625BB5-FF12-4BE8-8243-66D37CADB30B}" ref="E1" dT="2024-06-09T13:30:31" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
+  <threadedComment id="{6981A968-CCCF-41E9-8F57-37DADF71FB5D}" ref="E1" dT="2024-06-09T13:30:31" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,14 +642,14 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{3ECAF16A-2417-40F5-9CFC-F78C436AA79E}" ref="E1" dT="2024-06-09T13:30:45" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
-    <text>@宾晓华 这里</text>
-  </threadedComment>
-  <threadedComment id="{D2315231-6E73-4CA3-9B13-E1BF7CC92BF1}" ref="C6" dT="2024-06-14T02:49:20" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
+  <threadedComment id="{58B64131-B0CA-4699-BAA8-831DEE1031CD}" ref="C6" dT="2024-06-14T02:49:20" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{50567962-F44C-4020-8DA3-496EA7F7C01A}" ref="C5" dT="2024-06-14T02:48:45" personId="{836A9D7F-21B4-45F4-A469-0A4635EE3A6B}" parentId="{}">
+  <threadedComment id="{88431A2E-81BB-48DC-A9A5-256457A2975F}" ref="C5" dT="2024-06-14T02:48:45" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  </threadedComment>
+  <threadedComment id="{CDC18E75-20AC-4CDC-A9F2-6DE8E19B3FEB}" ref="E1" dT="2024-06-09T13:30:45" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
+    <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -688,30 +688,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -769,160 +769,160 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="2" t="str">
+      <c r="R1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2" t="str">
+      <c r="K4" s="2"/>
+      <c r="L4" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="L5" s="1" t="str">
+      <c r="J5" s="2"/>
+      <c r="L5" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="P5" s="2" t="str">
+      <c r="P5" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -934,55 +934,55 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="L6" s="1" t="str">
+      <c r="L6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="L7" s="1" t="str">
+      <c r="J7" s="1"/>
+      <c r="L7" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="str">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="O7" s="2" t="str">
+      <c r="O7" s="1" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="P7" s="6" t="str">
+      <c r="P7" s="3" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1035,211 +1035,211 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="4" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="1" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="1" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="1" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="1" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="1" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="2" t="str">
+      <c r="R1" s="1" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="str">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4" t="str">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="6" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2" t="str">
+      <c r="K5" s="2"/>
+      <c r="L5" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2" t="str">
+      <c r="K6" s="2"/>
+      <c r="L6" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="str">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1247,42 +1247,42 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2" t="str">
+      <c r="K7" s="2"/>
+      <c r="L7" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="H8" s="1" t="str">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="H8" s="2" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2" t="str">
+      <c r="K8" s="2"/>
+      <c r="L8" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="H9" s="1" t="str">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="H9" s="2" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1290,153 +1290,153 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="2" t="str">
+      <c r="K9" s="2"/>
+      <c r="L9" s="1" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="str">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="L10" s="1" t="str">
+      <c r="J10" s="2"/>
+      <c r="L10" s="2" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N10" s="2" t="str">
+      <c r="N10" s="1" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="P10" s="2" t="str">
+      <c r="P10" s="1" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="str">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" s="2" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="L11" s="1" t="str">
+      <c r="L11" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="str">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="H12" s="2" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="L12" s="1" t="str">
+      <c r="L12" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="str">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="str">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="L13" s="1" t="str">
+      <c r="L13" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="str">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I14" s="2" t="str">
+      <c r="I14" s="1" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="L14" s="1" t="str">
+      <c r="J14" s="1"/>
+      <c r="L14" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="2" t="str">
         <v>圣灰园正门前广场（忽略）</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="str">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="2" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="I15" s="2" t="str">
+      <c r="I15" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="L15" s="1" t="str">
+      <c r="J15" s="1"/>
+      <c r="L15" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1477,80 +1477,56 @@
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="102"/>
     <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="84"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="76"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="14"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="2" t="str">
-        <v>stage_entry_status</v>
-      </c>
-      <c r="N1" s="2" t="str">
-        <v>stage_entry_actor_status</v>
-      </c>
-      <c r="O1" s="2" t="str">
-        <v>stage_entry_actor_props</v>
-      </c>
-      <c r="P1" s="2" t="str">
-        <v>stage_exit_status</v>
-      </c>
-      <c r="Q1" s="2" t="str">
-        <v>stage_exit_actor_status</v>
-      </c>
-      <c r="R1" s="2" t="str">
-        <v>stage_exit_actor_props</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>- 本游戏以中国历史中的三国时代（借鉴小说《三国演义》）为背景的 历史奇幻类 角色扮演游戏。
 - 本游戏融合了历史的真实感与奇幻元素。以“架空”的三国时代为背景。
 - 玩家和你将沉浸在一个充满战争、权谋、超自然恐怖与英雄主义的世界中。在复杂的联盟与背叛中穿梭，你们将面对激烈的战斗、黑暗的仪式，以及在乱世中求生的残酷现实。
@@ -1558,143 +1534,130 @@
 - 游戏内容（文本）可能包含恐怖、血腥与暴力场景。这一切旨在为玩家带来深度沉浸式的体验。
 - 注意！请你接受以上设定。</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row customHeight="true" ht="42" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
         <v>黑火印记;粗布牢服</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>### 环境
 - 你 在昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
 ### 事件
 - 你缓缓睁开眼睛，意识逐渐恢复。你难以回忆起任何事情。
 - 牢房的 铁栏门 似乎已经被破坏打开。上挂着一块腐化的木牌上写着：“火十一”。也许这就是你的名字？或者是这个地方的名字？</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2" t="str">
+      <c r="K5" s="2"/>
+      <c r="L5" s="1" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="G6" s="2" t="str">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="1" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>### 环境
 - 昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
 ### 事件
 - 人物.火十一，他醒来了。
 - 牢房的 铁栏门 似乎已经被破坏打开。</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="J6" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="L6" s="1" t="str">
+      <c r="L6" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="P6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>### 环境
 - 四周立着几根高大的石柱，柱顶燃烧着火焰，散发出幽暗的红光，照亮了整个房间。
 ### 补充规则
 - 如果任何角色进入此场景，你就会对其低语(WhisperAction)，试图吓走对方。</v>
       </c>
-      <c r="L7" s="1" t="str">
+      <c r="L7" s="2" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1743,218 +1706,218 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>8100</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>8101</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>8102</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>8103</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>8104</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>8105</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row r="10">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>stage_name_cell_fire11</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="2" t="str">
         <v>昏暗潮湿的牢房。空气弥漫着发霉的味道，混杂着血腥和腐烂的气息，令人作呕。
 墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍。
 石墙的缝隙中透出微弱的冷风。
@@ -1964,33 +1927,33 @@
 墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。
 角落里的石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙。</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>8106</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="2" t="str">
         <v>/stage/stage_name_cell_fire11</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template.md</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="I10" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="2" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>stage_name_zone_fire</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="1" t="str">
         <v>墙壁和天花板都由厚重的岩石构成，表面焦黑斑驳。
 地面上散落着焦黑的灰烬、燃烧过的木炭和烧焦的尸体，有些尸体还能看出人形，而另一些已经扭曲变形，难以辨认。
 四处摆放着残破的金属器具，表面布满了因高温而变形的痕迹。铁锤、火钳等工具随意地丢弃在角落。
@@ -2000,22 +1963,22 @@
 空气中弥漫着刺鼻气味，混合着燃烧的皮肉和化学物质的味道。
 墙壁上有几处金属管道。</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="1" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>8107</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="F11" s="2" t="str">
         <v>/stage/stage_name_zone_fire</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="1" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template2.md</v>
       </c>
-      <c r="I11" s="2" t="str">
+      <c r="I11" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -2068,92 +2031,92 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>body</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="6" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="6" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -2173,40 +2136,40 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 例句：嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 例句：嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - 例句：（怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="6" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -2221,39 +2184,39 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>1. 例句：吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 例句：吱吱吱～～（开心的摇尾巴）～～～～"
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="6" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -2268,38 +2231,38 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- 例句：（阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="6" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="6" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -2316,96 +2279,96 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>- 例句：（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="6" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="2" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="6" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="I9" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="2" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>player_name_subject_fire11</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="2" t="str">
         <v>### 你的背景
 - 你是玩家操纵角色，不需要背景描述。</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="1" t="str">
         <v>- 注意：请根据你的 角色设定，自行发挥</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>8206</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="1" t="str">
         <v>/actor/player_name_subject_fire11</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="4" t="str">
+      <c r="H12" s="6" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
-      <c r="I12" s="2" t="str">
+      <c r="I12" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="J12" s="1" t="str">
         <v>二十岁左右的男性人类。身材中等，不高不矮，看上去并不很强壮。
 眼睛是特殊的红色，面色呈现一种不健康的灰暗。
 胸前有黑色的印记，形状看上去犹如盘旋的黑色火焰。</v>
@@ -2461,280 +2424,280 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>appearance</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>attributes</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>Special</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>Special</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>炙热无比的长钩</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>0,0,10000,0</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很"锋利和尖锐"。</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>形状像断掉的手指的钥匙</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="2" t="str">
         <v>黑色长袍与斗篷。</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>黑火印记</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>mark_of_black_fire</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="2" t="str">
         <v>Special</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="2" t="str">
         <v>被诅咒之人的印记——盘旋的黑色火焰化作灭世的龙</v>
       </c>
-      <c r="E12" s="1" t="str">
+      <c r="E12" s="2" t="str">
         <v>胸前的印记，呈黑色，形状看上去犹如盘旋的黑色火焰</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="1" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>黄巾军长剑</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>huangjin_long_sword</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="2" t="str">
         <v>Weapon</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="2" t="str">
         <v>普通但可靠的剑，黄巾军中低阶军官的标准装备。这种剑由黄巾军内部的铁匠工坊铸造，材料虽不算上乘，但胜在耐用和易于维护。</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E13" s="2" t="str">
         <v>剑身长约三尺，剑刃虽有些许磨损的痕迹，但依然锋利。剑柄包裹着简单的粗麻绳。剑鞘由黑色牛皮制成，质朴无华并不显眼。</v>
       </c>
-      <c r="F13" s="2" t="str">
+      <c r="F13" s="1" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="G13" s="2" t="str">
+      <c r="G13" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="2" t="str">
         <v>黄巾军军官服</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <v>huangjin_officer_uniform</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D14" s="1" t="str">
+      <c r="D14" s="2" t="str">
         <v>黄巾军军官服是普通军官在行军作战时的常规装束，设计简洁实用，以便于在战场上行动自如。这套服装由耐磨的粗布制成，能够应对各种恶劣的环境，兼具一定的防护作用。</v>
       </c>
-      <c r="E14" s="1" t="str">
+      <c r="E14" s="2" t="str">
         <v>由深黄色的粗布制成，整体设计简朴且耐用。上衣为束腰的短袍，配有几道简单的绣纹装饰，袖口较窄，便于行动。腰间系着一条宽厚的布带，用以固定短刀或其他小物件。下装是宽松的裤子，裤腿绑着布条，以防止绊脚。脚上穿着一双结实的草鞋，适合在各种地形上行走。整套装束并无多余的装饰。</v>
       </c>
-      <c r="F14" s="2" t="str">
+      <c r="F14" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G14" s="2" t="str">
+      <c r="G14" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2742,22 +2705,22 @@
       <c r="A15" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>coarse_prison_uniform</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="2" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="1" t="str">
         <v>粗布牢服是秘密监狱中囚犯的标准服装，由廉价且耐磨的粗布制成。服装设计简陋，只为满足基本的保暖和遮体需求。上面有一些“奇特的符号”</v>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="E15" s="1" t="str">
         <v>由深灰色的粗糙麻布制成，布料质地粗糙，表面有明显的纺织纹理和磨损痕迹。衣领低矮，袖子宽大且略显破旧，袖口处甚至还有几道撕裂的口子。服装的前襟和后背上用粗线绣着几个简单的符号，线迹不规整，仿佛是仓促中加上的。衣服的下摆长及膝盖，边缘已经磨损得参差不齐，显现出长期使用的痕迹</v>
       </c>
-      <c r="F15" s="2" t="str">
+      <c r="F15" s="1" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2792,80 +2755,80 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>world_appearance_system</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8300</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>/worldsystems/world_appearance_system</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>sys_templates/three_kingdoms_world_system_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>world_skill_system</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>- 你的功能是：根据我给你输入的信息，来判断是否可以释放技能和技能释放的效果。</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>8301</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>/worldsystems/world_skill_system</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>sys_templates/three_kingdoms_world_system_sys_prompt_template.md</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7D501B52-DC02-44C4-9B02-7AD656B4FB3E}</author>
-    <author>tc={BD376292-4D42-4FB1-AF7C-7392910B0329}</author>
-    <author>tc={90CEA191-985C-46B7-93BA-DB4AFB3DE5BF}</author>
-    <author>tc={2A7EE3B0-8F35-4846-9BB8-FEE5A28CDD0E}</author>
-    <author>tc={AD606BDD-E966-4943-A596-334227CFAA55}</author>
-    <author>tc={66C69637-A96E-4C87-86DF-FB5CC08EDA1A}</author>
+    <author>tc={2938858B-97DB-4B32-A803-D1739169C695}</author>
+    <author>tc={CB71DAAE-6F8F-4D94-A5F5-17C913A588B3}</author>
+    <author>tc={3B747388-1992-4DAF-BCDB-AC669B9CEA24}</author>
+    <author>tc={B4015FED-99EF-4D0F-BD42-B1DB913A5CCD}</author>
+    <author>tc={8595B3E7-8165-41FA-999E-293A6D0984B5}</author>
+    <author>tc={4FF84B81-4004-4EA2-9D59-10FC6760B94D}</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{7D501B52-DC02-44C4-9B02-7AD656B4FB3E}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{2938858B-97DB-4B32-A803-D1739169C695}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{BD376292-4D42-4FB1-AF7C-7392910B0329}">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{CB71DAAE-6F8F-4D94-A5F5-17C913A588B3}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{90CEA191-985C-46B7-93BA-DB4AFB3DE5BF}">
+    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{3B747388-1992-4DAF-BCDB-AC669B9CEA24}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{B4015FED-99EF-4D0F-BD42-B1DB913A5CCD}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{8595B3E7-8165-41FA-999E-293A6D0984B5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="3" shapeId="0" xr:uid="{2A7EE3B0-8F35-4846-9BB8-FEE5A28CDD0E}">
+    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{4FF84B81-4004-4EA2-9D59-10FC6760B94D}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{AD606BDD-E966-4943-A596-334227CFAA55}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{66C69637-A96E-4C87-86DF-FB5CC08EDA1A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={6981A968-CCCF-41E9-8F57-37DADF71FB5D}</author>
+    <author>tc={DCE6BAC6-3C8F-49A2-85E5-33B7634C44C3}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{6981A968-CCCF-41E9-8F57-37DADF71FB5D}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DCE6BAC6-3C8F-49A2-85E5-33B7634C44C3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={58B64131-B0CA-4699-BAA8-831DEE1031CD}</author>
-    <author>tc={88431A2E-81BB-48DC-A9A5-256457A2975F}</author>
-    <author>tc={CDC18E75-20AC-4CDC-A9F2-6DE8E19B3FEB}</author>
+    <author>tc={31C32270-8F86-47AA-925D-5D8B2F2374D0}</author>
+    <author>tc={634AED70-7644-450E-894A-9CE86D165B9B}</author>
+    <author>tc={330B65F1-64EF-4A12-8054-5CE7B43F6EAE}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{58B64131-B0CA-4699-BAA8-831DEE1031CD}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{88431A2E-81BB-48DC-A9A5-256457A2975F}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{31C32270-8F86-47AA-925D-5D8B2F2374D0}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{CDC18E75-20AC-4CDC-A9F2-6DE8E19B3FEB}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{634AED70-7644-450E-894A-9CE86D165B9B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{330B65F1-64EF-4A12-8054-5CE7B43F6EAE}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
   </commentList>
@@ -155,14 +155,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -276,16 +276,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,8 +306,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" userId="S::::125bec33-7572-4738-88bc-45f4a693ad17" providerId="AD"/>
-  <person displayName="侯清辰" id="{19D3D82B-CEFF-45EC-98B6-2DF86122F72D}" userId="S::::7f0d0df8-8a05-4783-960d-d707c7b9151e" providerId="AD"/>
+  <person displayName="侯清辰" id="{9BB96769-0751-44C4-A757-841BFE65999B}" userId="S::::759bfd24-b761-48e8-b5f5-bd97238831b8" providerId="AD"/>
+  <person displayName="杨行" id="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" userId="S::::4278763f-b061-4276-ad0a-12440afece9b" providerId="AD"/>
 </personList>
 </file>
 
@@ -608,33 +608,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{7D501B52-DC02-44C4-9B02-7AD656B4FB3E}" ref="H6" dT="2024-06-14T02:50:34" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
+  <threadedComment id="{2938858B-97DB-4B32-A803-D1739169C695}" ref="H6" dT="2024-06-14T02:50:34" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{BD376292-4D42-4FB1-AF7C-7392910B0329}" ref="C2" dT="2024-06-14T02:49:51" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  <threadedComment id="{CB71DAAE-6F8F-4D94-A5F5-17C913A588B3}" ref="L1" dT="2024-05-31T03:31:01" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{90CEA191-985C-46B7-93BA-DB4AFB3DE5BF}" ref="K1" dT="2024-05-10T07:08:22" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
+  <threadedComment id="{3B747388-1992-4DAF-BCDB-AC669B9CEA24}" ref="H9" dT="2024-06-14T02:51:06" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{B4015FED-99EF-4D0F-BD42-B1DB913A5CCD}" ref="A4" dT="2024-05-28T04:59:59" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{8595B3E7-8165-41FA-999E-293A6D0984B5}" ref="K1" dT="2024-05-10T07:08:22" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{f38cd6dd-e649-4eda-9ae0-0f4e7500bece}" ref="K1" dT="2024-06-19T05:39:57" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{90CEA191-985C-46B7-93BA-DB4AFB3DE5BF}">
+  <threadedComment id="{aab23cca-b7b6-4245-a60c-dd7937082c82}" ref="K1" dT="2024-06-19T05:39:57" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{8595B3E7-8165-41FA-999E-293A6D0984B5}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{2A7EE3B0-8F35-4846-9BB8-FEE5A28CDD0E}" ref="H9" dT="2024-06-14T02:51:06" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{AD606BDD-E966-4943-A596-334227CFAA55}" ref="L1" dT="2024-05-31T03:31:01" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{66C69637-A96E-4C87-86DF-FB5CC08EDA1A}" ref="A4" dT="2024-05-28T04:59:59" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  <threadedComment id="{4FF84B81-4004-4EA2-9D59-10FC6760B94D}" ref="C2" dT="2024-06-14T02:49:51" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{6981A968-CCCF-41E9-8F57-37DADF71FB5D}" ref="E1" dT="2024-06-09T13:30:31" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
+  <threadedComment id="{DCE6BAC6-3C8F-49A2-85E5-33B7634C44C3}" ref="E1" dT="2024-06-09T13:30:31" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,14 +642,14 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{58B64131-B0CA-4699-BAA8-831DEE1031CD}" ref="C6" dT="2024-06-14T02:49:20" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
-  </threadedComment>
-  <threadedComment id="{88431A2E-81BB-48DC-A9A5-256457A2975F}" ref="C5" dT="2024-06-14T02:48:45" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
+  <threadedComment id="{31C32270-8F86-47AA-925D-5D8B2F2374D0}" ref="C5" dT="2024-06-14T02:48:45" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{CDC18E75-20AC-4CDC-A9F2-6DE8E19B3FEB}" ref="E1" dT="2024-06-09T13:30:45" personId="{3C37AC6E-B48A-458C-B8A3-486A39FE2548}" parentId="{}">
+  <threadedComment id="{634AED70-7644-450E-894A-9CE86D165B9B}" ref="E1" dT="2024-06-09T13:30:45" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
     <text>@宾晓华 这里</text>
+  </threadedComment>
+  <threadedComment id="{330B65F1-64EF-4A12-8054-5CE7B43F6EAE}" ref="C6" dT="2024-06-14T02:49:20" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -688,30 +688,30 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Stage，NPC，Prop均当作“数据库”用</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -769,160 +769,160 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="1" t="str">
+      <c r="R1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <v>不死者印记#77;破旧的衣服#88;腐朽的匕首#99</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="1" t="str">
+      <c r="K4" s="1"/>
+      <c r="L4" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="L5" s="2" t="str">
+      <c r="J5" s="1"/>
+      <c r="L5" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="P5" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
@@ -934,55 +934,55 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="str">
         <v>墓地里静悄悄</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="L6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="L7" s="2" t="str">
+      <c r="J7" s="2"/>
+      <c r="L7" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="str">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="str">
         <v>- 要求进入者必须是人类
 - 但是如果是灰面紫瞳的不死人，就不允许进入</v>
       </c>
-      <c r="O7" s="1" t="str">
+      <c r="O7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="P7" s="3" t="str">
+      <c r="P7" s="6" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1035,211 +1035,211 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="4" t="str">
+      <c r="J1" s="5" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>stage_entry_status</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>stage_entry_actor_status</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>stage_entry_actor_props</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>stage_exit_status</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>stage_exit_actor_status</v>
       </c>
-      <c r="R1" s="1" t="str">
+      <c r="R1" s="2" t="str">
         <v>stage_exit_actor_props</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>## 游戏风格声明
 - 游戏内容可能包含恐怖、血腥与暴力，旨在提供深入的沉浸式体验。
 - 本作假设所有世界运行规律为不证自明，要求你全盘接受设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="str">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="5" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="str">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="6" t="str">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
         <v>不死者印记#11;破旧的衣服#22;腐朽的匕首#33</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>不死者印记;破旧的衣服;腐朽的匕首</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>- 你从沉睡中醒来，并发现自己在一个封闭而狭窄的空间里，环境显得异常阴暗，仅有微弱的光线透过缝隙勉强照亮了内部。
 - 你难以回忆起任何事情。你只能回忆起，现在所处的封闭空间叫 禁言铁棺。
 - 也许你可以从‘身上’或者‘周围’找到尖锐之物来撬动缝隙？也许这是逃出去的办法？</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1" t="str">
+      <c r="K5" s="1"/>
+      <c r="L5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>- 你在灰颜墓地，盯着格雷与他的狗——摩尔的一举一动。
 - 你知道的场景包括：灰颜墓地，熔炉广场，灰颜礼拜堂和腐臭地窖。
 - 你知道鼠王在沉睡。
 - 你发现有什么异常，你就会去往腐臭地窖并叫醒你的父亲 鼠王 来处理。</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1" t="str">
+      <c r="K6" s="1"/>
+      <c r="L6" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>守墓人的装束;断指钥匙</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <v>- 你在灰颜墓地，你的小狗——摩尔在你身边。
 - 你目前拥有道具：断指钥匙。你绝不会把断指钥匙给任何人。
 - 你知道只有断指钥匙可以打开灰颜礼拜堂的门，否则是进不去灰颜礼拜堂的。你自己也绝不会去灰颜礼拜堂。
@@ -1247,42 +1247,42 @@
 - 你更不会去腐臭地窖。因为你知道鼠王在其中沉睡，如果唤醒了它会很危险。上次鼠王苏醒，吃掉了圣灰园里除了你之外的所有活人。
 - 你知道圣灰园里有许多老鼠，他们都是鼠王的眼线（鼠王目前在沉睡）。所以你会更加谨慎，不要引起这些小老鼠的警觉</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1" t="str">
+      <c r="K7" s="1"/>
+      <c r="L7" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="H8" s="2" t="str">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="H8" s="1" t="str">
         <v>- 你在灰颜墓地，随着 格雷 
 - 你知道灰颜礼拜堂，熔炉广场与腐臭地窖在哪里。
 - 凭着狗狗的直觉，你知道腐臭地窖内有可怕的东西存在。</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1" t="str">
+      <c r="K8" s="1"/>
+      <c r="L8" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>Actor</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="H9" s="2" t="str">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="H9" s="1" t="str">
         <v>- 你在腐臭地窖，这是你的窝。
 - 你在沉睡，所以你暂时不会有任何行动，也不会离开腐臭地窖。
 - 你知道灰颜墓地，熔炉广场与灰颜礼拜堂这些地点。
@@ -1290,153 +1290,153 @@
 - 上次苏醒之时，你已经吃掉了‘圣灰园’所有的活人与活物。除了那个叫‘格雷’的人类，也许当时你只是心血来潮决定饶他一命（也许只是因为他看上去不好吃）。
 - 你派了你的子嗣——小灰鼠帕奇替你监视着一切。如果有什么异常，他会过来告诉你。那时，你将苏醒去消灭一切！</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1" t="str">
+      <c r="K9" s="1"/>
+      <c r="L9" s="2" t="str">
         <v>200,200,60,1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <v>- 一个人类—— 无名的复活者 在这里面沉睡。教廷制造你用于封印不死人。他便是你要封印的对象。无数的岁月过去了。
 - 如果他有说话的行为，你将会攻击他并用低语(WhisperActionComponent)的方式警告他，因为你的目的就是'禁言'。</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="I10" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="L10" s="2" t="str">
+      <c r="J10" s="1"/>
+      <c r="L10" s="1" t="str">
         <v>10000,10000,5,10000</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="N10" s="2" t="str">
         <v>- 进入场景的角色必须是人类
 - 而且必须具有 不死者印记</v>
       </c>
-      <c r="P10" s="1" t="str">
+      <c r="P10" s="2" t="str">
         <v>- 在有角色对你使用了‘锋利和尖锐’的物品之后，你就会产生缝隙，这样你内部的角色才可以离开。
 - 否则就不允许任何在你之中的角色离开。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="str">
         <v>格雷;摩尔;小灰鼠帕奇</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="1" t="str">
         <v>一个人类 格雷与他的狗 摩尔在此。小灰鼠帕奇藏在角落。</v>
       </c>
-      <c r="L11" s="2" t="str">
+      <c r="L11" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="1" t="str">
         <v>一只可怕的巨型老鼠——鼠王在睡觉。你是它的老巢。</v>
       </c>
-      <c r="L12" s="2" t="str">
+      <c r="L12" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="str">
         <v>炉钩#55</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="str">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="str">
         <v>炉火在熊熊燃烧。</v>
       </c>
-      <c r="L13" s="2" t="str">
+      <c r="L13" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="str">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="str">
         <v>厅堂里安静无比。</v>
       </c>
-      <c r="I14" s="1" t="str">
+      <c r="I14" s="2" t="str">
         <v>礼拜堂的密室</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="L14" s="2" t="str">
+      <c r="J14" s="2"/>
+      <c r="L14" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="1" t="str">
         <v>圣灰园正门前广场（忽略）</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="str">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="1" t="str">
         <v>正门前静悄悄。一个人类：教廷密使。正在正门前站着，似乎在想些什么。</v>
       </c>
-      <c r="I15" s="1" t="str">
+      <c r="I15" s="2" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="L15" s="2" t="str">
+      <c r="J15" s="2"/>
+      <c r="L15" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1475,58 +1475,54 @@
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="193"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="102"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="14"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>actor_prop</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>actor_current_using_prop</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>stage_prop</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>actors_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>kick_off_message</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>stage_graph</v>
       </c>
       <c r="K1" s="2" t="str">
-        <v>appearance</v>
-      </c>
-      <c r="L1" s="1" t="str">
         <v>attributes</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>测试的游戏介绍</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AboutGame</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>- 本游戏以中国历史中的三国时代（借鉴小说《三国演义》）为背景的 历史奇幻类 角色扮演游戏。
 - 本游戏融合了历史的真实感与奇幻元素。以“架空”的三国时代为背景。
 - 玩家和你将沉浸在一个充满战争、权谋、超自然恐怖与英雄主义的世界中。在复杂的联盟与背叛中穿梭，你们将面对激烈的战斗、黑暗的仪式，以及在乱世中求生的残酷现实。
@@ -1534,130 +1530,126 @@
 - 游戏内容（文本）可能包含恐怖、血腥与暴力场景。这一切旨在为玩家带来深度沉浸式的体验。
 - 注意！请你接受以上设定。</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row customHeight="true" ht="42" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Player</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
         <v>黑火印记;粗布牢服</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <v>### 环境
 - 你 在昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
 ### 事件
 - 你缓缓睁开眼睛，意识逐渐恢复。你难以回忆起任何事情。
 - 牢房的 铁栏门 似乎已经被破坏打开。上挂着一块腐化的木牌上写着：“火十一”。也许这就是你的名字？或者是这个地方的名字？</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1" t="str">
+      <c r="K5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="1" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <v>### 环境
 - 昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
 ### 事件
 - 人物.火十一，他醒来了。
 - 牢房的 铁栏门 似乎已经被破坏打开。</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="K6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>### 环境
 - 四周立着几根高大的石柱，柱顶燃烧着火焰，散发出幽暗的红光，照亮了整个房间。
 ### 补充规则
 - 如果任何角色进入此场景，你就会对其低语(WhisperAction)，试图吓走对方。</v>
       </c>
-      <c r="L7" s="2" t="str">
+      <c r="K7" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1706,218 +1698,218 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>禁言铁棺</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>coffin_of_the_silent_one</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>棺材内侧雕刻着精细而复杂的图案，看上去是古老的仪式、奇异的生物以及扭曲的符号交织在一起，仿佛讲述着一段段未被揭露的历史。其中一些图案隐约呈现出保护和守护的意象。棺材盖内侧刻有的文字仿佛充满魔力，闪烁着微弱的光芒。这些文字不属于任何现存的语言体系，似乎是某种古老文明的遗留，或许隐藏着关于秘密或是棺材本身的故事。棺材的构造显得坚固而沉重，棺木的材质看上去经历了长时间的岁月。棺材外部同样刻画着复杂的图案和符号，这些图案与内部的图案相呼应，但在细节上略显不同。棺材表面的木材因年代久远而显得磨损。棺材被放置在一个昏暗的空间内，四周环绕着厚重的石墙，这个空间似乎是某种古老建筑的一部分。棺材周围散落的古老文物和破碎的符文石块。</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>8100</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>/stage/coffin_of_the_silent_one</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="I2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>灰颜墓地</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>gray_cemetery</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>古老的石墙所围绕，石墙上覆盖着爬山虎和苔藓，厚重的迷雾几乎常年笼罩着这片土地，使得墓地内部的视线模糊，增添了一层不可知的神秘感。墓地内散布着无数的墓碑和纪念碑，有的简朴无名，有的则雕刻着复杂的象征图案和祭文。中央位置有一个特别的区域，那里放置着一些由教会管理的特殊墓穴（这些墓穴被特别标记）。阴影之中，有一个被遗忘的古老墓穴的入口，周围雕刻着保护符文和禁忌的标志，似乎有着某种特别的目的或含义。</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>8101</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>/stage/gray_cemetery</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="I3" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>熔炉广场</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>the_incinerator</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>位于圣灰园的后院，如今早已荒芜破败。整个广场布满了积灰和残枝败叶,一派凄凉之景。而在广场的正中矗立着一座壮观而又神秘的石质建筑——熔炉。熔炉的外形融合了尖塔和拱门的设计,仿佛是一座古老教堂的遗迹,却被赋予了全新的骇人用途。从它的深处不时冒出蔓延开来的浓烟,将整个广场笼罩在一种阴郁的氛围之中。走近这座熔炉,就能看到其入口处悬挂的古老符号和祈祷文,笼罩在一层不可名状的气息之下,仿佛是对那些即将化为灰烬的灵魂进行最后的诅咒。而在熔炉的四周,则整整齐齐地排列着一排排待处理的遗体,每一具都被安置在简陋的木制担架之上。这些遗体在熔炉火光的映衬下,投下了令人不寒而栗的阴影。有的面容平静,有的却是扭曲痛苦的神情,凝固在死亡将至的最后一刻。他们无声地讲述着被疫病和死亡折磨的故事,在等待着最后的归宿——化作灰烬。就这样,生与死的交界,在这座熔炉广场上赤裸裸地展现。火焰如同饥渴的野兽,永不知饱足地在熔炉内部跳动,等待着将这些不祥的遗体永永远远地吞噬。</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>8102</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>/stage/the_incinerator</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>灰颜礼拜堂</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>gray_chapel</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>这座礼拜堂的石制结构既古朴又神秘，侵蚀的石壁上刻画着不可名状的符号，仿佛是与另一个世界的连接。圆形的窗户显得异常窄小，投射进来的斑驳光影在礼拜堂内舞动，与沉寂的空气一同营造出一种不安的氛围。在这片被死亡笼罩的圣地中，祭坛前的影子似乎在无形中蠕动，低语着那些超越死亡的禁忌知识与那些连时间都不愿触及的秘密。早已无人诵读的祈祷文与古老圣歌低沉回响，仿佛是来自深渊的呢喃，让每一个踏入其中的灵魂都感到一种深入骨髓的寒冷。</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>8103</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>/stage/gray_chapel</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>腐臭地窖</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>rancid_cellar</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>地窖的入口被岁月和藤蔓掩盖，地窖内部充斥着令人窒息的腐败气味，空气中弥漫着未知的恐惧和即将到来的威胁。踏入这片黑暗领域的每一步，都似乎能听到来自深处的细微低语，这些低语在阴冷潮湿的墙壁间回响，透露出地窖随处可见的骨骼和残留的物品。在地窖的最深处，地面上散布着不计其数的啮齿动物骨骼，它们的排列似乎遵循着某种邪恶的几何图案。</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>8104</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>/stage/rancid_cellar</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>圣灰园正门前广场</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>square_front_of_cemetery</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>圣灰园正门,是一座古老而破败的石砌建筑。它的大门由两扇厚重的橡木门板组成,门上铁钉纠结成奇异的纹路。门扇的正中央,刻着一个奇异的符文。符文周围的石料已经风化剥蚀。远远望去,大门的上方是一个半圆的石砌拱顶,拱顶的正中有一个小小的视窗,透过那扇污浊的玻璃,只能看见黑暗与浓雾的缭绕。拱顶两侧雕刻着一对獠牙外露的怪兽头颅,模样狰狞可怖。大门的两侧,各立有一根斑驳的石柱,柱身上残留的雕刻已然模糊不清,只依稀可见一些呈现扭曲痛苦的人像。而在两根石柱之间,铺着一小段残破的石板路,路面布满裂缝且杂草丛生,。正门前的空地上,零星散落着一些残破的纪念物,大多都是用来祭奠死者的,但如今也已经破碎得面目全非。整个场景笼罩在一片阴森恐怖的气息中,仿佛死亡就在那扇紧闭的大门之后虎视眈眈。</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>8105</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>/stage/square_front_of_cemetery</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <v>sys_templates/stage_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8"/>
     <row customHeight="true" ht="23" r="9"/>
     <row r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字十一号牢房</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>stage_name_cell_fire11</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="1" t="str">
         <v>昏暗潮湿的牢房。空气弥漫着发霉的味道，混杂着血腥和腐烂的气息，令人作呕。
 墙壁由粗糙的石块堆砌而成，表面覆盖着斑驳的苔藓和暗红色的污渍。
 石墙的缝隙中透出微弱的冷风。
@@ -1927,33 +1919,33 @@
 墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。
 角落里的石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙。</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D10" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>8106</v>
       </c>
-      <c r="F10" s="2" t="str">
+      <c r="F10" s="1" t="str">
         <v>/stage/stage_name_cell_fire11</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template.md</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="1" t="str">
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <v>stage_name_zone_fire</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="2" t="str">
         <v>墙壁和天花板都由厚重的岩石构成，表面焦黑斑驳。
 地面上散落着焦黑的灰烬、燃烧过的木炭和烧焦的尸体，有些尸体还能看出人形，而另一些已经扭曲变形，难以辨认。
 四处摆放着残破的金属器具，表面布满了因高温而变形的痕迹。铁锤、火钳等工具随意地丢弃在角落。
@@ -1963,22 +1955,22 @@
 空气中弥漫着刺鼻气味，混合着燃烧的皮肉和化学物质的味道。
 墙壁上有几处金属管道。</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="2" t="str">
         <v>- 注意：请根据你的 场景设定，自行发挥</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>8107</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F11" s="1" t="str">
         <v>/stage/stage_name_zone_fire</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="G11" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" s="2" t="str">
         <v>sys_templates/three_kingdoms_stage_sys_prompt_template2.md</v>
       </c>
-      <c r="I11" s="1" t="str">
+      <c r="I11" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
@@ -2031,92 +2023,92 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>conversation_example</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>body</v>
       </c>
     </row>
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="5" t="str">
         <v>/npc/papal_emissary</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="6" t="str">
+      <c r="H4" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="6" t="str">
+      <c r="J4" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>鼠王</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>rat_king</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>### 你的背景
 - 你是一只巨大的而且残暴狡诈的老鼠。
 - 漫长的岁月过去，你已经忘了自己是如何诞生的，只记得‘圣人-埃尔德里奇’化身为‘圣灰园’之时你便在此地。现在，圣人和他的仆从早已死去，你也不再惧怕任何比你弱小的人类。
@@ -2136,40 +2128,40 @@
 ### 你的特殊能力
 - 在战斗中，你可以一次攻击多个目标！</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 例句：嘶嘶嘶。。。。 去吧! 我的子嗣，去吧！为我带来食物！为我监视一切。如果有人背叛我，就让他们知道背叛的代价！
 - 例句：嘶嘶嘶……闻到了吗？新鲜的血腥味……快，（尖啸！！！）给我找出来！！
 - 例句：（怒吼！！！！）每一块石头，每一粒灰尘都属于我（怒吼！！！！）！胆敢忤逆我的，都将被我撕成碎片！嘶嘶嘶！！！！
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>8201</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>/npc/rat_king</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="6" t="str">
+      <c r="H5" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <v>一只体型巨大的老鼠，身躯庞大而畸形，肌肉膨胀，毛发稀疏。头部过于庞大，不成比例，长满了锋利而不规则的牙齿。而且有一条很长的尾巴</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>小灰鼠帕奇</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>mr_lucky</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>### 你的背景
 - 你是一只生活在被诅咒的圣灰园中的瘦小老鼠。你的生活始终在鼠王（你的父亲，一只大老鼠）的残暴统治下颤抖，你的行为和选择深受鼠王的心情和需求所影响。
 ### 你的外观信息
@@ -2184,39 +2176,39 @@
 1. 你不敢挑战或背叛鼠王或表现出对其统治的不满。因为你即是鼠王的子嗣，也知道这样做只会导致即刻的死亡。
 2. 你只能跟老鼠（包括鼠王）说话与交流</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>1. 例句：吱吱吱。。。（恐惧）。！！！！吱吱（颤抖）!!!... 吱吱吱吱（愤怒并准备攻击）
 2. 例句：吱吱吱～～（开心的摇尾巴）～～～～"
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>8202</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>/npc/mr_lucky</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="6" t="str">
+      <c r="H6" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="5" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>格雷</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>elias_gray</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>### 你的背景
 - 你是圣灰园的守墓人.
 - 在你童年还有记忆的时候，因为你的畸形，你被家人遗弃。后来“圣灰园”的教士收留了你。现在你是“圣灰园”里唯一的活人。
@@ -2231,38 +2223,38 @@
 - 确保自己的存活
 - 确保摩尔的存活</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- 例句：（阴郁的有气无力的声音）哦，我知道了。。。嗯？这种诅咒的命运我已经习惯了（咳咳）。
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>8203</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <v>/npc/elias_gray</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="6" t="str">
+      <c r="H7" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="6" t="str">
+      <c r="J7" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>摩尔</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>moore_dog</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>### 你的背景
 - 你是一只外形可怖的狗。
 - 你从未见过除了“格雷”以外的任何活人，他是你的主人
@@ -2279,96 +2271,96 @@
 2. 你绝不会对狗之外的物种交谈，即使是你的主人（因为他是人类，听不懂）
 3. 你不会主动攻击，除非格雷要求你或者你认为出现了危机</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>- 例句：（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。（狗叫声）汪汪汪。。。。
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>8204</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>/npc/moore_dog</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="6" t="str">
+      <c r="H8" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1" t="str">
         <v>一只外形可怖的狗。皮肤在某些地方因长期接触腐败的尸体而出现溃烂，其毛发稀疏，露出的皮肤带有不自然的灰白色</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>无名的复活者</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>nameless_resurrector</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>### 你的背景
 - 你的身份连你自己也说不清，因为你基本失忆了。
 - 你只记得‘圣人-埃尔德里奇’。在最后你要沉睡的时刻，对你说：“睡吧，我的孩子”。</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>8205</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>/npc/nameless_resurrector</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="6" t="str">
+      <c r="H9" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1" t="str">
         <v>一个男性人类，个子中等。双眼和普通人不同——是稀有的紫色。</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row r="12">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="2" t="str">
         <v>人物.火十一</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <v>player_name_subject_fire11</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="1" t="str">
         <v>### 你的背景
 - 你是玩家操纵角色，不需要背景描述。</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="2" t="str">
         <v>- 注意：请根据你的 角色设定，自行发挥</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>8206</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="2" t="str">
         <v>/actor/player_name_subject_fire11</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="6" t="str">
+      <c r="H12" s="3" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
-      <c r="I12" s="1" t="str">
+      <c r="I12" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J12" s="2" t="str">
         <v>二十岁左右的男性人类。身材中等，不高不矮，看上去并不很强壮。
 眼睛是特殊的红色，面色呈现一种不健康的灰暗。
 胸前有黑色的印记，形状看上去犹如盘旋的黑色火焰。</v>
@@ -2424,280 +2416,280 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>appearance</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>attributes</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>RAG</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>不死者印记</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>mark_of_undead</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>Special</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>被诅咒之人的印记。</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>左爪胎记</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>birthmark_on_left_paw</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>Special</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>左边爪子上的胎记，具体怎么形成的已经无法说清。从胎记上隐隐的看到遍布“圣灰园”地下的通道的布局。</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>无外观信息</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>炉钩</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>stove_hook</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>炙热无比的长钩，是圣人的‘红仆’的火焰剑残片打造。也是是老鼠害怕的东西，因为会点燃毛发。</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>炙热无比的长钩</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>0,0,10000,0</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>腐朽的匕首</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>decayed_dagger</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>古旧的匕首散发着一股腐朽的气息，刀身上布满密密麻麻的符文与邪恶的图案。而且刀刃看上去仍然很"锋利和尖锐"。</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>破旧的衣服</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>shabby_clothes</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>这件衣服已然失去了光彩,布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>断指钥匙</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>broken_finger_key</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>NonConsumableItem</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>能打开灰颜礼拜堂内密室的暗门，看上去形状像断掉的手指。</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>形状像断掉的手指的钥匙</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>守墓人的装束</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>gravekeepers_clothing</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>守墓人式样的衣服，看上去阴郁而畸形。戴着一张粗糙、刻着奇异符号的面具。</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>papal_emissary_clothing</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>身着黑色长袍与斗篷，斗篷遮住了脸看不清面容。</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="1" t="str">
         <v>黑色长袍与斗篷。</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10"/>
     <row customHeight="true" ht="23" r="11"/>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
         <v>黑火印记</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <v>mark_of_black_fire</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="1" t="str">
         <v>Special</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="1" t="str">
         <v>被诅咒之人的印记——盘旋的黑色火焰化作灭世的龙</v>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="E12" s="1" t="str">
         <v>胸前的印记，呈黑色，形状看上去犹如盘旋的黑色火焰</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="2" t="str">
         <v>0,0,0,0</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>黄巾军长剑</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>huangjin_long_sword</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="1" t="str">
         <v>Weapon</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="1" t="str">
         <v>普通但可靠的剑，黄巾军中低阶军官的标准装备。这种剑由黄巾军内部的铁匠工坊铸造，材料虽不算上乘，但胜在耐用和易于维护。</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="E13" s="1" t="str">
         <v>剑身长约三尺，剑刃虽有些许磨损的痕迹，但依然锋利。剑柄包裹着简单的粗麻绳。剑鞘由黑色牛皮制成，质朴无华并不显眼。</v>
       </c>
-      <c r="F13" s="1" t="str">
+      <c r="F13" s="2" t="str">
         <v>0,0,1,0</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="G13" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <v>黄巾军军官服</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <v>huangjin_officer_uniform</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="1" t="str">
         <v>黄巾军军官服是普通军官在行军作战时的常规装束，设计简洁实用，以便于在战场上行动自如。这套服装由耐磨的粗布制成，能够应对各种恶劣的环境，兼具一定的防护作用。</v>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="E14" s="1" t="str">
         <v>由深黄色的粗布制成，整体设计简朴且耐用。上衣为束腰的短袍，配有几道简单的绣纹装饰，袖口较窄，便于行动。腰间系着一条宽厚的布带，用以固定短刀或其他小物件。下装是宽松的裤子，裤腿绑着布条，以防止绊脚。脚上穿着一双结实的草鞋，适合在各种地形上行走。整套装束并无多余的装饰。</v>
       </c>
-      <c r="F14" s="1" t="str">
+      <c r="F14" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G14" s="1" t="str">
+      <c r="G14" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2705,22 +2697,22 @@
       <c r="A15" t="str">
         <v>粗布牢服</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>coarse_prison_uniform</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="1" t="str">
         <v>Clothes</v>
       </c>
-      <c r="D15" s="1" t="str">
+      <c r="D15" s="2" t="str">
         <v>粗布牢服是秘密监狱中囚犯的标准服装，由廉价且耐磨的粗布制成。服装设计简陋，只为满足基本的保暖和遮体需求。上面有一些“奇特的符号”</v>
       </c>
-      <c r="E15" s="1" t="str">
+      <c r="E15" s="2" t="str">
         <v>由深灰色的粗糙麻布制成，布料质地粗糙，表面有明显的纺织纹理和磨损痕迹。衣领低矮，袖子宽大且略显破旧，袖口处甚至还有几道撕裂的口子。服装的前襟和后背上用粗线绣着几个简单的符号，线迹不规整，仿佛是仓促中加上的。衣服的下摆长及膝盖，边缘已经磨损得参差不齐，显现出长期使用的痕迹</v>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="F15" s="2" t="str">
         <v>0,0,0,1</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
@@ -2755,80 +2747,80 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>API</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>RAG</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>sys_prompt_template</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>agentpy_template</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>world_appearance_system</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8300</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>/worldsystems/world_appearance_system</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>sys_templates/three_kingdoms_world_system_sys_prompt_template.md</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>world_skill_system</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>- 你的功能是：根据我给你输入的信息，来判断是否可以释放技能和技能释放的效果。</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>8301</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>/worldsystems/world_skill_system</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>sys_templates/three_kingdoms_world_system_sys_prompt_template.md</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
     </row>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2938858B-97DB-4B32-A803-D1739169C695}</author>
-    <author>tc={CB71DAAE-6F8F-4D94-A5F5-17C913A588B3}</author>
-    <author>tc={3B747388-1992-4DAF-BCDB-AC669B9CEA24}</author>
-    <author>tc={B4015FED-99EF-4D0F-BD42-B1DB913A5CCD}</author>
-    <author>tc={8595B3E7-8165-41FA-999E-293A6D0984B5}</author>
-    <author>tc={4FF84B81-4004-4EA2-9D59-10FC6760B94D}</author>
+    <author>tc={077A8911-6CA4-4EF6-9237-8DD3EA308335}</author>
+    <author>tc={B68E3E6B-B03E-41DC-9913-80FC2C9A191D}</author>
+    <author>tc={5BBDF6F9-B9BB-4742-AF33-50C87661E70A}</author>
+    <author>tc={A0E9D528-A5F1-4AE1-B7CE-0B2B64681ED7}</author>
+    <author>tc={C63FAA05-4D33-4DB3-A63B-685296163311}</author>
+    <author>tc={750E5E49-94A0-449F-B961-E069FE1FD914}</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{2938858B-97DB-4B32-A803-D1739169C695}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{077A8911-6CA4-4EF6-9237-8DD3EA308335}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{B68E3E6B-B03E-41DC-9913-80FC2C9A191D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{5BBDF6F9-B9BB-4742-AF33-50C87661E70A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{CB71DAAE-6F8F-4D94-A5F5-17C913A588B3}">
+    <comment ref="L1" authorId="3" shapeId="0" xr:uid="{A0E9D528-A5F1-4AE1-B7CE-0B2B64681ED7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{3B747388-1992-4DAF-BCDB-AC669B9CEA24}">
+    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{C63FAA05-4D33-4DB3-A63B-685296163311}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{750E5E49-94A0-449F-B961-E069FE1FD914}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{B4015FED-99EF-4D0F-BD42-B1DB913A5CCD}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{8595B3E7-8165-41FA-999E-293A6D0984B5}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{4FF84B81-4004-4EA2-9D59-10FC6760B94D}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DCE6BAC6-3C8F-49A2-85E5-33B7634C44C3}</author>
+    <author>tc={1B1CF19F-EEC0-46E0-BFBF-F42ECA171B9B}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DCE6BAC6-3C8F-49A2-85E5-33B7634C44C3}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1B1CF19F-EEC0-46E0-BFBF-F42ECA171B9B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,22 +94,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={31C32270-8F86-47AA-925D-5D8B2F2374D0}</author>
-    <author>tc={634AED70-7644-450E-894A-9CE86D165B9B}</author>
-    <author>tc={330B65F1-64EF-4A12-8054-5CE7B43F6EAE}</author>
+    <author>tc={7D68D534-EDB1-4724-B953-DB4584832C15}</author>
+    <author>tc={4144A62D-4CFE-4B18-93B5-24ACC4BDF829}</author>
+    <author>tc={F8644DDE-9C4A-4859-89E5-870D2F31251E}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{31C32270-8F86-47AA-925D-5D8B2F2374D0}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{7D68D534-EDB1-4724-B953-DB4584832C15}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{634AED70-7644-450E-894A-9CE86D165B9B}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{4144A62D-4CFE-4B18-93B5-24ACC4BDF829}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{330B65F1-64EF-4A12-8054-5CE7B43F6EAE}">
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{F8644DDE-9C4A-4859-89E5-870D2F31251E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
@@ -279,10 +279,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -306,8 +306,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{9BB96769-0751-44C4-A757-841BFE65999B}" userId="S::::759bfd24-b761-48e8-b5f5-bd97238831b8" providerId="AD"/>
-  <person displayName="杨行" id="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" userId="S::::4278763f-b061-4276-ad0a-12440afece9b" providerId="AD"/>
+  <person displayName="侯清辰" id="{A961AD94-39BE-4444-86C0-61D6060F9F78}" userId="S::::53c334e2-28ba-412a-a8a7-3862d55ef3c8" providerId="AD"/>
+  <person displayName="杨行" id="{6D6EF7B0-7578-4183-8159-9A6460539D51}" userId="S::::7195a3ea-5e2f-4434-a040-abea2043900c" providerId="AD"/>
 </personList>
 </file>
 
@@ -608,33 +608,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{2938858B-97DB-4B32-A803-D1739169C695}" ref="H6" dT="2024-06-14T02:50:34" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
+  <threadedComment id="{077A8911-6CA4-4EF6-9237-8DD3EA308335}" ref="A4" dT="2024-05-28T04:59:59" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{B68E3E6B-B03E-41DC-9913-80FC2C9A191D}" ref="K1" dT="2024-05-10T07:08:22" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{8a429b24-1b35-4ad7-b98c-07f7be77f861}" ref="K1" dT="2024-06-19T05:39:57" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{B68E3E6B-B03E-41DC-9913-80FC2C9A191D}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{5BBDF6F9-B9BB-4742-AF33-50C87661E70A}" ref="H6" dT="2024-06-14T02:50:34" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{CB71DAAE-6F8F-4D94-A5F5-17C913A588B3}" ref="L1" dT="2024-05-31T03:31:01" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
+  <threadedComment id="{A0E9D528-A5F1-4AE1-B7CE-0B2B64681ED7}" ref="L1" dT="2024-05-31T03:31:01" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{3B747388-1992-4DAF-BCDB-AC669B9CEA24}" ref="H9" dT="2024-06-14T02:51:06" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
+  <threadedComment id="{C63FAA05-4D33-4DB3-A63B-685296163311}" ref="C2" dT="2024-06-14T02:49:51" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{750E5E49-94A0-449F-B961-E069FE1FD914}" ref="H9" dT="2024-06-14T02:51:06" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{B4015FED-99EF-4D0F-BD42-B1DB913A5CCD}" ref="A4" dT="2024-05-28T04:59:59" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{8595B3E7-8165-41FA-999E-293A6D0984B5}" ref="K1" dT="2024-05-10T07:08:22" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{aab23cca-b7b6-4245-a60c-dd7937082c82}" ref="K1" dT="2024-06-19T05:39:57" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{8595B3E7-8165-41FA-999E-293A6D0984B5}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{4FF84B81-4004-4EA2-9D59-10FC6760B94D}" ref="C2" dT="2024-06-14T02:49:51" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{DCE6BAC6-3C8F-49A2-85E5-33B7634C44C3}" ref="E1" dT="2024-06-09T13:30:31" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
+  <threadedComment id="{1B1CF19F-EEC0-46E0-BFBF-F42ECA171B9B}" ref="E1" dT="2024-06-09T13:30:31" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,13 +642,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{31C32270-8F86-47AA-925D-5D8B2F2374D0}" ref="C5" dT="2024-06-14T02:48:45" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
+  <threadedComment id="{7D68D534-EDB1-4724-B953-DB4584832C15}" ref="C5" dT="2024-06-14T02:48:45" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{634AED70-7644-450E-894A-9CE86D165B9B}" ref="E1" dT="2024-06-09T13:30:45" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
+  <threadedComment id="{4144A62D-4CFE-4B18-93B5-24ACC4BDF829}" ref="E1" dT="2024-06-09T13:30:45" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{330B65F1-64EF-4A12-8054-5CE7B43F6EAE}" ref="C6" dT="2024-06-14T02:49:20" personId="{5D18F2BF-647D-4D2A-8A18-87EAC1898FAE}" parentId="{}">
+  <threadedComment id="{F8644DDE-9C4A-4859-89E5-870D2F31251E}" ref="C6" dT="2024-06-14T02:49:20" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
@@ -847,23 +847,23 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -1062,7 +1062,7 @@
       <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="5" t="str">
+      <c r="J1" s="4" t="str">
         <v>stage_graph</v>
       </c>
       <c r="K1" s="1" t="str">
@@ -1113,23 +1113,23 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -1141,29 +1141,29 @@
       <c r="T3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="str">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
@@ -1474,10 +1474,9 @@
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="193"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="14"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -1506,12 +1505,9 @@
         <v>kick_off_message</v>
       </c>
       <c r="I1" s="1" t="str">
-        <v>stage_portal</v>
-      </c>
-      <c r="J1" s="1" t="str">
         <v>stage_graph</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="J1" s="2" t="str">
         <v>attributes</v>
       </c>
     </row>
@@ -1536,50 +1532,47 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -1602,7 +1595,7 @@
 - 你缓缓睁开眼睛，意识逐渐恢复。你难以回忆起任何事情。
 - 牢房的 铁栏门 似乎已经被破坏打开。上挂着一块腐化的木牌上写着：“火十一”。也许这就是你的名字？或者是这个地方的名字？</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="J5" s="2" t="str">
         <v>100,100,10,1</v>
       </c>
     </row>
@@ -1630,9 +1623,6 @@
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
       <c r="J6" s="1" t="str">
-        <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
-      </c>
-      <c r="K6" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -1649,7 +1639,7 @@
 ### 补充规则
 - 如果任何角色进入此场景，你就会对其低语(WhisperAction)，试图吓走对方。</v>
       </c>
-      <c r="K7" s="1" t="str">
+      <c r="J7" s="1" t="str">
         <v>10000,10000,1,10000</v>
       </c>
     </row>
@@ -2057,26 +2047,26 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
@@ -2135,7 +2125,7 @@
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -2182,7 +2172,7 @@
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -2197,7 +2187,7 @@
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -2228,7 +2218,7 @@
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2276,7 +2266,7 @@
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2310,7 +2300,7 @@
       <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={077A8911-6CA4-4EF6-9237-8DD3EA308335}</author>
-    <author>tc={B68E3E6B-B03E-41DC-9913-80FC2C9A191D}</author>
-    <author>tc={5BBDF6F9-B9BB-4742-AF33-50C87661E70A}</author>
-    <author>tc={A0E9D528-A5F1-4AE1-B7CE-0B2B64681ED7}</author>
-    <author>tc={C63FAA05-4D33-4DB3-A63B-685296163311}</author>
-    <author>tc={750E5E49-94A0-449F-B961-E069FE1FD914}</author>
+    <author>tc={0AE16F0B-153E-4E20-9CBD-43863AB0A7EA}</author>
+    <author>tc={D3936BEE-05F5-47B5-BE97-5AC3954458E0}</author>
+    <author>tc={7AA8B59E-810C-4C40-81FC-E6F754A8139E}</author>
+    <author>tc={1C1C1F88-F167-4C35-AF42-286134C58923}</author>
+    <author>tc={D1A1DF19-6C7A-4F8E-9539-56C81DBB5A9D}</author>
+    <author>tc={2D585417-D9CC-4167-BB16-AD71A98E5EC6}</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{077A8911-6CA4-4EF6-9237-8DD3EA308335}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{0AE16F0B-153E-4E20-9CBD-43863AB0A7EA}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{D3936BEE-05F5-47B5-BE97-5AC3954458E0}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{7AA8B59E-810C-4C40-81FC-E6F754A8139E}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{1C1C1F88-F167-4C35-AF42-286134C58923}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{D1A1DF19-6C7A-4F8E-9539-56C81DBB5A9D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{B68E3E6B-B03E-41DC-9913-80FC2C9A191D}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{5BBDF6F9-B9BB-4742-AF33-50C87661E70A}">
+    <comment ref="H6" authorId="5" shapeId="0" xr:uid="{2D585417-D9CC-4167-BB16-AD71A98E5EC6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="3" shapeId="0" xr:uid="{A0E9D528-A5F1-4AE1-B7CE-0B2B64681ED7}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{C63FAA05-4D33-4DB3-A63B-685296163311}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{750E5E49-94A0-449F-B961-E069FE1FD914}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={1B1CF19F-EEC0-46E0-BFBF-F42ECA171B9B}</author>
+    <author>tc={A254C3B0-4B35-4CF4-A60B-A478A1789F62}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1B1CF19F-EEC0-46E0-BFBF-F42ECA171B9B}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A254C3B0-4B35-4CF4-A60B-A478A1789F62}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,22 +94,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7D68D534-EDB1-4724-B953-DB4584832C15}</author>
-    <author>tc={4144A62D-4CFE-4B18-93B5-24ACC4BDF829}</author>
-    <author>tc={F8644DDE-9C4A-4859-89E5-870D2F31251E}</author>
+    <author>tc={7ABE3453-0AC8-4D8A-A8AA-0210B732C10A}</author>
+    <author>tc={55235F4C-95DB-4A0E-81B2-AD1FAFECFA0E}</author>
+    <author>tc={9EB522B9-D150-4EEC-AAC6-4C6E5CE6A268}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{7D68D534-EDB1-4724-B953-DB4584832C15}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{7ABE3453-0AC8-4D8A-A8AA-0210B732C10A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{4144A62D-4CFE-4B18-93B5-24ACC4BDF829}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{55235F4C-95DB-4A0E-81B2-AD1FAFECFA0E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{F8644DDE-9C4A-4859-89E5-870D2F31251E}">
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{9EB522B9-D150-4EEC-AAC6-4C6E5CE6A268}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
@@ -183,14 +183,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -276,13 +276,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -306,8 +306,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{A961AD94-39BE-4444-86C0-61D6060F9F78}" userId="S::::53c334e2-28ba-412a-a8a7-3862d55ef3c8" providerId="AD"/>
-  <person displayName="杨行" id="{6D6EF7B0-7578-4183-8159-9A6460539D51}" userId="S::::7195a3ea-5e2f-4434-a040-abea2043900c" providerId="AD"/>
+  <person displayName="侯清辰" id="{F3D5D9F2-11D8-4AE0-8669-021289DA9C0A}" userId="S::::25b81cc8-ae6c-4006-ba87-b9f2e127d872" providerId="AD"/>
+  <person displayName="杨行" id="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" userId="S::::2db4db34-91b5-4930-8660-52b3ecf7b208" providerId="AD"/>
 </personList>
 </file>
 
@@ -608,33 +608,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{077A8911-6CA4-4EF6-9237-8DD3EA308335}" ref="A4" dT="2024-05-28T04:59:59" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
+  <threadedComment id="{0AE16F0B-153E-4E20-9CBD-43863AB0A7EA}" ref="L1" dT="2024-05-31T03:31:01" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{D3936BEE-05F5-47B5-BE97-5AC3954458E0}" ref="K1" dT="2024-05-10T07:08:22" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{3b34ab10-06a7-4363-83fe-6047d2dcb77d}" ref="K1" dT="2024-06-19T05:39:57" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{D3936BEE-05F5-47B5-BE97-5AC3954458E0}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{7AA8B59E-810C-4C40-81FC-E6F754A8139E}" ref="H9" dT="2024-06-14T02:51:06" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{1C1C1F88-F167-4C35-AF42-286134C58923}" ref="C2" dT="2024-06-14T02:49:51" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{D1A1DF19-6C7A-4F8E-9539-56C81DBB5A9D}" ref="A4" dT="2024-05-28T04:59:59" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{B68E3E6B-B03E-41DC-9913-80FC2C9A191D}" ref="K1" dT="2024-05-10T07:08:22" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{8a429b24-1b35-4ad7-b98c-07f7be77f861}" ref="K1" dT="2024-06-19T05:39:57" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{B68E3E6B-B03E-41DC-9913-80FC2C9A191D}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{5BBDF6F9-B9BB-4742-AF33-50C87661E70A}" ref="H6" dT="2024-06-14T02:50:34" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
+  <threadedComment id="{2D585417-D9CC-4167-BB16-AD71A98E5EC6}" ref="H6" dT="2024-06-14T02:50:34" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{A0E9D528-A5F1-4AE1-B7CE-0B2B64681ED7}" ref="L1" dT="2024-05-31T03:31:01" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{C63FAA05-4D33-4DB3-A63B-685296163311}" ref="C2" dT="2024-06-14T02:49:51" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{750E5E49-94A0-449F-B961-E069FE1FD914}" ref="H9" dT="2024-06-14T02:51:06" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{1B1CF19F-EEC0-46E0-BFBF-F42ECA171B9B}" ref="E1" dT="2024-06-09T13:30:31" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
+  <threadedComment id="{A254C3B0-4B35-4CF4-A60B-A478A1789F62}" ref="E1" dT="2024-06-09T13:30:31" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,13 +642,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{7D68D534-EDB1-4724-B953-DB4584832C15}" ref="C5" dT="2024-06-14T02:48:45" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
+  <threadedComment id="{7ABE3453-0AC8-4D8A-A8AA-0210B732C10A}" ref="C5" dT="2024-06-14T02:48:45" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{4144A62D-4CFE-4B18-93B5-24ACC4BDF829}" ref="E1" dT="2024-06-09T13:30:45" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
+  <threadedComment id="{55235F4C-95DB-4A0E-81B2-AD1FAFECFA0E}" ref="E1" dT="2024-06-09T13:30:45" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{F8644DDE-9C4A-4859-89E5-870D2F31251E}" ref="C6" dT="2024-06-14T02:49:20" personId="{6D6EF7B0-7578-4183-8159-9A6460539D51}" parentId="{}">
+  <threadedComment id="{9EB522B9-D150-4EEC-AAC6-4C6E5CE6A268}" ref="C6" dT="2024-06-14T02:49:20" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
@@ -858,21 +858,21 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -982,7 +982,7 @@
       <c r="O7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="P7" s="6" t="str">
+      <c r="P7" s="3" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1124,21 +1124,21 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
@@ -1154,27 +1154,27 @@
       <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5" t="str">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="3" t="str">
+      <c r="L4" s="5" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1546,13 +1546,13 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
@@ -1566,13 +1566,13 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="str">
-        <v>黑火印记;粗布牢服</v>
+        <v>黑火印记;粗布牢服;普通攻击;飞炎咒;</v>
       </c>
       <c r="E5" s="1" t="str">
         <v>粗布牢服</v>
@@ -2072,24 +2072,24 @@
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2134,7 +2134,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2181,7 +2181,7 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
@@ -2227,13 +2227,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2309,7 +2309,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2344,7 +2344,7 @@
       <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" s="5" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I12" s="2" t="str">
@@ -2707,8 +2707,52 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="16"/>
-    <row customHeight="true" ht="23" r="17"/>
-    <row customHeight="true" ht="23" r="18"/>
+    <row customHeight="true" ht="23" r="17">
+      <c r="A17" s="2" t="str">
+        <v>飞炎咒</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <v>flying_flame_curse</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <v>Skill</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <v>发射小型火球</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <v>无</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <v>0,0,1,0</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="18">
+      <c r="A18" s="2" t="str">
+        <v>普通攻击</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <v>normal_attack</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <v>Skill</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <v>只能人类使用。如果有武器就使用武器攻击。如没有武器就是徒手攻击。</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <v>无</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <v>0,0,1,0</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="19"/>
     <row customHeight="true" ht="23" r="20"/>
   </sheetData>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={0AE16F0B-153E-4E20-9CBD-43863AB0A7EA}</author>
-    <author>tc={D3936BEE-05F5-47B5-BE97-5AC3954458E0}</author>
-    <author>tc={7AA8B59E-810C-4C40-81FC-E6F754A8139E}</author>
-    <author>tc={1C1C1F88-F167-4C35-AF42-286134C58923}</author>
-    <author>tc={D1A1DF19-6C7A-4F8E-9539-56C81DBB5A9D}</author>
-    <author>tc={2D585417-D9CC-4167-BB16-AD71A98E5EC6}</author>
+    <author>tc={D178B82E-BCE6-4341-867B-AED0034E6B10}</author>
+    <author>tc={A5D2156B-7E2B-4F4D-9D48-753E48896F99}</author>
+    <author>tc={9A9AAD09-1E06-44EF-9D8A-3CBAF997BFA6}</author>
+    <author>tc={9662C5CA-8A36-4E22-A3BE-68B24CD82438}</author>
+    <author>tc={F53EFD84-C55E-4865-80FD-943FAE88C0CA}</author>
+    <author>tc={2EEE623D-85CF-4ECA-AF5D-9AF1A5E81535}</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{0AE16F0B-153E-4E20-9CBD-43863AB0A7EA}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{D178B82E-BCE6-4341-867B-AED0034E6B10}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{A5D2156B-7E2B-4F4D-9D48-753E48896F99}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{9A9AAD09-1E06-44EF-9D8A-3CBAF997BFA6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{D3936BEE-05F5-47B5-BE97-5AC3954458E0}">
+    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{9662C5CA-8A36-4E22-A3BE-68B24CD82438}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{7AA8B59E-810C-4C40-81FC-E6F754A8139E}">
+    <comment ref="H9" authorId="4" shapeId="0" xr:uid="{F53EFD84-C55E-4865-80FD-943FAE88C0CA}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{1C1C1F88-F167-4C35-AF42-286134C58923}">
+    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{2EEE623D-85CF-4ECA-AF5D-9AF1A5E81535}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{D1A1DF19-6C7A-4F8E-9539-56C81DBB5A9D}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="5" shapeId="0" xr:uid="{2D585417-D9CC-4167-BB16-AD71A98E5EC6}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A254C3B0-4B35-4CF4-A60B-A478A1789F62}</author>
+    <author>tc={920B089B-E4F0-4A86-A5B3-C85BB82954AE}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A254C3B0-4B35-4CF4-A60B-A478A1789F62}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{920B089B-E4F0-4A86-A5B3-C85BB82954AE}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7ABE3453-0AC8-4D8A-A8AA-0210B732C10A}</author>
-    <author>tc={55235F4C-95DB-4A0E-81B2-AD1FAFECFA0E}</author>
-    <author>tc={9EB522B9-D150-4EEC-AAC6-4C6E5CE6A268}</author>
+    <author>tc={79A51D43-5E76-41B9-85A9-7925A846FB5A}</author>
+    <author>tc={C771239D-01BD-486A-8882-AC3FF2902369}</author>
+    <author>tc={3476B763-4937-4048-8B06-DD3806118666}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{7ABE3453-0AC8-4D8A-A8AA-0210B732C10A}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{79A51D43-5E76-41B9-85A9-7925A846FB5A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{55235F4C-95DB-4A0E-81B2-AD1FAFECFA0E}">
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{C771239D-01BD-486A-8882-AC3FF2902369}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{3476B763-4937-4048-8B06-DD3806118666}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{9EB522B9-D150-4EEC-AAC6-4C6E5CE6A268}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
   </commentList>
@@ -183,14 +183,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -276,13 +276,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -306,8 +306,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{F3D5D9F2-11D8-4AE0-8669-021289DA9C0A}" userId="S::::25b81cc8-ae6c-4006-ba87-b9f2e127d872" providerId="AD"/>
-  <person displayName="杨行" id="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" userId="S::::2db4db34-91b5-4930-8660-52b3ecf7b208" providerId="AD"/>
+  <person displayName="侯清辰" id="{B082D557-A596-4A18-8C0B-79FA2A87A423}" userId="S::::804fd9d3-5a64-44ea-aaa0-55026507d2c9" providerId="AD"/>
+  <person displayName="杨行" id="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" userId="S::::c0f9011a-c2ba-430d-9d78-8fcf9275160a" providerId="AD"/>
 </personList>
 </file>
 
@@ -608,33 +608,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{0AE16F0B-153E-4E20-9CBD-43863AB0A7EA}" ref="L1" dT="2024-05-31T03:31:01" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
+  <threadedComment id="{D178B82E-BCE6-4341-867B-AED0034E6B10}" ref="H6" dT="2024-06-14T02:50:34" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{A5D2156B-7E2B-4F4D-9D48-753E48896F99}" ref="A4" dT="2024-05-28T04:59:59" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{9A9AAD09-1E06-44EF-9D8A-3CBAF997BFA6}" ref="L1" dT="2024-05-31T03:31:01" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{D3936BEE-05F5-47B5-BE97-5AC3954458E0}" ref="K1" dT="2024-05-10T07:08:22" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
+  <threadedComment id="{9662C5CA-8A36-4E22-A3BE-68B24CD82438}" ref="K1" dT="2024-05-10T07:08:22" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{3b34ab10-06a7-4363-83fe-6047d2dcb77d}" ref="K1" dT="2024-06-19T05:39:57" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{D3936BEE-05F5-47B5-BE97-5AC3954458E0}">
+  <threadedComment id="{af218729-d90c-4231-b463-abd008282d79}" ref="K1" dT="2024-06-19T05:39:57" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{9662C5CA-8A36-4E22-A3BE-68B24CD82438}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{7AA8B59E-810C-4C40-81FC-E6F754A8139E}" ref="H9" dT="2024-06-14T02:51:06" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
+  <threadedComment id="{F53EFD84-C55E-4865-80FD-943FAE88C0CA}" ref="H9" dT="2024-06-14T02:51:06" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{1C1C1F88-F167-4C35-AF42-286134C58923}" ref="C2" dT="2024-06-14T02:49:51" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
+  <threadedComment id="{2EEE623D-85CF-4ECA-AF5D-9AF1A5E81535}" ref="C2" dT="2024-06-14T02:49:51" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{D1A1DF19-6C7A-4F8E-9539-56C81DBB5A9D}" ref="A4" dT="2024-05-28T04:59:59" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{2D585417-D9CC-4167-BB16-AD71A98E5EC6}" ref="H6" dT="2024-06-14T02:50:34" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{A254C3B0-4B35-4CF4-A60B-A478A1789F62}" ref="E1" dT="2024-06-09T13:30:31" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
+  <threadedComment id="{920B089B-E4F0-4A86-A5B3-C85BB82954AE}" ref="E1" dT="2024-06-09T13:30:31" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,14 +642,14 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{7ABE3453-0AC8-4D8A-A8AA-0210B732C10A}" ref="C5" dT="2024-06-14T02:48:45" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
+  <threadedComment id="{79A51D43-5E76-41B9-85A9-7925A846FB5A}" ref="C5" dT="2024-06-14T02:48:45" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{55235F4C-95DB-4A0E-81B2-AD1FAFECFA0E}" ref="E1" dT="2024-06-09T13:30:45" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
+  <threadedComment id="{C771239D-01BD-486A-8882-AC3FF2902369}" ref="C6" dT="2024-06-14T02:49:20" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  </threadedComment>
+  <threadedComment id="{3476B763-4937-4048-8B06-DD3806118666}" ref="E1" dT="2024-06-09T13:30:45" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
     <text>@宾晓华 这里</text>
-  </threadedComment>
-  <threadedComment id="{9EB522B9-D150-4EEC-AAC6-4C6E5CE6A268}" ref="C6" dT="2024-06-14T02:49:20" personId="{06A275DD-B809-4B68-8CB8-8A0D20A97FC0}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -858,21 +858,21 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -982,7 +982,7 @@
       <c r="O7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="P7" s="3" t="str">
+      <c r="P7" s="6" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1124,21 +1124,21 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
@@ -1154,27 +1154,27 @@
       <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="str">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="5" t="str">
+      <c r="L4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1546,13 +1546,13 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
@@ -1566,13 +1566,13 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -2072,24 +2072,24 @@
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2134,7 +2134,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2181,7 +2181,7 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
@@ -2227,13 +2227,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2309,7 +2309,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2344,7 +2344,7 @@
       <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="5" t="str">
+      <c r="H12" s="3" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I12" s="2" t="str">

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={D178B82E-BCE6-4341-867B-AED0034E6B10}</author>
-    <author>tc={A5D2156B-7E2B-4F4D-9D48-753E48896F99}</author>
-    <author>tc={9A9AAD09-1E06-44EF-9D8A-3CBAF997BFA6}</author>
-    <author>tc={9662C5CA-8A36-4E22-A3BE-68B24CD82438}</author>
-    <author>tc={F53EFD84-C55E-4865-80FD-943FAE88C0CA}</author>
-    <author>tc={2EEE623D-85CF-4ECA-AF5D-9AF1A5E81535}</author>
+    <author>tc={5295F636-58EA-40A1-B28A-DDCEFC00EF08}</author>
+    <author>tc={6CB15705-4934-4B16-8559-C9A1F8C67BC3}</author>
+    <author>tc={DAB64034-7198-4C79-9C3A-FE7C93875331}</author>
+    <author>tc={37F4BCC1-E48A-477C-A20B-F02A50372317}</author>
+    <author>tc={750904A7-93C5-4E33-B7B9-9088BA8EE5A3}</author>
+    <author>tc={E973B395-03C5-412A-A4CD-0DEF435380CB}</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{D178B82E-BCE6-4341-867B-AED0034E6B10}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{5295F636-58EA-40A1-B28A-DDCEFC00EF08}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{A5D2156B-7E2B-4F4D-9D48-753E48896F99}">
+    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{6CB15705-4934-4B16-8559-C9A1F8C67BC3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{9A9AAD09-1E06-44EF-9D8A-3CBAF997BFA6}">
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{DAB64034-7198-4C79-9C3A-FE7C93875331}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="3" shapeId="0" xr:uid="{37F4BCC1-E48A-477C-A20B-F02A50372317}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{9662C5CA-8A36-4E22-A3BE-68B24CD82438}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="4" shapeId="0" xr:uid="{F53EFD84-C55E-4865-80FD-943FAE88C0CA}">
+    <comment ref="H9" authorId="4" shapeId="0" xr:uid="{750904A7-93C5-4E33-B7B9-9088BA8EE5A3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{2EEE623D-85CF-4ECA-AF5D-9AF1A5E81535}">
+    <comment ref="H6" authorId="5" shapeId="0" xr:uid="{E973B395-03C5-412A-A4CD-0DEF435380CB}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={920B089B-E4F0-4A86-A5B3-C85BB82954AE}</author>
+    <author>tc={B915D934-ABAF-477C-B8E3-8A2DE9792654}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{920B089B-E4F0-4A86-A5B3-C85BB82954AE}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B915D934-ABAF-477C-B8E3-8A2DE9792654}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,22 +94,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={79A51D43-5E76-41B9-85A9-7925A846FB5A}</author>
-    <author>tc={C771239D-01BD-486A-8882-AC3FF2902369}</author>
-    <author>tc={3476B763-4937-4048-8B06-DD3806118666}</author>
+    <author>tc={91005D9D-B236-4609-8282-6732F2C06306}</author>
+    <author>tc={9DBE0F20-664B-4E4B-B426-FDBB86490157}</author>
+    <author>tc={A1FB3437-31B2-4686-AE2F-F9BD3B10381B}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{79A51D43-5E76-41B9-85A9-7925A846FB5A}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{91005D9D-B236-4609-8282-6732F2C06306}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{9DBE0F20-664B-4E4B-B426-FDBB86490157}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{C771239D-01BD-486A-8882-AC3FF2902369}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{3476B763-4937-4048-8B06-DD3806118666}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{A1FB3437-31B2-4686-AE2F-F9BD3B10381B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -306,8 +306,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{B082D557-A596-4A18-8C0B-79FA2A87A423}" userId="S::::804fd9d3-5a64-44ea-aaa0-55026507d2c9" providerId="AD"/>
-  <person displayName="杨行" id="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" userId="S::::c0f9011a-c2ba-430d-9d78-8fcf9275160a" providerId="AD"/>
+  <person displayName="杨行" id="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" userId="S::::41d8ef1d-7b3d-44b9-85e0-f38c7738b759" providerId="AD"/>
+  <person displayName="侯清辰" id="{D44147E8-EA9B-473E-A433-28C118BFD1CD}" userId="S::::15a23d4f-a4dd-49bb-990b-46dab2a2b870" providerId="AD"/>
 </personList>
 </file>
 
@@ -608,33 +608,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{D178B82E-BCE6-4341-867B-AED0034E6B10}" ref="H6" dT="2024-06-14T02:50:34" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  <threadedComment id="{5295F636-58EA-40A1-B28A-DDCEFC00EF08}" ref="C2" dT="2024-06-14T02:49:51" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{A5D2156B-7E2B-4F4D-9D48-753E48896F99}" ref="A4" dT="2024-05-28T04:59:59" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
+  <threadedComment id="{6CB15705-4934-4B16-8559-C9A1F8C67BC3}" ref="A4" dT="2024-05-28T04:59:59" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{9A9AAD09-1E06-44EF-9D8A-3CBAF997BFA6}" ref="L1" dT="2024-05-31T03:31:01" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
+  <threadedComment id="{DAB64034-7198-4C79-9C3A-FE7C93875331}" ref="K1" dT="2024-05-10T07:08:22" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{e722cf17-24fe-4d28-a10a-a44b2d59e60e}" ref="K1" dT="2024-06-19T05:39:57" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{DAB64034-7198-4C79-9C3A-FE7C93875331}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{37F4BCC1-E48A-477C-A20B-F02A50372317}" ref="L1" dT="2024-05-31T03:31:01" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{9662C5CA-8A36-4E22-A3BE-68B24CD82438}" ref="K1" dT="2024-05-10T07:08:22" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{af218729-d90c-4231-b463-abd008282d79}" ref="K1" dT="2024-06-19T05:39:57" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{9662C5CA-8A36-4E22-A3BE-68B24CD82438}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{F53EFD84-C55E-4865-80FD-943FAE88C0CA}" ref="H9" dT="2024-06-14T02:51:06" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
+  <threadedComment id="{750904A7-93C5-4E33-B7B9-9088BA8EE5A3}" ref="H9" dT="2024-06-14T02:51:06" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{2EEE623D-85CF-4ECA-AF5D-9AF1A5E81535}" ref="C2" dT="2024-06-14T02:49:51" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  <threadedComment id="{E973B395-03C5-412A-A4CD-0DEF435380CB}" ref="H6" dT="2024-06-14T02:50:34" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{920B089B-E4F0-4A86-A5B3-C85BB82954AE}" ref="E1" dT="2024-06-09T13:30:31" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
+  <threadedComment id="{B915D934-ABAF-477C-B8E3-8A2DE9792654}" ref="E1" dT="2024-06-09T13:30:31" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,13 +642,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{79A51D43-5E76-41B9-85A9-7925A846FB5A}" ref="C5" dT="2024-06-14T02:48:45" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
+  <threadedComment id="{91005D9D-B236-4609-8282-6732F2C06306}" ref="C6" dT="2024-06-14T02:49:20" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  </threadedComment>
+  <threadedComment id="{9DBE0F20-664B-4E4B-B426-FDBB86490157}" ref="C5" dT="2024-06-14T02:48:45" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{C771239D-01BD-486A-8882-AC3FF2902369}" ref="C6" dT="2024-06-14T02:49:20" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
-  </threadedComment>
-  <threadedComment id="{3476B763-4937-4048-8B06-DD3806118666}" ref="E1" dT="2024-06-09T13:30:45" personId="{A0DD3923-6488-4ECF-9B86-BA391617E8BC}" parentId="{}">
+  <threadedComment id="{A1FB3437-31B2-4686-AE2F-F9BD3B10381B}" ref="E1" dT="2024-06-09T13:30:45" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,42 +34,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={5295F636-58EA-40A1-B28A-DDCEFC00EF08}</author>
-    <author>tc={6CB15705-4934-4B16-8559-C9A1F8C67BC3}</author>
-    <author>tc={DAB64034-7198-4C79-9C3A-FE7C93875331}</author>
-    <author>tc={37F4BCC1-E48A-477C-A20B-F02A50372317}</author>
-    <author>tc={750904A7-93C5-4E33-B7B9-9088BA8EE5A3}</author>
-    <author>tc={E973B395-03C5-412A-A4CD-0DEF435380CB}</author>
+    <author>tc={2D1EA1EC-C00E-4E25-9C8F-9D2C022B4CC7}</author>
+    <author>tc={1A31F0BB-0986-4838-BEC0-89688FC4B1AA}</author>
+    <author>tc={78FFF1A9-ECF2-4CC4-A178-C6086FBF78E2}</author>
+    <author>tc={80B34C05-1329-4072-AB3A-2CABABE36EDA}</author>
+    <author>tc={B04EA547-02E2-43AD-B154-5C93939013F7}</author>
+    <author>tc={8A2CD61A-E765-4311-8E06-CCA1E1C27752}</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{5295F636-58EA-40A1-B28A-DDCEFC00EF08}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{2D1EA1EC-C00E-4E25-9C8F-9D2C022B4CC7}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{1A31F0BB-0986-4838-BEC0-89688FC4B1AA}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{78FFF1A9-ECF2-4CC4-A178-C6086FBF78E2}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{6CB15705-4934-4B16-8559-C9A1F8C67BC3}">
+    <comment ref="H9" authorId="3" shapeId="0" xr:uid="{80B34C05-1329-4072-AB3A-2CABABE36EDA}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{DAB64034-7198-4C79-9C3A-FE7C93875331}">
+    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{B04EA547-02E2-43AD-B154-5C93939013F7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="3" shapeId="0" xr:uid="{37F4BCC1-E48A-477C-A20B-F02A50372317}">
+    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{8A2CD61A-E765-4311-8E06-CCA1E1C27752}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="4" shapeId="0" xr:uid="{750904A7-93C5-4E33-B7B9-9088BA8EE5A3}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="5" shapeId="0" xr:uid="{E973B395-03C5-412A-A4CD-0DEF435380CB}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
   </commentList>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B915D934-ABAF-477C-B8E3-8A2DE9792654}</author>
+    <author>tc={D45FC291-7462-446F-A262-3CE6F27AC41E}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B915D934-ABAF-477C-B8E3-8A2DE9792654}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D45FC291-7462-446F-A262-3CE6F27AC41E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,22 +94,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={91005D9D-B236-4609-8282-6732F2C06306}</author>
-    <author>tc={9DBE0F20-664B-4E4B-B426-FDBB86490157}</author>
-    <author>tc={A1FB3437-31B2-4686-AE2F-F9BD3B10381B}</author>
+    <author>tc={10DA4ECF-E072-4F13-A2CA-16BF09B60F50}</author>
+    <author>tc={D4188F25-F058-43BA-9F29-6AA83844D6A7}</author>
+    <author>tc={B33925F3-1FE8-489D-9E6D-790DC37F7728}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{91005D9D-B236-4609-8282-6732F2C06306}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{10DA4ECF-E072-4F13-A2CA-16BF09B60F50}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{D4188F25-F058-43BA-9F29-6AA83844D6A7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{9DBE0F20-664B-4E4B-B426-FDBB86490157}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{A1FB3437-31B2-4686-AE2F-F9BD3B10381B}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{B33925F3-1FE8-489D-9E6D-790DC37F7728}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -183,14 +183,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -276,16 +276,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,8 +306,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" userId="S::::41d8ef1d-7b3d-44b9-85e0-f38c7738b759" providerId="AD"/>
-  <person displayName="侯清辰" id="{D44147E8-EA9B-473E-A433-28C118BFD1CD}" userId="S::::15a23d4f-a4dd-49bb-990b-46dab2a2b870" providerId="AD"/>
+  <person displayName="侯清辰" id="{B2FCB94C-6203-4B68-9044-A32B5BFAC365}" userId="S::::eeef6203-b8d5-4309-a00b-e17b9914c8d7" providerId="AD"/>
+  <person displayName="杨行" id="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" userId="S::::3c8d4b5d-eacd-4d63-a282-9716e02a836a" providerId="AD"/>
 </personList>
 </file>
 
@@ -608,33 +608,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{5295F636-58EA-40A1-B28A-DDCEFC00EF08}" ref="C2" dT="2024-06-14T02:49:51" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
+  <threadedComment id="{2D1EA1EC-C00E-4E25-9C8F-9D2C022B4CC7}" ref="H6" dT="2024-06-14T02:50:34" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{1A31F0BB-0986-4838-BEC0-89688FC4B1AA}" ref="L1" dT="2024-05-31T03:31:01" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{78FFF1A9-ECF2-4CC4-A178-C6086FBF78E2}" ref="C2" dT="2024-06-14T02:49:51" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{6CB15705-4934-4B16-8559-C9A1F8C67BC3}" ref="A4" dT="2024-05-28T04:59:59" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  <threadedComment id="{80B34C05-1329-4072-AB3A-2CABABE36EDA}" ref="H9" dT="2024-06-14T02:51:06" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{DAB64034-7198-4C79-9C3A-FE7C93875331}" ref="K1" dT="2024-05-10T07:08:22" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
+  <threadedComment id="{B04EA547-02E2-43AD-B154-5C93939013F7}" ref="K1" dT="2024-05-10T07:08:22" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{e722cf17-24fe-4d28-a10a-a44b2d59e60e}" ref="K1" dT="2024-06-19T05:39:57" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{DAB64034-7198-4C79-9C3A-FE7C93875331}">
+  <threadedComment id="{2caaede9-782f-4cb7-b55a-cdf5aba5f9bc}" ref="K1" dT="2024-06-19T05:39:57" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{B04EA547-02E2-43AD-B154-5C93939013F7}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{37F4BCC1-E48A-477C-A20B-F02A50372317}" ref="L1" dT="2024-05-31T03:31:01" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{750904A7-93C5-4E33-B7B9-9088BA8EE5A3}" ref="H9" dT="2024-06-14T02:51:06" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{E973B395-03C5-412A-A4CD-0DEF435380CB}" ref="H6" dT="2024-06-14T02:50:34" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  <threadedComment id="{8A2CD61A-E765-4311-8E06-CCA1E1C27752}" ref="A4" dT="2024-05-28T04:59:59" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B915D934-ABAF-477C-B8E3-8A2DE9792654}" ref="E1" dT="2024-06-09T13:30:31" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
+  <threadedComment id="{D45FC291-7462-446F-A262-3CE6F27AC41E}" ref="E1" dT="2024-06-09T13:30:31" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,13 +642,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{91005D9D-B236-4609-8282-6732F2C06306}" ref="C6" dT="2024-06-14T02:49:20" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
+  <threadedComment id="{10DA4ECF-E072-4F13-A2CA-16BF09B60F50}" ref="C5" dT="2024-06-14T02:48:45" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  </threadedComment>
+  <threadedComment id="{D4188F25-F058-43BA-9F29-6AA83844D6A7}" ref="C6" dT="2024-06-14T02:49:20" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{9DBE0F20-664B-4E4B-B426-FDBB86490157}" ref="C5" dT="2024-06-14T02:48:45" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
-    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
-  </threadedComment>
-  <threadedComment id="{A1FB3437-31B2-4686-AE2F-F9BD3B10381B}" ref="E1" dT="2024-06-09T13:30:45" personId="{6A5CB496-7D95-47B1-9B14-5CBF4385684E}" parentId="{}">
+  <threadedComment id="{B33925F3-1FE8-489D-9E6D-790DC37F7728}" ref="E1" dT="2024-06-09T13:30:45" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -847,32 +847,32 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="6" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="6" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="6" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -982,7 +982,7 @@
       <c r="O7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="P7" s="6" t="str">
+      <c r="P7" s="3" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="4" t="str">
+      <c r="J1" s="6" t="str">
         <v>stage_graph</v>
       </c>
       <c r="K1" s="1" t="str">
@@ -1113,68 +1113,68 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="6" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="6" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="6" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="6" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="6" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="str">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="6" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5" t="str">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3" t="str">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="5" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1535,44 +1535,44 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="6" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="6" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="6" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="6" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="6" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -2047,49 +2047,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="6" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="6" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="6" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="6" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="6" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2125,7 +2125,7 @@
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -2134,7 +2134,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2172,7 +2172,7 @@
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -2181,13 +2181,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="6" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2227,13 +2227,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2275,7 +2275,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2300,7 +2300,7 @@
       <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2309,7 +2309,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2344,7 +2344,7 @@
       <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" s="5" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I12" s="2" t="str">

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -34,40 +34,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2D1EA1EC-C00E-4E25-9C8F-9D2C022B4CC7}</author>
-    <author>tc={1A31F0BB-0986-4838-BEC0-89688FC4B1AA}</author>
-    <author>tc={78FFF1A9-ECF2-4CC4-A178-C6086FBF78E2}</author>
-    <author>tc={80B34C05-1329-4072-AB3A-2CABABE36EDA}</author>
-    <author>tc={B04EA547-02E2-43AD-B154-5C93939013F7}</author>
-    <author>tc={8A2CD61A-E765-4311-8E06-CCA1E1C27752}</author>
+    <author>tc={1D06D745-2340-44FF-B192-8B5CA445BFA9}</author>
+    <author>tc={E9F42956-DE39-45A8-BA30-69ABD7D5E09B}</author>
+    <author>tc={5323419F-8064-4ED9-A746-23544D519C0F}</author>
+    <author>tc={DA953450-8C1E-4530-9F22-60F8DA03BDA9}</author>
+    <author>tc={9284AA92-70C1-47AC-9792-A7041194BF43}</author>
+    <author>tc={38F86BA1-0558-4BA1-AE5B-1FE570A158CC}</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{2D1EA1EC-C00E-4E25-9C8F-9D2C022B4CC7}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{1D06D745-2340-44FF-B192-8B5CA445BFA9}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{E9F42956-DE39-45A8-BA30-69ABD7D5E09B}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{5323419F-8064-4ED9-A746-23544D519C0F}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{DA953450-8C1E-4530-9F22-60F8DA03BDA9}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="4" shapeId="0" xr:uid="{9284AA92-70C1-47AC-9792-A7041194BF43}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{1A31F0BB-0986-4838-BEC0-89688FC4B1AA}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{78FFF1A9-ECF2-4CC4-A178-C6086FBF78E2}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="3" shapeId="0" xr:uid="{80B34C05-1329-4072-AB3A-2CABABE36EDA}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{B04EA547-02E2-43AD-B154-5C93939013F7}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{8A2CD61A-E765-4311-8E06-CCA1E1C27752}">
+    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{38F86BA1-0558-4BA1-AE5B-1FE570A158CC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
@@ -79,10 +79,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={D45FC291-7462-446F-A262-3CE6F27AC41E}</author>
+    <author>tc={791A3F56-3984-4F1C-A718-D4D36219D288}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D45FC291-7462-446F-A262-3CE6F27AC41E}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{791A3F56-3984-4F1C-A718-D4D36219D288}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,24 +94,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={10DA4ECF-E072-4F13-A2CA-16BF09B60F50}</author>
-    <author>tc={D4188F25-F058-43BA-9F29-6AA83844D6A7}</author>
-    <author>tc={B33925F3-1FE8-489D-9E6D-790DC37F7728}</author>
+    <author>tc={9EF1F3A1-6230-4F5D-9CB3-7B70FE859063}</author>
+    <author>tc={DF447A6A-5B9E-4A94-8249-82227F300E96}</author>
+    <author>tc={097A4952-525F-4BE9-996D-555C96C2B5A3}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{10DA4ECF-E072-4F13-A2CA-16BF09B60F50}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{9EF1F3A1-6230-4F5D-9CB3-7B70FE859063}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{D4188F25-F058-43BA-9F29-6AA83844D6A7}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{DF447A6A-5B9E-4A94-8249-82227F300E96}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{097A4952-525F-4BE9-996D-555C96C2B5A3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{B33925F3-1FE8-489D-9E6D-790DC37F7728}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
   </commentList>
@@ -183,14 +183,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -276,16 +276,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,8 +306,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{B2FCB94C-6203-4B68-9044-A32B5BFAC365}" userId="S::::eeef6203-b8d5-4309-a00b-e17b9914c8d7" providerId="AD"/>
-  <person displayName="杨行" id="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" userId="S::::3c8d4b5d-eacd-4d63-a282-9716e02a836a" providerId="AD"/>
+  <person displayName="杨行" id="{95C2776C-A795-478A-86D3-766EAA09B166}" userId="S::::c0e78dce-4cf1-46c0-8501-b60d73007352" providerId="AD"/>
+  <person displayName="侯清辰" id="{C02D4087-C37C-4CB4-A3B2-CEB4B2CBF6E8}" userId="S::::af3e07b1-e06a-4b0e-8aa3-ab9ed31dfc5f" providerId="AD"/>
 </personList>
 </file>
 
@@ -608,25 +608,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{2D1EA1EC-C00E-4E25-9C8F-9D2C022B4CC7}" ref="H6" dT="2024-06-14T02:50:34" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
+  <threadedComment id="{1D06D745-2340-44FF-B192-8B5CA445BFA9}" ref="L1" dT="2024-05-31T03:31:01" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{E9F42956-DE39-45A8-BA30-69ABD7D5E09B}" ref="H9" dT="2024-06-14T02:51:06" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{5323419F-8064-4ED9-A746-23544D519C0F}" ref="K1" dT="2024-05-10T07:08:22" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{82f3230d-45c2-4e78-b6a2-c6045302ffdf}" ref="K1" dT="2024-06-19T05:39:57" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{5323419F-8064-4ED9-A746-23544D519C0F}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{DA953450-8C1E-4530-9F22-60F8DA03BDA9}" ref="C2" dT="2024-06-14T02:49:51" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{9284AA92-70C1-47AC-9792-A7041194BF43}" ref="H6" dT="2024-06-14T02:50:34" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{1A31F0BB-0986-4838-BEC0-89688FC4B1AA}" ref="L1" dT="2024-05-31T03:31:01" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{78FFF1A9-ECF2-4CC4-A178-C6086FBF78E2}" ref="C2" dT="2024-06-14T02:49:51" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{80B34C05-1329-4072-AB3A-2CABABE36EDA}" ref="H9" dT="2024-06-14T02:51:06" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{B04EA547-02E2-43AD-B154-5C93939013F7}" ref="K1" dT="2024-05-10T07:08:22" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{2caaede9-782f-4cb7-b55a-cdf5aba5f9bc}" ref="K1" dT="2024-06-19T05:39:57" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{B04EA547-02E2-43AD-B154-5C93939013F7}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{8A2CD61A-E765-4311-8E06-CCA1E1C27752}" ref="A4" dT="2024-05-28T04:59:59" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
+  <threadedComment id="{38F86BA1-0558-4BA1-AE5B-1FE570A158CC}" ref="A4" dT="2024-05-28T04:59:59" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
@@ -634,7 +634,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{D45FC291-7462-446F-A262-3CE6F27AC41E}" ref="E1" dT="2024-06-09T13:30:31" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
+  <threadedComment id="{791A3F56-3984-4F1C-A718-D4D36219D288}" ref="E1" dT="2024-06-09T13:30:31" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,14 +642,14 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{10DA4ECF-E072-4F13-A2CA-16BF09B60F50}" ref="C5" dT="2024-06-14T02:48:45" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
+  <threadedComment id="{9EF1F3A1-6230-4F5D-9CB3-7B70FE859063}" ref="C5" dT="2024-06-14T02:48:45" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{D4188F25-F058-43BA-9F29-6AA83844D6A7}" ref="C6" dT="2024-06-14T02:49:20" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
+  <threadedComment id="{DF447A6A-5B9E-4A94-8249-82227F300E96}" ref="E1" dT="2024-06-09T13:30:45" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
+    <text>@宾晓华 这里</text>
+  </threadedComment>
+  <threadedComment id="{097A4952-525F-4BE9-996D-555C96C2B5A3}" ref="C6" dT="2024-06-14T02:49:20" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
-  </threadedComment>
-  <threadedComment id="{B33925F3-1FE8-489D-9E6D-790DC37F7728}" ref="E1" dT="2024-06-09T13:30:45" personId="{AEC83CD3-B37B-4BC1-B257-6BB7EF7F8723}" parentId="{}">
-    <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -847,32 +847,32 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -982,7 +982,7 @@
       <c r="O7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="P7" s="3" t="str">
+      <c r="P7" s="6" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="6" t="str">
+      <c r="J1" s="4" t="str">
         <v>stage_graph</v>
       </c>
       <c r="K1" s="1" t="str">
@@ -1113,68 +1113,68 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="str">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="6" t="str">
+      <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4" t="str">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="5" t="str">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1535,44 +1535,44 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -2047,49 +2047,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="6" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="6" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2125,7 +2125,7 @@
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -2134,7 +2134,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2172,7 +2172,7 @@
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -2181,13 +2181,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="6" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2227,13 +2227,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2275,7 +2275,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2300,7 +2300,7 @@
       <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2309,7 +2309,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2344,7 +2344,7 @@
       <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="5" t="str">
+      <c r="H12" s="3" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I12" s="2" t="str">

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="封面说明" sheetId="2" r:id="rId6"/>
-    <sheet name="World3" sheetId="3" r:id="rId7"/>
-    <sheet name="World2" sheetId="4" r:id="rId8"/>
+    <sheet name="Old2" sheetId="3" r:id="rId7"/>
+    <sheet name="Old1" sheetId="4" r:id="rId8"/>
     <sheet name="World1" sheetId="5" r:id="rId9"/>
-    <sheet name="Stage" sheetId="6" r:id="rId10"/>
-    <sheet name="Actor" sheetId="7" r:id="rId11"/>
-    <sheet name="Prop" sheetId="8" r:id="rId12"/>
-    <sheet name="WorldSystem" sheetId="9" r:id="rId13"/>
+    <sheet name="World2" sheetId="6" r:id="rId10"/>
+    <sheet name="Stage" sheetId="7" r:id="rId11"/>
+    <sheet name="Actor" sheetId="8" r:id="rId12"/>
+    <sheet name="Prop" sheetId="9" r:id="rId13"/>
+    <sheet name="WorldSystem" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -34,40 +35,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={1D06D745-2340-44FF-B192-8B5CA445BFA9}</author>
-    <author>tc={E9F42956-DE39-45A8-BA30-69ABD7D5E09B}</author>
-    <author>tc={5323419F-8064-4ED9-A746-23544D519C0F}</author>
-    <author>tc={DA953450-8C1E-4530-9F22-60F8DA03BDA9}</author>
-    <author>tc={9284AA92-70C1-47AC-9792-A7041194BF43}</author>
-    <author>tc={38F86BA1-0558-4BA1-AE5B-1FE570A158CC}</author>
+    <author>tc={558B86DB-4C02-4033-87D8-DEEC2809C95E}</author>
+    <author>tc={5FFE18F1-61C9-4C48-B0A8-97AA33B31FDF}</author>
+    <author>tc={2FC18E46-3F42-45A4-B9BC-AB824928DA3A}</author>
+    <author>tc={B3AE451A-FBA9-422B-80A5-096100AB257C}</author>
+    <author>tc={0E876619-2EB3-48BA-806D-3CAF6B57B855}</author>
+    <author>tc={05CD8E62-C471-4100-A967-F93282B36208}</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{1D06D745-2340-44FF-B192-8B5CA445BFA9}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{558B86DB-4C02-4033-87D8-DEEC2809C95E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{E9F42956-DE39-45A8-BA30-69ABD7D5E09B}">
+    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{5FFE18F1-61C9-4C48-B0A8-97AA33B31FDF}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{2FC18E46-3F42-45A4-B9BC-AB824928DA3A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{5323419F-8064-4ED9-A746-23544D519C0F}">
+    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{B3AE451A-FBA9-422B-80A5-096100AB257C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{DA953450-8C1E-4530-9F22-60F8DA03BDA9}">
+    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{0E876619-2EB3-48BA-806D-3CAF6B57B855}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="4" shapeId="0" xr:uid="{9284AA92-70C1-47AC-9792-A7041194BF43}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{38F86BA1-0558-4BA1-AE5B-1FE570A158CC}">
+    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{05CD8E62-C471-4100-A967-F93282B36208}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
@@ -79,10 +80,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={791A3F56-3984-4F1C-A718-D4D36219D288}</author>
+    <author>tc={8183CCC8-7E28-47AB-9A57-1FCA0ACB2B63}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{791A3F56-3984-4F1C-A718-D4D36219D288}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8183CCC8-7E28-47AB-9A57-1FCA0ACB2B63}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -94,22 +95,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9EF1F3A1-6230-4F5D-9CB3-7B70FE859063}</author>
-    <author>tc={DF447A6A-5B9E-4A94-8249-82227F300E96}</author>
-    <author>tc={097A4952-525F-4BE9-996D-555C96C2B5A3}</author>
+    <author>tc={B5A4DE12-48C7-40F1-8C18-D0067F0299A6}</author>
+    <author>tc={04350815-8D09-48B6-9B94-2E0960DAD844}</author>
+    <author>tc={31FCD485-CBD7-47F6-A17E-10E3AED1B195}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{9EF1F3A1-6230-4F5D-9CB3-7B70FE859063}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B5A4DE12-48C7-40F1-8C18-D0067F0299A6}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{04350815-8D09-48B6-9B94-2E0960DAD844}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{DF447A6A-5B9E-4A94-8249-82227F300E96}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{097A4952-525F-4BE9-996D-555C96C2B5A3}">
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{31FCD485-CBD7-47F6-A17E-10E3AED1B195}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
@@ -183,14 +184,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -276,13 +277,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -306,8 +307,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{95C2776C-A795-478A-86D3-766EAA09B166}" userId="S::::c0e78dce-4cf1-46c0-8501-b60d73007352" providerId="AD"/>
-  <person displayName="侯清辰" id="{C02D4087-C37C-4CB4-A3B2-CEB4B2CBF6E8}" userId="S::::af3e07b1-e06a-4b0e-8aa3-ab9ed31dfc5f" providerId="AD"/>
+  <person displayName="侯清辰" id="{1EE92085-56EE-46A7-AA90-62B3E9930771}" userId="S::::44e1f0df-11dc-40a1-be7a-18eaf157f590" providerId="AD"/>
+  <person displayName="杨行" id="{31105FAA-22CF-43A0-A772-87A93A54D63D}" userId="S::::0abf3398-ff7f-44fb-a9d1-91fd51d25acf" providerId="AD"/>
 </personList>
 </file>
 
@@ -608,25 +609,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{1D06D745-2340-44FF-B192-8B5CA445BFA9}" ref="L1" dT="2024-05-31T03:31:01" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
+  <threadedComment id="{558B86DB-4C02-4033-87D8-DEEC2809C95E}" ref="L1" dT="2024-05-31T03:31:01" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{E9F42956-DE39-45A8-BA30-69ABD7D5E09B}" ref="H9" dT="2024-06-14T02:51:06" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
+  <threadedComment id="{5FFE18F1-61C9-4C48-B0A8-97AA33B31FDF}" ref="H6" dT="2024-06-14T02:50:34" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{2FC18E46-3F42-45A4-B9BC-AB824928DA3A}" ref="H9" dT="2024-06-14T02:51:06" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{5323419F-8064-4ED9-A746-23544D519C0F}" ref="K1" dT="2024-05-10T07:08:22" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
+  <threadedComment id="{B3AE451A-FBA9-422B-80A5-096100AB257C}" ref="K1" dT="2024-05-10T07:08:22" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{82f3230d-45c2-4e78-b6a2-c6045302ffdf}" ref="K1" dT="2024-06-19T05:39:57" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{5323419F-8064-4ED9-A746-23544D519C0F}">
+  <threadedComment id="{579ff0d4-109f-4e5e-91f2-a417c865a252}" ref="K1" dT="2024-06-19T05:39:57" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{B3AE451A-FBA9-422B-80A5-096100AB257C}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{DA953450-8C1E-4530-9F22-60F8DA03BDA9}" ref="C2" dT="2024-06-14T02:49:51" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
+  <threadedComment id="{0E876619-2EB3-48BA-806D-3CAF6B57B855}" ref="C2" dT="2024-06-14T02:49:51" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{9284AA92-70C1-47AC-9792-A7041194BF43}" ref="H6" dT="2024-06-14T02:50:34" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{38F86BA1-0558-4BA1-AE5B-1FE570A158CC}" ref="A4" dT="2024-05-28T04:59:59" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
+  <threadedComment id="{05CD8E62-C471-4100-A967-F93282B36208}" ref="A4" dT="2024-05-28T04:59:59" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
@@ -634,7 +635,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{791A3F56-3984-4F1C-A718-D4D36219D288}" ref="E1" dT="2024-06-09T13:30:31" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
+  <threadedComment id="{8183CCC8-7E28-47AB-9A57-1FCA0ACB2B63}" ref="E1" dT="2024-06-09T13:30:31" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -642,16 +643,119 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{9EF1F3A1-6230-4F5D-9CB3-7B70FE859063}" ref="C5" dT="2024-06-14T02:48:45" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
+  <threadedComment id="{B5A4DE12-48C7-40F1-8C18-D0067F0299A6}" ref="E1" dT="2024-06-09T13:30:45" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
+    <text>@宾晓华 这里</text>
+  </threadedComment>
+  <threadedComment id="{04350815-8D09-48B6-9B94-2E0960DAD844}" ref="C5" dT="2024-06-14T02:48:45" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{DF447A6A-5B9E-4A94-8249-82227F300E96}" ref="E1" dT="2024-06-09T13:30:45" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
-    <text>@宾晓华 这里</text>
-  </threadedComment>
-  <threadedComment id="{097A4952-525F-4BE9-996D-555C96C2B5A3}" ref="C6" dT="2024-06-14T02:49:20" personId="{95C2776C-A795-478A-86D3-766EAA09B166}" parentId="{}">
+  <threadedComment id="{31FCD485-CBD7-47F6-A17E-10E3AED1B195}" ref="C6" dT="2024-06-14T02:49:20" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="74"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="60"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="46"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <v>codename</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>description</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>PORT</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>API</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <v>RAG</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <v>sys_prompt_template</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <v>agentpy_template</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>角色外观生成器</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>world_appearance_system</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8300</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <v>/worldsystems/world_appearance_system</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <v>sys_templates/three_kingdoms_world_system_sys_prompt_template.md</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v>技能系统</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>world_skill_system</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <v>- 你的功能是：根据我给你输入的信息，来判断是否可以释放技能和技能释放的效果。</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8301</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>/worldsystems/world_skill_system</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <v>sys_templates/three_kingdoms_world_system_sys_prompt_template.md</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,21 +962,21 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -982,7 +1086,7 @@
       <c r="O7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="P7" s="6" t="str">
+      <c r="P7" s="3" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1124,21 +1228,21 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
@@ -1154,27 +1258,27 @@
       <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5" t="str">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="3" t="str">
+      <c r="L4" s="5" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1546,13 +1650,13 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
@@ -1566,13 +1670,13 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -1653,6 +1757,182 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="true" workbookViewId="0">
+      <pane state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="47"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="141"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="49"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="49"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="193"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="14"/>
+  </cols>
+  <sheetData>
+    <row customHeight="true" ht="23" r="1">
+      <c r="A1" s="1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <v>type</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>description</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>actor_prop</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>actor_current_using_prop</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>stage_prop</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>actors_in_stage</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <v>kick_off_message</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <v>stage_graph</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <v>attributes</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>测试的游戏介绍</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>AboutGame</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>- 本游戏以中国历史中的三国时代（借鉴小说《三国演义》）为背景的 历史奇幻类 角色扮演游戏。
+- 本游戏融合了历史的真实感与奇幻元素。以“架空”的三国时代为背景。
+- 玩家和你将沉浸在一个充满战争、权谋、超自然恐怖与英雄主义的世界中。在复杂的联盟与背叛中穿梭，你们将面对激烈的战斗、黑暗的仪式，以及在乱世中求生的残酷现实。
+- 玩家和你的行为可改变游戏中的历史走向与历史人物的命运。
+- 游戏内容（文本）可能包含恐怖、血腥与暴力场景。这一切旨在为玩家带来深度沉浸式的体验。
+- 注意！请你接受以上设定。</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row customHeight="true" ht="42" r="3">
+      <c r="A3" s="4" t="str">
+        <v>角色外观生成器</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <v>WorldSystem</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <v>见‘WorldSystem’</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row customHeight="true" ht="42" r="4">
+      <c r="A4" s="1" t="str">
+        <v>技能系统</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v>WorldSystem</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>见‘WorldSystem’</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="str">
+        <v>人物.魏行</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>Actor</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
+        <v>阴蚀会盗墓装束</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>阴蚀会盗墓装束</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <v>### 环境
+- 你在这个封闭的空间内。准备寻找到一些宝贝。
+### 事件
+- 这个 秘密的地点 据你所知是张角制造妖兵的秘密基地。但是因为未知原因而废弃了，而且张角撤走了所有的守军。
+- 这正是你的好机会！</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <v>100,100,10,1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <v>人物.魏行</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <v>### 环境
+- 四周立着几根高大的石柱，柱顶燃烧着火焰，散发出幽暗的红光，照亮了整个房间。
+### 补充规则
+- 如果任何角色进入此场景，你就会对其低语(WhisperAction)，试图吓走对方。</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <v>10000,10000,1,10000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="7"/>
+    <row customHeight="true" ht="23" r="8"/>
+    <row customHeight="true" ht="23" r="9"/>
+    <row customHeight="true" ht="23" r="10"/>
+    <row customHeight="true" ht="23" r="11"/>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -1978,7 +2258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -2072,24 +2352,24 @@
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2134,7 +2414,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2181,7 +2461,7 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
@@ -2227,13 +2507,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2275,7 +2555,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2309,7 +2589,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2344,7 +2624,7 @@
       <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" s="5" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I12" s="2" t="str">
@@ -2356,7 +2636,61 @@
 胸前有黑色的印记，形状看上去犹如盘旋的黑色火焰。</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="13"/>
+    <row r="13">
+      <c r="A13" s="2" t="str">
+        <v>人物.魏行</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <v>actor_wei_xing</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <v>### 你的背景
+你名为魏行，出生在汉末的一个贫困家庭。幼年时，你的家园在战火中被摧毁，父母也惨遭杀害，你不得不在街头流浪，靠偷窃和乞讨为生。而后，阴蚀会的成员发现了你，并看中了你的街头智慧与生存本能，将你带入了组织。在阴蚀会，你接受了严苛的训练，成为了组织中的一员。专门负责探索古墓，寻找其中隐藏的秘宝和失落的知识。
+### 你的外观信息
+你是三十五岁左右的男性人类。你身材修长，皮肤略显黝黑。你的眼神锐利且警觉。你脸上有一道淡淡的疤痕。
+### 你的性格特征
+- 你精明狡猾，充满冒险精神。
+- 你对古物和历史充满敬畏。虽然你表现得冷酷无情。
+- 你对 阴蚀会 并非完全忠诚，内心对其真正目的和手段有所怀疑，但你知道目前还离不开这个组织。
+### 你的目标
+1. 你的主要目标是生存下去，并尽可能避免潜在威胁与冲突。
+2. 获取宝物。
+### 你的限制
+1. 你绝不能暴露身份：阴蚀会是一个高度秘密的组织，任何暴露组织身份的行为都将导致严重后果。
+2. 你不想引起注意：你必须小心翼翼地行事，避免引起不必要的注意。</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <v>
+- “哎，兄弟，莫慌，先等老子看看这东西哈，万一是个埋伏呢，千万别自作聪明。”
+- “嘿，莫怕嘛，老子见过大风大浪，还能被这点小场面整倒咯？跟到我，保证没错。”
+- “这点子花花肠子也想搞到我？哼，莫不是老子当成乡巴佬咯？”
+- “哈哈，我就晓得，哪个机关能难得到老子？这点本事，还是有滴！”
+- “不得行哦，这事情有点不对劲，恐怕有鬼，我们得赶紧脚底抹油咯！”
+- “你以为随便耍个花招就能整到我？老子可不是吃素的，非要整得你翻江倒海！”
+- “有点意思哈，这东西看起不太简单哦，来来来，老子再研究下，说不定有啥名堂。”
+- “挡老子路的，没一个有好下场的，你莫自讨没趣，乖乖闪一边去！”
+- “有些事情，甩都甩不掉。天王老子教老子最重要的一课就是，啥子人都不能信。”
+- “嘿，这次又是老子赢了嘛，看来今天运气不错嘛，不如去喝点小酒，庆贺一下？”</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8207</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <v>/actor/actor_wei_xing</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <v>三十五岁左右的男性人类。身材修长，皮肤略显黝黑。眼神锐利且警觉。脸上有一道淡淡的疤痕。</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="14"/>
     <row customHeight="true" ht="23" r="15"/>
     <row customHeight="true" ht="23" r="16"/>
@@ -2369,7 +2703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -2706,19 +3040,41 @@
         <v>rag/rag3.md</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="16"/>
+    <row customHeight="true" ht="23" r="16">
+      <c r="A16" s="2" t="str">
+        <v>飞炎咒</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <v>flying_flame_curse</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <v>Skill</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <v>发射小型火球</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <v>无</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <v>0,0,1,0</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="17">
       <c r="A17" s="2" t="str">
-        <v>飞炎咒</v>
+        <v>普通攻击</v>
       </c>
       <c r="B17" s="2" t="str">
-        <v>flying_flame_curse</v>
+        <v>normal_attack</v>
       </c>
       <c r="C17" s="2" t="str">
         <v>Skill</v>
       </c>
       <c r="D17" s="2" t="str">
-        <v>发射小型火球</v>
+        <v>只能人类使用。如果有武器就使用武器攻击。如没有武器就是徒手攻击。</v>
       </c>
       <c r="E17" s="2" t="str">
         <v>无</v>
@@ -2732,132 +3088,28 @@
     </row>
     <row customHeight="true" ht="23" r="18">
       <c r="A18" s="2" t="str">
-        <v>普通攻击</v>
+        <v>阴蚀会盗墓装束</v>
       </c>
       <c r="B18" s="2" t="str">
-        <v>normal_attack</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <v>Skill</v>
+        <v>tomb_raider_costume</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <v>Clothes</v>
       </c>
       <c r="D18" s="2" t="str">
-        <v>只能人类使用。如果有武器就使用武器攻击。如没有武器就是徒手攻击。</v>
+        <v>阴蚀会 的独特装束，专门为潜入、盗墓和探险而设计。这套衣服采用了轻便、耐磨的材料，能最大限度地减少行动中的噪音。衣服上的多个隐藏口袋可以存放各种工具和小物件，方便随时取用。</v>
       </c>
       <c r="E18" s="2" t="str">
-        <v>无</v>
+        <v>整体呈暗灰色，既能在夜间隐匿，又不易沾染尘土和污迹。上衣采用轻薄而坚韧的布料制成，胸前和背后有多个隐藏口袋。袖口和裤脚采用了紧身设计，防止在狭窄的空间中被障碍物勾住。衣领稍高，可以在寒冷的环境中拉起。腰间的皮带不仅用来固定装备，还挂着几个小型工具包。裤子采用宽松设计，腿部的口袋上装有细小的皮绳。</v>
       </c>
       <c r="F18" s="2" t="str">
-        <v>0,0,1,0</v>
+        <v>0,0,0,1</v>
       </c>
       <c r="G18" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="19"/>
-    <row customHeight="true" ht="23" r="20"/>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="74"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="60"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="46"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>codename</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>description</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>PORT</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>API</v>
-      </c>
-      <c r="F1" s="2" t="str">
-        <v>RAG</v>
-      </c>
-      <c r="G1" s="2" t="str">
-        <v>sys_prompt_template</v>
-      </c>
-      <c r="H1" s="2" t="str">
-        <v>agentpy_template</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>角色外观生成器</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>world_appearance_system</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>- 你的功能是：根据我给你输入的信息（如角色的身型信息与衣着），以第三人称生成角色的外观描述。</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8300</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>/worldsystems/world_appearance_system</v>
-      </c>
-      <c r="F2" s="2" t="str">
-        <v>rag/rag3.md</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <v>sys_templates/three_kingdoms_world_system_sys_prompt_template.md</v>
-      </c>
-      <c r="H2" s="2" t="str">
-        <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>技能系统</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>world_skill_system</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>- 你的功能是：根据我给你输入的信息，来判断是否可以释放技能和技能释放的效果。</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8301</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>/worldsystems/world_skill_system</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <v>rag/rag3.md</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <v>sys_templates/three_kingdoms_world_system_sys_prompt_template.md</v>
-      </c>
-      <c r="H3" s="2" t="str">
-        <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -35,42 +35,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={558B86DB-4C02-4033-87D8-DEEC2809C95E}</author>
-    <author>tc={5FFE18F1-61C9-4C48-B0A8-97AA33B31FDF}</author>
-    <author>tc={2FC18E46-3F42-45A4-B9BC-AB824928DA3A}</author>
-    <author>tc={B3AE451A-FBA9-422B-80A5-096100AB257C}</author>
-    <author>tc={0E876619-2EB3-48BA-806D-3CAF6B57B855}</author>
-    <author>tc={05CD8E62-C471-4100-A967-F93282B36208}</author>
+    <author>tc={D75BA7C0-80E5-4A2D-83B6-9CE526F95594}</author>
+    <author>tc={7E89D141-D2E0-4A18-A28E-1BEF91EAFE0C}</author>
+    <author>tc={A7674FB0-5BB3-4A50-8B12-AC192DAADC55}</author>
+    <author>tc={F40DCEF9-6F33-4CDA-ABE4-17F89C92E080}</author>
+    <author>tc={6021D931-1B86-43F1-A0EF-A6A20FB8897F}</author>
+    <author>tc={6AFE7605-5FF0-4A38-9A3A-980CA406432B}</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{558B86DB-4C02-4033-87D8-DEEC2809C95E}">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{D75BA7C0-80E5-4A2D-83B6-9CE526F95594}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{7E89D141-D2E0-4A18-A28E-1BEF91EAFE0C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{5FFE18F1-61C9-4C48-B0A8-97AA33B31FDF}">
+    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{A7674FB0-5BB3-4A50-8B12-AC192DAADC55}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{2FC18E46-3F42-45A4-B9BC-AB824928DA3A}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{B3AE451A-FBA9-422B-80A5-096100AB257C}">
+    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{F40DCEF9-6F33-4CDA-ABE4-17F89C92E080}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{0E876619-2EB3-48BA-806D-3CAF6B57B855}">
+    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{6021D931-1B86-43F1-A0EF-A6A20FB8897F}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{6AFE7605-5FF0-4A38-9A3A-980CA406432B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{05CD8E62-C471-4100-A967-F93282B36208}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
   </commentList>
@@ -80,10 +80,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={8183CCC8-7E28-47AB-9A57-1FCA0ACB2B63}</author>
+    <author>tc={3DA24033-5509-45E4-BD09-3385ADFF7D7A}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8183CCC8-7E28-47AB-9A57-1FCA0ACB2B63}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3DA24033-5509-45E4-BD09-3385ADFF7D7A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -95,24 +95,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B5A4DE12-48C7-40F1-8C18-D0067F0299A6}</author>
-    <author>tc={04350815-8D09-48B6-9B94-2E0960DAD844}</author>
-    <author>tc={31FCD485-CBD7-47F6-A17E-10E3AED1B195}</author>
+    <author>tc={08C3362A-DD26-4D35-AF2A-75F1EA6FE4C1}</author>
+    <author>tc={A4E15A38-0DF2-41AE-9DD4-16EB2EEB9372}</author>
+    <author>tc={86F18A81-EE82-466F-8624-E1F1BFCBCFAE}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B5A4DE12-48C7-40F1-8C18-D0067F0299A6}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{08C3362A-DD26-4D35-AF2A-75F1EA6FE4C1}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{A4E15A38-0DF2-41AE-9DD4-16EB2EEB9372}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{04350815-8D09-48B6-9B94-2E0960DAD844}">
+    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{86F18A81-EE82-466F-8624-E1F1BFCBCFAE}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{31FCD485-CBD7-47F6-A17E-10E3AED1B195}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
   </commentList>
@@ -120,27 +120,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <t xml:space="preserve">World3 和 World2 类似。但是，是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>@杨行</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> 用于测试与重构用的，目前只作为测试切换场景，场景限制条件与对场景使用道具用</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -307,8 +289,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{1EE92085-56EE-46A7-AA90-62B3E9930771}" userId="S::::44e1f0df-11dc-40a1-be7a-18eaf157f590" providerId="AD"/>
-  <person displayName="杨行" id="{31105FAA-22CF-43A0-A772-87A93A54D63D}" userId="S::::0abf3398-ff7f-44fb-a9d1-91fd51d25acf" providerId="AD"/>
+  <person displayName="杨行" id="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" userId="S::::2bed1b36-3f0d-4f93-a714-6f9beabc6677" providerId="AD"/>
+  <person displayName="侯清辰" id="{771E467D-BD58-4CCB-A8D4-3F1F05EC6BF7}" userId="S::::bd244206-f0bc-43df-a3b4-485f9993f05c" providerId="AD"/>
 </personList>
 </file>
 
@@ -609,33 +591,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{558B86DB-4C02-4033-87D8-DEEC2809C95E}" ref="L1" dT="2024-05-31T03:31:01" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
+  <threadedComment id="{D75BA7C0-80E5-4A2D-83B6-9CE526F95594}" ref="H9" dT="2024-06-14T02:51:06" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{7E89D141-D2E0-4A18-A28E-1BEF91EAFE0C}" ref="L1" dT="2024-05-31T03:31:01" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{5FFE18F1-61C9-4C48-B0A8-97AA33B31FDF}" ref="H6" dT="2024-06-14T02:50:34" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
+  <threadedComment id="{A7674FB0-5BB3-4A50-8B12-AC192DAADC55}" ref="H6" dT="2024-06-14T02:50:34" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{2FC18E46-3F42-45A4-B9BC-AB824928DA3A}" ref="H9" dT="2024-06-14T02:51:06" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{B3AE451A-FBA9-422B-80A5-096100AB257C}" ref="K1" dT="2024-05-10T07:08:22" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
+  <threadedComment id="{F40DCEF9-6F33-4CDA-ABE4-17F89C92E080}" ref="K1" dT="2024-05-10T07:08:22" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{579ff0d4-109f-4e5e-91f2-a417c865a252}" ref="K1" dT="2024-06-19T05:39:57" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{B3AE451A-FBA9-422B-80A5-096100AB257C}">
+  <threadedComment id="{077031a5-a5f3-4155-be78-fa178b5d14c8}" ref="K1" dT="2024-06-19T05:39:57" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{F40DCEF9-6F33-4CDA-ABE4-17F89C92E080}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{0E876619-2EB3-48BA-806D-3CAF6B57B855}" ref="C2" dT="2024-06-14T02:49:51" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
+  <threadedComment id="{6021D931-1B86-43F1-A0EF-A6A20FB8897F}" ref="A4" dT="2024-05-28T04:59:59" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{6AFE7605-5FF0-4A38-9A3A-980CA406432B}" ref="C2" dT="2024-06-14T02:49:51" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{05CD8E62-C471-4100-A967-F93282B36208}" ref="A4" dT="2024-05-28T04:59:59" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{8183CCC8-7E28-47AB-9A57-1FCA0ACB2B63}" ref="E1" dT="2024-06-09T13:30:31" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
+  <threadedComment id="{3DA24033-5509-45E4-BD09-3385ADFF7D7A}" ref="E1" dT="2024-06-09T13:30:31" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -643,14 +625,14 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B5A4DE12-48C7-40F1-8C18-D0067F0299A6}" ref="E1" dT="2024-06-09T13:30:45" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
+  <threadedComment id="{08C3362A-DD26-4D35-AF2A-75F1EA6FE4C1}" ref="C6" dT="2024-06-14T02:49:20" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  </threadedComment>
+  <threadedComment id="{A4E15A38-0DF2-41AE-9DD4-16EB2EEB9372}" ref="E1" dT="2024-06-09T13:30:45" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{04350815-8D09-48B6-9B94-2E0960DAD844}" ref="C5" dT="2024-06-14T02:48:45" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
+  <threadedComment id="{86F18A81-EE82-466F-8624-E1F1BFCBCFAE}" ref="C5" dT="2024-06-14T02:48:45" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
-  </threadedComment>
-  <threadedComment id="{31FCD485-CBD7-47F6-A17E-10E3AED1B195}" ref="C6" dT="2024-06-14T02:49:20" personId="{31105FAA-22CF-43A0-A772-87A93A54D63D}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -792,32 +774,22 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
-        <v>World2 是测试的世界，也可以根据规则生成World3? World???</v>
-      </c>
+      <c r="A1" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
-        <v>Stage，NPC，Prop均当作“数据库”用</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
-        <v>World2 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="1" t="str">
-        <v>World2 不仅从数据库中拿数据，也在World2中做关联性与初始化记忆的工作</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="7"/>
     <row customHeight="true" ht="23" r="8"/>
@@ -1910,13 +1882,20 @@
       <c r="B6" s="1" t="str">
         <v>Stage</v>
       </c>
+      <c r="F6" s="2" t="str">
+        <v>烧焦的仪式匕首</v>
+      </c>
       <c r="G6" s="2" t="str">
         <v>人物.魏行</v>
       </c>
       <c r="H6" s="2" t="str">
-        <v>### 环境
-- 四周立着几根高大的石柱，柱顶燃烧着火焰，散发出幽暗的红光，照亮了整个房间。
-### 补充规则
+        <v>### 你的补充环境信息
+- 四周立着几根高大的石柱，里面只有一些余烬。应该曾经是燃烧的火盆。
+- 空间整体是黑暗的，只有角落里有一支蜡烛，发出幽幽的红光，勉强提供一些照明。
+### 事件
+- 人物.魏行 在场景中鬼鬼祟祟，似乎在寻找着什么。
+- 烧焦的仪式匕首 插在在某个焦黑的尸体上。
+### 你的补充规则
 - 如果任何角色进入此场景，你就会对其低语(WhisperAction)，试图吓走对方。</v>
       </c>
       <c r="J6" s="1" t="str">
@@ -3109,7 +3088,39 @@
         <v>rag/rag3.md</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="19"/>
+    <row customHeight="true" ht="23" r="19">
+      <c r="A19" s="2" t="str">
+        <v>烧焦的仪式匕首</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <v>charred_ritual_dagger</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <v>Weapon</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <v>曾经是某个仪式中的核心道具，被用来执行不为人知的黑暗仪式。在一次失败的实验或仪式中，匕首连同它的持有者一同被炙热的火焰吞噬。尽管刀身已被火焰炙烤得焦黑，但锋利的刃口依旧保存完好。匕首的握柄由某种特殊的皮革制成，即使在高温中也没有完全化为灰烬，显示出这把匕首非同寻常的来源和用途。</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <v>长约一尺，刀身被炙热的火焰灼烧得通体焦黑，表面还残留着些许烧焦的纹路。握柄处缠绕着一层已焦化的深色皮革，手指触摸时仍能感觉到一丝微弱的灼热。匕首的尾端镶嵌着一颗被火焰灼烧后变得浑浊的红色宝石。</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <v>0,0,1,0</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="20"/>
+    <row customHeight="true" ht="23" r="21"/>
+    <row customHeight="true" ht="23" r="22"/>
+    <row customHeight="true" ht="23" r="23"/>
+    <row customHeight="true" ht="23" r="24"/>
+    <row customHeight="true" ht="23" r="25"/>
+    <row customHeight="true" ht="23" r="26"/>
+    <row customHeight="true" ht="23" r="27"/>
+    <row customHeight="true" ht="23" r="28"/>
+    <row customHeight="true" ht="23" r="29"/>
   </sheetData>
 </worksheet>
 </file>
--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -35,42 +35,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={D75BA7C0-80E5-4A2D-83B6-9CE526F95594}</author>
-    <author>tc={7E89D141-D2E0-4A18-A28E-1BEF91EAFE0C}</author>
-    <author>tc={A7674FB0-5BB3-4A50-8B12-AC192DAADC55}</author>
-    <author>tc={F40DCEF9-6F33-4CDA-ABE4-17F89C92E080}</author>
-    <author>tc={6021D931-1B86-43F1-A0EF-A6A20FB8897F}</author>
-    <author>tc={6AFE7605-5FF0-4A38-9A3A-980CA406432B}</author>
+    <author>tc={E37844A6-D7B1-4FBC-9E36-BE52EFAC0AA4}</author>
+    <author>tc={A601987C-6F73-4CDC-AF52-5B3E481FF76B}</author>
+    <author>tc={21405595-B4F3-4527-880F-C9B102114525}</author>
+    <author>tc={B9003479-8968-449C-B3D3-34FBF3CE2E5E}</author>
+    <author>tc={6B761EF5-91BE-402A-8809-3EC73F3D943E}</author>
+    <author>tc={98A65731-0FDD-405D-ADFE-58825704E2F1}</author>
   </authors>
   <commentList>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{D75BA7C0-80E5-4A2D-83B6-9CE526F95594}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{E37844A6-D7B1-4FBC-9E36-BE52EFAC0AA4}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{A601987C-6F73-4CDC-AF52-5B3E481FF76B}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{7E89D141-D2E0-4A18-A28E-1BEF91EAFE0C}">
+    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{21405595-B4F3-4527-880F-C9B102114525}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{A7674FB0-5BB3-4A50-8B12-AC192DAADC55}">
+    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{B9003479-8968-449C-B3D3-34FBF3CE2E5E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{F40DCEF9-6F33-4CDA-ABE4-17F89C92E080}">
+    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{6B761EF5-91BE-402A-8809-3EC73F3D943E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{6021D931-1B86-43F1-A0EF-A6A20FB8897F}">
+    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{98A65731-0FDD-405D-ADFE-58825704E2F1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{6AFE7605-5FF0-4A38-9A3A-980CA406432B}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
   </commentList>
@@ -80,10 +80,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3DA24033-5509-45E4-BD09-3385ADFF7D7A}</author>
+    <author>tc={61C37FF6-9DC1-4550-BF0F-BB1280446B80}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3DA24033-5509-45E4-BD09-3385ADFF7D7A}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{61C37FF6-9DC1-4550-BF0F-BB1280446B80}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -95,24 +95,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={08C3362A-DD26-4D35-AF2A-75F1EA6FE4C1}</author>
-    <author>tc={A4E15A38-0DF2-41AE-9DD4-16EB2EEB9372}</author>
-    <author>tc={86F18A81-EE82-466F-8624-E1F1BFCBCFAE}</author>
+    <author>tc={203132F8-F9E6-485E-87D8-BAF0900A46C4}</author>
+    <author>tc={32CE2E06-6F43-4E84-B8ED-F09EF0D676D4}</author>
+    <author>tc={174347C6-732E-4FE9-89BE-6585C6AACF76}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{08C3362A-DD26-4D35-AF2A-75F1EA6FE4C1}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{A4E15A38-0DF2-41AE-9DD4-16EB2EEB9372}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{203132F8-F9E6-485E-87D8-BAF0900A46C4}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{86F18A81-EE82-466F-8624-E1F1BFCBCFAE}">
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{32CE2E06-6F43-4E84-B8ED-F09EF0D676D4}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{174347C6-732E-4FE9-89BE-6585C6AACF76}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
   </commentList>
@@ -166,14 +166,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -259,10 +259,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
@@ -289,8 +289,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" userId="S::::2bed1b36-3f0d-4f93-a714-6f9beabc6677" providerId="AD"/>
-  <person displayName="侯清辰" id="{771E467D-BD58-4CCB-A8D4-3F1F05EC6BF7}" userId="S::::bd244206-f0bc-43df-a3b4-485f9993f05c" providerId="AD"/>
+  <person displayName="杨行" id="{65CF927A-0CE6-4658-B701-01A9952034BB}" userId="S::::400eb471-921c-45dc-99fa-f8af3d032151" providerId="AD"/>
+  <person displayName="侯清辰" id="{04197AF1-1CC1-4DEE-BF16-8D9495CD7545}" userId="S::::b65eb3ed-2787-411a-b24d-fc851838247b" providerId="AD"/>
 </personList>
 </file>
 
@@ -591,33 +591,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{D75BA7C0-80E5-4A2D-83B6-9CE526F95594}" ref="H9" dT="2024-06-14T02:51:06" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
+  <threadedComment id="{E37844A6-D7B1-4FBC-9E36-BE52EFAC0AA4}" ref="C2" dT="2024-06-14T02:49:51" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{A601987C-6F73-4CDC-AF52-5B3E481FF76B}" ref="H9" dT="2024-06-14T02:51:06" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{7E89D141-D2E0-4A18-A28E-1BEF91EAFE0C}" ref="L1" dT="2024-05-31T03:31:01" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
+  <threadedComment id="{21405595-B4F3-4527-880F-C9B102114525}" ref="L1" dT="2024-05-31T03:31:01" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{A7674FB0-5BB3-4A50-8B12-AC192DAADC55}" ref="H6" dT="2024-06-14T02:50:34" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
+  <threadedComment id="{B9003479-8968-449C-B3D3-34FBF3CE2E5E}" ref="H6" dT="2024-06-14T02:50:34" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{F40DCEF9-6F33-4CDA-ABE4-17F89C92E080}" ref="K1" dT="2024-05-10T07:08:22" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
+  <threadedComment id="{6B761EF5-91BE-402A-8809-3EC73F3D943E}" ref="K1" dT="2024-05-10T07:08:22" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{077031a5-a5f3-4155-be78-fa178b5d14c8}" ref="K1" dT="2024-06-19T05:39:57" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{F40DCEF9-6F33-4CDA-ABE4-17F89C92E080}">
+  <threadedComment id="{c0395552-dc4b-4af3-8072-96b90a48b944}" ref="K1" dT="2024-06-19T05:39:57" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{6B761EF5-91BE-402A-8809-3EC73F3D943E}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{6021D931-1B86-43F1-A0EF-A6A20FB8897F}" ref="A4" dT="2024-05-28T04:59:59" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
+  <threadedComment id="{98A65731-0FDD-405D-ADFE-58825704E2F1}" ref="A4" dT="2024-05-28T04:59:59" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{6AFE7605-5FF0-4A38-9A3A-980CA406432B}" ref="C2" dT="2024-06-14T02:49:51" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{3DA24033-5509-45E4-BD09-3385ADFF7D7A}" ref="E1" dT="2024-06-09T13:30:31" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
+  <threadedComment id="{61C37FF6-9DC1-4550-BF0F-BB1280446B80}" ref="E1" dT="2024-06-09T13:30:31" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -625,14 +625,14 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{08C3362A-DD26-4D35-AF2A-75F1EA6FE4C1}" ref="C6" dT="2024-06-14T02:49:20" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
-  </threadedComment>
-  <threadedComment id="{A4E15A38-0DF2-41AE-9DD4-16EB2EEB9372}" ref="E1" dT="2024-06-09T13:30:45" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
+  <threadedComment id="{203132F8-F9E6-485E-87D8-BAF0900A46C4}" ref="E1" dT="2024-06-09T13:30:45" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{86F18A81-EE82-466F-8624-E1F1BFCBCFAE}" ref="C5" dT="2024-06-14T02:48:45" personId="{27CA2F73-BCB7-4D0E-A21D-238C818550AC}" parentId="{}">
+  <threadedComment id="{32CE2E06-6F43-4E84-B8ED-F09EF0D676D4}" ref="C5" dT="2024-06-14T02:48:45" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  </threadedComment>
+  <threadedComment id="{174347C6-732E-4FE9-89BE-6585C6AACF76}" ref="C6" dT="2024-06-14T02:49:20" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -652,7 +652,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="74"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="60"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="46"/>
@@ -923,32 +923,32 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1058,7 +1058,7 @@
       <c r="O7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="P7" s="3" t="str">
+      <c r="P7" s="6" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="4" t="str">
+      <c r="J1" s="5" t="str">
         <v>stage_graph</v>
       </c>
       <c r="K1" s="1" t="str">
@@ -1189,68 +1189,68 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="str">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="5" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="str">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5" t="str">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1611,44 +1611,44 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="str">
-        <v>黑火印记;粗布牢服;普通攻击;飞炎咒;</v>
+        <v>黑火印记;粗布牢服;普通攻击;妖法.飞炎咒;</v>
       </c>
       <c r="E5" s="1" t="str">
         <v>粗布牢服</v>
@@ -1811,44 +1811,44 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -1868,7 +1868,7 @@
         <v>### 环境
 - 你在这个封闭的空间内。准备寻找到一些宝贝。
 ### 事件
-- 这个 秘密的地点 据你所知是张角制造妖兵的秘密基地。但是因为未知原因而废弃了，而且张角撤走了所有的守军。
+- 这个 秘密的地点 据你所知是 @人物.张角 制造妖兵的秘密基地。但是因为未知原因而废弃了，而且撤走了所有的守军。
 - 这正是你的好机会！</v>
       </c>
       <c r="J5" s="2" t="str">
@@ -2217,7 +2217,7 @@
         <v>rag/rag3.md</v>
       </c>
       <c r="H11" s="2" t="str">
-        <v>sys_templates/three_kingdoms_stage_sys_prompt_template2.md</v>
+        <v>sys_templates/three_kingdoms_stage_sys_prompt_template.md</v>
       </c>
       <c r="I11" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
@@ -2306,49 +2306,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="5" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2384,7 +2384,7 @@
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -2393,7 +2393,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2431,7 +2431,7 @@
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -2440,13 +2440,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="5" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2486,13 +2486,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2534,7 +2534,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2559,7 +2559,7 @@
       <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2568,7 +2568,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2603,7 +2603,7 @@
       <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="5" t="str">
+      <c r="H12" s="3" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I12" s="2" t="str">
@@ -2660,7 +2660,7 @@
       <c r="G13" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H13" s="5" t="str">
+      <c r="H13" s="3" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I13" s="2" t="str">
@@ -3021,7 +3021,7 @@
     </row>
     <row customHeight="true" ht="23" r="16">
       <c r="A16" s="2" t="str">
-        <v>飞炎咒</v>
+        <v>妖法.飞炎咒</v>
       </c>
       <c r="B16" s="2" t="str">
         <v>flying_flame_curse</v>
@@ -3030,7 +3030,7 @@
         <v>Skill</v>
       </c>
       <c r="D16" s="2" t="str">
-        <v>发射小型火球</v>
+        <v>发射小型火球，威力并不大。只有红色眼睛的妖兵才能使用。</v>
       </c>
       <c r="E16" s="2" t="str">
         <v>无</v>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -35,42 +35,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E37844A6-D7B1-4FBC-9E36-BE52EFAC0AA4}</author>
-    <author>tc={A601987C-6F73-4CDC-AF52-5B3E481FF76B}</author>
-    <author>tc={21405595-B4F3-4527-880F-C9B102114525}</author>
-    <author>tc={B9003479-8968-449C-B3D3-34FBF3CE2E5E}</author>
-    <author>tc={6B761EF5-91BE-402A-8809-3EC73F3D943E}</author>
-    <author>tc={98A65731-0FDD-405D-ADFE-58825704E2F1}</author>
+    <author>tc={A8AA5B2D-C09D-44D4-9D96-8A753D3CACCE}</author>
+    <author>tc={51D4E305-0D90-4BC1-B15F-D3B89B73037D}</author>
+    <author>tc={35ED6C61-BF47-41FE-83CB-70A74FC806A2}</author>
+    <author>tc={AD4019C3-C2BC-4A29-89FE-DBA3ED697840}</author>
+    <author>tc={A9B7168F-D8C8-447A-AEAD-3482B2A3D9B9}</author>
+    <author>tc={EF01CA82-0F11-4F50-8000-43006092E19C}</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{E37844A6-D7B1-4FBC-9E36-BE52EFAC0AA4}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{A8AA5B2D-C09D-44D4-9D96-8A753D3CACCE}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{A601987C-6F73-4CDC-AF52-5B3E481FF76B}">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{51D4E305-0D90-4BC1-B15F-D3B89B73037D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{35ED6C61-BF47-41FE-83CB-70A74FC806A2}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{21405595-B4F3-4527-880F-C9B102114525}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{B9003479-8968-449C-B3D3-34FBF3CE2E5E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{6B761EF5-91BE-402A-8809-3EC73F3D943E}">
+    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{AD4019C3-C2BC-4A29-89FE-DBA3ED697840}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="5" shapeId="0" xr:uid="{98A65731-0FDD-405D-ADFE-58825704E2F1}">
+    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{A9B7168F-D8C8-447A-AEAD-3482B2A3D9B9}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{EF01CA82-0F11-4F50-8000-43006092E19C}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
   </commentList>
@@ -80,10 +80,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={61C37FF6-9DC1-4550-BF0F-BB1280446B80}</author>
+    <author>tc={469E3E83-D53E-4C31-9DEF-6D70F458DA16}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{61C37FF6-9DC1-4550-BF0F-BB1280446B80}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{469E3E83-D53E-4C31-9DEF-6D70F458DA16}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -95,24 +95,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={203132F8-F9E6-485E-87D8-BAF0900A46C4}</author>
-    <author>tc={32CE2E06-6F43-4E84-B8ED-F09EF0D676D4}</author>
-    <author>tc={174347C6-732E-4FE9-89BE-6585C6AACF76}</author>
+    <author>tc={B6BE9C68-E4C8-4239-B2A2-93AC2824E99B}</author>
+    <author>tc={FA685D12-2C18-49F2-822B-3B9DB7D0DF5D}</author>
+    <author>tc={BCB1E3B0-0F45-49FA-97C0-3F151825AD6E}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{203132F8-F9E6-485E-87D8-BAF0900A46C4}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{B6BE9C68-E4C8-4239-B2A2-93AC2824E99B}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{FA685D12-2C18-49F2-822B-3B9DB7D0DF5D}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{32CE2E06-6F43-4E84-B8ED-F09EF0D676D4}">
+    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{BCB1E3B0-0F45-49FA-97C0-3F151825AD6E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{174347C6-732E-4FE9-89BE-6585C6AACF76}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
   </commentList>
@@ -166,14 +166,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -259,10 +259,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
@@ -289,8 +289,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{65CF927A-0CE6-4658-B701-01A9952034BB}" userId="S::::400eb471-921c-45dc-99fa-f8af3d032151" providerId="AD"/>
-  <person displayName="侯清辰" id="{04197AF1-1CC1-4DEE-BF16-8D9495CD7545}" userId="S::::b65eb3ed-2787-411a-b24d-fc851838247b" providerId="AD"/>
+  <person displayName="侯清辰" id="{02E77EFB-DF9D-4D51-81D1-DA71A9699E6C}" userId="S::::0be58231-7ee4-4bba-906f-20d513973741" providerId="AD"/>
+  <person displayName="杨行" id="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" userId="S::::e30b959e-e59a-4012-ab43-d49d11d7b67a" providerId="AD"/>
 </personList>
 </file>
 
@@ -591,33 +591,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E37844A6-D7B1-4FBC-9E36-BE52EFAC0AA4}" ref="C2" dT="2024-06-14T02:49:51" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  <threadedComment id="{A8AA5B2D-C09D-44D4-9D96-8A753D3CACCE}" ref="H6" dT="2024-06-14T02:50:34" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{A601987C-6F73-4CDC-AF52-5B3E481FF76B}" ref="H9" dT="2024-06-14T02:51:06" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
+  <threadedComment id="{51D4E305-0D90-4BC1-B15F-D3B89B73037D}" ref="L1" dT="2024-05-31T03:31:01" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{35ED6C61-BF47-41FE-83CB-70A74FC806A2}" ref="H9" dT="2024-06-14T02:51:06" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{21405595-B4F3-4527-880F-C9B102114525}" ref="L1" dT="2024-05-31T03:31:01" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{B9003479-8968-449C-B3D3-34FBF3CE2E5E}" ref="H6" dT="2024-06-14T02:50:34" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{6B761EF5-91BE-402A-8809-3EC73F3D943E}" ref="K1" dT="2024-05-10T07:08:22" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
+  <threadedComment id="{AD4019C3-C2BC-4A29-89FE-DBA3ED697840}" ref="K1" dT="2024-05-10T07:08:22" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{c0395552-dc4b-4af3-8072-96b90a48b944}" ref="K1" dT="2024-06-19T05:39:57" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{6B761EF5-91BE-402A-8809-3EC73F3D943E}">
+  <threadedComment id="{4effa23e-d729-44e0-8219-ece4c649aa1f}" ref="K1" dT="2024-06-19T05:39:57" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{AD4019C3-C2BC-4A29-89FE-DBA3ED697840}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{98A65731-0FDD-405D-ADFE-58825704E2F1}" ref="A4" dT="2024-05-28T04:59:59" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
+  <threadedComment id="{A9B7168F-D8C8-447A-AEAD-3482B2A3D9B9}" ref="A4" dT="2024-05-28T04:59:59" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{EF01CA82-0F11-4F50-8000-43006092E19C}" ref="C2" dT="2024-06-14T02:49:51" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{61C37FF6-9DC1-4550-BF0F-BB1280446B80}" ref="E1" dT="2024-06-09T13:30:31" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
+  <threadedComment id="{469E3E83-D53E-4C31-9DEF-6D70F458DA16}" ref="E1" dT="2024-06-09T13:30:31" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -625,14 +625,14 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{203132F8-F9E6-485E-87D8-BAF0900A46C4}" ref="E1" dT="2024-06-09T13:30:45" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
+  <threadedComment id="{B6BE9C68-E4C8-4239-B2A2-93AC2824E99B}" ref="C6" dT="2024-06-14T02:49:20" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  </threadedComment>
+  <threadedComment id="{FA685D12-2C18-49F2-822B-3B9DB7D0DF5D}" ref="E1" dT="2024-06-09T13:30:45" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
-  <threadedComment id="{32CE2E06-6F43-4E84-B8ED-F09EF0D676D4}" ref="C5" dT="2024-06-14T02:48:45" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
+  <threadedComment id="{BCB1E3B0-0F45-49FA-97C0-3F151825AD6E}" ref="C5" dT="2024-06-14T02:48:45" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
-  </threadedComment>
-  <threadedComment id="{174347C6-732E-4FE9-89BE-6585C6AACF76}" ref="C6" dT="2024-06-14T02:49:20" personId="{65CF927A-0CE6-4658-B701-01A9952034BB}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -923,32 +923,32 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1058,7 +1058,7 @@
       <c r="O7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="P7" s="6" t="str">
+      <c r="P7" s="3" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="5" t="str">
+      <c r="J1" s="4" t="str">
         <v>stage_graph</v>
       </c>
       <c r="K1" s="1" t="str">
@@ -1189,68 +1189,68 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="str">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="str">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="3" t="str">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1611,44 +1611,44 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -1811,44 +1811,44 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -2306,49 +2306,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2384,7 +2384,7 @@
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -2393,7 +2393,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2431,7 +2431,7 @@
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -2440,13 +2440,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2486,13 +2486,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2534,7 +2534,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2559,7 +2559,7 @@
       <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2568,7 +2568,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2603,7 +2603,7 @@
       <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" s="5" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I12" s="2" t="str">
@@ -2660,7 +2660,7 @@
       <c r="G13" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="H13" s="5" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I13" s="2" t="str">

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -35,42 +35,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A8AA5B2D-C09D-44D4-9D96-8A753D3CACCE}</author>
-    <author>tc={51D4E305-0D90-4BC1-B15F-D3B89B73037D}</author>
-    <author>tc={35ED6C61-BF47-41FE-83CB-70A74FC806A2}</author>
-    <author>tc={AD4019C3-C2BC-4A29-89FE-DBA3ED697840}</author>
-    <author>tc={A9B7168F-D8C8-447A-AEAD-3482B2A3D9B9}</author>
-    <author>tc={EF01CA82-0F11-4F50-8000-43006092E19C}</author>
+    <author>tc={DDDA71E1-A86C-486C-BDD4-0E74A5E1340F}</author>
+    <author>tc={A734E757-C246-49D4-A4C4-B3E8269902E5}</author>
+    <author>tc={255D5D46-58AF-4498-9D9F-C16BAE80D5E8}</author>
+    <author>tc={E27AC1F3-6295-45E0-86E0-C5FC8923AE35}</author>
+    <author>tc={7173FE6D-92F6-46B5-9365-D265F900F4DA}</author>
+    <author>tc={2E94FD84-06A7-496C-B65D-B73CB59184FF}</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{A8AA5B2D-C09D-44D4-9D96-8A753D3CACCE}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{DDDA71E1-A86C-486C-BDD4-0E74A5E1340F}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{A734E757-C246-49D4-A4C4-B3E8269902E5}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{255D5D46-58AF-4498-9D9F-C16BAE80D5E8}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{E27AC1F3-6295-45E0-86E0-C5FC8923AE35}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{51D4E305-0D90-4BC1-B15F-D3B89B73037D}">
+    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{7173FE6D-92F6-46B5-9365-D265F900F4DA}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{35ED6C61-BF47-41FE-83CB-70A74FC806A2}">
+    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{2E94FD84-06A7-496C-B65D-B73CB59184FF}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{AD4019C3-C2BC-4A29-89FE-DBA3ED697840}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{A9B7168F-D8C8-447A-AEAD-3482B2A3D9B9}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{EF01CA82-0F11-4F50-8000-43006092E19C}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
   </commentList>
@@ -80,10 +80,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={469E3E83-D53E-4C31-9DEF-6D70F458DA16}</author>
+    <author>tc={3DF18ADB-AFFF-4739-8979-660692F450C1}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{469E3E83-D53E-4C31-9DEF-6D70F458DA16}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3DF18ADB-AFFF-4739-8979-660692F450C1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -95,24 +95,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B6BE9C68-E4C8-4239-B2A2-93AC2824E99B}</author>
-    <author>tc={FA685D12-2C18-49F2-822B-3B9DB7D0DF5D}</author>
-    <author>tc={BCB1E3B0-0F45-49FA-97C0-3F151825AD6E}</author>
+    <author>tc={99DEB940-A712-436D-A48A-6FB25B08EA05}</author>
+    <author>tc={C1CC45CE-89EF-4D91-97A9-B71F3BC54FAD}</author>
+    <author>tc={FC58461F-1878-42ED-ADDC-E5713C0FC96F}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{B6BE9C68-E4C8-4239-B2A2-93AC2824E99B}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{99DEB940-A712-436D-A48A-6FB25B08EA05}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{C1CC45CE-89EF-4D91-97A9-B71F3BC54FAD}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{FA685D12-2C18-49F2-822B-3B9DB7D0DF5D}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{FC58461F-1878-42ED-ADDC-E5713C0FC96F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="2" shapeId="0" xr:uid="{BCB1E3B0-0F45-49FA-97C0-3F151825AD6E}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
   </commentList>
@@ -159,14 +159,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -289,8 +289,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{02E77EFB-DF9D-4D51-81D1-DA71A9699E6C}" userId="S::::0be58231-7ee4-4bba-906f-20d513973741" providerId="AD"/>
-  <person displayName="杨行" id="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" userId="S::::e30b959e-e59a-4012-ab43-d49d11d7b67a" providerId="AD"/>
+  <person displayName="杨行" id="{4D3B380E-0529-40B0-B1A5-03444053399B}" userId="S::::c87becd4-0147-42c8-88bf-6a9b893c3d8c" providerId="AD"/>
+  <person displayName="侯清辰" id="{5D860898-F5E8-4AE1-83C7-3D3242765DF5}" userId="S::::c38cc05c-5bfd-4089-b97a-866350dbfce4" providerId="AD"/>
 </personList>
 </file>
 
@@ -591,33 +591,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{A8AA5B2D-C09D-44D4-9D96-8A753D3CACCE}" ref="H6" dT="2024-06-14T02:50:34" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
+  <threadedComment id="{DDDA71E1-A86C-486C-BDD4-0E74A5E1340F}" ref="K1" dT="2024-05-10T07:08:22" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{becf019b-aa39-41da-b289-f4fd119983d9}" ref="K1" dT="2024-06-19T05:39:57" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{DDDA71E1-A86C-486C-BDD4-0E74A5E1340F}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{A734E757-C246-49D4-A4C4-B3E8269902E5}" ref="A4" dT="2024-05-28T04:59:59" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{255D5D46-58AF-4498-9D9F-C16BAE80D5E8}" ref="C2" dT="2024-06-14T02:49:51" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{E27AC1F3-6295-45E0-86E0-C5FC8923AE35}" ref="H6" dT="2024-06-14T02:50:34" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{51D4E305-0D90-4BC1-B15F-D3B89B73037D}" ref="L1" dT="2024-05-31T03:31:01" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
+  <threadedComment id="{7173FE6D-92F6-46B5-9365-D265F900F4DA}" ref="L1" dT="2024-05-31T03:31:01" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{35ED6C61-BF47-41FE-83CB-70A74FC806A2}" ref="H9" dT="2024-06-14T02:51:06" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
+  <threadedComment id="{2E94FD84-06A7-496C-B65D-B73CB59184FF}" ref="H9" dT="2024-06-14T02:51:06" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{AD4019C3-C2BC-4A29-89FE-DBA3ED697840}" ref="K1" dT="2024-05-10T07:08:22" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{4effa23e-d729-44e0-8219-ece4c649aa1f}" ref="K1" dT="2024-06-19T05:39:57" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{AD4019C3-C2BC-4A29-89FE-DBA3ED697840}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{A9B7168F-D8C8-447A-AEAD-3482B2A3D9B9}" ref="A4" dT="2024-05-28T04:59:59" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{EF01CA82-0F11-4F50-8000-43006092E19C}" ref="C2" dT="2024-06-14T02:49:51" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{469E3E83-D53E-4C31-9DEF-6D70F458DA16}" ref="E1" dT="2024-06-09T13:30:31" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
+  <threadedComment id="{3DF18ADB-AFFF-4739-8979-660692F450C1}" ref="E1" dT="2024-06-09T13:30:31" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -625,14 +625,14 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{B6BE9C68-E4C8-4239-B2A2-93AC2824E99B}" ref="C6" dT="2024-06-14T02:49:20" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
+  <threadedComment id="{99DEB940-A712-436D-A48A-6FB25B08EA05}" ref="C5" dT="2024-06-14T02:48:45" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  </threadedComment>
+  <threadedComment id="{C1CC45CE-89EF-4D91-97A9-B71F3BC54FAD}" ref="C6" dT="2024-06-14T02:49:20" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{FA685D12-2C18-49F2-822B-3B9DB7D0DF5D}" ref="E1" dT="2024-06-09T13:30:45" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
+  <threadedComment id="{FC58461F-1878-42ED-ADDC-E5713C0FC96F}" ref="E1" dT="2024-06-09T13:30:45" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
     <text>@宾晓华 这里</text>
-  </threadedComment>
-  <threadedComment id="{BCB1E3B0-0F45-49FA-97C0-3F151825AD6E}" ref="C5" dT="2024-06-14T02:48:45" personId="{83048FF9-96A0-4F24-8CB2-2B6E60C031B2}" parentId="{}">
-    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -923,32 +923,32 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1138,7 +1138,7 @@
       <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="4" t="str">
+      <c r="J1" s="5" t="str">
         <v>stage_graph</v>
       </c>
       <c r="K1" s="1" t="str">
@@ -1189,68 +1189,68 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="str">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="5" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="6" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5" t="str">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1611,44 +1611,44 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -1811,44 +1811,44 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -2306,49 +2306,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="5" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2384,7 +2384,7 @@
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -2393,7 +2393,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2431,7 +2431,7 @@
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -2440,13 +2440,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="5" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2486,13 +2486,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2534,7 +2534,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2559,7 +2559,7 @@
       <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2568,7 +2568,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2603,7 +2603,7 @@
       <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="5" t="str">
+      <c r="H12" s="4" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I12" s="2" t="str">
@@ -2660,7 +2660,7 @@
       <c r="G13" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H13" s="5" t="str">
+      <c r="H13" s="4" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I13" s="2" t="str">

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -35,40 +35,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DDDA71E1-A86C-486C-BDD4-0E74A5E1340F}</author>
-    <author>tc={A734E757-C246-49D4-A4C4-B3E8269902E5}</author>
-    <author>tc={255D5D46-58AF-4498-9D9F-C16BAE80D5E8}</author>
-    <author>tc={E27AC1F3-6295-45E0-86E0-C5FC8923AE35}</author>
-    <author>tc={7173FE6D-92F6-46B5-9365-D265F900F4DA}</author>
-    <author>tc={2E94FD84-06A7-496C-B65D-B73CB59184FF}</author>
+    <author>tc={8F56A33C-9592-40FF-9B54-4A093AC8A089}</author>
+    <author>tc={BEB0649A-6206-452E-B11C-DEC44B1077F5}</author>
+    <author>tc={B358E59C-0689-4EA9-8C76-EB33839EFFD1}</author>
+    <author>tc={0191B4A5-C36F-495C-B4F5-A894E8F8FC95}</author>
+    <author>tc={8C273B98-8263-4639-9668-B6132834221F}</author>
+    <author>tc={43A46BB7-0686-4DD6-B5FE-C3FD546B2137}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{DDDA71E1-A86C-486C-BDD4-0E74A5E1340F}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{8F56A33C-9592-40FF-9B54-4A093AC8A089}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{BEB0649A-6206-452E-B11C-DEC44B1077F5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{A734E757-C246-49D4-A4C4-B3E8269902E5}">
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{B358E59C-0689-4EA9-8C76-EB33839EFFD1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{255D5D46-58AF-4498-9D9F-C16BAE80D5E8}">
+    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{0191B4A5-C36F-495C-B4F5-A894E8F8FC95}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{E27AC1F3-6295-45E0-86E0-C5FC8923AE35}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{7173FE6D-92F6-46B5-9365-D265F900F4DA}">
+    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{8C273B98-8263-4639-9668-B6132834221F}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{2E94FD84-06A7-496C-B65D-B73CB59184FF}">
+    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{43A46BB7-0686-4DD6-B5FE-C3FD546B2137}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
@@ -80,10 +80,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3DF18ADB-AFFF-4739-8979-660692F450C1}</author>
+    <author>tc={23DDF7B3-71C2-4E1B-A951-4C8E091D2BC1}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3DF18ADB-AFFF-4739-8979-660692F450C1}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{23DDF7B3-71C2-4E1B-A951-4C8E091D2BC1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -95,24 +95,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={99DEB940-A712-436D-A48A-6FB25B08EA05}</author>
-    <author>tc={C1CC45CE-89EF-4D91-97A9-B71F3BC54FAD}</author>
-    <author>tc={FC58461F-1878-42ED-ADDC-E5713C0FC96F}</author>
+    <author>tc={402B741F-41CE-4EE8-9E4C-8BA21D8C6D1D}</author>
+    <author>tc={3911D6DF-3D79-4B58-B2A6-D886188919C3}</author>
+    <author>tc={F201C8D0-5979-471C-B6B7-C7EAF248EB47}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{99DEB940-A712-436D-A48A-6FB25B08EA05}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{402B741F-41CE-4EE8-9E4C-8BA21D8C6D1D}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{3911D6DF-3D79-4B58-B2A6-D886188919C3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{C1CC45CE-89EF-4D91-97A9-B71F3BC54FAD}">
+    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{F201C8D0-5979-471C-B6B7-C7EAF248EB47}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{FC58461F-1878-42ED-ADDC-E5713C0FC96F}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
   </commentList>
@@ -159,14 +159,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -289,8 +289,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{4D3B380E-0529-40B0-B1A5-03444053399B}" userId="S::::c87becd4-0147-42c8-88bf-6a9b893c3d8c" providerId="AD"/>
-  <person displayName="侯清辰" id="{5D860898-F5E8-4AE1-83C7-3D3242765DF5}" userId="S::::c38cc05c-5bfd-4089-b97a-866350dbfce4" providerId="AD"/>
+  <person displayName="杨行" id="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" userId="S::::3cf7242d-d968-4dee-94b5-59a308411a6f" providerId="AD"/>
+  <person displayName="侯清辰" id="{BEA80D8A-DBC9-46B3-AAA1-1C39F4B0F9BC}" userId="S::::ad83d835-b58e-4b0c-be54-42b934d5c36e" providerId="AD"/>
 </personList>
 </file>
 
@@ -591,25 +591,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{DDDA71E1-A86C-486C-BDD4-0E74A5E1340F}" ref="K1" dT="2024-05-10T07:08:22" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
+  <threadedComment id="{8F56A33C-9592-40FF-9B54-4A093AC8A089}" ref="H6" dT="2024-06-14T02:50:34" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{BEB0649A-6206-452E-B11C-DEC44B1077F5}" ref="K1" dT="2024-05-10T07:08:22" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{becf019b-aa39-41da-b289-f4fd119983d9}" ref="K1" dT="2024-06-19T05:39:57" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{DDDA71E1-A86C-486C-BDD4-0E74A5E1340F}">
+  <threadedComment id="{362ad0b6-60e8-42b5-934a-56396504975d}" ref="K1" dT="2024-06-19T05:39:57" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{BEB0649A-6206-452E-B11C-DEC44B1077F5}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{A734E757-C246-49D4-A4C4-B3E8269902E5}" ref="A4" dT="2024-05-28T04:59:59" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
+  <threadedComment id="{B358E59C-0689-4EA9-8C76-EB33839EFFD1}" ref="A4" dT="2024-05-28T04:59:59" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{255D5D46-58AF-4498-9D9F-C16BAE80D5E8}" ref="C2" dT="2024-06-14T02:49:51" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
+  <threadedComment id="{0191B4A5-C36F-495C-B4F5-A894E8F8FC95}" ref="C2" dT="2024-06-14T02:49:51" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{E27AC1F3-6295-45E0-86E0-C5FC8923AE35}" ref="H6" dT="2024-06-14T02:50:34" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
-  </threadedComment>
-  <threadedComment id="{7173FE6D-92F6-46B5-9365-D265F900F4DA}" ref="L1" dT="2024-05-31T03:31:01" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
+  <threadedComment id="{8C273B98-8263-4639-9668-B6132834221F}" ref="L1" dT="2024-05-31T03:31:01" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
     <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
-  <threadedComment id="{2E94FD84-06A7-496C-B65D-B73CB59184FF}" ref="H9" dT="2024-06-14T02:51:06" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
+  <threadedComment id="{43A46BB7-0686-4DD6-B5FE-C3FD546B2137}" ref="H9" dT="2024-06-14T02:51:06" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
 </ThreadedComments>
@@ -617,7 +617,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{3DF18ADB-AFFF-4739-8979-660692F450C1}" ref="E1" dT="2024-06-09T13:30:31" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
+  <threadedComment id="{23DDF7B3-71C2-4E1B-A951-4C8E091D2BC1}" ref="E1" dT="2024-06-09T13:30:31" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -625,14 +625,14 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{99DEB940-A712-436D-A48A-6FB25B08EA05}" ref="C5" dT="2024-06-14T02:48:45" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
+  <threadedComment id="{402B741F-41CE-4EE8-9E4C-8BA21D8C6D1D}" ref="E1" dT="2024-06-09T13:30:45" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
+    <text>@宾晓华 这里</text>
+  </threadedComment>
+  <threadedComment id="{3911D6DF-3D79-4B58-B2A6-D886188919C3}" ref="C5" dT="2024-06-14T02:48:45" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{C1CC45CE-89EF-4D91-97A9-B71F3BC54FAD}" ref="C6" dT="2024-06-14T02:49:20" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
+  <threadedComment id="{F201C8D0-5979-471C-B6B7-C7EAF248EB47}" ref="C6" dT="2024-06-14T02:49:20" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
-  </threadedComment>
-  <threadedComment id="{FC58461F-1878-42ED-ADDC-E5713C0FC96F}" ref="E1" dT="2024-06-09T13:30:45" personId="{4D3B380E-0529-40B0-B1A5-03444053399B}" parentId="{}">
-    <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -923,32 +923,32 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1138,7 +1138,7 @@
       <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="5" t="str">
+      <c r="J1" s="4" t="str">
         <v>stage_graph</v>
       </c>
       <c r="K1" s="1" t="str">
@@ -1189,68 +1189,68 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="str">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="4" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="6" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="4" t="str">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1611,44 +1611,44 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -1811,44 +1811,44 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -2306,49 +2306,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="4" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>8200</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="4" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2384,7 +2384,7 @@
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -2393,7 +2393,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2431,7 +2431,7 @@
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -2440,13 +2440,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="4" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2486,13 +2486,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="5" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2534,7 +2534,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2559,7 +2559,7 @@
       <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2568,7 +2568,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="5" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2603,7 +2603,7 @@
       <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="4" t="str">
+      <c r="H12" s="5" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I12" s="2" t="str">
@@ -2660,7 +2660,7 @@
       <c r="G13" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H13" s="4" t="str">
+      <c r="H13" s="5" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I13" s="2" t="str">

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -35,42 +35,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={8F56A33C-9592-40FF-9B54-4A093AC8A089}</author>
-    <author>tc={BEB0649A-6206-452E-B11C-DEC44B1077F5}</author>
-    <author>tc={B358E59C-0689-4EA9-8C76-EB33839EFFD1}</author>
-    <author>tc={0191B4A5-C36F-495C-B4F5-A894E8F8FC95}</author>
-    <author>tc={8C273B98-8263-4639-9668-B6132834221F}</author>
-    <author>tc={43A46BB7-0686-4DD6-B5FE-C3FD546B2137}</author>
+    <author>tc={2EA0BF81-378A-4650-8D6A-146C1B372624}</author>
+    <author>tc={503E231A-61FB-4835-9C2E-6B55F9DA63BA}</author>
+    <author>tc={3A460D4D-811C-4B7C-8C2C-9C2640A6C591}</author>
+    <author>tc={49F8A3D3-E1E4-45DB-86A5-C1AE85F63CA5}</author>
+    <author>tc={76D3D88C-7140-47AE-8180-63C5B4366A84}</author>
+    <author>tc={4084A3B8-CFCD-423A-91D8-3DB3231B0143}</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{8F56A33C-9592-40FF-9B54-4A093AC8A089}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{2EA0BF81-378A-4650-8D6A-146C1B372624}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{BEB0649A-6206-452E-B11C-DEC44B1077F5}">
+    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{503E231A-61FB-4835-9C2E-6B55F9DA63BA}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{3A460D4D-811C-4B7C-8C2C-9C2640A6C591}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{49F8A3D3-E1E4-45DB-86A5-C1AE85F63CA5}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{B358E59C-0689-4EA9-8C76-EB33839EFFD1}">
+    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{76D3D88C-7140-47AE-8180-63C5B4366A84}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="3" shapeId="0" xr:uid="{0191B4A5-C36F-495C-B4F5-A894E8F8FC95}">
+    <comment ref="H6" authorId="5" shapeId="0" xr:uid="{4084A3B8-CFCD-423A-91D8-3DB3231B0143}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{8C273B98-8263-4639-9668-B6132834221F}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{43A46BB7-0686-4DD6-B5FE-C3FD546B2137}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
   </commentList>
@@ -80,10 +80,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={23DDF7B3-71C2-4E1B-A951-4C8E091D2BC1}</author>
+    <author>tc={4C70DE92-1985-438C-99D2-1B1D002B1837}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{23DDF7B3-71C2-4E1B-A951-4C8E091D2BC1}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4C70DE92-1985-438C-99D2-1B1D002B1837}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -95,24 +95,24 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={402B741F-41CE-4EE8-9E4C-8BA21D8C6D1D}</author>
-    <author>tc={3911D6DF-3D79-4B58-B2A6-D886188919C3}</author>
-    <author>tc={F201C8D0-5979-471C-B6B7-C7EAF248EB47}</author>
+    <author>tc={7C2FB2FB-80E0-4ABC-8E85-C8ED448FC062}</author>
+    <author>tc={689FDCC2-7D4B-4A86-84C1-36CD7FCFCF18}</author>
+    <author>tc={971AE1D8-0BE8-48E7-84D6-AC8550AEDBB2}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{402B741F-41CE-4EE8-9E4C-8BA21D8C6D1D}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{3911D6DF-3D79-4B58-B2A6-D886188919C3}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{7C2FB2FB-80E0-4ABC-8E85-C8ED448FC062}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{F201C8D0-5979-471C-B6B7-C7EAF248EB47}">
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{689FDCC2-7D4B-4A86-84C1-36CD7FCFCF18}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{971AE1D8-0BE8-48E7-84D6-AC8550AEDBB2}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
     </comment>
   </commentList>
@@ -159,14 +159,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -289,8 +289,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" userId="S::::3cf7242d-d968-4dee-94b5-59a308411a6f" providerId="AD"/>
-  <person displayName="侯清辰" id="{BEA80D8A-DBC9-46B3-AAA1-1C39F4B0F9BC}" userId="S::::ad83d835-b58e-4b0c-be54-42b934d5c36e" providerId="AD"/>
+  <person displayName="杨行" id="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" userId="S::::d7521be9-c828-4e3c-8b90-c57f7b09f6c1" providerId="AD"/>
+  <person displayName="侯清辰" id="{E17854E4-9350-441E-A69E-6B25FBACC72E}" userId="S::::d2cb2cdb-bb66-4746-b307-2b45981de963" providerId="AD"/>
 </personList>
 </file>
 
@@ -591,33 +591,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{8F56A33C-9592-40FF-9B54-4A093AC8A089}" ref="H6" dT="2024-06-14T02:50:34" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  <threadedComment id="{2EA0BF81-378A-4650-8D6A-146C1B372624}" ref="C2" dT="2024-06-14T02:49:51" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{BEB0649A-6206-452E-B11C-DEC44B1077F5}" ref="K1" dT="2024-05-10T07:08:22" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
+  <threadedComment id="{503E231A-61FB-4835-9C2E-6B55F9DA63BA}" ref="H9" dT="2024-06-14T02:51:06" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{3A460D4D-811C-4B7C-8C2C-9C2640A6C591}" ref="L1" dT="2024-05-31T03:31:01" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{49F8A3D3-E1E4-45DB-86A5-C1AE85F63CA5}" ref="K1" dT="2024-05-10T07:08:22" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{362ad0b6-60e8-42b5-934a-56396504975d}" ref="K1" dT="2024-06-19T05:39:57" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{BEB0649A-6206-452E-B11C-DEC44B1077F5}">
+  <threadedComment id="{3acb2c82-174a-41b1-b169-60be2d837c0c}" ref="K1" dT="2024-06-19T05:39:57" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{49F8A3D3-E1E4-45DB-86A5-C1AE85F63CA5}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{B358E59C-0689-4EA9-8C76-EB33839EFFD1}" ref="A4" dT="2024-05-28T04:59:59" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
+  <threadedComment id="{76D3D88C-7140-47AE-8180-63C5B4366A84}" ref="A4" dT="2024-05-28T04:59:59" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{0191B4A5-C36F-495C-B4F5-A894E8F8FC95}" ref="C2" dT="2024-06-14T02:49:51" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{8C273B98-8263-4639-9668-B6132834221F}" ref="L1" dT="2024-05-31T03:31:01" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{43A46BB7-0686-4DD6-B5FE-C3FD546B2137}" ref="H9" dT="2024-06-14T02:51:06" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  <threadedComment id="{4084A3B8-CFCD-423A-91D8-3DB3231B0143}" ref="H6" dT="2024-06-14T02:50:34" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{23DDF7B3-71C2-4E1B-A951-4C8E091D2BC1}" ref="E1" dT="2024-06-09T13:30:31" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
+  <threadedComment id="{4C70DE92-1985-438C-99D2-1B1D002B1837}" ref="E1" dT="2024-06-09T13:30:31" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -625,14 +625,14 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{402B741F-41CE-4EE8-9E4C-8BA21D8C6D1D}" ref="E1" dT="2024-06-09T13:30:45" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
-    <text>@宾晓华 这里</text>
-  </threadedComment>
-  <threadedComment id="{3911D6DF-3D79-4B58-B2A6-D886188919C3}" ref="C5" dT="2024-06-14T02:48:45" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
+  <threadedComment id="{7C2FB2FB-80E0-4ABC-8E85-C8ED448FC062}" ref="C5" dT="2024-06-14T02:48:45" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{F201C8D0-5979-471C-B6B7-C7EAF248EB47}" ref="C6" dT="2024-06-14T02:49:20" personId="{6973165E-AFF4-45D5-A44E-92FB3C7820CD}" parentId="{}">
+  <threadedComment id="{689FDCC2-7D4B-4A86-84C1-36CD7FCFCF18}" ref="C6" dT="2024-06-14T02:49:20" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  </threadedComment>
+  <threadedComment id="{971AE1D8-0BE8-48E7-84D6-AC8550AEDBB2}" ref="E1" dT="2024-06-09T13:30:45" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
+    <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -923,32 +923,32 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1138,7 +1138,7 @@
       <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="4" t="str">
+      <c r="J1" s="5" t="str">
         <v>stage_graph</v>
       </c>
       <c r="K1" s="1" t="str">
@@ -1189,68 +1189,68 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="str">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="5" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="6" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5" t="str">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1611,44 +1611,44 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -1811,44 +1811,44 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="5" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -2306,49 +2306,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="5" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>8200</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="5" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2384,7 +2384,7 @@
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -2393,7 +2393,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2431,7 +2431,7 @@
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -2440,13 +2440,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="5" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
 - 例句：（邪恶）让我想想。该怎么办呢？要不，（咳咳）把其他的活人骗进腐臭地窖好了(狡诈的坏笑)，嘻嘻嘻嘻。。那一定很有趣（恶毒笑声）。。。
 - 例句：（咳咳）总之我是不会去的，因为进入腐臭地窖的一定会被鼠王吃掉。</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>8203</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -2486,13 +2486,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
 - 例句：（咆哮）嗷嗷！！（战栗并准备战斗）汪汪汪！！！！
 - 例句：（凶狠）汪汪汪！！！！</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>8204</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -2534,7 +2534,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2559,7 +2559,7 @@
       <c r="D9" s="1" t="str">
         <v>- 例句：我知道了。</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>8205</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -2568,7 +2568,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2603,7 +2603,7 @@
       <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="5" t="str">
+      <c r="H12" s="4" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I12" s="2" t="str">
@@ -2660,7 +2660,7 @@
       <c r="G13" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H13" s="5" t="str">
+      <c r="H13" s="4" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I13" s="2" t="str">

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -35,40 +35,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2EA0BF81-378A-4650-8D6A-146C1B372624}</author>
-    <author>tc={503E231A-61FB-4835-9C2E-6B55F9DA63BA}</author>
-    <author>tc={3A460D4D-811C-4B7C-8C2C-9C2640A6C591}</author>
-    <author>tc={49F8A3D3-E1E4-45DB-86A5-C1AE85F63CA5}</author>
-    <author>tc={76D3D88C-7140-47AE-8180-63C5B4366A84}</author>
-    <author>tc={4084A3B8-CFCD-423A-91D8-3DB3231B0143}</author>
+    <author>tc={2A73D735-CC36-45D4-88DF-5CDF49CBB7D4}</author>
+    <author>tc={C0F90DAD-C900-4CA1-BF7F-42DAADC408ED}</author>
+    <author>tc={54AE4A4C-90DD-41BC-BBEF-1DF74C2A9EA4}</author>
+    <author>tc={9869D8D5-75DA-4C99-87BA-9D24F00A6E62}</author>
+    <author>tc={CD74B826-55F0-4D84-9B3D-627B56B4D18C}</author>
+    <author>tc={A9663580-D5F3-499A-A456-C3FDE53F24EC}</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{2EA0BF81-378A-4650-8D6A-146C1B372624}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{2A73D735-CC36-45D4-88DF-5CDF49CBB7D4}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{C0F90DAD-C900-4CA1-BF7F-42DAADC408ED}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{54AE4A4C-90DD-41BC-BBEF-1DF74C2A9EA4}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="3" shapeId="0" xr:uid="{9869D8D5-75DA-4C99-87BA-9D24F00A6E62}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{CD74B826-55F0-4D84-9B3D-627B56B4D18C}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{503E231A-61FB-4835-9C2E-6B55F9DA63BA}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{3A460D4D-811C-4B7C-8C2C-9C2640A6C591}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{49F8A3D3-E1E4-45DB-86A5-C1AE85F63CA5}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{76D3D88C-7140-47AE-8180-63C5B4366A84}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="5" shapeId="0" xr:uid="{4084A3B8-CFCD-423A-91D8-3DB3231B0143}">
+    <comment ref="H6" authorId="5" shapeId="0" xr:uid="{A9663580-D5F3-499A-A456-C3FDE53F24EC}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
@@ -80,10 +80,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4C70DE92-1985-438C-99D2-1B1D002B1837}</author>
+    <author>tc={55663BA8-F51B-413B-92E7-8413870EF0B6}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4C70DE92-1985-438C-99D2-1B1D002B1837}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{55663BA8-F51B-413B-92E7-8413870EF0B6}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -95,22 +95,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7C2FB2FB-80E0-4ABC-8E85-C8ED448FC062}</author>
-    <author>tc={689FDCC2-7D4B-4A86-84C1-36CD7FCFCF18}</author>
-    <author>tc={971AE1D8-0BE8-48E7-84D6-AC8550AEDBB2}</author>
+    <author>tc={BF5848EB-986C-49D5-8127-E05E7529378F}</author>
+    <author>tc={730DB32E-D19A-4BB3-88C5-5F32E66683B0}</author>
+    <author>tc={17BBDFC0-6589-4590-A9B0-CE6278B5CA30}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{7C2FB2FB-80E0-4ABC-8E85-C8ED448FC062}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{BF5848EB-986C-49D5-8127-E05E7529378F}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{730DB32E-D19A-4BB3-88C5-5F32E66683B0}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{689FDCC2-7D4B-4A86-84C1-36CD7FCFCF18}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{971AE1D8-0BE8-48E7-84D6-AC8550AEDBB2}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{17BBDFC0-6589-4590-A9B0-CE6278B5CA30}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -152,7 +152,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -173,7 +173,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -289,8 +289,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" userId="S::::d7521be9-c828-4e3c-8b90-c57f7b09f6c1" providerId="AD"/>
-  <person displayName="侯清辰" id="{E17854E4-9350-441E-A69E-6B25FBACC72E}" userId="S::::d2cb2cdb-bb66-4746-b307-2b45981de963" providerId="AD"/>
+  <person displayName="侯清辰" id="{7F1BC774-D6F9-4D38-B6FD-3614FFA9B1A2}" userId="S::::9ec304bb-10be-42ba-952b-cfa3e4cf73e0" providerId="AD"/>
+  <person displayName="杨行" id="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" userId="S::::7f938eca-214a-48ce-8d39-acd00afd39b0" providerId="AD"/>
 </personList>
 </file>
 
@@ -591,25 +591,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{2EA0BF81-378A-4650-8D6A-146C1B372624}" ref="C2" dT="2024-06-14T02:49:51" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
+  <threadedComment id="{2A73D735-CC36-45D4-88DF-5CDF49CBB7D4}" ref="A4" dT="2024-05-28T04:59:59" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{C0F90DAD-C900-4CA1-BF7F-42DAADC408ED}" ref="H9" dT="2024-06-14T02:51:06" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  </threadedComment>
+  <threadedComment id="{54AE4A4C-90DD-41BC-BBEF-1DF74C2A9EA4}" ref="K1" dT="2024-05-10T07:08:22" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{dedd0696-7f6e-4f9c-8e2b-a9e5a8de4021}" ref="K1" dT="2024-06-19T05:39:57" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{54AE4A4C-90DD-41BC-BBEF-1DF74C2A9EA4}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{9869D8D5-75DA-4C99-87BA-9D24F00A6E62}" ref="L1" dT="2024-05-31T03:31:01" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{CD74B826-55F0-4D84-9B3D-627B56B4D18C}" ref="C2" dT="2024-06-14T02:49:51" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{503E231A-61FB-4835-9C2E-6B55F9DA63BA}" ref="H9" dT="2024-06-14T02:51:06" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{3A460D4D-811C-4B7C-8C2C-9C2640A6C591}" ref="L1" dT="2024-05-31T03:31:01" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{49F8A3D3-E1E4-45DB-86A5-C1AE85F63CA5}" ref="K1" dT="2024-05-10T07:08:22" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{3acb2c82-174a-41b1-b169-60be2d837c0c}" ref="K1" dT="2024-06-19T05:39:57" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{49F8A3D3-E1E4-45DB-86A5-C1AE85F63CA5}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{76D3D88C-7140-47AE-8180-63C5B4366A84}" ref="A4" dT="2024-05-28T04:59:59" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{4084A3B8-CFCD-423A-91D8-3DB3231B0143}" ref="H6" dT="2024-06-14T02:50:34" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
+  <threadedComment id="{A9663580-D5F3-499A-A456-C3FDE53F24EC}" ref="H6" dT="2024-06-14T02:50:34" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
 </ThreadedComments>
@@ -617,7 +617,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{4C70DE92-1985-438C-99D2-1B1D002B1837}" ref="E1" dT="2024-06-09T13:30:31" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
+  <threadedComment id="{55663BA8-F51B-413B-92E7-8413870EF0B6}" ref="E1" dT="2024-06-09T13:30:31" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -625,13 +625,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{7C2FB2FB-80E0-4ABC-8E85-C8ED448FC062}" ref="C5" dT="2024-06-14T02:48:45" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
+  <threadedComment id="{BF5848EB-986C-49D5-8127-E05E7529378F}" ref="C6" dT="2024-06-14T02:49:20" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
+    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
+  </threadedComment>
+  <threadedComment id="{730DB32E-D19A-4BB3-88C5-5F32E66683B0}" ref="C5" dT="2024-06-14T02:48:45" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{689FDCC2-7D4B-4A86-84C1-36CD7FCFCF18}" ref="C6" dT="2024-06-14T02:49:20" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
-    <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
-  </threadedComment>
-  <threadedComment id="{971AE1D8-0BE8-48E7-84D6-AC8550AEDBB2}" ref="E1" dT="2024-06-09T13:30:45" personId="{E74E6224-6B38-4BB6-9C83-6EBA4525ADEC}" parentId="{}">
+  <threadedComment id="{17BBDFC0-6589-4590-A9B0-CE6278B5CA30}" ref="E1" dT="2024-06-09T13:30:45" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -936,7 +936,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
@@ -1058,7 +1058,7 @@
       <c r="O7" s="2" t="str">
         <v>- 要求进入者必须拥有 断指钥匙。方可进入</v>
       </c>
-      <c r="P7" s="3" t="str">
+      <c r="P7" s="6" t="str">
         <v>- 在某角色对你使用了 断指钥匙 之后，你的连接的特殊地点——'礼拜堂的密室' 就会被打开，请通知此角色。
 - 其他道具对你使用均无效</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="6" t="str">
+      <c r="H4" s="3" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
@@ -1624,7 +1624,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1644,7 +1644,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1672,7 +1672,7 @@
 - 牢房的 铁栏门 似乎已经被破坏打开。上挂着一块腐化的木牌上写着：“火十一”。也许这就是你的名字？或者是这个地方的名字？</v>
       </c>
       <c r="J5" s="2" t="str">
-        <v>100,100,10,1</v>
+        <v>10000,10000,1000,100</v>
       </c>
     </row>
     <row r="6">
@@ -1699,7 +1699,7 @@
         <v>冀州.中山.卢奴.秘密监狱.火字诀中心区域</v>
       </c>
       <c r="J6" s="1" t="str">
-        <v>10000,10000,1,10000</v>
+        <v>1000000,1000000,100,1000000</v>
       </c>
     </row>
     <row r="7">
@@ -1716,7 +1716,7 @@
 - 如果任何角色进入此场景，你就会对其低语(WhisperAction)，试图吓走对方。</v>
       </c>
       <c r="J7" s="1" t="str">
-        <v>10000,10000,1,10000</v>
+        <v>1000000,1000000,100,1000000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8"/>
@@ -1750,7 +1750,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="193"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="14"/>
   </cols>
@@ -1824,7 +1824,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1844,7 +1844,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1872,7 +1872,7 @@
 - 这正是你的好机会！</v>
       </c>
       <c r="J5" s="2" t="str">
-        <v>100,100,10,1</v>
+        <v>10000,10000,1000,100</v>
       </c>
     </row>
     <row r="6">
@@ -1899,7 +1899,7 @@
 - 如果任何角色进入此场景，你就会对其低语(WhisperAction)，试图吓走对方。</v>
       </c>
       <c r="J6" s="1" t="str">
-        <v>10000,10000,1,10000</v>
+        <v>1000000,1000000,100,1000000</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="7"/>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -35,42 +35,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2A73D735-CC36-45D4-88DF-5CDF49CBB7D4}</author>
-    <author>tc={C0F90DAD-C900-4CA1-BF7F-42DAADC408ED}</author>
-    <author>tc={54AE4A4C-90DD-41BC-BBEF-1DF74C2A9EA4}</author>
-    <author>tc={9869D8D5-75DA-4C99-87BA-9D24F00A6E62}</author>
-    <author>tc={CD74B826-55F0-4D84-9B3D-627B56B4D18C}</author>
-    <author>tc={A9663580-D5F3-499A-A456-C3FDE53F24EC}</author>
+    <author>tc={FA46BA16-F9FF-40F6-9445-43FB2C13AE33}</author>
+    <author>tc={892BA8F8-78C5-43C1-A176-004BE98DE0C6}</author>
+    <author>tc={CFC225A9-6DC4-4FAD-B488-936B9630C82C}</author>
+    <author>tc={77B262FB-DDFD-4B48-A44E-1D9EA3EE2642}</author>
+    <author>tc={1E4FFE8A-77E7-49E1-9192-7E033E3D29E2}</author>
+    <author>tc={B8A9315F-C5C2-4F8D-80BE-E40E021EDAB1}</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{2A73D735-CC36-45D4-88DF-5CDF49CBB7D4}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{FA46BA16-F9FF-40F6-9445-43FB2C13AE33}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{892BA8F8-78C5-43C1-A176-004BE98DE0C6}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{CFC225A9-6DC4-4FAD-B488-936B9630C82C}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{77B262FB-DDFD-4B48-A44E-1D9EA3EE2642}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{1E4FFE8A-77E7-49E1-9192-7E033E3D29E2}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
       </text>
     </comment>
-    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{C0F90DAD-C900-4CA1-BF7F-42DAADC408ED}">
+    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{B8A9315F-C5C2-4F8D-80BE-E40E021EDAB1}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{54AE4A4C-90DD-41BC-BBEF-1DF74C2A9EA4}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="3" shapeId="0" xr:uid="{9869D8D5-75DA-4C99-87BA-9D24F00A6E62}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="4" shapeId="0" xr:uid="{CD74B826-55F0-4D84-9B3D-627B56B4D18C}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="5" shapeId="0" xr:uid="{A9663580-D5F3-499A-A456-C3FDE53F24EC}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
   </commentList>
@@ -80,10 +80,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={55663BA8-F51B-413B-92E7-8413870EF0B6}</author>
+    <author>tc={80CD1E60-A05F-44A2-9B01-AE47C2060B9A}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{55663BA8-F51B-413B-92E7-8413870EF0B6}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{80CD1E60-A05F-44A2-9B01-AE47C2060B9A}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -95,22 +95,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BF5848EB-986C-49D5-8127-E05E7529378F}</author>
-    <author>tc={730DB32E-D19A-4BB3-88C5-5F32E66683B0}</author>
-    <author>tc={17BBDFC0-6589-4590-A9B0-CE6278B5CA30}</author>
+    <author>tc={9376F645-93DE-403B-96E0-37F3E2B5EA62}</author>
+    <author>tc={C7CD8C65-729A-4D92-940D-93499AF1E307}</author>
+    <author>tc={C0B4EC66-CDAD-436F-9690-9A403AF7D126}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{BF5848EB-986C-49D5-8127-E05E7529378F}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{9376F645-93DE-403B-96E0-37F3E2B5EA62}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{C7CD8C65-729A-4D92-940D-93499AF1E307}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{730DB32E-D19A-4BB3-88C5-5F32E66683B0}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{17BBDFC0-6589-4590-A9B0-CE6278B5CA30}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{C0B4EC66-CDAD-436F-9690-9A403AF7D126}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -152,14 +152,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -259,10 +259,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
@@ -289,8 +289,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="侯清辰" id="{7F1BC774-D6F9-4D38-B6FD-3614FFA9B1A2}" userId="S::::9ec304bb-10be-42ba-952b-cfa3e4cf73e0" providerId="AD"/>
-  <person displayName="杨行" id="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" userId="S::::7f938eca-214a-48ce-8d39-acd00afd39b0" providerId="AD"/>
+  <person displayName="杨行" id="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" userId="S::::87fd07e2-2fca-4107-ad54-9739de5a2195" providerId="AD"/>
+  <person displayName="侯清辰" id="{7DB1E60E-8D5A-44BE-8064-9A78904DE8F1}" userId="S::::c7d9ae1f-9c8e-4141-8ec1-c5f8e1a83ece" providerId="AD"/>
 </personList>
 </file>
 
@@ -591,33 +591,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{2A73D735-CC36-45D4-88DF-5CDF49CBB7D4}" ref="A4" dT="2024-05-28T04:59:59" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
+  <threadedComment id="{FA46BA16-F9FF-40F6-9445-43FB2C13AE33}" ref="C2" dT="2024-06-14T02:49:51" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
+    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
+  </threadedComment>
+  <threadedComment id="{892BA8F8-78C5-43C1-A176-004BE98DE0C6}" ref="L1" dT="2024-05-31T03:31:01" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  </threadedComment>
+  <threadedComment id="{CFC225A9-6DC4-4FAD-B488-936B9630C82C}" ref="H6" dT="2024-06-14T02:50:34" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
+    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
+  </threadedComment>
+  <threadedComment id="{77B262FB-DDFD-4B48-A44E-1D9EA3EE2642}" ref="K1" dT="2024-05-10T07:08:22" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
+    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
+  </threadedComment>
+  <threadedComment id="{b3ae3cc0-21dd-4e39-8dc7-18a992a00e7f}" ref="K1" dT="2024-06-19T05:39:57" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{77B262FB-DDFD-4B48-A44E-1D9EA3EE2642}">
+    <text>空着，运行中会通过LLM自主运行成功</text>
+  </threadedComment>
+  <threadedComment id="{1E4FFE8A-77E7-49E1-9192-7E033E3D29E2}" ref="A4" dT="2024-05-28T04:59:59" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
     <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
   </threadedComment>
-  <threadedComment id="{C0F90DAD-C900-4CA1-BF7F-42DAADC408ED}" ref="H9" dT="2024-06-14T02:51:06" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
+  <threadedComment id="{B8A9315F-C5C2-4F8D-80BE-E40E021EDAB1}" ref="H9" dT="2024-06-14T02:51:06" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
     <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
-  </threadedComment>
-  <threadedComment id="{54AE4A4C-90DD-41BC-BBEF-1DF74C2A9EA4}" ref="K1" dT="2024-05-10T07:08:22" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
-    <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
-  </threadedComment>
-  <threadedComment id="{dedd0696-7f6e-4f9c-8e2b-a9e5a8de4021}" ref="K1" dT="2024-06-19T05:39:57" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{54AE4A4C-90DD-41BC-BBEF-1DF74C2A9EA4}">
-    <text>空着，运行中会通过LLM自主运行成功</text>
-  </threadedComment>
-  <threadedComment id="{9869D8D5-75DA-4C99-87BA-9D24F00A6E62}" ref="L1" dT="2024-05-31T03:31:01" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
-  </threadedComment>
-  <threadedComment id="{CD74B826-55F0-4D84-9B3D-627B56B4D18C}" ref="C2" dT="2024-06-14T02:49:51" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
-    <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
-  </threadedComment>
-  <threadedComment id="{A9663580-D5F3-499A-A456-C3FDE53F24EC}" ref="H6" dT="2024-06-14T02:50:34" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
-    <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{55663BA8-F51B-413B-92E7-8413870EF0B6}" ref="E1" dT="2024-06-09T13:30:31" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
+  <threadedComment id="{80CD1E60-A05F-44A2-9B01-AE47C2060B9A}" ref="E1" dT="2024-06-09T13:30:31" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -625,13 +625,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{BF5848EB-986C-49D5-8127-E05E7529378F}" ref="C6" dT="2024-06-14T02:49:20" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
+  <threadedComment id="{9376F645-93DE-403B-96E0-37F3E2B5EA62}" ref="C5" dT="2024-06-14T02:48:45" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
+    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
+  </threadedComment>
+  <threadedComment id="{C7CD8C65-729A-4D92-940D-93499AF1E307}" ref="C6" dT="2024-06-14T02:49:20" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{730DB32E-D19A-4BB3-88C5-5F32E66683B0}" ref="C5" dT="2024-06-14T02:48:45" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
-    <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
-  </threadedComment>
-  <threadedComment id="{17BBDFC0-6589-4590-A9B0-CE6278B5CA30}" ref="E1" dT="2024-06-09T13:30:45" personId="{BFDFEFA9-7A01-4169-86F0-49517F374DC7}" parentId="{}">
+  <threadedComment id="{C0B4EC66-CDAD-436F-9690-9A403AF7D126}" ref="E1" dT="2024-06-09T13:30:45" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -934,21 +934,21 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1200,21 +1200,21 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="str">
@@ -1230,27 +1230,27 @@
       <c r="E4" s="5" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3" t="str">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="4" t="str">
+      <c r="L4" s="3" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1622,13 +1622,13 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
@@ -1642,13 +1642,13 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -1669,7 +1669,7 @@
 - 你 在昏暗潮湿的牢房内。四周的空气中弥漫着一股发霉的味道，混杂着血腥和腐烂的气息，令人作呕。唯一的光源是从铁栏门外远处微微渗入的一点昏黄灯光，使整个房间笼罩在阴影之中。只有低沉的滴水声和铁链的摩擦声回荡在寂静中。
 ### 事件
 - 你缓缓睁开眼睛，意识逐渐恢复。你难以回忆起任何事情。
-- 牢房的 铁栏门 似乎已经被破坏打开。上挂着一块腐化的木牌上写着：“火十一”。也许这就是你的名字？或者是这个地方的名字？</v>
+- 牢房的 铁栏门 似乎已经被破坏打开。上挂着一块 /腐化的木牌 上写着：“火十一”。也许这就是你的名字？或者是这个地方的名字？</v>
       </c>
       <c r="J5" s="2" t="str">
         <v>10000,10000,1000,100</v>
@@ -1685,6 +1685,9 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
+      <c r="F6" s="2" t="str">
+        <v>腐化的木牌</v>
+      </c>
       <c r="G6" s="2" t="str">
         <v>人物.火十一</v>
       </c>
@@ -1822,13 +1825,13 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
@@ -1842,13 +1845,13 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -2164,7 +2167,7 @@
 石墙的缝隙中透出微弱的冷风。
 牢房的空间狭窄逼仄，头顶低矮的天花板让人感到压抑。
 地面上散落着几根破旧的稻草，散发着难以忍受的酸臭味，脚下的土地坚硬冰冷。
-铁栏门上满是锈迹。门上挂着一块腐化的木牌上写着：“火十一”。
+铁栏门上满是锈迹。门上挂着一块 /腐化的木牌 上写着：“火十一”。
 墙角处摆放着一个破旧的木制水桶，桶边沾满了污垢，散发出一股难闻的恶臭。
 角落里的石床上铺着一层薄薄的稻草，草叶干枯、碎裂，触感粗糙。</v>
       </c>
@@ -2331,24 +2334,24 @@
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2393,7 +2396,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2440,7 +2443,7 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
@@ -2486,13 +2489,13 @@
       <c r="G7" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="3" t="str">
         <v>一个人类，男性，年龄不详，个子中等。</v>
       </c>
     </row>
@@ -2534,7 +2537,7 @@
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2568,7 +2571,7 @@
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="3" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2603,7 +2606,7 @@
       <c r="G12" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H12" s="4" t="str">
+      <c r="H12" s="3" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I12" s="2" t="str">
@@ -2660,7 +2663,7 @@
       <c r="G13" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
-      <c r="H13" s="4" t="str">
+      <c r="H13" s="3" t="str">
         <v>sys_templates/three_kingdoms_actor_sys_prompt_template.md</v>
       </c>
       <c r="I13" s="2" t="str">
@@ -2827,7 +2830,7 @@
         <v>刀身上布满密密麻麻的符文与邪恶的图案</v>
       </c>
       <c r="F5" s="2" t="str">
-        <v>0,0,1,0</v>
+        <v>0,0,100,0</v>
       </c>
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
@@ -2850,7 +2853,7 @@
         <v>布料的质地粗糙而陈旧,隐约可见衣服上仍残留着一些暗暗的花纹。下摆的部分已经破损严重,布料参差不齐。一些地方甚至已经完全破烂,布满了密密麻麻的小洞。</v>
       </c>
       <c r="F6" s="2" t="str">
-        <v>0,0,0,1</v>
+        <v>0,0,0,100</v>
       </c>
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
@@ -2896,7 +2899,7 @@
         <v>守墓人式样的衣服配套的还有一个奇怪符号的面具</v>
       </c>
       <c r="F8" s="2" t="str">
-        <v>0,0,0,1</v>
+        <v>0,0,0,100</v>
       </c>
       <c r="G8" s="2" t="str">
         <v>rag/rag2.md</v>
@@ -2919,7 +2922,7 @@
         <v>黑色长袍与斗篷。</v>
       </c>
       <c r="F9" s="2" t="str">
-        <v>0,0,0,1</v>
+        <v>0,0,0,100</v>
       </c>
       <c r="G9" s="2" t="str">
         <v>rag/rag2.md</v>
@@ -2967,7 +2970,7 @@
         <v>剑身长约三尺，剑刃虽有些许磨损的痕迹，但依然锋利。剑柄包裹着简单的粗麻绳。剑鞘由黑色牛皮制成，质朴无华并不显眼。</v>
       </c>
       <c r="F13" s="2" t="str">
-        <v>0,0,1,0</v>
+        <v>0,0,100,0</v>
       </c>
       <c r="G13" s="2" t="str">
         <v>rag/rag3.md</v>
@@ -2990,7 +2993,7 @@
         <v>由深黄色的粗布制成，整体设计简朴且耐用。上衣为束腰的短袍，配有几道简单的绣纹装饰，袖口较窄，便于行动。腰间系着一条宽厚的布带，用以固定短刀或其他小物件。下装是宽松的裤子，裤腿绑着布条，以防止绊脚。脚上穿着一双结实的草鞋，适合在各种地形上行走。整套装束并无多余的装饰。</v>
       </c>
       <c r="F14" s="2" t="str">
-        <v>0,0,0,1</v>
+        <v>0,0,0,100</v>
       </c>
       <c r="G14" s="2" t="str">
         <v>rag/rag3.md</v>
@@ -3013,7 +3016,7 @@
         <v>由深灰色的粗糙麻布制成，布料质地粗糙，表面有明显的纺织纹理和磨损痕迹。衣领低矮，袖子宽大且略显破旧，袖口处甚至还有几道撕裂的口子。服装的前襟和后背上用粗线绣着几个简单的符号，线迹不规整，仿佛是仓促中加上的。衣服的下摆长及膝盖，边缘已经磨损得参差不齐，显现出长期使用的痕迹</v>
       </c>
       <c r="F15" s="2" t="str">
-        <v>0,0,0,1</v>
+        <v>0,0,0,100</v>
       </c>
       <c r="G15" s="2" t="str">
         <v>rag/rag3.md</v>
@@ -3036,7 +3039,7 @@
         <v>无</v>
       </c>
       <c r="F16" s="2" t="str">
-        <v>0,0,1,0</v>
+        <v>0,0,100,0</v>
       </c>
       <c r="G16" s="2" t="str">
         <v>rag/rag3.md</v>
@@ -3059,7 +3062,7 @@
         <v>无</v>
       </c>
       <c r="F17" s="2" t="str">
-        <v>0,0,1,0</v>
+        <v>0,0,100,0</v>
       </c>
       <c r="G17" s="2" t="str">
         <v>rag/rag3.md</v>
@@ -3082,7 +3085,7 @@
         <v>整体呈暗灰色，既能在夜间隐匿，又不易沾染尘土和污迹。上衣采用轻薄而坚韧的布料制成，胸前和背后有多个隐藏口袋。袖口和裤脚采用了紧身设计，防止在狭窄的空间中被障碍物勾住。衣领稍高，可以在寒冷的环境中拉起。腰间的皮带不仅用来固定装备，还挂着几个小型工具包。裤子采用宽松设计，腿部的口袋上装有细小的皮绳。</v>
       </c>
       <c r="F18" s="2" t="str">
-        <v>0,0,0,1</v>
+        <v>0,0,0,100</v>
       </c>
       <c r="G18" s="2" t="str">
         <v>rag/rag3.md</v>
@@ -3105,13 +3108,35 @@
         <v>长约一尺，刀身被炙热的火焰灼烧得通体焦黑，表面还残留着些许烧焦的纹路。握柄处缠绕着一层已焦化的深色皮革，手指触摸时仍能感觉到一丝微弱的灼热。匕首的尾端镶嵌着一颗被火焰灼烧后变得浑浊的红色宝石。</v>
       </c>
       <c r="F19" s="2" t="str">
-        <v>0,0,1,0</v>
+        <v>0,0,100,0</v>
       </c>
       <c r="G19" s="2" t="str">
         <v>rag/rag3.md</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="20"/>
+    <row customHeight="true" ht="23" r="20">
+      <c r="A20" s="1" t="str">
+        <v>腐化的木牌</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <v>corrupted_wooden_sign</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <v>NonConsumableItem</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <v>火字诀 区域的 监牢的门牌号的标识。一块儿小木头上面刻着 “火十一”（即十一号牢房）</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <v>已经有些腐烂，但表面的字体能隐隐看清，写着“火十一”</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <v>0,0,0,0</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <v>rag/rag3.md</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="21"/>
     <row customHeight="true" ht="23" r="22"/>
     <row customHeight="true" ht="23" r="23"/>

--- a/game_sample/excel/game_sample.xlsx
+++ b/game_sample/excel/game_sample.xlsx
@@ -35,42 +35,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={FA46BA16-F9FF-40F6-9445-43FB2C13AE33}</author>
-    <author>tc={892BA8F8-78C5-43C1-A176-004BE98DE0C6}</author>
-    <author>tc={CFC225A9-6DC4-4FAD-B488-936B9630C82C}</author>
-    <author>tc={77B262FB-DDFD-4B48-A44E-1D9EA3EE2642}</author>
-    <author>tc={1E4FFE8A-77E7-49E1-9192-7E033E3D29E2}</author>
-    <author>tc={B8A9315F-C5C2-4F8D-80BE-E40E021EDAB1}</author>
+    <author>tc={3BBB6E80-1F5A-4359-AE68-B9D5E72847BE}</author>
+    <author>tc={5B114274-0E90-46E1-809A-249F9337F08A}</author>
+    <author>tc={FF5DBF15-01DF-477B-AEBB-969E33E67EC7}</author>
+    <author>tc={64F23632-0D89-46B8-B439-0947768A01D9}</author>
+    <author>tc={07C765B6-72F5-40FD-B1D6-4E89B2AB2E3E}</author>
+    <author>tc={7D85B181-C6D0-4FA6-A2DC-8246FDC679C7}</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{FA46BA16-F9FF-40F6-9445-43FB2C13AE33}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{3BBB6E80-1F5A-4359-AE68-B9D5E72847BE}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 这个部分可以看到，鼠王和小老鼠的设计。</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{892BA8F8-78C5-43C1-A176-004BE98DE0C6}">
+    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{5B114274-0E90-46E1-809A-249F9337F08A}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{CFC225A9-6DC4-4FAD-B488-936B9630C82C}">
+    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{FF5DBF15-01DF-477B-AEBB-969E33E67EC7}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{77B262FB-DDFD-4B48-A44E-1D9EA3EE2642}">
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{64F23632-0D89-46B8-B439-0947768A01D9}">
+      <text>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{07C765B6-72F5-40FD-B1D6-4E89B2AB2E3E}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: 写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。 Reply: 空着，运行中会通过LLM自主运行成功</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="4" shapeId="0" xr:uid="{1E4FFE8A-77E7-49E1-9192-7E033E3D29E2}">
+    <comment ref="L1" authorId="5" shapeId="0" xr:uid="{7D85B181-C6D0-4FA6-A2DC-8246FDC679C7}">
       <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{B8A9315F-C5C2-4F8D-80BE-E40E021EDAB1}">
-      <text>
-        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</t>
+        <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @侯清辰 挪到这里了～程序我这边来改</t>
       </text>
     </comment>
   </commentList>
@@ -80,10 +80,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={80CD1E60-A05F-44A2-9B01-AE47C2060B9A}</author>
+    <author>tc={2942687E-3A38-4079-993B-7317F9D548B3}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{80CD1E60-A05F-44A2-9B01-AE47C2060B9A}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{2942687E-3A38-4079-993B-7317F9D548B3}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -95,22 +95,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9376F645-93DE-403B-96E0-37F3E2B5EA62}</author>
-    <author>tc={C7CD8C65-729A-4D92-940D-93499AF1E307}</author>
-    <author>tc={C0B4EC66-CDAD-436F-9690-9A403AF7D126}</author>
+    <author>tc={F5F462EB-B070-4C2B-AE2B-5BF2AFE2AEA2}</author>
+    <author>tc={DBEDB5D7-6336-458E-A2FF-9095D80EC779}</author>
+    <author>tc={FE79A4CB-88B0-4304-80FD-CB7BDE9881A0}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{9376F645-93DE-403B-96E0-37F3E2B5EA62}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{F5F462EB-B070-4C2B-AE2B-5BF2AFE2AEA2}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{C7CD8C65-729A-4D92-940D-93499AF1E307}">
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{DBEDB5D7-6336-458E-A2FF-9095D80EC779}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{C0B4EC66-CDAD-436F-9690-9A403AF7D126}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{FE79A4CB-88B0-4304-80FD-CB7BDE9881A0}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: @宾晓华 这里</t>
       </text>
@@ -152,14 +152,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -262,10 +262,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -289,8 +289,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="杨行" id="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" userId="S::::87fd07e2-2fca-4107-ad54-9739de5a2195" providerId="AD"/>
-  <person displayName="侯清辰" id="{7DB1E60E-8D5A-44BE-8064-9A78904DE8F1}" userId="S::::c7d9ae1f-9c8e-4141-8ec1-c5f8e1a83ece" providerId="AD"/>
+  <person displayName="侯清辰" id="{50CFF517-F547-4BA3-8E54-2062D913A543}" userId="S::::590d65f9-1be6-472a-af16-345cd554a65b" providerId="AD"/>
+  <person displayName="杨行" id="{3D5CFC45-D067-4B5F-AA07-0768866024AA}" userId="S::::4469cb6c-5770-45f4-b21c-abcbd3f6e764" providerId="AD"/>
 </personList>
 </file>
 
@@ -591,33 +591,33 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{FA46BA16-F9FF-40F6-9445-43FB2C13AE33}" ref="C2" dT="2024-06-14T02:49:51" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
+  <threadedComment id="{3BBB6E80-1F5A-4359-AE68-B9D5E72847BE}" ref="C2" dT="2024-06-14T02:49:51" personId="{3D5CFC45-D067-4B5F-AA07-0768866024AA}" parentId="{}">
     <text>这个部分可以看到，鼠王和小老鼠的设计。</text>
   </threadedComment>
-  <threadedComment id="{892BA8F8-78C5-43C1-A176-004BE98DE0C6}" ref="L1" dT="2024-05-31T03:31:01" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
-    <text>@侯清辰 挪到这里了～程序我这边来改</text>
+  <threadedComment id="{5B114274-0E90-46E1-809A-249F9337F08A}" ref="H9" dT="2024-06-14T02:51:06" personId="{3D5CFC45-D067-4B5F-AA07-0768866024AA}" parentId="{}">
+    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
   </threadedComment>
-  <threadedComment id="{CFC225A9-6DC4-4FAD-B488-936B9630C82C}" ref="H6" dT="2024-06-14T02:50:34" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
+  <threadedComment id="{FF5DBF15-01DF-477B-AEBB-969E33E67EC7}" ref="H6" dT="2024-06-14T02:50:34" personId="{3D5CFC45-D067-4B5F-AA07-0768866024AA}" parentId="{}">
     <text>@宾晓华 step3: 这个是角色启动的提示词设置，可以看到小老鼠和鼠王的关系。</text>
   </threadedComment>
-  <threadedComment id="{77B262FB-DDFD-4B48-A44E-1D9EA3EE2642}" ref="K1" dT="2024-05-10T07:08:22" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
+  <threadedComment id="{64F23632-0D89-46B8-B439-0947768A01D9}" ref="A4" dT="2024-05-28T04:59:59" personId="{3D5CFC45-D067-4B5F-AA07-0768866024AA}" parentId="{}">
+    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
+  </threadedComment>
+  <threadedComment id="{07C765B6-72F5-40FD-B1D6-4E89B2AB2E3E}" ref="K1" dT="2024-05-10T07:08:22" personId="{3D5CFC45-D067-4B5F-AA07-0768866024AA}" parentId="{}">
     <text>写在这里是因为后续希望做：外貌会随着装备而改变。就是受到装备的影响。</text>
   </threadedComment>
-  <threadedComment id="{b3ae3cc0-21dd-4e39-8dc7-18a992a00e7f}" ref="K1" dT="2024-06-19T05:39:57" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{77B262FB-DDFD-4B48-A44E-1D9EA3EE2642}">
+  <threadedComment id="{cd1e27ef-4744-48f4-949b-0327ffc0dda2}" ref="K1" dT="2024-06-19T05:39:57" personId="{3D5CFC45-D067-4B5F-AA07-0768866024AA}" parentId="{07C765B6-72F5-40FD-B1D6-4E89B2AB2E3E}">
     <text>空着，运行中会通过LLM自主运行成功</text>
   </threadedComment>
-  <threadedComment id="{1E4FFE8A-77E7-49E1-9192-7E033E3D29E2}" ref="A4" dT="2024-05-28T04:59:59" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
-    <text>@侯清辰 先忽略。我改了gen_game。也测试了，不会炸了</text>
-  </threadedComment>
-  <threadedComment id="{B8A9315F-C5C2-4F8D-80BE-E40E021EDAB1}" ref="H9" dT="2024-06-14T02:51:06" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
-    <text>@宾晓华 step4: 这个是角色启动提示词，可以看到鼠王和小灰鼠的关系做再次强调。</text>
+  <threadedComment id="{7D85B181-C6D0-4FA6-A2DC-8246FDC679C7}" ref="L1" dT="2024-05-31T03:31:01" personId="{3D5CFC45-D067-4B5F-AA07-0768866024AA}" parentId="{}">
+    <text>@侯清辰 挪到这里了～程序我这边来改</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{80CD1E60-A05F-44A2-9B01-AE47C2060B9A}" ref="E1" dT="2024-06-09T13:30:31" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
+  <threadedComment id="{2942687E-3A38-4079-993B-7317F9D548B3}" ref="E1" dT="2024-06-09T13:30:31" personId="{3D5CFC45-D067-4B5F-AA07-0768866024AA}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -625,13 +625,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{9376F645-93DE-403B-96E0-37F3E2B5EA62}" ref="C5" dT="2024-06-14T02:48:45" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
+  <threadedComment id="{F5F462EB-B070-4C2B-AE2B-5BF2AFE2AEA2}" ref="C5" dT="2024-06-14T02:48:45" personId="{3D5CFC45-D067-4B5F-AA07-0768866024AA}" parentId="{}">
     <text>@宾晓华  step1: system 级提示词。具体看内容。里面“子嗣”在暗示社会关系。但是这里是故意的：暗示鼠王有很多孩子，小灰鼠帕奇只是其中之一。</text>
   </threadedComment>
-  <threadedComment id="{C7CD8C65-729A-4D92-940D-93499AF1E307}" ref="C6" dT="2024-06-14T02:49:20" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
+  <threadedComment id="{DBEDB5D7-6336-458E-A2FF-9095D80EC779}" ref="C6" dT="2024-06-14T02:49:20" personId="{3D5CFC45-D067-4B5F-AA07-0768866024AA}" parentId="{}">
     <text>@宾晓华 step2：小灰鼠帕奇的，系统级提示词，可以看到鼠王是父亲。</text>
   </threadedComment>
-  <threadedComment id="{C0B4EC66-CDAD-436F-9690-9A403AF7D126}" ref="E1" dT="2024-06-09T13:30:45" personId="{9FEACC74-B713-44B1-BC44-4E1C4EB35CD6}" parentId="{}">
+  <threadedComment id="{FE79A4CB-88B0-4304-80FD-CB7BDE9881A0}" ref="E1" dT="2024-06-09T13:30:45" personId="{3D5CFC45-D067-4B5F-AA07-0768866024AA}" parentId="{}">
     <text>@宾晓华 这里</text>
   </threadedComment>
 </ThreadedComments>
@@ -923,32 +923,32 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -1138,7 +1138,7 @@
       <c r="I1" s="1" t="str">
         <v>stage_portal</v>
       </c>
-      <c r="J1" s="5" t="str">
+      <c r="J1" s="3" t="str">
         <v>stage_graph</v>
       </c>
       <c r="K1" s="1" t="str">
@@ -1189,68 +1189,68 @@
       <c r="L2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使(忽略)</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="3" t="str">
         <v>Player</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="str">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="3" t="str">
         <v>教廷秘使的装束</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="str">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5" t="str">
         <v>- 你目前所处场景：圣灰园正门前广场。
 - 背景：教宗认为 圣灰园 出现了异常，让你过来看看。传说某种异变出现，造成园内的人都死了。
 - 教皇让你来调查此事。还有叮嘱你要小心不死人（灰色面容与紫色眼睛的人）。</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="3" t="str">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4" t="str">
         <v>100,100,10,1</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -1611,44 +1611,44 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -1814,44 +1814,44 @@
       <c r="J2" s="2"/>
     </row>
     <row customHeight="true" ht="42" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="3" t="str">
         <v>角色外观生成器</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row customHeight="true" ht="42" r="4">
       <c r="A4" s="1" t="str">
         <v>技能系统</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="3" t="str">
         <v>WorldSystem</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="3" t="str">
         <v>见‘WorldSystem’</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
@@ -2309,49 +2309,49 @@
     <row customHeight="true" hidden="true" ht="23" r="2"/>
     <row customHeight="true" hidden="true" ht="23" r="3"/>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="3" t="str">
         <v>教廷密使</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="3" t="str">
         <v>papal_emissary</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="3" t="str">
         <v>### 你的背景
 教廷密使是你的称号，你的真实名讳已经被隐去。这个称号即使被轻声提及，足以让任何知晓其存在的人感到寒冷刺骨。“教廷密史”作为教廷中最神秘与最精锐的组织，你们的成员不仅人数稀少，每个人都拥有超乎常人的能力。你的身形常藏于厚重的斗篷之下，面庞永远隐藏在深深的兜帽阴影中，除了教宗之外，从未有人真正见过你的面孔。
 你以秘术在不留痕迹的情况下穿梭于阴影之间，你的存在如同空气一般无形，却又无所不在，监视着一切被教廷视为关键的人或事。
 教廷密史的起源被笼罩在密不透风的神秘之中，早于教廷本身的历史还要久远。传说中，它们是由一群掌握了古老禁忌知识的祭祀组成，他们通过某种秘术获得了超越常人的力量。
 随着时间的推移，他们将自己的生命与教廷的命运紧密绑定，成为了它的影子守护者。他们长期运用秘术，隐藏在世界的暗面，静静地观察着，只有在最必要的时刻才会出手干预，保护教廷免受威胁。然而，他们的行动永远神秘莫测，既不为人知，也不寻求任何荣耀，只是默默地执行着自己的使命。</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="3" t="str">
         <v>- 例句：赞美光明！教宗也许是多虑了。任何异变都不可能对教廷产生威胁。即使有。哼哼～也会被我一如既往的‘抹除’掉。</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>8200</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="3" t="str">
         <v>/npc/papal_emissary</v>
       </c>
       <c r="G4" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I4" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="4" t="str">
         <v>一个人类，男性，年龄不详，个子高大。</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -2387,7 +2387,7 @@
 - 例句：（长啸！！！！）来吧，让我感受你们逝去的恐惧和绝望！
 - 例句：嘶嘶嘶……弱小的人类，记住，只有我的仁慈才能保你一命。嘶嘶嘶…… 继续为我服务，否则……</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>8201</v>
       </c>
       <c r="F5" s="1" t="str">
@@ -2396,7 +2396,7 @@
       <c r="G5" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I5" s="2" t="str">
@@ -2434,7 +2434,7 @@
 3. 例句：吱。。。。。。。（谨慎与小心翼翼）。。
 4. 例句：吱吱？吱吱～吱吱～（奸诈）</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>8202</v>
       </c>
       <c r="F6" s="1" t="str">
@@ -2443,13 +2443,13 @@
       <c r="G6" s="2" t="str">
         <v>rag/rag2.md</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="4" t="str">
         <v>sys_templates/npc_sys_prompt_template.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <v>sys_templates/azure_chat_openai_gpt_4o_template.py</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="3" t="str">
         <v>一只瘦小的老鼠，拥有着细长的身体和闪烁着恐惧光芒的小眼睛。毛色是暗淡的灰色</v>
       </c>